--- a/server/pattern/Pattern.xlsx
+++ b/server/pattern/Pattern.xlsx
@@ -443,9 +443,6 @@
     <t>Zeolitic</t>
   </si>
   <si>
-    <t xml:space="preserve">Breccia </t>
-  </si>
-  <si>
     <t>Tuff1</t>
   </si>
   <si>
@@ -663,6 +660,9 @@
   </si>
   <si>
     <t>Full Name</t>
+  </si>
+  <si>
+    <t>Breccia</t>
   </si>
 </sst>
 </file>
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,12 +1116,12 @@
         <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="3" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="4" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="5" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="6" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="7" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="8" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="10" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="11" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="12" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="13" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="14" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="15" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="16" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>14</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="18" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="19" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>18</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="21" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>19</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="22" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>20</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="23" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="24" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="25" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="29" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>27</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="30" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>28</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="31" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>29</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="32" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>30</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="33" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>31</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="34" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>32</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="35" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>33</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="36" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>34</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="37" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>35</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="38" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>36</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="39" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>37</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="40" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>38</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="41" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>39</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="42" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>40</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="43" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="44" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>42</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="45" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>43</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="46" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>44</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="48" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>46</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="50" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>47</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="51" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>48</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="54" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>51</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="55" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>52</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="56" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>53</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="57" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>54</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="58" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>55</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="59" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>56</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="60" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>57</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="61" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>58</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="62" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>59</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="63" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>60</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="64" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>61</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="65" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>62</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="66" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>63</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="67" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>64</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="68" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>65</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="69" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>66</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="70" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>67</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="71" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>68</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="72" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>69</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="73" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>70</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="74" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>71</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="76" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>73</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="79" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>76</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="81" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>78</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="82" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>79</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="83" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>80</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="84" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>81</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="87" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>84</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="116" spans="1:2" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>113</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="117" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>114</v>

--- a/server/pattern/Pattern.xlsx
+++ b/server/pattern/Pattern.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="270">
   <si>
     <t>Argillaceous or shaly dolostone or dolomite</t>
   </si>
@@ -663,6 +663,183 @@
   </si>
   <si>
     <t>Breccia</t>
+  </si>
+  <si>
+    <t>arrow_bas</t>
+  </si>
+  <si>
+    <t>arrow_haut</t>
+  </si>
+  <si>
+    <t>brick</t>
+  </si>
+  <si>
+    <t>brick_incl</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>croix</t>
+  </si>
+  <si>
+    <t>croisillon</t>
+  </si>
+  <si>
+    <t>damier</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Gravel_outline</t>
+  </si>
+  <si>
+    <t>letter_l</t>
+  </si>
+  <si>
+    <t>lozange</t>
+  </si>
+  <si>
+    <t>lozange_plein</t>
+  </si>
+  <si>
+    <t>Mud</t>
+  </si>
+  <si>
+    <t>no_motif</t>
+  </si>
+  <si>
+    <t>Opened_perforation</t>
+  </si>
+  <si>
+    <t>plus</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>point_gras</t>
+  </si>
+  <si>
+    <t>rond</t>
+  </si>
+  <si>
+    <t>roud_plein</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>square_plein</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>Stinger</t>
+  </si>
+  <si>
+    <t>trait_l</t>
+  </si>
+  <si>
+    <t>trait_rapproches</t>
+  </si>
+  <si>
+    <t>trait_s</t>
+  </si>
+  <si>
+    <t>triangle</t>
+  </si>
+  <si>
+    <t>triangle_plein</t>
+  </si>
+  <si>
+    <t>zebra_long</t>
+  </si>
+  <si>
+    <t>Arrow Bas</t>
+  </si>
+  <si>
+    <t>Arrow Haut</t>
+  </si>
+  <si>
+    <t>Brick Incl</t>
+  </si>
+  <si>
+    <t>Gravel Outline</t>
+  </si>
+  <si>
+    <t>Lozange Plein</t>
+  </si>
+  <si>
+    <t>No Motif</t>
+  </si>
+  <si>
+    <t>Opened Perforation</t>
+  </si>
+  <si>
+    <t>Point Gras</t>
+  </si>
+  <si>
+    <t>Roud Plein</t>
+  </si>
+  <si>
+    <t>Brick</t>
+  </si>
+  <si>
+    <t>Cerment</t>
+  </si>
+  <si>
+    <t>Croix</t>
+  </si>
+  <si>
+    <t>Croisillon</t>
+  </si>
+  <si>
+    <t>Damier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Letter </t>
+  </si>
+  <si>
+    <t>Lozange</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Roud</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>Squre Plein</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trait </t>
+  </si>
+  <si>
+    <t>Trait Rapproches</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>Triangle Plein</t>
+  </si>
+  <si>
+    <t>Zebra Long</t>
   </si>
 </sst>
 </file>
@@ -759,7 +936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -784,6 +961,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1099,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,6 +2235,254 @@
         <v>115</v>
       </c>
     </row>
+    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/server/pattern/Pattern.xlsx
+++ b/server/pattern/Pattern.xlsx
@@ -725,9 +725,6 @@
     <t>rond</t>
   </si>
   <si>
-    <t>roud_plein</t>
-  </si>
-  <si>
     <t>square</t>
   </si>
   <si>
@@ -840,6 +837,9 @@
   </si>
   <si>
     <t>Zebra Long</t>
+  </si>
+  <si>
+    <t>rond_plein</t>
   </si>
 </sst>
 </file>
@@ -1281,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2240,7 +2240,7 @@
         <v>211</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2248,7 +2248,7 @@
         <v>212</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>213</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
         <v>214</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>215</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
         <v>216</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2288,7 +2288,7 @@
         <v>217</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>218</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2312,7 +2312,7 @@
         <v>220</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2320,7 +2320,7 @@
         <v>221</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2328,7 +2328,7 @@
         <v>222</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2336,7 +2336,7 @@
         <v>223</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
         <v>225</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>226</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2368,7 +2368,7 @@
         <v>227</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2376,7 +2376,7 @@
         <v>228</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2384,7 +2384,7 @@
         <v>229</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2392,95 +2392,95 @@
         <v>230</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/server/pattern/Pattern.xlsx
+++ b/server/pattern/Pattern.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="282">
   <si>
     <t>Name</t>
   </si>
@@ -669,7 +669,7 @@
     <t>Brick Incl</t>
   </si>
   <si>
-    <t>Cement</t>
+    <t>Dolomite6</t>
   </si>
   <si>
     <t>croix</t>
@@ -738,10 +738,10 @@
     <t>Boehmite</t>
   </si>
   <si>
-    <t>square</t>
+    <t>square_plein</t>
   </si>
   <si>
-    <t>Square</t>
+    <t>Epsomite</t>
   </si>
   <si>
     <t>star</t>
@@ -789,6 +789,9 @@
     <t>General Metamorphic</t>
   </si>
   <si>
+    <t>Gravel2</t>
+  </si>
+  <si>
     <t>Hydrocarbon_flushed</t>
   </si>
   <si>
@@ -799,6 +802,9 @@
   </si>
   <si>
     <t>Hydrocarbon Residual</t>
+  </si>
+  <si>
+    <t>Marl1</t>
   </si>
   <si>
     <t>Shale_dispersed</t>
@@ -814,6 +820,9 @@
   </si>
   <si>
     <t>Ophiolites</t>
+  </si>
+  <si>
+    <t>Chert2</t>
   </si>
   <si>
     <t>Gas1</t>
@@ -832,6 +841,9 @@
   </si>
   <si>
     <t>Arkose</t>
+  </si>
+  <si>
+    <t>Cement</t>
   </si>
   <si>
     <t>DBOS Metamorphic</t>
@@ -853,7 +865,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -876,6 +888,11 @@
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
+      <name val="Arimo"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -887,7 +904,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border/>
     <border>
       <right style="medium">
@@ -927,11 +944,25 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -963,8 +994,14 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -975,7 +1012,7 @@
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4791,7 +4828,7 @@
       <c r="Y122" s="2"/>
     </row>
     <row r="123" ht="31.5" customHeight="1">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="11" t="s">
         <v>218</v>
       </c>
       <c r="B123" s="8" t="s">
@@ -4918,7 +4955,7 @@
       <c r="A127" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="12" t="s">
         <v>226</v>
       </c>
       <c r="C127" s="2"/>
@@ -5163,10 +5200,10 @@
       <c r="Y134" s="2"/>
     </row>
     <row r="135" ht="31.5" customHeight="1">
-      <c r="A135" s="7" t="s">
+      <c r="A135" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="11" t="s">
         <v>242</v>
       </c>
       <c r="C135" s="2"/>
@@ -5443,7 +5480,7 @@
     </row>
     <row r="144" ht="31.5" customHeight="1">
       <c r="A144" s="8" t="s">
-        <v>92</v>
+        <v>258</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>92</v>
@@ -5474,10 +5511,10 @@
     </row>
     <row r="145" ht="31.5" customHeight="1">
       <c r="A145" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -5505,10 +5542,10 @@
     </row>
     <row r="146" ht="31.5" customHeight="1">
       <c r="A146" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -5536,7 +5573,7 @@
     </row>
     <row r="147" ht="31.5" customHeight="1">
       <c r="A147" s="8" t="s">
-        <v>25</v>
+        <v>263</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>25</v>
@@ -5567,10 +5604,10 @@
     </row>
     <row r="148" ht="31.5" customHeight="1">
       <c r="A148" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -5598,10 +5635,10 @@
     </row>
     <row r="149" ht="31.5" customHeight="1">
       <c r="A149" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -5629,10 +5666,10 @@
     </row>
     <row r="150" ht="31.5" customHeight="1">
       <c r="A150" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -5660,7 +5697,7 @@
     </row>
     <row r="151" ht="31.5" customHeight="1">
       <c r="A151" s="8" t="s">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>83</v>
@@ -5691,7 +5728,7 @@
     </row>
     <row r="152" ht="31.5" customHeight="1">
       <c r="A152" s="8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>223</v>
@@ -5722,10 +5759,10 @@
     </row>
     <row r="153" ht="31.5" customHeight="1">
       <c r="A153" s="8" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -5753,10 +5790,10 @@
     </row>
     <row r="154" ht="31.5" customHeight="1">
       <c r="A154" s="8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -5784,10 +5821,10 @@
     </row>
     <row r="155" ht="31.5" customHeight="1">
       <c r="A155" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -5815,10 +5852,10 @@
     </row>
     <row r="156" ht="31.5" customHeight="1">
       <c r="A156" s="8" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -5845,11 +5882,11 @@
       <c r="Y156" s="2"/>
     </row>
     <row r="157" ht="31.5" customHeight="1">
-      <c r="A157" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>275</v>
+      <c r="A157" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>279</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -5876,11 +5913,11 @@
       <c r="Y157" s="2"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>277</v>
+      <c r="A158" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B158" s="16" t="s">
+        <v>281</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -5907,8 +5944,8 @@
       <c r="Y158" s="2"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="15"/>
-      <c r="B159" s="16"/>
+      <c r="A159" s="17"/>
+      <c r="B159" s="18"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -5934,8 +5971,8 @@
       <c r="Y159" s="2"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="15"/>
-      <c r="B160" s="16"/>
+      <c r="A160" s="17"/>
+      <c r="B160" s="18"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -5961,8 +5998,8 @@
       <c r="Y160" s="2"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="15"/>
-      <c r="B161" s="16"/>
+      <c r="A161" s="17"/>
+      <c r="B161" s="18"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -5988,8 +6025,8 @@
       <c r="Y161" s="2"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="15"/>
-      <c r="B162" s="16"/>
+      <c r="A162" s="17"/>
+      <c r="B162" s="18"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -6015,8 +6052,8 @@
       <c r="Y162" s="2"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="15"/>
-      <c r="B163" s="16"/>
+      <c r="A163" s="17"/>
+      <c r="B163" s="18"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -6042,8 +6079,8 @@
       <c r="Y163" s="2"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="15"/>
-      <c r="B164" s="16"/>
+      <c r="A164" s="17"/>
+      <c r="B164" s="18"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -6069,8 +6106,8 @@
       <c r="Y164" s="2"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="15"/>
-      <c r="B165" s="16"/>
+      <c r="A165" s="17"/>
+      <c r="B165" s="18"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -6096,8 +6133,8 @@
       <c r="Y165" s="2"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="15"/>
-      <c r="B166" s="16"/>
+      <c r="A166" s="17"/>
+      <c r="B166" s="18"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -6123,8 +6160,8 @@
       <c r="Y166" s="2"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="15"/>
-      <c r="B167" s="16"/>
+      <c r="A167" s="17"/>
+      <c r="B167" s="18"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -6150,8 +6187,8 @@
       <c r="Y167" s="2"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="15"/>
-      <c r="B168" s="16"/>
+      <c r="A168" s="17"/>
+      <c r="B168" s="18"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -6177,8 +6214,8 @@
       <c r="Y168" s="2"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="15"/>
-      <c r="B169" s="16"/>
+      <c r="A169" s="17"/>
+      <c r="B169" s="18"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -6204,8 +6241,8 @@
       <c r="Y169" s="2"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="15"/>
-      <c r="B170" s="16"/>
+      <c r="A170" s="17"/>
+      <c r="B170" s="18"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -6231,8 +6268,8 @@
       <c r="Y170" s="2"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="15"/>
-      <c r="B171" s="16"/>
+      <c r="A171" s="17"/>
+      <c r="B171" s="18"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6258,8 +6295,8 @@
       <c r="Y171" s="2"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="15"/>
-      <c r="B172" s="16"/>
+      <c r="A172" s="17"/>
+      <c r="B172" s="18"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6285,8 +6322,8 @@
       <c r="Y172" s="2"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="15"/>
-      <c r="B173" s="16"/>
+      <c r="A173" s="17"/>
+      <c r="B173" s="18"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -6312,8 +6349,8 @@
       <c r="Y173" s="2"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="15"/>
-      <c r="B174" s="16"/>
+      <c r="A174" s="17"/>
+      <c r="B174" s="18"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -6339,8 +6376,8 @@
       <c r="Y174" s="2"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="15"/>
-      <c r="B175" s="16"/>
+      <c r="A175" s="17"/>
+      <c r="B175" s="18"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -6366,8 +6403,8 @@
       <c r="Y175" s="2"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="15"/>
-      <c r="B176" s="16"/>
+      <c r="A176" s="17"/>
+      <c r="B176" s="18"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -6393,8 +6430,8 @@
       <c r="Y176" s="2"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="15"/>
-      <c r="B177" s="16"/>
+      <c r="A177" s="17"/>
+      <c r="B177" s="18"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -6420,8 +6457,8 @@
       <c r="Y177" s="2"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="15"/>
-      <c r="B178" s="16"/>
+      <c r="A178" s="17"/>
+      <c r="B178" s="18"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -6447,8 +6484,8 @@
       <c r="Y178" s="2"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="15"/>
-      <c r="B179" s="16"/>
+      <c r="A179" s="17"/>
+      <c r="B179" s="18"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -6474,8 +6511,8 @@
       <c r="Y179" s="2"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="15"/>
-      <c r="B180" s="16"/>
+      <c r="A180" s="17"/>
+      <c r="B180" s="18"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -6501,8 +6538,8 @@
       <c r="Y180" s="2"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="15"/>
-      <c r="B181" s="16"/>
+      <c r="A181" s="17"/>
+      <c r="B181" s="18"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -6528,8 +6565,8 @@
       <c r="Y181" s="2"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="15"/>
-      <c r="B182" s="16"/>
+      <c r="A182" s="17"/>
+      <c r="B182" s="18"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -6555,8 +6592,8 @@
       <c r="Y182" s="2"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="15"/>
-      <c r="B183" s="16"/>
+      <c r="A183" s="17"/>
+      <c r="B183" s="18"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -6582,8 +6619,8 @@
       <c r="Y183" s="2"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="15"/>
-      <c r="B184" s="16"/>
+      <c r="A184" s="17"/>
+      <c r="B184" s="18"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -6609,8 +6646,8 @@
       <c r="Y184" s="2"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="15"/>
-      <c r="B185" s="16"/>
+      <c r="A185" s="17"/>
+      <c r="B185" s="18"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -6636,8 +6673,8 @@
       <c r="Y185" s="2"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="15"/>
-      <c r="B186" s="16"/>
+      <c r="A186" s="17"/>
+      <c r="B186" s="18"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -6663,8 +6700,8 @@
       <c r="Y186" s="2"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="15"/>
-      <c r="B187" s="16"/>
+      <c r="A187" s="17"/>
+      <c r="B187" s="18"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -6690,8 +6727,8 @@
       <c r="Y187" s="2"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="15"/>
-      <c r="B188" s="16"/>
+      <c r="A188" s="17"/>
+      <c r="B188" s="18"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -6717,8 +6754,8 @@
       <c r="Y188" s="2"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="15"/>
-      <c r="B189" s="16"/>
+      <c r="A189" s="17"/>
+      <c r="B189" s="18"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -6744,8 +6781,8 @@
       <c r="Y189" s="2"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="15"/>
-      <c r="B190" s="16"/>
+      <c r="A190" s="17"/>
+      <c r="B190" s="18"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -6771,8 +6808,8 @@
       <c r="Y190" s="2"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="15"/>
-      <c r="B191" s="16"/>
+      <c r="A191" s="17"/>
+      <c r="B191" s="18"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -6798,8 +6835,8 @@
       <c r="Y191" s="2"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="15"/>
-      <c r="B192" s="16"/>
+      <c r="A192" s="17"/>
+      <c r="B192" s="18"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -6825,8 +6862,8 @@
       <c r="Y192" s="2"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="15"/>
-      <c r="B193" s="16"/>
+      <c r="A193" s="17"/>
+      <c r="B193" s="18"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -6852,8 +6889,8 @@
       <c r="Y193" s="2"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="15"/>
-      <c r="B194" s="16"/>
+      <c r="A194" s="17"/>
+      <c r="B194" s="18"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -6879,8 +6916,8 @@
       <c r="Y194" s="2"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="15"/>
-      <c r="B195" s="16"/>
+      <c r="A195" s="17"/>
+      <c r="B195" s="18"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -6906,8 +6943,8 @@
       <c r="Y195" s="2"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="15"/>
-      <c r="B196" s="16"/>
+      <c r="A196" s="17"/>
+      <c r="B196" s="18"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -6933,8 +6970,8 @@
       <c r="Y196" s="2"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="15"/>
-      <c r="B197" s="16"/>
+      <c r="A197" s="17"/>
+      <c r="B197" s="18"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -6960,8 +6997,8 @@
       <c r="Y197" s="2"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="15"/>
-      <c r="B198" s="16"/>
+      <c r="A198" s="17"/>
+      <c r="B198" s="18"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -6987,8 +7024,8 @@
       <c r="Y198" s="2"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="15"/>
-      <c r="B199" s="16"/>
+      <c r="A199" s="17"/>
+      <c r="B199" s="18"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -7014,8 +7051,8 @@
       <c r="Y199" s="2"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="15"/>
-      <c r="B200" s="16"/>
+      <c r="A200" s="17"/>
+      <c r="B200" s="18"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -7041,8 +7078,8 @@
       <c r="Y200" s="2"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="15"/>
-      <c r="B201" s="16"/>
+      <c r="A201" s="17"/>
+      <c r="B201" s="18"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -7068,8 +7105,8 @@
       <c r="Y201" s="2"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="15"/>
-      <c r="B202" s="16"/>
+      <c r="A202" s="17"/>
+      <c r="B202" s="18"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -7095,8 +7132,8 @@
       <c r="Y202" s="2"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="15"/>
-      <c r="B203" s="16"/>
+      <c r="A203" s="17"/>
+      <c r="B203" s="18"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -7122,8 +7159,8 @@
       <c r="Y203" s="2"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="15"/>
-      <c r="B204" s="16"/>
+      <c r="A204" s="17"/>
+      <c r="B204" s="18"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -7149,8 +7186,8 @@
       <c r="Y204" s="2"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="15"/>
-      <c r="B205" s="16"/>
+      <c r="A205" s="17"/>
+      <c r="B205" s="18"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -7176,8 +7213,8 @@
       <c r="Y205" s="2"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="15"/>
-      <c r="B206" s="16"/>
+      <c r="A206" s="17"/>
+      <c r="B206" s="18"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -7203,8 +7240,8 @@
       <c r="Y206" s="2"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="15"/>
-      <c r="B207" s="16"/>
+      <c r="A207" s="17"/>
+      <c r="B207" s="18"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -7230,8 +7267,8 @@
       <c r="Y207" s="2"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="15"/>
-      <c r="B208" s="16"/>
+      <c r="A208" s="17"/>
+      <c r="B208" s="18"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -7257,8 +7294,8 @@
       <c r="Y208" s="2"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="15"/>
-      <c r="B209" s="16"/>
+      <c r="A209" s="17"/>
+      <c r="B209" s="18"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -7284,8 +7321,8 @@
       <c r="Y209" s="2"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="15"/>
-      <c r="B210" s="16"/>
+      <c r="A210" s="17"/>
+      <c r="B210" s="18"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -7311,8 +7348,8 @@
       <c r="Y210" s="2"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="15"/>
-      <c r="B211" s="16"/>
+      <c r="A211" s="17"/>
+      <c r="B211" s="18"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -7338,8 +7375,8 @@
       <c r="Y211" s="2"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="15"/>
-      <c r="B212" s="16"/>
+      <c r="A212" s="17"/>
+      <c r="B212" s="18"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -7365,8 +7402,8 @@
       <c r="Y212" s="2"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="15"/>
-      <c r="B213" s="16"/>
+      <c r="A213" s="17"/>
+      <c r="B213" s="18"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -7392,8 +7429,8 @@
       <c r="Y213" s="2"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="15"/>
-      <c r="B214" s="16"/>
+      <c r="A214" s="17"/>
+      <c r="B214" s="18"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -7419,8 +7456,8 @@
       <c r="Y214" s="2"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="15"/>
-      <c r="B215" s="16"/>
+      <c r="A215" s="17"/>
+      <c r="B215" s="18"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -7446,8 +7483,8 @@
       <c r="Y215" s="2"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="15"/>
-      <c r="B216" s="16"/>
+      <c r="A216" s="17"/>
+      <c r="B216" s="18"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -7473,8 +7510,8 @@
       <c r="Y216" s="2"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="15"/>
-      <c r="B217" s="16"/>
+      <c r="A217" s="17"/>
+      <c r="B217" s="18"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -7500,8 +7537,8 @@
       <c r="Y217" s="2"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="15"/>
-      <c r="B218" s="16"/>
+      <c r="A218" s="17"/>
+      <c r="B218" s="18"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -7527,8 +7564,8 @@
       <c r="Y218" s="2"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="15"/>
-      <c r="B219" s="16"/>
+      <c r="A219" s="17"/>
+      <c r="B219" s="18"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -7554,8 +7591,8 @@
       <c r="Y219" s="2"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="15"/>
-      <c r="B220" s="16"/>
+      <c r="A220" s="17"/>
+      <c r="B220" s="18"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -7581,8 +7618,8 @@
       <c r="Y220" s="2"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="15"/>
-      <c r="B221" s="16"/>
+      <c r="A221" s="17"/>
+      <c r="B221" s="18"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -7608,8 +7645,8 @@
       <c r="Y221" s="2"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="15"/>
-      <c r="B222" s="16"/>
+      <c r="A222" s="17"/>
+      <c r="B222" s="18"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -7635,8 +7672,8 @@
       <c r="Y222" s="2"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="15"/>
-      <c r="B223" s="16"/>
+      <c r="A223" s="17"/>
+      <c r="B223" s="18"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -7662,8 +7699,8 @@
       <c r="Y223" s="2"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="15"/>
-      <c r="B224" s="16"/>
+      <c r="A224" s="17"/>
+      <c r="B224" s="18"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -7689,8 +7726,8 @@
       <c r="Y224" s="2"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="15"/>
-      <c r="B225" s="16"/>
+      <c r="A225" s="17"/>
+      <c r="B225" s="18"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -7716,8 +7753,8 @@
       <c r="Y225" s="2"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="15"/>
-      <c r="B226" s="16"/>
+      <c r="A226" s="17"/>
+      <c r="B226" s="18"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -7743,8 +7780,8 @@
       <c r="Y226" s="2"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="15"/>
-      <c r="B227" s="16"/>
+      <c r="A227" s="17"/>
+      <c r="B227" s="18"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -7770,8 +7807,8 @@
       <c r="Y227" s="2"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="15"/>
-      <c r="B228" s="16"/>
+      <c r="A228" s="17"/>
+      <c r="B228" s="18"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -7797,8 +7834,8 @@
       <c r="Y228" s="2"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="15"/>
-      <c r="B229" s="16"/>
+      <c r="A229" s="17"/>
+      <c r="B229" s="18"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -7824,8 +7861,8 @@
       <c r="Y229" s="2"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="15"/>
-      <c r="B230" s="16"/>
+      <c r="A230" s="17"/>
+      <c r="B230" s="18"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -7851,8 +7888,8 @@
       <c r="Y230" s="2"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="15"/>
-      <c r="B231" s="16"/>
+      <c r="A231" s="17"/>
+      <c r="B231" s="18"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -7878,8 +7915,8 @@
       <c r="Y231" s="2"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="15"/>
-      <c r="B232" s="16"/>
+      <c r="A232" s="17"/>
+      <c r="B232" s="18"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -7905,8 +7942,8 @@
       <c r="Y232" s="2"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="15"/>
-      <c r="B233" s="16"/>
+      <c r="A233" s="17"/>
+      <c r="B233" s="18"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -7932,8 +7969,8 @@
       <c r="Y233" s="2"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="15"/>
-      <c r="B234" s="16"/>
+      <c r="A234" s="17"/>
+      <c r="B234" s="18"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -7959,8 +7996,8 @@
       <c r="Y234" s="2"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="15"/>
-      <c r="B235" s="16"/>
+      <c r="A235" s="17"/>
+      <c r="B235" s="18"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -7986,8 +8023,8 @@
       <c r="Y235" s="2"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="15"/>
-      <c r="B236" s="16"/>
+      <c r="A236" s="17"/>
+      <c r="B236" s="18"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -8013,8 +8050,8 @@
       <c r="Y236" s="2"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="15"/>
-      <c r="B237" s="16"/>
+      <c r="A237" s="17"/>
+      <c r="B237" s="18"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -8040,8 +8077,8 @@
       <c r="Y237" s="2"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="15"/>
-      <c r="B238" s="16"/>
+      <c r="A238" s="17"/>
+      <c r="B238" s="18"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -8067,8 +8104,8 @@
       <c r="Y238" s="2"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="15"/>
-      <c r="B239" s="16"/>
+      <c r="A239" s="17"/>
+      <c r="B239" s="18"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -8094,8 +8131,8 @@
       <c r="Y239" s="2"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="15"/>
-      <c r="B240" s="16"/>
+      <c r="A240" s="17"/>
+      <c r="B240" s="18"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -8121,8 +8158,8 @@
       <c r="Y240" s="2"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="15"/>
-      <c r="B241" s="16"/>
+      <c r="A241" s="17"/>
+      <c r="B241" s="18"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -8148,8 +8185,8 @@
       <c r="Y241" s="2"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="15"/>
-      <c r="B242" s="16"/>
+      <c r="A242" s="17"/>
+      <c r="B242" s="18"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -8175,8 +8212,8 @@
       <c r="Y242" s="2"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="15"/>
-      <c r="B243" s="16"/>
+      <c r="A243" s="17"/>
+      <c r="B243" s="18"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -8202,8 +8239,8 @@
       <c r="Y243" s="2"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="15"/>
-      <c r="B244" s="16"/>
+      <c r="A244" s="17"/>
+      <c r="B244" s="18"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -8229,8 +8266,8 @@
       <c r="Y244" s="2"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="15"/>
-      <c r="B245" s="16"/>
+      <c r="A245" s="17"/>
+      <c r="B245" s="18"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -8256,8 +8293,8 @@
       <c r="Y245" s="2"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="15"/>
-      <c r="B246" s="16"/>
+      <c r="A246" s="17"/>
+      <c r="B246" s="18"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -8283,8 +8320,8 @@
       <c r="Y246" s="2"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="15"/>
-      <c r="B247" s="16"/>
+      <c r="A247" s="17"/>
+      <c r="B247" s="18"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -8310,8 +8347,8 @@
       <c r="Y247" s="2"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="15"/>
-      <c r="B248" s="16"/>
+      <c r="A248" s="17"/>
+      <c r="B248" s="18"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -8337,8 +8374,8 @@
       <c r="Y248" s="2"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="15"/>
-      <c r="B249" s="16"/>
+      <c r="A249" s="17"/>
+      <c r="B249" s="18"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -8364,8 +8401,8 @@
       <c r="Y249" s="2"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="15"/>
-      <c r="B250" s="16"/>
+      <c r="A250" s="17"/>
+      <c r="B250" s="18"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -8391,8 +8428,8 @@
       <c r="Y250" s="2"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="15"/>
-      <c r="B251" s="16"/>
+      <c r="A251" s="17"/>
+      <c r="B251" s="18"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -8418,8 +8455,8 @@
       <c r="Y251" s="2"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="15"/>
-      <c r="B252" s="16"/>
+      <c r="A252" s="17"/>
+      <c r="B252" s="18"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -8445,8 +8482,8 @@
       <c r="Y252" s="2"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="15"/>
-      <c r="B253" s="16"/>
+      <c r="A253" s="17"/>
+      <c r="B253" s="18"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -8472,8 +8509,8 @@
       <c r="Y253" s="2"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="15"/>
-      <c r="B254" s="16"/>
+      <c r="A254" s="17"/>
+      <c r="B254" s="18"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -8499,8 +8536,8 @@
       <c r="Y254" s="2"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="15"/>
-      <c r="B255" s="16"/>
+      <c r="A255" s="17"/>
+      <c r="B255" s="18"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -8526,8 +8563,8 @@
       <c r="Y255" s="2"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="15"/>
-      <c r="B256" s="16"/>
+      <c r="A256" s="17"/>
+      <c r="B256" s="18"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -8553,8 +8590,8 @@
       <c r="Y256" s="2"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="15"/>
-      <c r="B257" s="16"/>
+      <c r="A257" s="17"/>
+      <c r="B257" s="18"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -8580,8 +8617,8 @@
       <c r="Y257" s="2"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="15"/>
-      <c r="B258" s="16"/>
+      <c r="A258" s="17"/>
+      <c r="B258" s="18"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -8607,8 +8644,8 @@
       <c r="Y258" s="2"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="15"/>
-      <c r="B259" s="16"/>
+      <c r="A259" s="17"/>
+      <c r="B259" s="18"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -8634,8 +8671,8 @@
       <c r="Y259" s="2"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="15"/>
-      <c r="B260" s="16"/>
+      <c r="A260" s="17"/>
+      <c r="B260" s="18"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -8661,8 +8698,8 @@
       <c r="Y260" s="2"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="15"/>
-      <c r="B261" s="16"/>
+      <c r="A261" s="17"/>
+      <c r="B261" s="18"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -8688,8 +8725,8 @@
       <c r="Y261" s="2"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="15"/>
-      <c r="B262" s="16"/>
+      <c r="A262" s="17"/>
+      <c r="B262" s="18"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -8715,8 +8752,8 @@
       <c r="Y262" s="2"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="15"/>
-      <c r="B263" s="16"/>
+      <c r="A263" s="17"/>
+      <c r="B263" s="18"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -8742,8 +8779,8 @@
       <c r="Y263" s="2"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="15"/>
-      <c r="B264" s="16"/>
+      <c r="A264" s="17"/>
+      <c r="B264" s="18"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -8769,8 +8806,8 @@
       <c r="Y264" s="2"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="15"/>
-      <c r="B265" s="16"/>
+      <c r="A265" s="17"/>
+      <c r="B265" s="18"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -8796,8 +8833,8 @@
       <c r="Y265" s="2"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="15"/>
-      <c r="B266" s="16"/>
+      <c r="A266" s="17"/>
+      <c r="B266" s="18"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -8823,8 +8860,8 @@
       <c r="Y266" s="2"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="15"/>
-      <c r="B267" s="16"/>
+      <c r="A267" s="17"/>
+      <c r="B267" s="18"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -8850,8 +8887,8 @@
       <c r="Y267" s="2"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="15"/>
-      <c r="B268" s="16"/>
+      <c r="A268" s="17"/>
+      <c r="B268" s="18"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -8877,8 +8914,8 @@
       <c r="Y268" s="2"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="15"/>
-      <c r="B269" s="16"/>
+      <c r="A269" s="17"/>
+      <c r="B269" s="18"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -8904,8 +8941,8 @@
       <c r="Y269" s="2"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="15"/>
-      <c r="B270" s="16"/>
+      <c r="A270" s="17"/>
+      <c r="B270" s="18"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -8931,8 +8968,8 @@
       <c r="Y270" s="2"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="15"/>
-      <c r="B271" s="16"/>
+      <c r="A271" s="17"/>
+      <c r="B271" s="18"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -8958,8 +8995,8 @@
       <c r="Y271" s="2"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="15"/>
-      <c r="B272" s="16"/>
+      <c r="A272" s="17"/>
+      <c r="B272" s="18"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -8985,8 +9022,8 @@
       <c r="Y272" s="2"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="15"/>
-      <c r="B273" s="16"/>
+      <c r="A273" s="17"/>
+      <c r="B273" s="18"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -9012,8 +9049,8 @@
       <c r="Y273" s="2"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="15"/>
-      <c r="B274" s="16"/>
+      <c r="A274" s="17"/>
+      <c r="B274" s="18"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -9039,8 +9076,8 @@
       <c r="Y274" s="2"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="15"/>
-      <c r="B275" s="16"/>
+      <c r="A275" s="17"/>
+      <c r="B275" s="18"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -9066,8 +9103,8 @@
       <c r="Y275" s="2"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="15"/>
-      <c r="B276" s="16"/>
+      <c r="A276" s="17"/>
+      <c r="B276" s="18"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -9093,8 +9130,8 @@
       <c r="Y276" s="2"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="15"/>
-      <c r="B277" s="16"/>
+      <c r="A277" s="17"/>
+      <c r="B277" s="18"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -9120,8 +9157,8 @@
       <c r="Y277" s="2"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="15"/>
-      <c r="B278" s="16"/>
+      <c r="A278" s="17"/>
+      <c r="B278" s="18"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -9147,8 +9184,8 @@
       <c r="Y278" s="2"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="15"/>
-      <c r="B279" s="16"/>
+      <c r="A279" s="17"/>
+      <c r="B279" s="18"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -9174,8 +9211,8 @@
       <c r="Y279" s="2"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="15"/>
-      <c r="B280" s="16"/>
+      <c r="A280" s="17"/>
+      <c r="B280" s="18"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -9201,8 +9238,8 @@
       <c r="Y280" s="2"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="15"/>
-      <c r="B281" s="16"/>
+      <c r="A281" s="17"/>
+      <c r="B281" s="18"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -9228,8 +9265,8 @@
       <c r="Y281" s="2"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="15"/>
-      <c r="B282" s="16"/>
+      <c r="A282" s="17"/>
+      <c r="B282" s="18"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -9255,8 +9292,8 @@
       <c r="Y282" s="2"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="15"/>
-      <c r="B283" s="16"/>
+      <c r="A283" s="17"/>
+      <c r="B283" s="18"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -9282,8 +9319,8 @@
       <c r="Y283" s="2"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="15"/>
-      <c r="B284" s="16"/>
+      <c r="A284" s="17"/>
+      <c r="B284" s="18"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -9309,8 +9346,8 @@
       <c r="Y284" s="2"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="15"/>
-      <c r="B285" s="16"/>
+      <c r="A285" s="17"/>
+      <c r="B285" s="18"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -9336,8 +9373,8 @@
       <c r="Y285" s="2"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="15"/>
-      <c r="B286" s="16"/>
+      <c r="A286" s="17"/>
+      <c r="B286" s="18"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -9363,8 +9400,8 @@
       <c r="Y286" s="2"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="15"/>
-      <c r="B287" s="16"/>
+      <c r="A287" s="17"/>
+      <c r="B287" s="18"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -9390,8 +9427,8 @@
       <c r="Y287" s="2"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="15"/>
-      <c r="B288" s="16"/>
+      <c r="A288" s="17"/>
+      <c r="B288" s="18"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -9417,8 +9454,8 @@
       <c r="Y288" s="2"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="15"/>
-      <c r="B289" s="16"/>
+      <c r="A289" s="17"/>
+      <c r="B289" s="18"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -9444,8 +9481,8 @@
       <c r="Y289" s="2"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="15"/>
-      <c r="B290" s="16"/>
+      <c r="A290" s="17"/>
+      <c r="B290" s="18"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -9471,8 +9508,8 @@
       <c r="Y290" s="2"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="15"/>
-      <c r="B291" s="16"/>
+      <c r="A291" s="17"/>
+      <c r="B291" s="18"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -9498,8 +9535,8 @@
       <c r="Y291" s="2"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="15"/>
-      <c r="B292" s="16"/>
+      <c r="A292" s="17"/>
+      <c r="B292" s="18"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -9525,8 +9562,8 @@
       <c r="Y292" s="2"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="15"/>
-      <c r="B293" s="16"/>
+      <c r="A293" s="17"/>
+      <c r="B293" s="18"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -9552,8 +9589,8 @@
       <c r="Y293" s="2"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="15"/>
-      <c r="B294" s="16"/>
+      <c r="A294" s="17"/>
+      <c r="B294" s="18"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -9579,8 +9616,8 @@
       <c r="Y294" s="2"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="15"/>
-      <c r="B295" s="16"/>
+      <c r="A295" s="17"/>
+      <c r="B295" s="18"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -9606,8 +9643,8 @@
       <c r="Y295" s="2"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="15"/>
-      <c r="B296" s="16"/>
+      <c r="A296" s="17"/>
+      <c r="B296" s="18"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -9633,8 +9670,8 @@
       <c r="Y296" s="2"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="15"/>
-      <c r="B297" s="16"/>
+      <c r="A297" s="17"/>
+      <c r="B297" s="18"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -9660,8 +9697,8 @@
       <c r="Y297" s="2"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="15"/>
-      <c r="B298" s="16"/>
+      <c r="A298" s="17"/>
+      <c r="B298" s="18"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -9687,8 +9724,8 @@
       <c r="Y298" s="2"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="15"/>
-      <c r="B299" s="16"/>
+      <c r="A299" s="17"/>
+      <c r="B299" s="18"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -9714,8 +9751,8 @@
       <c r="Y299" s="2"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="15"/>
-      <c r="B300" s="16"/>
+      <c r="A300" s="17"/>
+      <c r="B300" s="18"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -9741,8 +9778,8 @@
       <c r="Y300" s="2"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="15"/>
-      <c r="B301" s="16"/>
+      <c r="A301" s="17"/>
+      <c r="B301" s="18"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -9768,8 +9805,8 @@
       <c r="Y301" s="2"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="15"/>
-      <c r="B302" s="16"/>
+      <c r="A302" s="17"/>
+      <c r="B302" s="18"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -9795,8 +9832,8 @@
       <c r="Y302" s="2"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="15"/>
-      <c r="B303" s="16"/>
+      <c r="A303" s="17"/>
+      <c r="B303" s="18"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -9822,8 +9859,8 @@
       <c r="Y303" s="2"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="15"/>
-      <c r="B304" s="16"/>
+      <c r="A304" s="17"/>
+      <c r="B304" s="18"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -9849,8 +9886,8 @@
       <c r="Y304" s="2"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="15"/>
-      <c r="B305" s="16"/>
+      <c r="A305" s="17"/>
+      <c r="B305" s="18"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -9876,8 +9913,8 @@
       <c r="Y305" s="2"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="15"/>
-      <c r="B306" s="16"/>
+      <c r="A306" s="17"/>
+      <c r="B306" s="18"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -9903,8 +9940,8 @@
       <c r="Y306" s="2"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="15"/>
-      <c r="B307" s="16"/>
+      <c r="A307" s="17"/>
+      <c r="B307" s="18"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -9930,8 +9967,8 @@
       <c r="Y307" s="2"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="15"/>
-      <c r="B308" s="16"/>
+      <c r="A308" s="17"/>
+      <c r="B308" s="18"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -9957,8 +9994,8 @@
       <c r="Y308" s="2"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="15"/>
-      <c r="B309" s="16"/>
+      <c r="A309" s="17"/>
+      <c r="B309" s="18"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -9984,8 +10021,8 @@
       <c r="Y309" s="2"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="15"/>
-      <c r="B310" s="16"/>
+      <c r="A310" s="17"/>
+      <c r="B310" s="18"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -10011,8 +10048,8 @@
       <c r="Y310" s="2"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="15"/>
-      <c r="B311" s="16"/>
+      <c r="A311" s="17"/>
+      <c r="B311" s="18"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -10038,8 +10075,8 @@
       <c r="Y311" s="2"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="15"/>
-      <c r="B312" s="16"/>
+      <c r="A312" s="17"/>
+      <c r="B312" s="18"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -10065,8 +10102,8 @@
       <c r="Y312" s="2"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="15"/>
-      <c r="B313" s="16"/>
+      <c r="A313" s="17"/>
+      <c r="B313" s="18"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -10092,8 +10129,8 @@
       <c r="Y313" s="2"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="15"/>
-      <c r="B314" s="16"/>
+      <c r="A314" s="17"/>
+      <c r="B314" s="18"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -10119,8 +10156,8 @@
       <c r="Y314" s="2"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="15"/>
-      <c r="B315" s="16"/>
+      <c r="A315" s="17"/>
+      <c r="B315" s="18"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -10146,8 +10183,8 @@
       <c r="Y315" s="2"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="15"/>
-      <c r="B316" s="16"/>
+      <c r="A316" s="17"/>
+      <c r="B316" s="18"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -10173,8 +10210,8 @@
       <c r="Y316" s="2"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="15"/>
-      <c r="B317" s="16"/>
+      <c r="A317" s="17"/>
+      <c r="B317" s="18"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -10200,8 +10237,8 @@
       <c r="Y317" s="2"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="15"/>
-      <c r="B318" s="16"/>
+      <c r="A318" s="17"/>
+      <c r="B318" s="18"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -10227,8 +10264,8 @@
       <c r="Y318" s="2"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="15"/>
-      <c r="B319" s="16"/>
+      <c r="A319" s="17"/>
+      <c r="B319" s="18"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -10254,8 +10291,8 @@
       <c r="Y319" s="2"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="15"/>
-      <c r="B320" s="16"/>
+      <c r="A320" s="17"/>
+      <c r="B320" s="18"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -10281,8 +10318,8 @@
       <c r="Y320" s="2"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="15"/>
-      <c r="B321" s="16"/>
+      <c r="A321" s="17"/>
+      <c r="B321" s="18"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -10308,8 +10345,8 @@
       <c r="Y321" s="2"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="15"/>
-      <c r="B322" s="16"/>
+      <c r="A322" s="17"/>
+      <c r="B322" s="18"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -10335,8 +10372,8 @@
       <c r="Y322" s="2"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="15"/>
-      <c r="B323" s="16"/>
+      <c r="A323" s="17"/>
+      <c r="B323" s="18"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -10362,8 +10399,8 @@
       <c r="Y323" s="2"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="15"/>
-      <c r="B324" s="16"/>
+      <c r="A324" s="17"/>
+      <c r="B324" s="18"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -10389,8 +10426,8 @@
       <c r="Y324" s="2"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="15"/>
-      <c r="B325" s="16"/>
+      <c r="A325" s="17"/>
+      <c r="B325" s="18"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -10416,8 +10453,8 @@
       <c r="Y325" s="2"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="15"/>
-      <c r="B326" s="16"/>
+      <c r="A326" s="17"/>
+      <c r="B326" s="18"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -10443,8 +10480,8 @@
       <c r="Y326" s="2"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="15"/>
-      <c r="B327" s="16"/>
+      <c r="A327" s="17"/>
+      <c r="B327" s="18"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -10470,8 +10507,8 @@
       <c r="Y327" s="2"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="15"/>
-      <c r="B328" s="16"/>
+      <c r="A328" s="17"/>
+      <c r="B328" s="18"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -10497,8 +10534,8 @@
       <c r="Y328" s="2"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="15"/>
-      <c r="B329" s="16"/>
+      <c r="A329" s="17"/>
+      <c r="B329" s="18"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -10524,8 +10561,8 @@
       <c r="Y329" s="2"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="15"/>
-      <c r="B330" s="16"/>
+      <c r="A330" s="17"/>
+      <c r="B330" s="18"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -10551,8 +10588,8 @@
       <c r="Y330" s="2"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="15"/>
-      <c r="B331" s="16"/>
+      <c r="A331" s="17"/>
+      <c r="B331" s="18"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -10578,8 +10615,8 @@
       <c r="Y331" s="2"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="15"/>
-      <c r="B332" s="16"/>
+      <c r="A332" s="17"/>
+      <c r="B332" s="18"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -10605,8 +10642,8 @@
       <c r="Y332" s="2"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="15"/>
-      <c r="B333" s="16"/>
+      <c r="A333" s="17"/>
+      <c r="B333" s="18"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -10632,8 +10669,8 @@
       <c r="Y333" s="2"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="15"/>
-      <c r="B334" s="16"/>
+      <c r="A334" s="17"/>
+      <c r="B334" s="18"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -10659,8 +10696,8 @@
       <c r="Y334" s="2"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="15"/>
-      <c r="B335" s="16"/>
+      <c r="A335" s="17"/>
+      <c r="B335" s="18"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -10686,8 +10723,8 @@
       <c r="Y335" s="2"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="15"/>
-      <c r="B336" s="16"/>
+      <c r="A336" s="17"/>
+      <c r="B336" s="18"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -10713,8 +10750,8 @@
       <c r="Y336" s="2"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="15"/>
-      <c r="B337" s="16"/>
+      <c r="A337" s="17"/>
+      <c r="B337" s="18"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -10740,8 +10777,8 @@
       <c r="Y337" s="2"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="15"/>
-      <c r="B338" s="16"/>
+      <c r="A338" s="17"/>
+      <c r="B338" s="18"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -10767,8 +10804,8 @@
       <c r="Y338" s="2"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="15"/>
-      <c r="B339" s="16"/>
+      <c r="A339" s="17"/>
+      <c r="B339" s="18"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -10794,8 +10831,8 @@
       <c r="Y339" s="2"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="15"/>
-      <c r="B340" s="16"/>
+      <c r="A340" s="17"/>
+      <c r="B340" s="18"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -10821,8 +10858,8 @@
       <c r="Y340" s="2"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="15"/>
-      <c r="B341" s="16"/>
+      <c r="A341" s="17"/>
+      <c r="B341" s="18"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -10848,8 +10885,8 @@
       <c r="Y341" s="2"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="15"/>
-      <c r="B342" s="16"/>
+      <c r="A342" s="17"/>
+      <c r="B342" s="18"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -10875,8 +10912,8 @@
       <c r="Y342" s="2"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="15"/>
-      <c r="B343" s="16"/>
+      <c r="A343" s="17"/>
+      <c r="B343" s="18"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -10902,8 +10939,8 @@
       <c r="Y343" s="2"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="15"/>
-      <c r="B344" s="16"/>
+      <c r="A344" s="17"/>
+      <c r="B344" s="18"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -10929,8 +10966,8 @@
       <c r="Y344" s="2"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="15"/>
-      <c r="B345" s="16"/>
+      <c r="A345" s="17"/>
+      <c r="B345" s="18"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -10956,8 +10993,8 @@
       <c r="Y345" s="2"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="15"/>
-      <c r="B346" s="16"/>
+      <c r="A346" s="17"/>
+      <c r="B346" s="18"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -10983,8 +11020,8 @@
       <c r="Y346" s="2"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="15"/>
-      <c r="B347" s="16"/>
+      <c r="A347" s="17"/>
+      <c r="B347" s="18"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -11010,8 +11047,8 @@
       <c r="Y347" s="2"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="15"/>
-      <c r="B348" s="16"/>
+      <c r="A348" s="17"/>
+      <c r="B348" s="18"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -11037,8 +11074,8 @@
       <c r="Y348" s="2"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="15"/>
-      <c r="B349" s="16"/>
+      <c r="A349" s="17"/>
+      <c r="B349" s="18"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -11064,8 +11101,8 @@
       <c r="Y349" s="2"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="15"/>
-      <c r="B350" s="16"/>
+      <c r="A350" s="17"/>
+      <c r="B350" s="18"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -11091,8 +11128,8 @@
       <c r="Y350" s="2"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="15"/>
-      <c r="B351" s="16"/>
+      <c r="A351" s="17"/>
+      <c r="B351" s="18"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -11118,8 +11155,8 @@
       <c r="Y351" s="2"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="15"/>
-      <c r="B352" s="16"/>
+      <c r="A352" s="17"/>
+      <c r="B352" s="18"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -11145,8 +11182,8 @@
       <c r="Y352" s="2"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="15"/>
-      <c r="B353" s="16"/>
+      <c r="A353" s="17"/>
+      <c r="B353" s="18"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -11172,8 +11209,8 @@
       <c r="Y353" s="2"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="15"/>
-      <c r="B354" s="16"/>
+      <c r="A354" s="17"/>
+      <c r="B354" s="18"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -11199,8 +11236,8 @@
       <c r="Y354" s="2"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="15"/>
-      <c r="B355" s="16"/>
+      <c r="A355" s="17"/>
+      <c r="B355" s="18"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -11226,8 +11263,8 @@
       <c r="Y355" s="2"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="15"/>
-      <c r="B356" s="16"/>
+      <c r="A356" s="17"/>
+      <c r="B356" s="18"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -11253,8 +11290,8 @@
       <c r="Y356" s="2"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="15"/>
-      <c r="B357" s="16"/>
+      <c r="A357" s="17"/>
+      <c r="B357" s="18"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -11280,8 +11317,8 @@
       <c r="Y357" s="2"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="15"/>
-      <c r="B358" s="16"/>
+      <c r="A358" s="17"/>
+      <c r="B358" s="18"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -11307,8 +11344,8 @@
       <c r="Y358" s="2"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="15"/>
-      <c r="B359" s="16"/>
+      <c r="A359" s="17"/>
+      <c r="B359" s="18"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -11334,8 +11371,8 @@
       <c r="Y359" s="2"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="15"/>
-      <c r="B360" s="16"/>
+      <c r="A360" s="17"/>
+      <c r="B360" s="18"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -11361,8 +11398,8 @@
       <c r="Y360" s="2"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="15"/>
-      <c r="B361" s="16"/>
+      <c r="A361" s="17"/>
+      <c r="B361" s="18"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -11388,8 +11425,8 @@
       <c r="Y361" s="2"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="15"/>
-      <c r="B362" s="16"/>
+      <c r="A362" s="17"/>
+      <c r="B362" s="18"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -11415,8 +11452,8 @@
       <c r="Y362" s="2"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="15"/>
-      <c r="B363" s="16"/>
+      <c r="A363" s="17"/>
+      <c r="B363" s="18"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -11442,8 +11479,8 @@
       <c r="Y363" s="2"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="15"/>
-      <c r="B364" s="16"/>
+      <c r="A364" s="17"/>
+      <c r="B364" s="18"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -11469,8 +11506,8 @@
       <c r="Y364" s="2"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="15"/>
-      <c r="B365" s="16"/>
+      <c r="A365" s="17"/>
+      <c r="B365" s="18"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -11496,8 +11533,8 @@
       <c r="Y365" s="2"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="15"/>
-      <c r="B366" s="16"/>
+      <c r="A366" s="17"/>
+      <c r="B366" s="18"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -11523,8 +11560,8 @@
       <c r="Y366" s="2"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="15"/>
-      <c r="B367" s="16"/>
+      <c r="A367" s="17"/>
+      <c r="B367" s="18"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -11550,8 +11587,8 @@
       <c r="Y367" s="2"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="15"/>
-      <c r="B368" s="16"/>
+      <c r="A368" s="17"/>
+      <c r="B368" s="18"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -11577,8 +11614,8 @@
       <c r="Y368" s="2"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="15"/>
-      <c r="B369" s="16"/>
+      <c r="A369" s="17"/>
+      <c r="B369" s="18"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -11604,8 +11641,8 @@
       <c r="Y369" s="2"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="15"/>
-      <c r="B370" s="16"/>
+      <c r="A370" s="17"/>
+      <c r="B370" s="18"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -11631,8 +11668,8 @@
       <c r="Y370" s="2"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="15"/>
-      <c r="B371" s="16"/>
+      <c r="A371" s="17"/>
+      <c r="B371" s="18"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -11658,8 +11695,8 @@
       <c r="Y371" s="2"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="15"/>
-      <c r="B372" s="16"/>
+      <c r="A372" s="17"/>
+      <c r="B372" s="18"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -11685,8 +11722,8 @@
       <c r="Y372" s="2"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="15"/>
-      <c r="B373" s="16"/>
+      <c r="A373" s="17"/>
+      <c r="B373" s="18"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -11712,8 +11749,8 @@
       <c r="Y373" s="2"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="15"/>
-      <c r="B374" s="16"/>
+      <c r="A374" s="17"/>
+      <c r="B374" s="18"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
@@ -11739,8 +11776,8 @@
       <c r="Y374" s="2"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="15"/>
-      <c r="B375" s="16"/>
+      <c r="A375" s="17"/>
+      <c r="B375" s="18"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
@@ -11766,8 +11803,8 @@
       <c r="Y375" s="2"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="15"/>
-      <c r="B376" s="16"/>
+      <c r="A376" s="17"/>
+      <c r="B376" s="18"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -11793,8 +11830,8 @@
       <c r="Y376" s="2"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="15"/>
-      <c r="B377" s="16"/>
+      <c r="A377" s="17"/>
+      <c r="B377" s="18"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -11820,8 +11857,8 @@
       <c r="Y377" s="2"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="15"/>
-      <c r="B378" s="16"/>
+      <c r="A378" s="17"/>
+      <c r="B378" s="18"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -11847,8 +11884,8 @@
       <c r="Y378" s="2"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="15"/>
-      <c r="B379" s="16"/>
+      <c r="A379" s="17"/>
+      <c r="B379" s="18"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -11874,8 +11911,8 @@
       <c r="Y379" s="2"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="15"/>
-      <c r="B380" s="16"/>
+      <c r="A380" s="17"/>
+      <c r="B380" s="18"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -11901,8 +11938,8 @@
       <c r="Y380" s="2"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="15"/>
-      <c r="B381" s="16"/>
+      <c r="A381" s="17"/>
+      <c r="B381" s="18"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -11928,8 +11965,8 @@
       <c r="Y381" s="2"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="15"/>
-      <c r="B382" s="16"/>
+      <c r="A382" s="17"/>
+      <c r="B382" s="18"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -11955,8 +11992,8 @@
       <c r="Y382" s="2"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="15"/>
-      <c r="B383" s="16"/>
+      <c r="A383" s="17"/>
+      <c r="B383" s="18"/>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -11982,8 +12019,8 @@
       <c r="Y383" s="2"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="15"/>
-      <c r="B384" s="16"/>
+      <c r="A384" s="17"/>
+      <c r="B384" s="18"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -12009,8 +12046,8 @@
       <c r="Y384" s="2"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="15"/>
-      <c r="B385" s="16"/>
+      <c r="A385" s="17"/>
+      <c r="B385" s="18"/>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -12036,8 +12073,8 @@
       <c r="Y385" s="2"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="15"/>
-      <c r="B386" s="16"/>
+      <c r="A386" s="17"/>
+      <c r="B386" s="18"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -12063,8 +12100,8 @@
       <c r="Y386" s="2"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="15"/>
-      <c r="B387" s="16"/>
+      <c r="A387" s="17"/>
+      <c r="B387" s="18"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -12090,8 +12127,8 @@
       <c r="Y387" s="2"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="15"/>
-      <c r="B388" s="16"/>
+      <c r="A388" s="17"/>
+      <c r="B388" s="18"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -12117,8 +12154,8 @@
       <c r="Y388" s="2"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="15"/>
-      <c r="B389" s="16"/>
+      <c r="A389" s="17"/>
+      <c r="B389" s="18"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -12144,8 +12181,8 @@
       <c r="Y389" s="2"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="15"/>
-      <c r="B390" s="16"/>
+      <c r="A390" s="17"/>
+      <c r="B390" s="18"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -12171,8 +12208,8 @@
       <c r="Y390" s="2"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="15"/>
-      <c r="B391" s="16"/>
+      <c r="A391" s="17"/>
+      <c r="B391" s="18"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -12198,8 +12235,8 @@
       <c r="Y391" s="2"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="15"/>
-      <c r="B392" s="16"/>
+      <c r="A392" s="17"/>
+      <c r="B392" s="18"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -12225,8 +12262,8 @@
       <c r="Y392" s="2"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="15"/>
-      <c r="B393" s="16"/>
+      <c r="A393" s="17"/>
+      <c r="B393" s="18"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -12252,8 +12289,8 @@
       <c r="Y393" s="2"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="15"/>
-      <c r="B394" s="16"/>
+      <c r="A394" s="17"/>
+      <c r="B394" s="18"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -12279,8 +12316,8 @@
       <c r="Y394" s="2"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="15"/>
-      <c r="B395" s="16"/>
+      <c r="A395" s="17"/>
+      <c r="B395" s="18"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -12306,8 +12343,8 @@
       <c r="Y395" s="2"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="15"/>
-      <c r="B396" s="16"/>
+      <c r="A396" s="17"/>
+      <c r="B396" s="18"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -12333,8 +12370,8 @@
       <c r="Y396" s="2"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="15"/>
-      <c r="B397" s="16"/>
+      <c r="A397" s="17"/>
+      <c r="B397" s="18"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -12360,8 +12397,8 @@
       <c r="Y397" s="2"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="15"/>
-      <c r="B398" s="16"/>
+      <c r="A398" s="17"/>
+      <c r="B398" s="18"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -12387,8 +12424,8 @@
       <c r="Y398" s="2"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="15"/>
-      <c r="B399" s="16"/>
+      <c r="A399" s="17"/>
+      <c r="B399" s="18"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -12414,8 +12451,8 @@
       <c r="Y399" s="2"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="15"/>
-      <c r="B400" s="16"/>
+      <c r="A400" s="17"/>
+      <c r="B400" s="18"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -12441,8 +12478,8 @@
       <c r="Y400" s="2"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="15"/>
-      <c r="B401" s="16"/>
+      <c r="A401" s="17"/>
+      <c r="B401" s="18"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -12468,8 +12505,8 @@
       <c r="Y401" s="2"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="15"/>
-      <c r="B402" s="16"/>
+      <c r="A402" s="17"/>
+      <c r="B402" s="18"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -12495,8 +12532,8 @@
       <c r="Y402" s="2"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="15"/>
-      <c r="B403" s="16"/>
+      <c r="A403" s="17"/>
+      <c r="B403" s="18"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -12522,8 +12559,8 @@
       <c r="Y403" s="2"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="15"/>
-      <c r="B404" s="16"/>
+      <c r="A404" s="17"/>
+      <c r="B404" s="18"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
@@ -12549,8 +12586,8 @@
       <c r="Y404" s="2"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="15"/>
-      <c r="B405" s="16"/>
+      <c r="A405" s="17"/>
+      <c r="B405" s="18"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -12576,8 +12613,8 @@
       <c r="Y405" s="2"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="15"/>
-      <c r="B406" s="16"/>
+      <c r="A406" s="17"/>
+      <c r="B406" s="18"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -12603,8 +12640,8 @@
       <c r="Y406" s="2"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="15"/>
-      <c r="B407" s="16"/>
+      <c r="A407" s="17"/>
+      <c r="B407" s="18"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -12630,8 +12667,8 @@
       <c r="Y407" s="2"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="15"/>
-      <c r="B408" s="16"/>
+      <c r="A408" s="17"/>
+      <c r="B408" s="18"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
@@ -12657,8 +12694,8 @@
       <c r="Y408" s="2"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="15"/>
-      <c r="B409" s="16"/>
+      <c r="A409" s="17"/>
+      <c r="B409" s="18"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
@@ -12684,8 +12721,8 @@
       <c r="Y409" s="2"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="15"/>
-      <c r="B410" s="16"/>
+      <c r="A410" s="17"/>
+      <c r="B410" s="18"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -12711,8 +12748,8 @@
       <c r="Y410" s="2"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="15"/>
-      <c r="B411" s="16"/>
+      <c r="A411" s="17"/>
+      <c r="B411" s="18"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
@@ -12738,8 +12775,8 @@
       <c r="Y411" s="2"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="15"/>
-      <c r="B412" s="16"/>
+      <c r="A412" s="17"/>
+      <c r="B412" s="18"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -12765,8 +12802,8 @@
       <c r="Y412" s="2"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="15"/>
-      <c r="B413" s="16"/>
+      <c r="A413" s="17"/>
+      <c r="B413" s="18"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
@@ -12792,8 +12829,8 @@
       <c r="Y413" s="2"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="15"/>
-      <c r="B414" s="16"/>
+      <c r="A414" s="17"/>
+      <c r="B414" s="18"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -12819,8 +12856,8 @@
       <c r="Y414" s="2"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="15"/>
-      <c r="B415" s="16"/>
+      <c r="A415" s="17"/>
+      <c r="B415" s="18"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -12846,8 +12883,8 @@
       <c r="Y415" s="2"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="15"/>
-      <c r="B416" s="16"/>
+      <c r="A416" s="17"/>
+      <c r="B416" s="18"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -12873,8 +12910,8 @@
       <c r="Y416" s="2"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="15"/>
-      <c r="B417" s="16"/>
+      <c r="A417" s="17"/>
+      <c r="B417" s="18"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -12900,8 +12937,8 @@
       <c r="Y417" s="2"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="15"/>
-      <c r="B418" s="16"/>
+      <c r="A418" s="17"/>
+      <c r="B418" s="18"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -12927,8 +12964,8 @@
       <c r="Y418" s="2"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="15"/>
-      <c r="B419" s="16"/>
+      <c r="A419" s="17"/>
+      <c r="B419" s="18"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -12954,8 +12991,8 @@
       <c r="Y419" s="2"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="15"/>
-      <c r="B420" s="16"/>
+      <c r="A420" s="17"/>
+      <c r="B420" s="18"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -12981,8 +13018,8 @@
       <c r="Y420" s="2"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="15"/>
-      <c r="B421" s="16"/>
+      <c r="A421" s="17"/>
+      <c r="B421" s="18"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
@@ -13008,8 +13045,8 @@
       <c r="Y421" s="2"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="15"/>
-      <c r="B422" s="16"/>
+      <c r="A422" s="17"/>
+      <c r="B422" s="18"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -13035,8 +13072,8 @@
       <c r="Y422" s="2"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="15"/>
-      <c r="B423" s="16"/>
+      <c r="A423" s="17"/>
+      <c r="B423" s="18"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -13062,8 +13099,8 @@
       <c r="Y423" s="2"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="15"/>
-      <c r="B424" s="16"/>
+      <c r="A424" s="17"/>
+      <c r="B424" s="18"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -13089,8 +13126,8 @@
       <c r="Y424" s="2"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="15"/>
-      <c r="B425" s="16"/>
+      <c r="A425" s="17"/>
+      <c r="B425" s="18"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -13116,8 +13153,8 @@
       <c r="Y425" s="2"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="15"/>
-      <c r="B426" s="16"/>
+      <c r="A426" s="17"/>
+      <c r="B426" s="18"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -13143,8 +13180,8 @@
       <c r="Y426" s="2"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="15"/>
-      <c r="B427" s="16"/>
+      <c r="A427" s="17"/>
+      <c r="B427" s="18"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -13170,8 +13207,8 @@
       <c r="Y427" s="2"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="15"/>
-      <c r="B428" s="16"/>
+      <c r="A428" s="17"/>
+      <c r="B428" s="18"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -13197,8 +13234,8 @@
       <c r="Y428" s="2"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="15"/>
-      <c r="B429" s="16"/>
+      <c r="A429" s="17"/>
+      <c r="B429" s="18"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -13224,8 +13261,8 @@
       <c r="Y429" s="2"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="15"/>
-      <c r="B430" s="16"/>
+      <c r="A430" s="17"/>
+      <c r="B430" s="18"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -13251,8 +13288,8 @@
       <c r="Y430" s="2"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="15"/>
-      <c r="B431" s="16"/>
+      <c r="A431" s="17"/>
+      <c r="B431" s="18"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -13278,8 +13315,8 @@
       <c r="Y431" s="2"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="15"/>
-      <c r="B432" s="16"/>
+      <c r="A432" s="17"/>
+      <c r="B432" s="18"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -13305,8 +13342,8 @@
       <c r="Y432" s="2"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="15"/>
-      <c r="B433" s="16"/>
+      <c r="A433" s="17"/>
+      <c r="B433" s="18"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -13332,8 +13369,8 @@
       <c r="Y433" s="2"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="15"/>
-      <c r="B434" s="16"/>
+      <c r="A434" s="17"/>
+      <c r="B434" s="18"/>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -13359,8 +13396,8 @@
       <c r="Y434" s="2"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="15"/>
-      <c r="B435" s="16"/>
+      <c r="A435" s="17"/>
+      <c r="B435" s="18"/>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -13386,8 +13423,8 @@
       <c r="Y435" s="2"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="15"/>
-      <c r="B436" s="16"/>
+      <c r="A436" s="17"/>
+      <c r="B436" s="18"/>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -13413,8 +13450,8 @@
       <c r="Y436" s="2"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="15"/>
-      <c r="B437" s="16"/>
+      <c r="A437" s="17"/>
+      <c r="B437" s="18"/>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -13440,8 +13477,8 @@
       <c r="Y437" s="2"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="15"/>
-      <c r="B438" s="16"/>
+      <c r="A438" s="17"/>
+      <c r="B438" s="18"/>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -13467,8 +13504,8 @@
       <c r="Y438" s="2"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="15"/>
-      <c r="B439" s="16"/>
+      <c r="A439" s="17"/>
+      <c r="B439" s="18"/>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -13494,8 +13531,8 @@
       <c r="Y439" s="2"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="15"/>
-      <c r="B440" s="16"/>
+      <c r="A440" s="17"/>
+      <c r="B440" s="18"/>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -13521,8 +13558,8 @@
       <c r="Y440" s="2"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="15"/>
-      <c r="B441" s="16"/>
+      <c r="A441" s="17"/>
+      <c r="B441" s="18"/>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -13548,8 +13585,8 @@
       <c r="Y441" s="2"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="15"/>
-      <c r="B442" s="16"/>
+      <c r="A442" s="17"/>
+      <c r="B442" s="18"/>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -13575,8 +13612,8 @@
       <c r="Y442" s="2"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="15"/>
-      <c r="B443" s="16"/>
+      <c r="A443" s="17"/>
+      <c r="B443" s="18"/>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -13602,8 +13639,8 @@
       <c r="Y443" s="2"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="15"/>
-      <c r="B444" s="16"/>
+      <c r="A444" s="17"/>
+      <c r="B444" s="18"/>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -13629,8 +13666,8 @@
       <c r="Y444" s="2"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="15"/>
-      <c r="B445" s="16"/>
+      <c r="A445" s="17"/>
+      <c r="B445" s="18"/>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -13656,8 +13693,8 @@
       <c r="Y445" s="2"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="15"/>
-      <c r="B446" s="16"/>
+      <c r="A446" s="17"/>
+      <c r="B446" s="18"/>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -13683,8 +13720,8 @@
       <c r="Y446" s="2"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="15"/>
-      <c r="B447" s="16"/>
+      <c r="A447" s="17"/>
+      <c r="B447" s="18"/>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -13710,8 +13747,8 @@
       <c r="Y447" s="2"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="15"/>
-      <c r="B448" s="16"/>
+      <c r="A448" s="17"/>
+      <c r="B448" s="18"/>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -13737,8 +13774,8 @@
       <c r="Y448" s="2"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="15"/>
-      <c r="B449" s="16"/>
+      <c r="A449" s="17"/>
+      <c r="B449" s="18"/>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
@@ -13764,8 +13801,8 @@
       <c r="Y449" s="2"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="15"/>
-      <c r="B450" s="16"/>
+      <c r="A450" s="17"/>
+      <c r="B450" s="18"/>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -13791,8 +13828,8 @@
       <c r="Y450" s="2"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="15"/>
-      <c r="B451" s="16"/>
+      <c r="A451" s="17"/>
+      <c r="B451" s="18"/>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
@@ -13818,8 +13855,8 @@
       <c r="Y451" s="2"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="15"/>
-      <c r="B452" s="16"/>
+      <c r="A452" s="17"/>
+      <c r="B452" s="18"/>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -13845,8 +13882,8 @@
       <c r="Y452" s="2"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="15"/>
-      <c r="B453" s="16"/>
+      <c r="A453" s="17"/>
+      <c r="B453" s="18"/>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -13872,8 +13909,8 @@
       <c r="Y453" s="2"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="15"/>
-      <c r="B454" s="16"/>
+      <c r="A454" s="17"/>
+      <c r="B454" s="18"/>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -13899,8 +13936,8 @@
       <c r="Y454" s="2"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="15"/>
-      <c r="B455" s="16"/>
+      <c r="A455" s="17"/>
+      <c r="B455" s="18"/>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
@@ -13926,8 +13963,8 @@
       <c r="Y455" s="2"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="15"/>
-      <c r="B456" s="16"/>
+      <c r="A456" s="17"/>
+      <c r="B456" s="18"/>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -13953,8 +13990,8 @@
       <c r="Y456" s="2"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="15"/>
-      <c r="B457" s="16"/>
+      <c r="A457" s="17"/>
+      <c r="B457" s="18"/>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -13980,8 +14017,8 @@
       <c r="Y457" s="2"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="15"/>
-      <c r="B458" s="16"/>
+      <c r="A458" s="17"/>
+      <c r="B458" s="18"/>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
@@ -14007,8 +14044,8 @@
       <c r="Y458" s="2"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="15"/>
-      <c r="B459" s="16"/>
+      <c r="A459" s="17"/>
+      <c r="B459" s="18"/>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
@@ -14034,8 +14071,8 @@
       <c r="Y459" s="2"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="15"/>
-      <c r="B460" s="16"/>
+      <c r="A460" s="17"/>
+      <c r="B460" s="18"/>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
@@ -14061,8 +14098,8 @@
       <c r="Y460" s="2"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="15"/>
-      <c r="B461" s="16"/>
+      <c r="A461" s="17"/>
+      <c r="B461" s="18"/>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -14088,8 +14125,8 @@
       <c r="Y461" s="2"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="15"/>
-      <c r="B462" s="16"/>
+      <c r="A462" s="17"/>
+      <c r="B462" s="18"/>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -14115,8 +14152,8 @@
       <c r="Y462" s="2"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="15"/>
-      <c r="B463" s="16"/>
+      <c r="A463" s="17"/>
+      <c r="B463" s="18"/>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -14142,8 +14179,8 @@
       <c r="Y463" s="2"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="15"/>
-      <c r="B464" s="16"/>
+      <c r="A464" s="17"/>
+      <c r="B464" s="18"/>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
@@ -14169,8 +14206,8 @@
       <c r="Y464" s="2"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="15"/>
-      <c r="B465" s="16"/>
+      <c r="A465" s="17"/>
+      <c r="B465" s="18"/>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -14196,8 +14233,8 @@
       <c r="Y465" s="2"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="15"/>
-      <c r="B466" s="16"/>
+      <c r="A466" s="17"/>
+      <c r="B466" s="18"/>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -14223,8 +14260,8 @@
       <c r="Y466" s="2"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="15"/>
-      <c r="B467" s="16"/>
+      <c r="A467" s="17"/>
+      <c r="B467" s="18"/>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -14250,8 +14287,8 @@
       <c r="Y467" s="2"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="15"/>
-      <c r="B468" s="16"/>
+      <c r="A468" s="17"/>
+      <c r="B468" s="18"/>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -14277,8 +14314,8 @@
       <c r="Y468" s="2"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="15"/>
-      <c r="B469" s="16"/>
+      <c r="A469" s="17"/>
+      <c r="B469" s="18"/>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -14304,8 +14341,8 @@
       <c r="Y469" s="2"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="15"/>
-      <c r="B470" s="16"/>
+      <c r="A470" s="17"/>
+      <c r="B470" s="18"/>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -14331,8 +14368,8 @@
       <c r="Y470" s="2"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="15"/>
-      <c r="B471" s="16"/>
+      <c r="A471" s="17"/>
+      <c r="B471" s="18"/>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
@@ -14358,8 +14395,8 @@
       <c r="Y471" s="2"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="15"/>
-      <c r="B472" s="16"/>
+      <c r="A472" s="17"/>
+      <c r="B472" s="18"/>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
@@ -14385,8 +14422,8 @@
       <c r="Y472" s="2"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="15"/>
-      <c r="B473" s="16"/>
+      <c r="A473" s="17"/>
+      <c r="B473" s="18"/>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -14412,8 +14449,8 @@
       <c r="Y473" s="2"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="15"/>
-      <c r="B474" s="16"/>
+      <c r="A474" s="17"/>
+      <c r="B474" s="18"/>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
@@ -14439,8 +14476,8 @@
       <c r="Y474" s="2"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="15"/>
-      <c r="B475" s="16"/>
+      <c r="A475" s="17"/>
+      <c r="B475" s="18"/>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
@@ -14466,8 +14503,8 @@
       <c r="Y475" s="2"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="15"/>
-      <c r="B476" s="16"/>
+      <c r="A476" s="17"/>
+      <c r="B476" s="18"/>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
@@ -14493,8 +14530,8 @@
       <c r="Y476" s="2"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="15"/>
-      <c r="B477" s="16"/>
+      <c r="A477" s="17"/>
+      <c r="B477" s="18"/>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
@@ -14520,8 +14557,8 @@
       <c r="Y477" s="2"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="15"/>
-      <c r="B478" s="16"/>
+      <c r="A478" s="17"/>
+      <c r="B478" s="18"/>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
@@ -14547,8 +14584,8 @@
       <c r="Y478" s="2"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="15"/>
-      <c r="B479" s="16"/>
+      <c r="A479" s="17"/>
+      <c r="B479" s="18"/>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
@@ -14574,8 +14611,8 @@
       <c r="Y479" s="2"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="15"/>
-      <c r="B480" s="16"/>
+      <c r="A480" s="17"/>
+      <c r="B480" s="18"/>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
@@ -14601,8 +14638,8 @@
       <c r="Y480" s="2"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="15"/>
-      <c r="B481" s="16"/>
+      <c r="A481" s="17"/>
+      <c r="B481" s="18"/>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
@@ -14628,8 +14665,8 @@
       <c r="Y481" s="2"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="15"/>
-      <c r="B482" s="16"/>
+      <c r="A482" s="17"/>
+      <c r="B482" s="18"/>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
@@ -14655,8 +14692,8 @@
       <c r="Y482" s="2"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="15"/>
-      <c r="B483" s="16"/>
+      <c r="A483" s="17"/>
+      <c r="B483" s="18"/>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
@@ -14682,8 +14719,8 @@
       <c r="Y483" s="2"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="15"/>
-      <c r="B484" s="16"/>
+      <c r="A484" s="17"/>
+      <c r="B484" s="18"/>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
@@ -14709,8 +14746,8 @@
       <c r="Y484" s="2"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="15"/>
-      <c r="B485" s="16"/>
+      <c r="A485" s="17"/>
+      <c r="B485" s="18"/>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
@@ -14736,8 +14773,8 @@
       <c r="Y485" s="2"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="15"/>
-      <c r="B486" s="16"/>
+      <c r="A486" s="17"/>
+      <c r="B486" s="18"/>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
@@ -14763,8 +14800,8 @@
       <c r="Y486" s="2"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="15"/>
-      <c r="B487" s="16"/>
+      <c r="A487" s="17"/>
+      <c r="B487" s="18"/>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
@@ -14790,8 +14827,8 @@
       <c r="Y487" s="2"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="15"/>
-      <c r="B488" s="16"/>
+      <c r="A488" s="17"/>
+      <c r="B488" s="18"/>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
@@ -14817,8 +14854,8 @@
       <c r="Y488" s="2"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="15"/>
-      <c r="B489" s="16"/>
+      <c r="A489" s="17"/>
+      <c r="B489" s="18"/>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
@@ -14844,8 +14881,8 @@
       <c r="Y489" s="2"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="15"/>
-      <c r="B490" s="16"/>
+      <c r="A490" s="17"/>
+      <c r="B490" s="18"/>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
@@ -14871,8 +14908,8 @@
       <c r="Y490" s="2"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="15"/>
-      <c r="B491" s="16"/>
+      <c r="A491" s="17"/>
+      <c r="B491" s="18"/>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
@@ -14898,8 +14935,8 @@
       <c r="Y491" s="2"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="15"/>
-      <c r="B492" s="16"/>
+      <c r="A492" s="17"/>
+      <c r="B492" s="18"/>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
@@ -14925,8 +14962,8 @@
       <c r="Y492" s="2"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="15"/>
-      <c r="B493" s="16"/>
+      <c r="A493" s="17"/>
+      <c r="B493" s="18"/>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
@@ -14952,8 +14989,8 @@
       <c r="Y493" s="2"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="15"/>
-      <c r="B494" s="16"/>
+      <c r="A494" s="17"/>
+      <c r="B494" s="18"/>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
@@ -14979,8 +15016,8 @@
       <c r="Y494" s="2"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="15"/>
-      <c r="B495" s="16"/>
+      <c r="A495" s="17"/>
+      <c r="B495" s="18"/>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
@@ -15006,8 +15043,8 @@
       <c r="Y495" s="2"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="15"/>
-      <c r="B496" s="16"/>
+      <c r="A496" s="17"/>
+      <c r="B496" s="18"/>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
@@ -15033,8 +15070,8 @@
       <c r="Y496" s="2"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="15"/>
-      <c r="B497" s="16"/>
+      <c r="A497" s="17"/>
+      <c r="B497" s="18"/>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
@@ -15060,8 +15097,8 @@
       <c r="Y497" s="2"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="15"/>
-      <c r="B498" s="16"/>
+      <c r="A498" s="17"/>
+      <c r="B498" s="18"/>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
@@ -15087,8 +15124,8 @@
       <c r="Y498" s="2"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="15"/>
-      <c r="B499" s="16"/>
+      <c r="A499" s="17"/>
+      <c r="B499" s="18"/>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
@@ -15114,8 +15151,8 @@
       <c r="Y499" s="2"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="15"/>
-      <c r="B500" s="16"/>
+      <c r="A500" s="17"/>
+      <c r="B500" s="18"/>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
@@ -15141,8 +15178,8 @@
       <c r="Y500" s="2"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="15"/>
-      <c r="B501" s="16"/>
+      <c r="A501" s="17"/>
+      <c r="B501" s="18"/>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
       <c r="E501" s="2"/>
@@ -15168,8 +15205,8 @@
       <c r="Y501" s="2"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="15"/>
-      <c r="B502" s="16"/>
+      <c r="A502" s="17"/>
+      <c r="B502" s="18"/>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
@@ -15195,8 +15232,8 @@
       <c r="Y502" s="2"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="15"/>
-      <c r="B503" s="16"/>
+      <c r="A503" s="17"/>
+      <c r="B503" s="18"/>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
       <c r="E503" s="2"/>
@@ -15222,8 +15259,8 @@
       <c r="Y503" s="2"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="15"/>
-      <c r="B504" s="16"/>
+      <c r="A504" s="17"/>
+      <c r="B504" s="18"/>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
@@ -15249,8 +15286,8 @@
       <c r="Y504" s="2"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="15"/>
-      <c r="B505" s="16"/>
+      <c r="A505" s="17"/>
+      <c r="B505" s="18"/>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
@@ -15276,8 +15313,8 @@
       <c r="Y505" s="2"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="15"/>
-      <c r="B506" s="16"/>
+      <c r="A506" s="17"/>
+      <c r="B506" s="18"/>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
       <c r="E506" s="2"/>
@@ -15303,8 +15340,8 @@
       <c r="Y506" s="2"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="15"/>
-      <c r="B507" s="16"/>
+      <c r="A507" s="17"/>
+      <c r="B507" s="18"/>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
       <c r="E507" s="2"/>
@@ -15330,8 +15367,8 @@
       <c r="Y507" s="2"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="15"/>
-      <c r="B508" s="16"/>
+      <c r="A508" s="17"/>
+      <c r="B508" s="18"/>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
@@ -15357,8 +15394,8 @@
       <c r="Y508" s="2"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="15"/>
-      <c r="B509" s="16"/>
+      <c r="A509" s="17"/>
+      <c r="B509" s="18"/>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
       <c r="E509" s="2"/>
@@ -15384,8 +15421,8 @@
       <c r="Y509" s="2"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="15"/>
-      <c r="B510" s="16"/>
+      <c r="A510" s="17"/>
+      <c r="B510" s="18"/>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
       <c r="E510" s="2"/>
@@ -15411,8 +15448,8 @@
       <c r="Y510" s="2"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="15"/>
-      <c r="B511" s="16"/>
+      <c r="A511" s="17"/>
+      <c r="B511" s="18"/>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
       <c r="E511" s="2"/>
@@ -15438,8 +15475,8 @@
       <c r="Y511" s="2"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="15"/>
-      <c r="B512" s="16"/>
+      <c r="A512" s="17"/>
+      <c r="B512" s="18"/>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
       <c r="E512" s="2"/>
@@ -15465,8 +15502,8 @@
       <c r="Y512" s="2"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="15"/>
-      <c r="B513" s="16"/>
+      <c r="A513" s="17"/>
+      <c r="B513" s="18"/>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
       <c r="E513" s="2"/>
@@ -15492,8 +15529,8 @@
       <c r="Y513" s="2"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="15"/>
-      <c r="B514" s="16"/>
+      <c r="A514" s="17"/>
+      <c r="B514" s="18"/>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
       <c r="E514" s="2"/>
@@ -15519,8 +15556,8 @@
       <c r="Y514" s="2"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="15"/>
-      <c r="B515" s="16"/>
+      <c r="A515" s="17"/>
+      <c r="B515" s="18"/>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
       <c r="E515" s="2"/>
@@ -15546,8 +15583,8 @@
       <c r="Y515" s="2"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="15"/>
-      <c r="B516" s="16"/>
+      <c r="A516" s="17"/>
+      <c r="B516" s="18"/>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
       <c r="E516" s="2"/>
@@ -15573,8 +15610,8 @@
       <c r="Y516" s="2"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="15"/>
-      <c r="B517" s="16"/>
+      <c r="A517" s="17"/>
+      <c r="B517" s="18"/>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
       <c r="E517" s="2"/>
@@ -15600,8 +15637,8 @@
       <c r="Y517" s="2"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="15"/>
-      <c r="B518" s="16"/>
+      <c r="A518" s="17"/>
+      <c r="B518" s="18"/>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
       <c r="E518" s="2"/>
@@ -15627,8 +15664,8 @@
       <c r="Y518" s="2"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="15"/>
-      <c r="B519" s="16"/>
+      <c r="A519" s="17"/>
+      <c r="B519" s="18"/>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
       <c r="E519" s="2"/>
@@ -15654,8 +15691,8 @@
       <c r="Y519" s="2"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="15"/>
-      <c r="B520" s="16"/>
+      <c r="A520" s="17"/>
+      <c r="B520" s="18"/>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
       <c r="E520" s="2"/>
@@ -15681,8 +15718,8 @@
       <c r="Y520" s="2"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="15"/>
-      <c r="B521" s="16"/>
+      <c r="A521" s="17"/>
+      <c r="B521" s="18"/>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
       <c r="E521" s="2"/>
@@ -15708,8 +15745,8 @@
       <c r="Y521" s="2"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="15"/>
-      <c r="B522" s="16"/>
+      <c r="A522" s="17"/>
+      <c r="B522" s="18"/>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
       <c r="E522" s="2"/>
@@ -15735,8 +15772,8 @@
       <c r="Y522" s="2"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="15"/>
-      <c r="B523" s="16"/>
+      <c r="A523" s="17"/>
+      <c r="B523" s="18"/>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
       <c r="E523" s="2"/>
@@ -15762,8 +15799,8 @@
       <c r="Y523" s="2"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="15"/>
-      <c r="B524" s="16"/>
+      <c r="A524" s="17"/>
+      <c r="B524" s="18"/>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
       <c r="E524" s="2"/>
@@ -15789,8 +15826,8 @@
       <c r="Y524" s="2"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="15"/>
-      <c r="B525" s="16"/>
+      <c r="A525" s="17"/>
+      <c r="B525" s="18"/>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
       <c r="E525" s="2"/>
@@ -15816,8 +15853,8 @@
       <c r="Y525" s="2"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="15"/>
-      <c r="B526" s="16"/>
+      <c r="A526" s="17"/>
+      <c r="B526" s="18"/>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
       <c r="E526" s="2"/>
@@ -15843,8 +15880,8 @@
       <c r="Y526" s="2"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="15"/>
-      <c r="B527" s="16"/>
+      <c r="A527" s="17"/>
+      <c r="B527" s="18"/>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
       <c r="E527" s="2"/>
@@ -15870,8 +15907,8 @@
       <c r="Y527" s="2"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="15"/>
-      <c r="B528" s="16"/>
+      <c r="A528" s="17"/>
+      <c r="B528" s="18"/>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
       <c r="E528" s="2"/>
@@ -15897,8 +15934,8 @@
       <c r="Y528" s="2"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="15"/>
-      <c r="B529" s="16"/>
+      <c r="A529" s="17"/>
+      <c r="B529" s="18"/>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
       <c r="E529" s="2"/>
@@ -15924,8 +15961,8 @@
       <c r="Y529" s="2"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="15"/>
-      <c r="B530" s="16"/>
+      <c r="A530" s="17"/>
+      <c r="B530" s="18"/>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
       <c r="E530" s="2"/>
@@ -15951,8 +15988,8 @@
       <c r="Y530" s="2"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="15"/>
-      <c r="B531" s="16"/>
+      <c r="A531" s="17"/>
+      <c r="B531" s="18"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
       <c r="E531" s="2"/>
@@ -15978,8 +16015,8 @@
       <c r="Y531" s="2"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="15"/>
-      <c r="B532" s="16"/>
+      <c r="A532" s="17"/>
+      <c r="B532" s="18"/>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
       <c r="E532" s="2"/>
@@ -16005,8 +16042,8 @@
       <c r="Y532" s="2"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="15"/>
-      <c r="B533" s="16"/>
+      <c r="A533" s="17"/>
+      <c r="B533" s="18"/>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
       <c r="E533" s="2"/>
@@ -16032,8 +16069,8 @@
       <c r="Y533" s="2"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="15"/>
-      <c r="B534" s="16"/>
+      <c r="A534" s="17"/>
+      <c r="B534" s="18"/>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
       <c r="E534" s="2"/>
@@ -16059,8 +16096,8 @@
       <c r="Y534" s="2"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="15"/>
-      <c r="B535" s="16"/>
+      <c r="A535" s="17"/>
+      <c r="B535" s="18"/>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
       <c r="E535" s="2"/>
@@ -16086,8 +16123,8 @@
       <c r="Y535" s="2"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="15"/>
-      <c r="B536" s="16"/>
+      <c r="A536" s="17"/>
+      <c r="B536" s="18"/>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
       <c r="E536" s="2"/>
@@ -16113,8 +16150,8 @@
       <c r="Y536" s="2"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="15"/>
-      <c r="B537" s="16"/>
+      <c r="A537" s="17"/>
+      <c r="B537" s="18"/>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
       <c r="E537" s="2"/>
@@ -16140,8 +16177,8 @@
       <c r="Y537" s="2"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="15"/>
-      <c r="B538" s="16"/>
+      <c r="A538" s="17"/>
+      <c r="B538" s="18"/>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
       <c r="E538" s="2"/>
@@ -16167,8 +16204,8 @@
       <c r="Y538" s="2"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="15"/>
-      <c r="B539" s="16"/>
+      <c r="A539" s="17"/>
+      <c r="B539" s="18"/>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
       <c r="E539" s="2"/>
@@ -16194,8 +16231,8 @@
       <c r="Y539" s="2"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="15"/>
-      <c r="B540" s="16"/>
+      <c r="A540" s="17"/>
+      <c r="B540" s="18"/>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
       <c r="E540" s="2"/>
@@ -16221,8 +16258,8 @@
       <c r="Y540" s="2"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="15"/>
-      <c r="B541" s="16"/>
+      <c r="A541" s="17"/>
+      <c r="B541" s="18"/>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
       <c r="E541" s="2"/>
@@ -16248,8 +16285,8 @@
       <c r="Y541" s="2"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="15"/>
-      <c r="B542" s="16"/>
+      <c r="A542" s="17"/>
+      <c r="B542" s="18"/>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
       <c r="E542" s="2"/>
@@ -16275,8 +16312,8 @@
       <c r="Y542" s="2"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="15"/>
-      <c r="B543" s="16"/>
+      <c r="A543" s="17"/>
+      <c r="B543" s="18"/>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
       <c r="E543" s="2"/>
@@ -16302,8 +16339,8 @@
       <c r="Y543" s="2"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="15"/>
-      <c r="B544" s="16"/>
+      <c r="A544" s="17"/>
+      <c r="B544" s="18"/>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
       <c r="E544" s="2"/>
@@ -16329,8 +16366,8 @@
       <c r="Y544" s="2"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="15"/>
-      <c r="B545" s="16"/>
+      <c r="A545" s="17"/>
+      <c r="B545" s="18"/>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
       <c r="E545" s="2"/>
@@ -16356,8 +16393,8 @@
       <c r="Y545" s="2"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="15"/>
-      <c r="B546" s="16"/>
+      <c r="A546" s="17"/>
+      <c r="B546" s="18"/>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
       <c r="E546" s="2"/>
@@ -16383,8 +16420,8 @@
       <c r="Y546" s="2"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="15"/>
-      <c r="B547" s="16"/>
+      <c r="A547" s="17"/>
+      <c r="B547" s="18"/>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
       <c r="E547" s="2"/>
@@ -16410,8 +16447,8 @@
       <c r="Y547" s="2"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="15"/>
-      <c r="B548" s="16"/>
+      <c r="A548" s="17"/>
+      <c r="B548" s="18"/>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
       <c r="E548" s="2"/>
@@ -16437,8 +16474,8 @@
       <c r="Y548" s="2"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="15"/>
-      <c r="B549" s="16"/>
+      <c r="A549" s="17"/>
+      <c r="B549" s="18"/>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
       <c r="E549" s="2"/>
@@ -16464,8 +16501,8 @@
       <c r="Y549" s="2"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="15"/>
-      <c r="B550" s="16"/>
+      <c r="A550" s="17"/>
+      <c r="B550" s="18"/>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
       <c r="E550" s="2"/>
@@ -16491,8 +16528,8 @@
       <c r="Y550" s="2"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="15"/>
-      <c r="B551" s="16"/>
+      <c r="A551" s="17"/>
+      <c r="B551" s="18"/>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
       <c r="E551" s="2"/>
@@ -16518,8 +16555,8 @@
       <c r="Y551" s="2"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="15"/>
-      <c r="B552" s="16"/>
+      <c r="A552" s="17"/>
+      <c r="B552" s="18"/>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
       <c r="E552" s="2"/>
@@ -16545,8 +16582,8 @@
       <c r="Y552" s="2"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="15"/>
-      <c r="B553" s="16"/>
+      <c r="A553" s="17"/>
+      <c r="B553" s="18"/>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
       <c r="E553" s="2"/>
@@ -16572,8 +16609,8 @@
       <c r="Y553" s="2"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="15"/>
-      <c r="B554" s="16"/>
+      <c r="A554" s="17"/>
+      <c r="B554" s="18"/>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
       <c r="E554" s="2"/>
@@ -16599,8 +16636,8 @@
       <c r="Y554" s="2"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="15"/>
-      <c r="B555" s="16"/>
+      <c r="A555" s="17"/>
+      <c r="B555" s="18"/>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
       <c r="E555" s="2"/>
@@ -16626,8 +16663,8 @@
       <c r="Y555" s="2"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="15"/>
-      <c r="B556" s="16"/>
+      <c r="A556" s="17"/>
+      <c r="B556" s="18"/>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
       <c r="E556" s="2"/>
@@ -16653,8 +16690,8 @@
       <c r="Y556" s="2"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="15"/>
-      <c r="B557" s="16"/>
+      <c r="A557" s="17"/>
+      <c r="B557" s="18"/>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
       <c r="E557" s="2"/>
@@ -16680,8 +16717,8 @@
       <c r="Y557" s="2"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="15"/>
-      <c r="B558" s="16"/>
+      <c r="A558" s="17"/>
+      <c r="B558" s="18"/>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
       <c r="E558" s="2"/>
@@ -16707,8 +16744,8 @@
       <c r="Y558" s="2"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="15"/>
-      <c r="B559" s="16"/>
+      <c r="A559" s="17"/>
+      <c r="B559" s="18"/>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
       <c r="E559" s="2"/>
@@ -16734,8 +16771,8 @@
       <c r="Y559" s="2"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="15"/>
-      <c r="B560" s="16"/>
+      <c r="A560" s="17"/>
+      <c r="B560" s="18"/>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
       <c r="E560" s="2"/>
@@ -16761,8 +16798,8 @@
       <c r="Y560" s="2"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="15"/>
-      <c r="B561" s="16"/>
+      <c r="A561" s="17"/>
+      <c r="B561" s="18"/>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
       <c r="E561" s="2"/>
@@ -16788,8 +16825,8 @@
       <c r="Y561" s="2"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="15"/>
-      <c r="B562" s="16"/>
+      <c r="A562" s="17"/>
+      <c r="B562" s="18"/>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
       <c r="E562" s="2"/>
@@ -16815,8 +16852,8 @@
       <c r="Y562" s="2"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="15"/>
-      <c r="B563" s="16"/>
+      <c r="A563" s="17"/>
+      <c r="B563" s="18"/>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
       <c r="E563" s="2"/>
@@ -16842,8 +16879,8 @@
       <c r="Y563" s="2"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="15"/>
-      <c r="B564" s="16"/>
+      <c r="A564" s="17"/>
+      <c r="B564" s="18"/>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
       <c r="E564" s="2"/>
@@ -16869,8 +16906,8 @@
       <c r="Y564" s="2"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="15"/>
-      <c r="B565" s="16"/>
+      <c r="A565" s="17"/>
+      <c r="B565" s="18"/>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
       <c r="E565" s="2"/>
@@ -16896,8 +16933,8 @@
       <c r="Y565" s="2"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="15"/>
-      <c r="B566" s="16"/>
+      <c r="A566" s="17"/>
+      <c r="B566" s="18"/>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
       <c r="E566" s="2"/>
@@ -16923,8 +16960,8 @@
       <c r="Y566" s="2"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="15"/>
-      <c r="B567" s="16"/>
+      <c r="A567" s="17"/>
+      <c r="B567" s="18"/>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
       <c r="E567" s="2"/>
@@ -16950,8 +16987,8 @@
       <c r="Y567" s="2"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="15"/>
-      <c r="B568" s="16"/>
+      <c r="A568" s="17"/>
+      <c r="B568" s="18"/>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
       <c r="E568" s="2"/>
@@ -16977,8 +17014,8 @@
       <c r="Y568" s="2"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="15"/>
-      <c r="B569" s="16"/>
+      <c r="A569" s="17"/>
+      <c r="B569" s="18"/>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
       <c r="E569" s="2"/>
@@ -17004,8 +17041,8 @@
       <c r="Y569" s="2"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="15"/>
-      <c r="B570" s="16"/>
+      <c r="A570" s="17"/>
+      <c r="B570" s="18"/>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
       <c r="E570" s="2"/>
@@ -17031,8 +17068,8 @@
       <c r="Y570" s="2"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="15"/>
-      <c r="B571" s="16"/>
+      <c r="A571" s="17"/>
+      <c r="B571" s="18"/>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
       <c r="E571" s="2"/>
@@ -17058,8 +17095,8 @@
       <c r="Y571" s="2"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="15"/>
-      <c r="B572" s="16"/>
+      <c r="A572" s="17"/>
+      <c r="B572" s="18"/>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
       <c r="E572" s="2"/>
@@ -17085,8 +17122,8 @@
       <c r="Y572" s="2"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="15"/>
-      <c r="B573" s="16"/>
+      <c r="A573" s="17"/>
+      <c r="B573" s="18"/>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
       <c r="E573" s="2"/>
@@ -17112,8 +17149,8 @@
       <c r="Y573" s="2"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="15"/>
-      <c r="B574" s="16"/>
+      <c r="A574" s="17"/>
+      <c r="B574" s="18"/>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
       <c r="E574" s="2"/>
@@ -17139,8 +17176,8 @@
       <c r="Y574" s="2"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="15"/>
-      <c r="B575" s="16"/>
+      <c r="A575" s="17"/>
+      <c r="B575" s="18"/>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
       <c r="E575" s="2"/>
@@ -17166,8 +17203,8 @@
       <c r="Y575" s="2"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="15"/>
-      <c r="B576" s="16"/>
+      <c r="A576" s="17"/>
+      <c r="B576" s="18"/>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
       <c r="E576" s="2"/>
@@ -17193,8 +17230,8 @@
       <c r="Y576" s="2"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="15"/>
-      <c r="B577" s="16"/>
+      <c r="A577" s="17"/>
+      <c r="B577" s="18"/>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
       <c r="E577" s="2"/>
@@ -17220,8 +17257,8 @@
       <c r="Y577" s="2"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="15"/>
-      <c r="B578" s="16"/>
+      <c r="A578" s="17"/>
+      <c r="B578" s="18"/>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
       <c r="E578" s="2"/>
@@ -17247,8 +17284,8 @@
       <c r="Y578" s="2"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="15"/>
-      <c r="B579" s="16"/>
+      <c r="A579" s="17"/>
+      <c r="B579" s="18"/>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
       <c r="E579" s="2"/>
@@ -17274,8 +17311,8 @@
       <c r="Y579" s="2"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="15"/>
-      <c r="B580" s="16"/>
+      <c r="A580" s="17"/>
+      <c r="B580" s="18"/>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
       <c r="E580" s="2"/>
@@ -17301,8 +17338,8 @@
       <c r="Y580" s="2"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="15"/>
-      <c r="B581" s="16"/>
+      <c r="A581" s="17"/>
+      <c r="B581" s="18"/>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
       <c r="E581" s="2"/>
@@ -17328,8 +17365,8 @@
       <c r="Y581" s="2"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="15"/>
-      <c r="B582" s="16"/>
+      <c r="A582" s="17"/>
+      <c r="B582" s="18"/>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
       <c r="E582" s="2"/>
@@ -17355,8 +17392,8 @@
       <c r="Y582" s="2"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="15"/>
-      <c r="B583" s="16"/>
+      <c r="A583" s="17"/>
+      <c r="B583" s="18"/>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
       <c r="E583" s="2"/>
@@ -17382,8 +17419,8 @@
       <c r="Y583" s="2"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="15"/>
-      <c r="B584" s="16"/>
+      <c r="A584" s="17"/>
+      <c r="B584" s="18"/>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
       <c r="E584" s="2"/>
@@ -17409,8 +17446,8 @@
       <c r="Y584" s="2"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="15"/>
-      <c r="B585" s="16"/>
+      <c r="A585" s="17"/>
+      <c r="B585" s="18"/>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
       <c r="E585" s="2"/>
@@ -17436,8 +17473,8 @@
       <c r="Y585" s="2"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="15"/>
-      <c r="B586" s="16"/>
+      <c r="A586" s="17"/>
+      <c r="B586" s="18"/>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
       <c r="E586" s="2"/>
@@ -17463,8 +17500,8 @@
       <c r="Y586" s="2"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="15"/>
-      <c r="B587" s="16"/>
+      <c r="A587" s="17"/>
+      <c r="B587" s="18"/>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
       <c r="E587" s="2"/>
@@ -17490,8 +17527,8 @@
       <c r="Y587" s="2"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="15"/>
-      <c r="B588" s="16"/>
+      <c r="A588" s="17"/>
+      <c r="B588" s="18"/>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
       <c r="E588" s="2"/>
@@ -17517,8 +17554,8 @@
       <c r="Y588" s="2"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="15"/>
-      <c r="B589" s="16"/>
+      <c r="A589" s="17"/>
+      <c r="B589" s="18"/>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
       <c r="E589" s="2"/>
@@ -17544,8 +17581,8 @@
       <c r="Y589" s="2"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="15"/>
-      <c r="B590" s="16"/>
+      <c r="A590" s="17"/>
+      <c r="B590" s="18"/>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
       <c r="E590" s="2"/>
@@ -17571,8 +17608,8 @@
       <c r="Y590" s="2"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="15"/>
-      <c r="B591" s="16"/>
+      <c r="A591" s="17"/>
+      <c r="B591" s="18"/>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
       <c r="E591" s="2"/>
@@ -17598,8 +17635,8 @@
       <c r="Y591" s="2"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="15"/>
-      <c r="B592" s="16"/>
+      <c r="A592" s="17"/>
+      <c r="B592" s="18"/>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
       <c r="E592" s="2"/>
@@ -17625,8 +17662,8 @@
       <c r="Y592" s="2"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="15"/>
-      <c r="B593" s="16"/>
+      <c r="A593" s="17"/>
+      <c r="B593" s="18"/>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
       <c r="E593" s="2"/>
@@ -17652,8 +17689,8 @@
       <c r="Y593" s="2"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="15"/>
-      <c r="B594" s="16"/>
+      <c r="A594" s="17"/>
+      <c r="B594" s="18"/>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
       <c r="E594" s="2"/>
@@ -17679,8 +17716,8 @@
       <c r="Y594" s="2"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="15"/>
-      <c r="B595" s="16"/>
+      <c r="A595" s="17"/>
+      <c r="B595" s="18"/>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
       <c r="E595" s="2"/>
@@ -17706,8 +17743,8 @@
       <c r="Y595" s="2"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="15"/>
-      <c r="B596" s="16"/>
+      <c r="A596" s="17"/>
+      <c r="B596" s="18"/>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
       <c r="E596" s="2"/>
@@ -17733,8 +17770,8 @@
       <c r="Y596" s="2"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="15"/>
-      <c r="B597" s="16"/>
+      <c r="A597" s="17"/>
+      <c r="B597" s="18"/>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
@@ -17760,8 +17797,8 @@
       <c r="Y597" s="2"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="15"/>
-      <c r="B598" s="16"/>
+      <c r="A598" s="17"/>
+      <c r="B598" s="18"/>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
       <c r="E598" s="2"/>
@@ -17787,8 +17824,8 @@
       <c r="Y598" s="2"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="15"/>
-      <c r="B599" s="16"/>
+      <c r="A599" s="17"/>
+      <c r="B599" s="18"/>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
       <c r="E599" s="2"/>
@@ -17814,8 +17851,8 @@
       <c r="Y599" s="2"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="15"/>
-      <c r="B600" s="16"/>
+      <c r="A600" s="17"/>
+      <c r="B600" s="18"/>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
       <c r="E600" s="2"/>
@@ -17841,8 +17878,8 @@
       <c r="Y600" s="2"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="15"/>
-      <c r="B601" s="16"/>
+      <c r="A601" s="17"/>
+      <c r="B601" s="18"/>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
       <c r="E601" s="2"/>
@@ -17868,8 +17905,8 @@
       <c r="Y601" s="2"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="15"/>
-      <c r="B602" s="16"/>
+      <c r="A602" s="17"/>
+      <c r="B602" s="18"/>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
       <c r="E602" s="2"/>
@@ -17895,8 +17932,8 @@
       <c r="Y602" s="2"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="15"/>
-      <c r="B603" s="16"/>
+      <c r="A603" s="17"/>
+      <c r="B603" s="18"/>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
       <c r="E603" s="2"/>
@@ -17922,8 +17959,8 @@
       <c r="Y603" s="2"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="15"/>
-      <c r="B604" s="16"/>
+      <c r="A604" s="17"/>
+      <c r="B604" s="18"/>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
       <c r="E604" s="2"/>
@@ -17949,8 +17986,8 @@
       <c r="Y604" s="2"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="15"/>
-      <c r="B605" s="16"/>
+      <c r="A605" s="17"/>
+      <c r="B605" s="18"/>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
       <c r="E605" s="2"/>
@@ -17976,8 +18013,8 @@
       <c r="Y605" s="2"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="15"/>
-      <c r="B606" s="16"/>
+      <c r="A606" s="17"/>
+      <c r="B606" s="18"/>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
       <c r="E606" s="2"/>
@@ -18003,8 +18040,8 @@
       <c r="Y606" s="2"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="15"/>
-      <c r="B607" s="16"/>
+      <c r="A607" s="17"/>
+      <c r="B607" s="18"/>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
       <c r="E607" s="2"/>
@@ -18030,8 +18067,8 @@
       <c r="Y607" s="2"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="15"/>
-      <c r="B608" s="16"/>
+      <c r="A608" s="17"/>
+      <c r="B608" s="18"/>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
       <c r="E608" s="2"/>
@@ -18057,8 +18094,8 @@
       <c r="Y608" s="2"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="15"/>
-      <c r="B609" s="16"/>
+      <c r="A609" s="17"/>
+      <c r="B609" s="18"/>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
       <c r="E609" s="2"/>
@@ -18084,8 +18121,8 @@
       <c r="Y609" s="2"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="15"/>
-      <c r="B610" s="16"/>
+      <c r="A610" s="17"/>
+      <c r="B610" s="18"/>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
       <c r="E610" s="2"/>
@@ -18111,8 +18148,8 @@
       <c r="Y610" s="2"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="15"/>
-      <c r="B611" s="16"/>
+      <c r="A611" s="17"/>
+      <c r="B611" s="18"/>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
       <c r="E611" s="2"/>
@@ -18138,8 +18175,8 @@
       <c r="Y611" s="2"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="15"/>
-      <c r="B612" s="16"/>
+      <c r="A612" s="17"/>
+      <c r="B612" s="18"/>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
       <c r="E612" s="2"/>
@@ -18165,8 +18202,8 @@
       <c r="Y612" s="2"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="15"/>
-      <c r="B613" s="16"/>
+      <c r="A613" s="17"/>
+      <c r="B613" s="18"/>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
       <c r="E613" s="2"/>
@@ -18192,8 +18229,8 @@
       <c r="Y613" s="2"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="15"/>
-      <c r="B614" s="16"/>
+      <c r="A614" s="17"/>
+      <c r="B614" s="18"/>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
       <c r="E614" s="2"/>
@@ -18219,8 +18256,8 @@
       <c r="Y614" s="2"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="15"/>
-      <c r="B615" s="16"/>
+      <c r="A615" s="17"/>
+      <c r="B615" s="18"/>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
       <c r="E615" s="2"/>
@@ -18246,8 +18283,8 @@
       <c r="Y615" s="2"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="15"/>
-      <c r="B616" s="16"/>
+      <c r="A616" s="17"/>
+      <c r="B616" s="18"/>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
@@ -18273,8 +18310,8 @@
       <c r="Y616" s="2"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="15"/>
-      <c r="B617" s="16"/>
+      <c r="A617" s="17"/>
+      <c r="B617" s="18"/>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
       <c r="E617" s="2"/>
@@ -18300,8 +18337,8 @@
       <c r="Y617" s="2"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="15"/>
-      <c r="B618" s="16"/>
+      <c r="A618" s="17"/>
+      <c r="B618" s="18"/>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
       <c r="E618" s="2"/>
@@ -18327,8 +18364,8 @@
       <c r="Y618" s="2"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="15"/>
-      <c r="B619" s="16"/>
+      <c r="A619" s="17"/>
+      <c r="B619" s="18"/>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
       <c r="E619" s="2"/>
@@ -18354,8 +18391,8 @@
       <c r="Y619" s="2"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="15"/>
-      <c r="B620" s="16"/>
+      <c r="A620" s="17"/>
+      <c r="B620" s="18"/>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
       <c r="E620" s="2"/>
@@ -18381,8 +18418,8 @@
       <c r="Y620" s="2"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="15"/>
-      <c r="B621" s="16"/>
+      <c r="A621" s="17"/>
+      <c r="B621" s="18"/>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
       <c r="E621" s="2"/>
@@ -18408,8 +18445,8 @@
       <c r="Y621" s="2"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="15"/>
-      <c r="B622" s="16"/>
+      <c r="A622" s="17"/>
+      <c r="B622" s="18"/>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
       <c r="E622" s="2"/>
@@ -18435,8 +18472,8 @@
       <c r="Y622" s="2"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="15"/>
-      <c r="B623" s="16"/>
+      <c r="A623" s="17"/>
+      <c r="B623" s="18"/>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
       <c r="E623" s="2"/>
@@ -18462,8 +18499,8 @@
       <c r="Y623" s="2"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="15"/>
-      <c r="B624" s="16"/>
+      <c r="A624" s="17"/>
+      <c r="B624" s="18"/>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
       <c r="E624" s="2"/>
@@ -18489,8 +18526,8 @@
       <c r="Y624" s="2"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="15"/>
-      <c r="B625" s="16"/>
+      <c r="A625" s="17"/>
+      <c r="B625" s="18"/>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
       <c r="E625" s="2"/>
@@ -18516,8 +18553,8 @@
       <c r="Y625" s="2"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="15"/>
-      <c r="B626" s="16"/>
+      <c r="A626" s="17"/>
+      <c r="B626" s="18"/>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
       <c r="E626" s="2"/>
@@ -18543,8 +18580,8 @@
       <c r="Y626" s="2"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="15"/>
-      <c r="B627" s="16"/>
+      <c r="A627" s="17"/>
+      <c r="B627" s="18"/>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
       <c r="E627" s="2"/>
@@ -18570,8 +18607,8 @@
       <c r="Y627" s="2"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="15"/>
-      <c r="B628" s="16"/>
+      <c r="A628" s="17"/>
+      <c r="B628" s="18"/>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
       <c r="E628" s="2"/>
@@ -18597,8 +18634,8 @@
       <c r="Y628" s="2"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="15"/>
-      <c r="B629" s="16"/>
+      <c r="A629" s="17"/>
+      <c r="B629" s="18"/>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
       <c r="E629" s="2"/>
@@ -18624,8 +18661,8 @@
       <c r="Y629" s="2"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="15"/>
-      <c r="B630" s="16"/>
+      <c r="A630" s="17"/>
+      <c r="B630" s="18"/>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
       <c r="E630" s="2"/>
@@ -18651,8 +18688,8 @@
       <c r="Y630" s="2"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="15"/>
-      <c r="B631" s="16"/>
+      <c r="A631" s="17"/>
+      <c r="B631" s="18"/>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
       <c r="E631" s="2"/>
@@ -18678,8 +18715,8 @@
       <c r="Y631" s="2"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="15"/>
-      <c r="B632" s="16"/>
+      <c r="A632" s="17"/>
+      <c r="B632" s="18"/>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
       <c r="E632" s="2"/>
@@ -18705,8 +18742,8 @@
       <c r="Y632" s="2"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="15"/>
-      <c r="B633" s="16"/>
+      <c r="A633" s="17"/>
+      <c r="B633" s="18"/>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
       <c r="E633" s="2"/>
@@ -18732,8 +18769,8 @@
       <c r="Y633" s="2"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="15"/>
-      <c r="B634" s="16"/>
+      <c r="A634" s="17"/>
+      <c r="B634" s="18"/>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
       <c r="E634" s="2"/>
@@ -18759,8 +18796,8 @@
       <c r="Y634" s="2"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="15"/>
-      <c r="B635" s="16"/>
+      <c r="A635" s="17"/>
+      <c r="B635" s="18"/>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
       <c r="E635" s="2"/>
@@ -18786,8 +18823,8 @@
       <c r="Y635" s="2"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="15"/>
-      <c r="B636" s="16"/>
+      <c r="A636" s="17"/>
+      <c r="B636" s="18"/>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
       <c r="E636" s="2"/>
@@ -18813,8 +18850,8 @@
       <c r="Y636" s="2"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="15"/>
-      <c r="B637" s="16"/>
+      <c r="A637" s="17"/>
+      <c r="B637" s="18"/>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
       <c r="E637" s="2"/>
@@ -18840,8 +18877,8 @@
       <c r="Y637" s="2"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="15"/>
-      <c r="B638" s="16"/>
+      <c r="A638" s="17"/>
+      <c r="B638" s="18"/>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
       <c r="E638" s="2"/>
@@ -18867,8 +18904,8 @@
       <c r="Y638" s="2"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="15"/>
-      <c r="B639" s="16"/>
+      <c r="A639" s="17"/>
+      <c r="B639" s="18"/>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
       <c r="E639" s="2"/>
@@ -18894,8 +18931,8 @@
       <c r="Y639" s="2"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="15"/>
-      <c r="B640" s="16"/>
+      <c r="A640" s="17"/>
+      <c r="B640" s="18"/>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
       <c r="E640" s="2"/>
@@ -18921,8 +18958,8 @@
       <c r="Y640" s="2"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="15"/>
-      <c r="B641" s="16"/>
+      <c r="A641" s="17"/>
+      <c r="B641" s="18"/>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
       <c r="E641" s="2"/>
@@ -18948,8 +18985,8 @@
       <c r="Y641" s="2"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="15"/>
-      <c r="B642" s="16"/>
+      <c r="A642" s="17"/>
+      <c r="B642" s="18"/>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
       <c r="E642" s="2"/>
@@ -18975,8 +19012,8 @@
       <c r="Y642" s="2"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="15"/>
-      <c r="B643" s="16"/>
+      <c r="A643" s="17"/>
+      <c r="B643" s="18"/>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
       <c r="E643" s="2"/>
@@ -19002,8 +19039,8 @@
       <c r="Y643" s="2"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="15"/>
-      <c r="B644" s="16"/>
+      <c r="A644" s="17"/>
+      <c r="B644" s="18"/>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
       <c r="E644" s="2"/>
@@ -19029,8 +19066,8 @@
       <c r="Y644" s="2"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="15"/>
-      <c r="B645" s="16"/>
+      <c r="A645" s="17"/>
+      <c r="B645" s="18"/>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
       <c r="E645" s="2"/>
@@ -19056,8 +19093,8 @@
       <c r="Y645" s="2"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="15"/>
-      <c r="B646" s="16"/>
+      <c r="A646" s="17"/>
+      <c r="B646" s="18"/>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
       <c r="E646" s="2"/>
@@ -19083,8 +19120,8 @@
       <c r="Y646" s="2"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="15"/>
-      <c r="B647" s="16"/>
+      <c r="A647" s="17"/>
+      <c r="B647" s="18"/>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
       <c r="E647" s="2"/>
@@ -19110,8 +19147,8 @@
       <c r="Y647" s="2"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="15"/>
-      <c r="B648" s="16"/>
+      <c r="A648" s="17"/>
+      <c r="B648" s="18"/>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
       <c r="E648" s="2"/>
@@ -19137,8 +19174,8 @@
       <c r="Y648" s="2"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="15"/>
-      <c r="B649" s="16"/>
+      <c r="A649" s="17"/>
+      <c r="B649" s="18"/>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
       <c r="E649" s="2"/>
@@ -19164,8 +19201,8 @@
       <c r="Y649" s="2"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="15"/>
-      <c r="B650" s="16"/>
+      <c r="A650" s="17"/>
+      <c r="B650" s="18"/>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
       <c r="E650" s="2"/>
@@ -19191,8 +19228,8 @@
       <c r="Y650" s="2"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="15"/>
-      <c r="B651" s="16"/>
+      <c r="A651" s="17"/>
+      <c r="B651" s="18"/>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
       <c r="E651" s="2"/>
@@ -19218,8 +19255,8 @@
       <c r="Y651" s="2"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="15"/>
-      <c r="B652" s="16"/>
+      <c r="A652" s="17"/>
+      <c r="B652" s="18"/>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
       <c r="E652" s="2"/>
@@ -19245,8 +19282,8 @@
       <c r="Y652" s="2"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="15"/>
-      <c r="B653" s="16"/>
+      <c r="A653" s="17"/>
+      <c r="B653" s="18"/>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
       <c r="E653" s="2"/>
@@ -19272,8 +19309,8 @@
       <c r="Y653" s="2"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="15"/>
-      <c r="B654" s="16"/>
+      <c r="A654" s="17"/>
+      <c r="B654" s="18"/>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
       <c r="E654" s="2"/>
@@ -19299,8 +19336,8 @@
       <c r="Y654" s="2"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="15"/>
-      <c r="B655" s="16"/>
+      <c r="A655" s="17"/>
+      <c r="B655" s="18"/>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
@@ -19326,8 +19363,8 @@
       <c r="Y655" s="2"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="15"/>
-      <c r="B656" s="16"/>
+      <c r="A656" s="17"/>
+      <c r="B656" s="18"/>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
       <c r="E656" s="2"/>
@@ -19353,8 +19390,8 @@
       <c r="Y656" s="2"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="15"/>
-      <c r="B657" s="16"/>
+      <c r="A657" s="17"/>
+      <c r="B657" s="18"/>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
       <c r="E657" s="2"/>
@@ -19380,8 +19417,8 @@
       <c r="Y657" s="2"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="15"/>
-      <c r="B658" s="16"/>
+      <c r="A658" s="17"/>
+      <c r="B658" s="18"/>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
       <c r="E658" s="2"/>
@@ -19407,8 +19444,8 @@
       <c r="Y658" s="2"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="15"/>
-      <c r="B659" s="16"/>
+      <c r="A659" s="17"/>
+      <c r="B659" s="18"/>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
       <c r="E659" s="2"/>
@@ -19434,8 +19471,8 @@
       <c r="Y659" s="2"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="15"/>
-      <c r="B660" s="16"/>
+      <c r="A660" s="17"/>
+      <c r="B660" s="18"/>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
       <c r="E660" s="2"/>
@@ -19461,8 +19498,8 @@
       <c r="Y660" s="2"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="15"/>
-      <c r="B661" s="16"/>
+      <c r="A661" s="17"/>
+      <c r="B661" s="18"/>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
       <c r="E661" s="2"/>
@@ -19488,8 +19525,8 @@
       <c r="Y661" s="2"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="15"/>
-      <c r="B662" s="16"/>
+      <c r="A662" s="17"/>
+      <c r="B662" s="18"/>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
       <c r="E662" s="2"/>
@@ -19515,8 +19552,8 @@
       <c r="Y662" s="2"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="15"/>
-      <c r="B663" s="16"/>
+      <c r="A663" s="17"/>
+      <c r="B663" s="18"/>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
       <c r="E663" s="2"/>
@@ -19542,8 +19579,8 @@
       <c r="Y663" s="2"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="15"/>
-      <c r="B664" s="16"/>
+      <c r="A664" s="17"/>
+      <c r="B664" s="18"/>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
       <c r="E664" s="2"/>
@@ -19569,8 +19606,8 @@
       <c r="Y664" s="2"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="15"/>
-      <c r="B665" s="16"/>
+      <c r="A665" s="17"/>
+      <c r="B665" s="18"/>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
       <c r="E665" s="2"/>
@@ -19596,8 +19633,8 @@
       <c r="Y665" s="2"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="15"/>
-      <c r="B666" s="16"/>
+      <c r="A666" s="17"/>
+      <c r="B666" s="18"/>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
       <c r="E666" s="2"/>
@@ -19623,8 +19660,8 @@
       <c r="Y666" s="2"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="15"/>
-      <c r="B667" s="16"/>
+      <c r="A667" s="17"/>
+      <c r="B667" s="18"/>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
       <c r="E667" s="2"/>
@@ -19650,8 +19687,8 @@
       <c r="Y667" s="2"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="15"/>
-      <c r="B668" s="16"/>
+      <c r="A668" s="17"/>
+      <c r="B668" s="18"/>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
       <c r="E668" s="2"/>
@@ -19677,8 +19714,8 @@
       <c r="Y668" s="2"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="15"/>
-      <c r="B669" s="16"/>
+      <c r="A669" s="17"/>
+      <c r="B669" s="18"/>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
       <c r="E669" s="2"/>
@@ -19704,8 +19741,8 @@
       <c r="Y669" s="2"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="15"/>
-      <c r="B670" s="16"/>
+      <c r="A670" s="17"/>
+      <c r="B670" s="18"/>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
       <c r="E670" s="2"/>
@@ -19731,8 +19768,8 @@
       <c r="Y670" s="2"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="15"/>
-      <c r="B671" s="16"/>
+      <c r="A671" s="17"/>
+      <c r="B671" s="18"/>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
       <c r="E671" s="2"/>
@@ -19758,8 +19795,8 @@
       <c r="Y671" s="2"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="15"/>
-      <c r="B672" s="16"/>
+      <c r="A672" s="17"/>
+      <c r="B672" s="18"/>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
       <c r="E672" s="2"/>
@@ -19785,8 +19822,8 @@
       <c r="Y672" s="2"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="15"/>
-      <c r="B673" s="16"/>
+      <c r="A673" s="17"/>
+      <c r="B673" s="18"/>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
@@ -19812,8 +19849,8 @@
       <c r="Y673" s="2"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="15"/>
-      <c r="B674" s="16"/>
+      <c r="A674" s="17"/>
+      <c r="B674" s="18"/>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
       <c r="E674" s="2"/>
@@ -19839,8 +19876,8 @@
       <c r="Y674" s="2"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="15"/>
-      <c r="B675" s="16"/>
+      <c r="A675" s="17"/>
+      <c r="B675" s="18"/>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
       <c r="E675" s="2"/>
@@ -19866,8 +19903,8 @@
       <c r="Y675" s="2"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="15"/>
-      <c r="B676" s="16"/>
+      <c r="A676" s="17"/>
+      <c r="B676" s="18"/>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
       <c r="E676" s="2"/>
@@ -19893,8 +19930,8 @@
       <c r="Y676" s="2"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="15"/>
-      <c r="B677" s="16"/>
+      <c r="A677" s="17"/>
+      <c r="B677" s="18"/>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
       <c r="E677" s="2"/>
@@ -19920,8 +19957,8 @@
       <c r="Y677" s="2"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="15"/>
-      <c r="B678" s="16"/>
+      <c r="A678" s="17"/>
+      <c r="B678" s="18"/>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
       <c r="E678" s="2"/>
@@ -19947,8 +19984,8 @@
       <c r="Y678" s="2"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="15"/>
-      <c r="B679" s="16"/>
+      <c r="A679" s="17"/>
+      <c r="B679" s="18"/>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
       <c r="E679" s="2"/>
@@ -19974,8 +20011,8 @@
       <c r="Y679" s="2"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="15"/>
-      <c r="B680" s="16"/>
+      <c r="A680" s="17"/>
+      <c r="B680" s="18"/>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
       <c r="E680" s="2"/>
@@ -20001,8 +20038,8 @@
       <c r="Y680" s="2"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="15"/>
-      <c r="B681" s="16"/>
+      <c r="A681" s="17"/>
+      <c r="B681" s="18"/>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
       <c r="E681" s="2"/>
@@ -20028,8 +20065,8 @@
       <c r="Y681" s="2"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="15"/>
-      <c r="B682" s="16"/>
+      <c r="A682" s="17"/>
+      <c r="B682" s="18"/>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
       <c r="E682" s="2"/>
@@ -20055,8 +20092,8 @@
       <c r="Y682" s="2"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="15"/>
-      <c r="B683" s="16"/>
+      <c r="A683" s="17"/>
+      <c r="B683" s="18"/>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
       <c r="E683" s="2"/>
@@ -20082,8 +20119,8 @@
       <c r="Y683" s="2"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="15"/>
-      <c r="B684" s="16"/>
+      <c r="A684" s="17"/>
+      <c r="B684" s="18"/>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
       <c r="E684" s="2"/>
@@ -20109,8 +20146,8 @@
       <c r="Y684" s="2"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="15"/>
-      <c r="B685" s="16"/>
+      <c r="A685" s="17"/>
+      <c r="B685" s="18"/>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
       <c r="E685" s="2"/>
@@ -20136,8 +20173,8 @@
       <c r="Y685" s="2"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="15"/>
-      <c r="B686" s="16"/>
+      <c r="A686" s="17"/>
+      <c r="B686" s="18"/>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
       <c r="E686" s="2"/>
@@ -20163,8 +20200,8 @@
       <c r="Y686" s="2"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="15"/>
-      <c r="B687" s="16"/>
+      <c r="A687" s="17"/>
+      <c r="B687" s="18"/>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
       <c r="E687" s="2"/>
@@ -20190,8 +20227,8 @@
       <c r="Y687" s="2"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="15"/>
-      <c r="B688" s="16"/>
+      <c r="A688" s="17"/>
+      <c r="B688" s="18"/>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
       <c r="E688" s="2"/>
@@ -20217,8 +20254,8 @@
       <c r="Y688" s="2"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="15"/>
-      <c r="B689" s="16"/>
+      <c r="A689" s="17"/>
+      <c r="B689" s="18"/>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
       <c r="E689" s="2"/>
@@ -20244,8 +20281,8 @@
       <c r="Y689" s="2"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="15"/>
-      <c r="B690" s="16"/>
+      <c r="A690" s="17"/>
+      <c r="B690" s="18"/>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
       <c r="E690" s="2"/>
@@ -20271,8 +20308,8 @@
       <c r="Y690" s="2"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="15"/>
-      <c r="B691" s="16"/>
+      <c r="A691" s="17"/>
+      <c r="B691" s="18"/>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
       <c r="E691" s="2"/>
@@ -20298,8 +20335,8 @@
       <c r="Y691" s="2"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="15"/>
-      <c r="B692" s="16"/>
+      <c r="A692" s="17"/>
+      <c r="B692" s="18"/>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
@@ -20325,8 +20362,8 @@
       <c r="Y692" s="2"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="15"/>
-      <c r="B693" s="16"/>
+      <c r="A693" s="17"/>
+      <c r="B693" s="18"/>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
       <c r="E693" s="2"/>
@@ -20352,8 +20389,8 @@
       <c r="Y693" s="2"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="15"/>
-      <c r="B694" s="16"/>
+      <c r="A694" s="17"/>
+      <c r="B694" s="18"/>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
       <c r="E694" s="2"/>
@@ -20379,8 +20416,8 @@
       <c r="Y694" s="2"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="15"/>
-      <c r="B695" s="16"/>
+      <c r="A695" s="17"/>
+      <c r="B695" s="18"/>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
       <c r="E695" s="2"/>
@@ -20406,8 +20443,8 @@
       <c r="Y695" s="2"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="15"/>
-      <c r="B696" s="16"/>
+      <c r="A696" s="17"/>
+      <c r="B696" s="18"/>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
       <c r="E696" s="2"/>
@@ -20433,8 +20470,8 @@
       <c r="Y696" s="2"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="15"/>
-      <c r="B697" s="16"/>
+      <c r="A697" s="17"/>
+      <c r="B697" s="18"/>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
       <c r="E697" s="2"/>
@@ -20460,8 +20497,8 @@
       <c r="Y697" s="2"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="15"/>
-      <c r="B698" s="16"/>
+      <c r="A698" s="17"/>
+      <c r="B698" s="18"/>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
       <c r="E698" s="2"/>
@@ -20487,8 +20524,8 @@
       <c r="Y698" s="2"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="15"/>
-      <c r="B699" s="16"/>
+      <c r="A699" s="17"/>
+      <c r="B699" s="18"/>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
       <c r="E699" s="2"/>
@@ -20514,8 +20551,8 @@
       <c r="Y699" s="2"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="15"/>
-      <c r="B700" s="16"/>
+      <c r="A700" s="17"/>
+      <c r="B700" s="18"/>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
       <c r="E700" s="2"/>
@@ -20541,8 +20578,8 @@
       <c r="Y700" s="2"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="15"/>
-      <c r="B701" s="16"/>
+      <c r="A701" s="17"/>
+      <c r="B701" s="18"/>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
       <c r="E701" s="2"/>
@@ -20568,8 +20605,8 @@
       <c r="Y701" s="2"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="15"/>
-      <c r="B702" s="16"/>
+      <c r="A702" s="17"/>
+      <c r="B702" s="18"/>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
       <c r="E702" s="2"/>
@@ -20595,8 +20632,8 @@
       <c r="Y702" s="2"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="15"/>
-      <c r="B703" s="16"/>
+      <c r="A703" s="17"/>
+      <c r="B703" s="18"/>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
       <c r="E703" s="2"/>
@@ -20622,8 +20659,8 @@
       <c r="Y703" s="2"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="15"/>
-      <c r="B704" s="16"/>
+      <c r="A704" s="17"/>
+      <c r="B704" s="18"/>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
       <c r="E704" s="2"/>
@@ -20649,8 +20686,8 @@
       <c r="Y704" s="2"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="15"/>
-      <c r="B705" s="16"/>
+      <c r="A705" s="17"/>
+      <c r="B705" s="18"/>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
       <c r="E705" s="2"/>
@@ -20676,8 +20713,8 @@
       <c r="Y705" s="2"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="15"/>
-      <c r="B706" s="16"/>
+      <c r="A706" s="17"/>
+      <c r="B706" s="18"/>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
       <c r="E706" s="2"/>
@@ -20703,8 +20740,8 @@
       <c r="Y706" s="2"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="15"/>
-      <c r="B707" s="16"/>
+      <c r="A707" s="17"/>
+      <c r="B707" s="18"/>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
       <c r="E707" s="2"/>
@@ -20730,8 +20767,8 @@
       <c r="Y707" s="2"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="15"/>
-      <c r="B708" s="16"/>
+      <c r="A708" s="17"/>
+      <c r="B708" s="18"/>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
       <c r="E708" s="2"/>
@@ -20757,8 +20794,8 @@
       <c r="Y708" s="2"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="15"/>
-      <c r="B709" s="16"/>
+      <c r="A709" s="17"/>
+      <c r="B709" s="18"/>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
       <c r="E709" s="2"/>
@@ -20784,8 +20821,8 @@
       <c r="Y709" s="2"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="15"/>
-      <c r="B710" s="16"/>
+      <c r="A710" s="17"/>
+      <c r="B710" s="18"/>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
@@ -20811,8 +20848,8 @@
       <c r="Y710" s="2"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="15"/>
-      <c r="B711" s="16"/>
+      <c r="A711" s="17"/>
+      <c r="B711" s="18"/>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
       <c r="E711" s="2"/>
@@ -20838,8 +20875,8 @@
       <c r="Y711" s="2"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="15"/>
-      <c r="B712" s="16"/>
+      <c r="A712" s="17"/>
+      <c r="B712" s="18"/>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
       <c r="E712" s="2"/>
@@ -20865,8 +20902,8 @@
       <c r="Y712" s="2"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="15"/>
-      <c r="B713" s="16"/>
+      <c r="A713" s="17"/>
+      <c r="B713" s="18"/>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
       <c r="E713" s="2"/>
@@ -20892,8 +20929,8 @@
       <c r="Y713" s="2"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="15"/>
-      <c r="B714" s="16"/>
+      <c r="A714" s="17"/>
+      <c r="B714" s="18"/>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
       <c r="E714" s="2"/>
@@ -20919,8 +20956,8 @@
       <c r="Y714" s="2"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="15"/>
-      <c r="B715" s="16"/>
+      <c r="A715" s="17"/>
+      <c r="B715" s="18"/>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
       <c r="E715" s="2"/>
@@ -20946,8 +20983,8 @@
       <c r="Y715" s="2"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="15"/>
-      <c r="B716" s="16"/>
+      <c r="A716" s="17"/>
+      <c r="B716" s="18"/>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
       <c r="E716" s="2"/>
@@ -20973,8 +21010,8 @@
       <c r="Y716" s="2"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="15"/>
-      <c r="B717" s="16"/>
+      <c r="A717" s="17"/>
+      <c r="B717" s="18"/>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
       <c r="E717" s="2"/>
@@ -21000,8 +21037,8 @@
       <c r="Y717" s="2"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="15"/>
-      <c r="B718" s="16"/>
+      <c r="A718" s="17"/>
+      <c r="B718" s="18"/>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
       <c r="E718" s="2"/>
@@ -21027,8 +21064,8 @@
       <c r="Y718" s="2"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="15"/>
-      <c r="B719" s="16"/>
+      <c r="A719" s="17"/>
+      <c r="B719" s="18"/>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
       <c r="E719" s="2"/>
@@ -21054,8 +21091,8 @@
       <c r="Y719" s="2"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="15"/>
-      <c r="B720" s="16"/>
+      <c r="A720" s="17"/>
+      <c r="B720" s="18"/>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
       <c r="E720" s="2"/>
@@ -21081,8 +21118,8 @@
       <c r="Y720" s="2"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="15"/>
-      <c r="B721" s="16"/>
+      <c r="A721" s="17"/>
+      <c r="B721" s="18"/>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
       <c r="E721" s="2"/>
@@ -21108,8 +21145,8 @@
       <c r="Y721" s="2"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="15"/>
-      <c r="B722" s="16"/>
+      <c r="A722" s="17"/>
+      <c r="B722" s="18"/>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
       <c r="E722" s="2"/>
@@ -21135,8 +21172,8 @@
       <c r="Y722" s="2"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="15"/>
-      <c r="B723" s="16"/>
+      <c r="A723" s="17"/>
+      <c r="B723" s="18"/>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
       <c r="E723" s="2"/>
@@ -21162,8 +21199,8 @@
       <c r="Y723" s="2"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="15"/>
-      <c r="B724" s="16"/>
+      <c r="A724" s="17"/>
+      <c r="B724" s="18"/>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
       <c r="E724" s="2"/>
@@ -21189,8 +21226,8 @@
       <c r="Y724" s="2"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="15"/>
-      <c r="B725" s="16"/>
+      <c r="A725" s="17"/>
+      <c r="B725" s="18"/>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
       <c r="E725" s="2"/>
@@ -21216,8 +21253,8 @@
       <c r="Y725" s="2"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="15"/>
-      <c r="B726" s="16"/>
+      <c r="A726" s="17"/>
+      <c r="B726" s="18"/>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
       <c r="E726" s="2"/>
@@ -21243,8 +21280,8 @@
       <c r="Y726" s="2"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="15"/>
-      <c r="B727" s="16"/>
+      <c r="A727" s="17"/>
+      <c r="B727" s="18"/>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
       <c r="E727" s="2"/>
@@ -21270,8 +21307,8 @@
       <c r="Y727" s="2"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="15"/>
-      <c r="B728" s="16"/>
+      <c r="A728" s="17"/>
+      <c r="B728" s="18"/>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
       <c r="E728" s="2"/>
@@ -21297,8 +21334,8 @@
       <c r="Y728" s="2"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="15"/>
-      <c r="B729" s="16"/>
+      <c r="A729" s="17"/>
+      <c r="B729" s="18"/>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
       <c r="E729" s="2"/>
@@ -21324,8 +21361,8 @@
       <c r="Y729" s="2"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="15"/>
-      <c r="B730" s="16"/>
+      <c r="A730" s="17"/>
+      <c r="B730" s="18"/>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
       <c r="E730" s="2"/>
@@ -21351,8 +21388,8 @@
       <c r="Y730" s="2"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="15"/>
-      <c r="B731" s="16"/>
+      <c r="A731" s="17"/>
+      <c r="B731" s="18"/>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
       <c r="E731" s="2"/>
@@ -21378,8 +21415,8 @@
       <c r="Y731" s="2"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="15"/>
-      <c r="B732" s="16"/>
+      <c r="A732" s="17"/>
+      <c r="B732" s="18"/>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
       <c r="E732" s="2"/>
@@ -21405,8 +21442,8 @@
       <c r="Y732" s="2"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="15"/>
-      <c r="B733" s="16"/>
+      <c r="A733" s="17"/>
+      <c r="B733" s="18"/>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
       <c r="E733" s="2"/>
@@ -21432,8 +21469,8 @@
       <c r="Y733" s="2"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="15"/>
-      <c r="B734" s="16"/>
+      <c r="A734" s="17"/>
+      <c r="B734" s="18"/>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
       <c r="E734" s="2"/>
@@ -21459,8 +21496,8 @@
       <c r="Y734" s="2"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="15"/>
-      <c r="B735" s="16"/>
+      <c r="A735" s="17"/>
+      <c r="B735" s="18"/>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
       <c r="E735" s="2"/>
@@ -21486,8 +21523,8 @@
       <c r="Y735" s="2"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="15"/>
-      <c r="B736" s="16"/>
+      <c r="A736" s="17"/>
+      <c r="B736" s="18"/>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
@@ -21513,8 +21550,8 @@
       <c r="Y736" s="2"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="15"/>
-      <c r="B737" s="16"/>
+      <c r="A737" s="17"/>
+      <c r="B737" s="18"/>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
       <c r="E737" s="2"/>
@@ -21540,8 +21577,8 @@
       <c r="Y737" s="2"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="15"/>
-      <c r="B738" s="16"/>
+      <c r="A738" s="17"/>
+      <c r="B738" s="18"/>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
       <c r="E738" s="2"/>
@@ -21567,8 +21604,8 @@
       <c r="Y738" s="2"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="15"/>
-      <c r="B739" s="16"/>
+      <c r="A739" s="17"/>
+      <c r="B739" s="18"/>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
       <c r="E739" s="2"/>
@@ -21594,8 +21631,8 @@
       <c r="Y739" s="2"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="15"/>
-      <c r="B740" s="16"/>
+      <c r="A740" s="17"/>
+      <c r="B740" s="18"/>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
       <c r="E740" s="2"/>
@@ -21621,8 +21658,8 @@
       <c r="Y740" s="2"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="15"/>
-      <c r="B741" s="16"/>
+      <c r="A741" s="17"/>
+      <c r="B741" s="18"/>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
       <c r="E741" s="2"/>
@@ -21648,8 +21685,8 @@
       <c r="Y741" s="2"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="15"/>
-      <c r="B742" s="16"/>
+      <c r="A742" s="17"/>
+      <c r="B742" s="18"/>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
       <c r="E742" s="2"/>
@@ -21675,8 +21712,8 @@
       <c r="Y742" s="2"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="15"/>
-      <c r="B743" s="16"/>
+      <c r="A743" s="17"/>
+      <c r="B743" s="18"/>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
       <c r="E743" s="2"/>
@@ -21702,8 +21739,8 @@
       <c r="Y743" s="2"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="15"/>
-      <c r="B744" s="16"/>
+      <c r="A744" s="17"/>
+      <c r="B744" s="18"/>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
       <c r="E744" s="2"/>
@@ -21729,8 +21766,8 @@
       <c r="Y744" s="2"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="15"/>
-      <c r="B745" s="16"/>
+      <c r="A745" s="17"/>
+      <c r="B745" s="18"/>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
       <c r="E745" s="2"/>
@@ -21756,8 +21793,8 @@
       <c r="Y745" s="2"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="15"/>
-      <c r="B746" s="16"/>
+      <c r="A746" s="17"/>
+      <c r="B746" s="18"/>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
       <c r="E746" s="2"/>
@@ -21783,8 +21820,8 @@
       <c r="Y746" s="2"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="15"/>
-      <c r="B747" s="16"/>
+      <c r="A747" s="17"/>
+      <c r="B747" s="18"/>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
       <c r="E747" s="2"/>
@@ -21810,8 +21847,8 @@
       <c r="Y747" s="2"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="15"/>
-      <c r="B748" s="16"/>
+      <c r="A748" s="17"/>
+      <c r="B748" s="18"/>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
       <c r="E748" s="2"/>
@@ -21837,8 +21874,8 @@
       <c r="Y748" s="2"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="15"/>
-      <c r="B749" s="16"/>
+      <c r="A749" s="17"/>
+      <c r="B749" s="18"/>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
       <c r="E749" s="2"/>
@@ -21864,8 +21901,8 @@
       <c r="Y749" s="2"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="15"/>
-      <c r="B750" s="16"/>
+      <c r="A750" s="17"/>
+      <c r="B750" s="18"/>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
       <c r="E750" s="2"/>
@@ -21891,8 +21928,8 @@
       <c r="Y750" s="2"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="15"/>
-      <c r="B751" s="16"/>
+      <c r="A751" s="17"/>
+      <c r="B751" s="18"/>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
       <c r="E751" s="2"/>
@@ -21918,8 +21955,8 @@
       <c r="Y751" s="2"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="15"/>
-      <c r="B752" s="16"/>
+      <c r="A752" s="17"/>
+      <c r="B752" s="18"/>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
       <c r="E752" s="2"/>
@@ -21945,8 +21982,8 @@
       <c r="Y752" s="2"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="15"/>
-      <c r="B753" s="16"/>
+      <c r="A753" s="17"/>
+      <c r="B753" s="18"/>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
       <c r="E753" s="2"/>
@@ -21972,8 +22009,8 @@
       <c r="Y753" s="2"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="15"/>
-      <c r="B754" s="16"/>
+      <c r="A754" s="17"/>
+      <c r="B754" s="18"/>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
       <c r="E754" s="2"/>
@@ -21999,8 +22036,8 @@
       <c r="Y754" s="2"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="15"/>
-      <c r="B755" s="16"/>
+      <c r="A755" s="17"/>
+      <c r="B755" s="18"/>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
       <c r="E755" s="2"/>
@@ -22026,8 +22063,8 @@
       <c r="Y755" s="2"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="15"/>
-      <c r="B756" s="16"/>
+      <c r="A756" s="17"/>
+      <c r="B756" s="18"/>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
@@ -22053,8 +22090,8 @@
       <c r="Y756" s="2"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="15"/>
-      <c r="B757" s="16"/>
+      <c r="A757" s="17"/>
+      <c r="B757" s="18"/>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
       <c r="E757" s="2"/>
@@ -22080,8 +22117,8 @@
       <c r="Y757" s="2"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="15"/>
-      <c r="B758" s="16"/>
+      <c r="A758" s="17"/>
+      <c r="B758" s="18"/>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
       <c r="E758" s="2"/>
@@ -22107,8 +22144,8 @@
       <c r="Y758" s="2"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="15"/>
-      <c r="B759" s="16"/>
+      <c r="A759" s="17"/>
+      <c r="B759" s="18"/>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
       <c r="E759" s="2"/>
@@ -22134,8 +22171,8 @@
       <c r="Y759" s="2"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="15"/>
-      <c r="B760" s="16"/>
+      <c r="A760" s="17"/>
+      <c r="B760" s="18"/>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
       <c r="E760" s="2"/>
@@ -22161,8 +22198,8 @@
       <c r="Y760" s="2"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="15"/>
-      <c r="B761" s="16"/>
+      <c r="A761" s="17"/>
+      <c r="B761" s="18"/>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
       <c r="E761" s="2"/>
@@ -22188,8 +22225,8 @@
       <c r="Y761" s="2"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="15"/>
-      <c r="B762" s="16"/>
+      <c r="A762" s="17"/>
+      <c r="B762" s="18"/>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
       <c r="E762" s="2"/>
@@ -22215,8 +22252,8 @@
       <c r="Y762" s="2"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="15"/>
-      <c r="B763" s="16"/>
+      <c r="A763" s="17"/>
+      <c r="B763" s="18"/>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
       <c r="E763" s="2"/>
@@ -22242,8 +22279,8 @@
       <c r="Y763" s="2"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="15"/>
-      <c r="B764" s="16"/>
+      <c r="A764" s="17"/>
+      <c r="B764" s="18"/>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
       <c r="E764" s="2"/>
@@ -22269,8 +22306,8 @@
       <c r="Y764" s="2"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="15"/>
-      <c r="B765" s="16"/>
+      <c r="A765" s="17"/>
+      <c r="B765" s="18"/>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
       <c r="E765" s="2"/>
@@ -22296,8 +22333,8 @@
       <c r="Y765" s="2"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="15"/>
-      <c r="B766" s="16"/>
+      <c r="A766" s="17"/>
+      <c r="B766" s="18"/>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
       <c r="E766" s="2"/>
@@ -22323,8 +22360,8 @@
       <c r="Y766" s="2"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="15"/>
-      <c r="B767" s="16"/>
+      <c r="A767" s="17"/>
+      <c r="B767" s="18"/>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
       <c r="E767" s="2"/>
@@ -22350,8 +22387,8 @@
       <c r="Y767" s="2"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="15"/>
-      <c r="B768" s="16"/>
+      <c r="A768" s="17"/>
+      <c r="B768" s="18"/>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
       <c r="E768" s="2"/>
@@ -22377,8 +22414,8 @@
       <c r="Y768" s="2"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="15"/>
-      <c r="B769" s="16"/>
+      <c r="A769" s="17"/>
+      <c r="B769" s="18"/>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
       <c r="E769" s="2"/>
@@ -22404,8 +22441,8 @@
       <c r="Y769" s="2"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="15"/>
-      <c r="B770" s="16"/>
+      <c r="A770" s="17"/>
+      <c r="B770" s="18"/>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
       <c r="E770" s="2"/>
@@ -22431,8 +22468,8 @@
       <c r="Y770" s="2"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="15"/>
-      <c r="B771" s="16"/>
+      <c r="A771" s="17"/>
+      <c r="B771" s="18"/>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
       <c r="E771" s="2"/>
@@ -22458,8 +22495,8 @@
       <c r="Y771" s="2"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="15"/>
-      <c r="B772" s="16"/>
+      <c r="A772" s="17"/>
+      <c r="B772" s="18"/>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
       <c r="E772" s="2"/>
@@ -22485,8 +22522,8 @@
       <c r="Y772" s="2"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="15"/>
-      <c r="B773" s="16"/>
+      <c r="A773" s="17"/>
+      <c r="B773" s="18"/>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
       <c r="E773" s="2"/>
@@ -22512,8 +22549,8 @@
       <c r="Y773" s="2"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="15"/>
-      <c r="B774" s="16"/>
+      <c r="A774" s="17"/>
+      <c r="B774" s="18"/>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
       <c r="E774" s="2"/>
@@ -22539,8 +22576,8 @@
       <c r="Y774" s="2"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="15"/>
-      <c r="B775" s="16"/>
+      <c r="A775" s="17"/>
+      <c r="B775" s="18"/>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
       <c r="E775" s="2"/>
@@ -22566,8 +22603,8 @@
       <c r="Y775" s="2"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="15"/>
-      <c r="B776" s="16"/>
+      <c r="A776" s="17"/>
+      <c r="B776" s="18"/>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
       <c r="E776" s="2"/>
@@ -22593,8 +22630,8 @@
       <c r="Y776" s="2"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="15"/>
-      <c r="B777" s="16"/>
+      <c r="A777" s="17"/>
+      <c r="B777" s="18"/>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
       <c r="E777" s="2"/>
@@ -22620,8 +22657,8 @@
       <c r="Y777" s="2"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="15"/>
-      <c r="B778" s="16"/>
+      <c r="A778" s="17"/>
+      <c r="B778" s="18"/>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
       <c r="E778" s="2"/>
@@ -22647,8 +22684,8 @@
       <c r="Y778" s="2"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="15"/>
-      <c r="B779" s="16"/>
+      <c r="A779" s="17"/>
+      <c r="B779" s="18"/>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
@@ -22674,8 +22711,8 @@
       <c r="Y779" s="2"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="15"/>
-      <c r="B780" s="16"/>
+      <c r="A780" s="17"/>
+      <c r="B780" s="18"/>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
       <c r="E780" s="2"/>
@@ -22701,8 +22738,8 @@
       <c r="Y780" s="2"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="15"/>
-      <c r="B781" s="16"/>
+      <c r="A781" s="17"/>
+      <c r="B781" s="18"/>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
       <c r="E781" s="2"/>
@@ -22728,8 +22765,8 @@
       <c r="Y781" s="2"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="15"/>
-      <c r="B782" s="16"/>
+      <c r="A782" s="17"/>
+      <c r="B782" s="18"/>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
       <c r="E782" s="2"/>
@@ -22755,8 +22792,8 @@
       <c r="Y782" s="2"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="15"/>
-      <c r="B783" s="16"/>
+      <c r="A783" s="17"/>
+      <c r="B783" s="18"/>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
       <c r="E783" s="2"/>
@@ -22782,8 +22819,8 @@
       <c r="Y783" s="2"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="15"/>
-      <c r="B784" s="16"/>
+      <c r="A784" s="17"/>
+      <c r="B784" s="18"/>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
       <c r="E784" s="2"/>
@@ -22809,8 +22846,8 @@
       <c r="Y784" s="2"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="15"/>
-      <c r="B785" s="16"/>
+      <c r="A785" s="17"/>
+      <c r="B785" s="18"/>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
       <c r="E785" s="2"/>
@@ -22836,8 +22873,8 @@
       <c r="Y785" s="2"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="15"/>
-      <c r="B786" s="16"/>
+      <c r="A786" s="17"/>
+      <c r="B786" s="18"/>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
       <c r="E786" s="2"/>
@@ -22863,8 +22900,8 @@
       <c r="Y786" s="2"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="15"/>
-      <c r="B787" s="16"/>
+      <c r="A787" s="17"/>
+      <c r="B787" s="18"/>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
       <c r="E787" s="2"/>
@@ -22890,8 +22927,8 @@
       <c r="Y787" s="2"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="15"/>
-      <c r="B788" s="16"/>
+      <c r="A788" s="17"/>
+      <c r="B788" s="18"/>
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
       <c r="E788" s="2"/>
@@ -22917,8 +22954,8 @@
       <c r="Y788" s="2"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="15"/>
-      <c r="B789" s="16"/>
+      <c r="A789" s="17"/>
+      <c r="B789" s="18"/>
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
       <c r="E789" s="2"/>
@@ -22944,8 +22981,8 @@
       <c r="Y789" s="2"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="15"/>
-      <c r="B790" s="16"/>
+      <c r="A790" s="17"/>
+      <c r="B790" s="18"/>
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
       <c r="E790" s="2"/>
@@ -22971,8 +23008,8 @@
       <c r="Y790" s="2"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="15"/>
-      <c r="B791" s="16"/>
+      <c r="A791" s="17"/>
+      <c r="B791" s="18"/>
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
       <c r="E791" s="2"/>
@@ -22998,8 +23035,8 @@
       <c r="Y791" s="2"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="15"/>
-      <c r="B792" s="16"/>
+      <c r="A792" s="17"/>
+      <c r="B792" s="18"/>
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
       <c r="E792" s="2"/>
@@ -23025,8 +23062,8 @@
       <c r="Y792" s="2"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="15"/>
-      <c r="B793" s="16"/>
+      <c r="A793" s="17"/>
+      <c r="B793" s="18"/>
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
       <c r="E793" s="2"/>
@@ -23052,8 +23089,8 @@
       <c r="Y793" s="2"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="15"/>
-      <c r="B794" s="16"/>
+      <c r="A794" s="17"/>
+      <c r="B794" s="18"/>
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
       <c r="E794" s="2"/>
@@ -23079,8 +23116,8 @@
       <c r="Y794" s="2"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="15"/>
-      <c r="B795" s="16"/>
+      <c r="A795" s="17"/>
+      <c r="B795" s="18"/>
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
       <c r="E795" s="2"/>
@@ -23106,8 +23143,8 @@
       <c r="Y795" s="2"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="15"/>
-      <c r="B796" s="16"/>
+      <c r="A796" s="17"/>
+      <c r="B796" s="18"/>
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
       <c r="E796" s="2"/>
@@ -23133,8 +23170,8 @@
       <c r="Y796" s="2"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="15"/>
-      <c r="B797" s="16"/>
+      <c r="A797" s="17"/>
+      <c r="B797" s="18"/>
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
       <c r="E797" s="2"/>
@@ -23160,8 +23197,8 @@
       <c r="Y797" s="2"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="15"/>
-      <c r="B798" s="16"/>
+      <c r="A798" s="17"/>
+      <c r="B798" s="18"/>
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
       <c r="E798" s="2"/>
@@ -23187,8 +23224,8 @@
       <c r="Y798" s="2"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="15"/>
-      <c r="B799" s="16"/>
+      <c r="A799" s="17"/>
+      <c r="B799" s="18"/>
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
       <c r="E799" s="2"/>
@@ -23214,8 +23251,8 @@
       <c r="Y799" s="2"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="15"/>
-      <c r="B800" s="16"/>
+      <c r="A800" s="17"/>
+      <c r="B800" s="18"/>
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
       <c r="E800" s="2"/>
@@ -23241,8 +23278,8 @@
       <c r="Y800" s="2"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="15"/>
-      <c r="B801" s="16"/>
+      <c r="A801" s="17"/>
+      <c r="B801" s="18"/>
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
       <c r="E801" s="2"/>
@@ -23268,8 +23305,8 @@
       <c r="Y801" s="2"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="15"/>
-      <c r="B802" s="16"/>
+      <c r="A802" s="17"/>
+      <c r="B802" s="18"/>
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
@@ -23295,8 +23332,8 @@
       <c r="Y802" s="2"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="15"/>
-      <c r="B803" s="16"/>
+      <c r="A803" s="17"/>
+      <c r="B803" s="18"/>
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
       <c r="E803" s="2"/>
@@ -23322,8 +23359,8 @@
       <c r="Y803" s="2"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="15"/>
-      <c r="B804" s="16"/>
+      <c r="A804" s="17"/>
+      <c r="B804" s="18"/>
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
       <c r="E804" s="2"/>
@@ -23349,8 +23386,8 @@
       <c r="Y804" s="2"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="15"/>
-      <c r="B805" s="16"/>
+      <c r="A805" s="17"/>
+      <c r="B805" s="18"/>
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
       <c r="E805" s="2"/>
@@ -23376,8 +23413,8 @@
       <c r="Y805" s="2"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="15"/>
-      <c r="B806" s="16"/>
+      <c r="A806" s="17"/>
+      <c r="B806" s="18"/>
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
       <c r="E806" s="2"/>
@@ -23403,8 +23440,8 @@
       <c r="Y806" s="2"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="15"/>
-      <c r="B807" s="16"/>
+      <c r="A807" s="17"/>
+      <c r="B807" s="18"/>
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
       <c r="E807" s="2"/>
@@ -23430,8 +23467,8 @@
       <c r="Y807" s="2"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="15"/>
-      <c r="B808" s="16"/>
+      <c r="A808" s="17"/>
+      <c r="B808" s="18"/>
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
       <c r="E808" s="2"/>
@@ -23457,8 +23494,8 @@
       <c r="Y808" s="2"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="15"/>
-      <c r="B809" s="16"/>
+      <c r="A809" s="17"/>
+      <c r="B809" s="18"/>
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
       <c r="E809" s="2"/>
@@ -23484,8 +23521,8 @@
       <c r="Y809" s="2"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="15"/>
-      <c r="B810" s="16"/>
+      <c r="A810" s="17"/>
+      <c r="B810" s="18"/>
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
       <c r="E810" s="2"/>
@@ -23511,8 +23548,8 @@
       <c r="Y810" s="2"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="15"/>
-      <c r="B811" s="16"/>
+      <c r="A811" s="17"/>
+      <c r="B811" s="18"/>
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
       <c r="E811" s="2"/>
@@ -23538,8 +23575,8 @@
       <c r="Y811" s="2"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="15"/>
-      <c r="B812" s="16"/>
+      <c r="A812" s="17"/>
+      <c r="B812" s="18"/>
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
       <c r="E812" s="2"/>
@@ -23565,8 +23602,8 @@
       <c r="Y812" s="2"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="15"/>
-      <c r="B813" s="16"/>
+      <c r="A813" s="17"/>
+      <c r="B813" s="18"/>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
       <c r="E813" s="2"/>
@@ -23592,8 +23629,8 @@
       <c r="Y813" s="2"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="15"/>
-      <c r="B814" s="16"/>
+      <c r="A814" s="17"/>
+      <c r="B814" s="18"/>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
       <c r="E814" s="2"/>
@@ -23619,8 +23656,8 @@
       <c r="Y814" s="2"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="15"/>
-      <c r="B815" s="16"/>
+      <c r="A815" s="17"/>
+      <c r="B815" s="18"/>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
       <c r="E815" s="2"/>
@@ -23646,8 +23683,8 @@
       <c r="Y815" s="2"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="15"/>
-      <c r="B816" s="16"/>
+      <c r="A816" s="17"/>
+      <c r="B816" s="18"/>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
       <c r="E816" s="2"/>
@@ -23673,8 +23710,8 @@
       <c r="Y816" s="2"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="15"/>
-      <c r="B817" s="16"/>
+      <c r="A817" s="17"/>
+      <c r="B817" s="18"/>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
       <c r="E817" s="2"/>
@@ -23700,8 +23737,8 @@
       <c r="Y817" s="2"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="15"/>
-      <c r="B818" s="16"/>
+      <c r="A818" s="17"/>
+      <c r="B818" s="18"/>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
       <c r="E818" s="2"/>
@@ -23727,8 +23764,8 @@
       <c r="Y818" s="2"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="15"/>
-      <c r="B819" s="16"/>
+      <c r="A819" s="17"/>
+      <c r="B819" s="18"/>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
       <c r="E819" s="2"/>
@@ -23754,8 +23791,8 @@
       <c r="Y819" s="2"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="15"/>
-      <c r="B820" s="16"/>
+      <c r="A820" s="17"/>
+      <c r="B820" s="18"/>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
       <c r="E820" s="2"/>
@@ -23781,8 +23818,8 @@
       <c r="Y820" s="2"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="15"/>
-      <c r="B821" s="16"/>
+      <c r="A821" s="17"/>
+      <c r="B821" s="18"/>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
       <c r="E821" s="2"/>
@@ -23808,8 +23845,8 @@
       <c r="Y821" s="2"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="15"/>
-      <c r="B822" s="16"/>
+      <c r="A822" s="17"/>
+      <c r="B822" s="18"/>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
       <c r="E822" s="2"/>
@@ -23835,8 +23872,8 @@
       <c r="Y822" s="2"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="15"/>
-      <c r="B823" s="16"/>
+      <c r="A823" s="17"/>
+      <c r="B823" s="18"/>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
       <c r="E823" s="2"/>
@@ -23862,8 +23899,8 @@
       <c r="Y823" s="2"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="15"/>
-      <c r="B824" s="16"/>
+      <c r="A824" s="17"/>
+      <c r="B824" s="18"/>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
@@ -23889,8 +23926,8 @@
       <c r="Y824" s="2"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="15"/>
-      <c r="B825" s="16"/>
+      <c r="A825" s="17"/>
+      <c r="B825" s="18"/>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
       <c r="E825" s="2"/>
@@ -23916,8 +23953,8 @@
       <c r="Y825" s="2"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="15"/>
-      <c r="B826" s="16"/>
+      <c r="A826" s="17"/>
+      <c r="B826" s="18"/>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
       <c r="E826" s="2"/>
@@ -23943,8 +23980,8 @@
       <c r="Y826" s="2"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="15"/>
-      <c r="B827" s="16"/>
+      <c r="A827" s="17"/>
+      <c r="B827" s="18"/>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
       <c r="E827" s="2"/>
@@ -23970,8 +24007,8 @@
       <c r="Y827" s="2"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="15"/>
-      <c r="B828" s="16"/>
+      <c r="A828" s="17"/>
+      <c r="B828" s="18"/>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
       <c r="E828" s="2"/>
@@ -23997,8 +24034,8 @@
       <c r="Y828" s="2"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="15"/>
-      <c r="B829" s="16"/>
+      <c r="A829" s="17"/>
+      <c r="B829" s="18"/>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
       <c r="E829" s="2"/>
@@ -24024,8 +24061,8 @@
       <c r="Y829" s="2"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="15"/>
-      <c r="B830" s="16"/>
+      <c r="A830" s="17"/>
+      <c r="B830" s="18"/>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
       <c r="E830" s="2"/>
@@ -24051,8 +24088,8 @@
       <c r="Y830" s="2"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="15"/>
-      <c r="B831" s="16"/>
+      <c r="A831" s="17"/>
+      <c r="B831" s="18"/>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
       <c r="E831" s="2"/>
@@ -24078,8 +24115,8 @@
       <c r="Y831" s="2"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="15"/>
-      <c r="B832" s="16"/>
+      <c r="A832" s="17"/>
+      <c r="B832" s="18"/>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
       <c r="E832" s="2"/>
@@ -24105,8 +24142,8 @@
       <c r="Y832" s="2"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="15"/>
-      <c r="B833" s="16"/>
+      <c r="A833" s="17"/>
+      <c r="B833" s="18"/>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
       <c r="E833" s="2"/>
@@ -24132,8 +24169,8 @@
       <c r="Y833" s="2"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="15"/>
-      <c r="B834" s="16"/>
+      <c r="A834" s="17"/>
+      <c r="B834" s="18"/>
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
       <c r="E834" s="2"/>
@@ -24159,8 +24196,8 @@
       <c r="Y834" s="2"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="15"/>
-      <c r="B835" s="16"/>
+      <c r="A835" s="17"/>
+      <c r="B835" s="18"/>
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
       <c r="E835" s="2"/>
@@ -24186,8 +24223,8 @@
       <c r="Y835" s="2"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="15"/>
-      <c r="B836" s="16"/>
+      <c r="A836" s="17"/>
+      <c r="B836" s="18"/>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
       <c r="E836" s="2"/>
@@ -24213,8 +24250,8 @@
       <c r="Y836" s="2"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="15"/>
-      <c r="B837" s="16"/>
+      <c r="A837" s="17"/>
+      <c r="B837" s="18"/>
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
       <c r="E837" s="2"/>
@@ -24240,8 +24277,8 @@
       <c r="Y837" s="2"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="15"/>
-      <c r="B838" s="16"/>
+      <c r="A838" s="17"/>
+      <c r="B838" s="18"/>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
       <c r="E838" s="2"/>
@@ -24267,8 +24304,8 @@
       <c r="Y838" s="2"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="15"/>
-      <c r="B839" s="16"/>
+      <c r="A839" s="17"/>
+      <c r="B839" s="18"/>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
       <c r="E839" s="2"/>
@@ -24294,8 +24331,8 @@
       <c r="Y839" s="2"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="15"/>
-      <c r="B840" s="16"/>
+      <c r="A840" s="17"/>
+      <c r="B840" s="18"/>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
       <c r="E840" s="2"/>
@@ -24321,8 +24358,8 @@
       <c r="Y840" s="2"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="15"/>
-      <c r="B841" s="16"/>
+      <c r="A841" s="17"/>
+      <c r="B841" s="18"/>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
       <c r="E841" s="2"/>
@@ -24348,8 +24385,8 @@
       <c r="Y841" s="2"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="15"/>
-      <c r="B842" s="16"/>
+      <c r="A842" s="17"/>
+      <c r="B842" s="18"/>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
       <c r="E842" s="2"/>
@@ -24375,8 +24412,8 @@
       <c r="Y842" s="2"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="15"/>
-      <c r="B843" s="16"/>
+      <c r="A843" s="17"/>
+      <c r="B843" s="18"/>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
       <c r="E843" s="2"/>
@@ -24402,8 +24439,8 @@
       <c r="Y843" s="2"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="15"/>
-      <c r="B844" s="16"/>
+      <c r="A844" s="17"/>
+      <c r="B844" s="18"/>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
       <c r="E844" s="2"/>
@@ -24429,8 +24466,8 @@
       <c r="Y844" s="2"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="15"/>
-      <c r="B845" s="16"/>
+      <c r="A845" s="17"/>
+      <c r="B845" s="18"/>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
       <c r="E845" s="2"/>
@@ -24456,8 +24493,8 @@
       <c r="Y845" s="2"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="15"/>
-      <c r="B846" s="16"/>
+      <c r="A846" s="17"/>
+      <c r="B846" s="18"/>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
       <c r="E846" s="2"/>
@@ -24483,8 +24520,8 @@
       <c r="Y846" s="2"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="15"/>
-      <c r="B847" s="16"/>
+      <c r="A847" s="17"/>
+      <c r="B847" s="18"/>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
       <c r="E847" s="2"/>
@@ -24510,8 +24547,8 @@
       <c r="Y847" s="2"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="15"/>
-      <c r="B848" s="16"/>
+      <c r="A848" s="17"/>
+      <c r="B848" s="18"/>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
       <c r="E848" s="2"/>
@@ -24537,8 +24574,8 @@
       <c r="Y848" s="2"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="15"/>
-      <c r="B849" s="16"/>
+      <c r="A849" s="17"/>
+      <c r="B849" s="18"/>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
       <c r="E849" s="2"/>
@@ -24564,8 +24601,8 @@
       <c r="Y849" s="2"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="15"/>
-      <c r="B850" s="16"/>
+      <c r="A850" s="17"/>
+      <c r="B850" s="18"/>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
       <c r="E850" s="2"/>
@@ -24591,8 +24628,8 @@
       <c r="Y850" s="2"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="15"/>
-      <c r="B851" s="16"/>
+      <c r="A851" s="17"/>
+      <c r="B851" s="18"/>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
       <c r="E851" s="2"/>
@@ -24618,8 +24655,8 @@
       <c r="Y851" s="2"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="15"/>
-      <c r="B852" s="16"/>
+      <c r="A852" s="17"/>
+      <c r="B852" s="18"/>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
       <c r="E852" s="2"/>
@@ -24645,8 +24682,8 @@
       <c r="Y852" s="2"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="15"/>
-      <c r="B853" s="16"/>
+      <c r="A853" s="17"/>
+      <c r="B853" s="18"/>
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
       <c r="E853" s="2"/>
@@ -24672,8 +24709,8 @@
       <c r="Y853" s="2"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="15"/>
-      <c r="B854" s="16"/>
+      <c r="A854" s="17"/>
+      <c r="B854" s="18"/>
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
       <c r="E854" s="2"/>
@@ -24699,8 +24736,8 @@
       <c r="Y854" s="2"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="15"/>
-      <c r="B855" s="16"/>
+      <c r="A855" s="17"/>
+      <c r="B855" s="18"/>
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
       <c r="E855" s="2"/>
@@ -24726,8 +24763,8 @@
       <c r="Y855" s="2"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="15"/>
-      <c r="B856" s="16"/>
+      <c r="A856" s="17"/>
+      <c r="B856" s="18"/>
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
       <c r="E856" s="2"/>
@@ -24753,8 +24790,8 @@
       <c r="Y856" s="2"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="15"/>
-      <c r="B857" s="16"/>
+      <c r="A857" s="17"/>
+      <c r="B857" s="18"/>
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
       <c r="E857" s="2"/>
@@ -24780,8 +24817,8 @@
       <c r="Y857" s="2"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="15"/>
-      <c r="B858" s="16"/>
+      <c r="A858" s="17"/>
+      <c r="B858" s="18"/>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
       <c r="E858" s="2"/>
@@ -24807,8 +24844,8 @@
       <c r="Y858" s="2"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="15"/>
-      <c r="B859" s="16"/>
+      <c r="A859" s="17"/>
+      <c r="B859" s="18"/>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
       <c r="E859" s="2"/>
@@ -24834,8 +24871,8 @@
       <c r="Y859" s="2"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="15"/>
-      <c r="B860" s="16"/>
+      <c r="A860" s="17"/>
+      <c r="B860" s="18"/>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
       <c r="E860" s="2"/>
@@ -24861,8 +24898,8 @@
       <c r="Y860" s="2"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="15"/>
-      <c r="B861" s="16"/>
+      <c r="A861" s="17"/>
+      <c r="B861" s="18"/>
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
       <c r="E861" s="2"/>
@@ -24888,8 +24925,8 @@
       <c r="Y861" s="2"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="15"/>
-      <c r="B862" s="16"/>
+      <c r="A862" s="17"/>
+      <c r="B862" s="18"/>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
       <c r="E862" s="2"/>
@@ -24915,8 +24952,8 @@
       <c r="Y862" s="2"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="15"/>
-      <c r="B863" s="16"/>
+      <c r="A863" s="17"/>
+      <c r="B863" s="18"/>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
       <c r="E863" s="2"/>
@@ -24942,8 +24979,8 @@
       <c r="Y863" s="2"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="15"/>
-      <c r="B864" s="16"/>
+      <c r="A864" s="17"/>
+      <c r="B864" s="18"/>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
       <c r="E864" s="2"/>
@@ -24969,8 +25006,8 @@
       <c r="Y864" s="2"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="15"/>
-      <c r="B865" s="16"/>
+      <c r="A865" s="17"/>
+      <c r="B865" s="18"/>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
       <c r="E865" s="2"/>
@@ -24996,8 +25033,8 @@
       <c r="Y865" s="2"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="15"/>
-      <c r="B866" s="16"/>
+      <c r="A866" s="17"/>
+      <c r="B866" s="18"/>
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
       <c r="E866" s="2"/>
@@ -25023,8 +25060,8 @@
       <c r="Y866" s="2"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="15"/>
-      <c r="B867" s="16"/>
+      <c r="A867" s="17"/>
+      <c r="B867" s="18"/>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
       <c r="E867" s="2"/>
@@ -25050,8 +25087,8 @@
       <c r="Y867" s="2"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="15"/>
-      <c r="B868" s="16"/>
+      <c r="A868" s="17"/>
+      <c r="B868" s="18"/>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
       <c r="E868" s="2"/>
@@ -25077,8 +25114,8 @@
       <c r="Y868" s="2"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="15"/>
-      <c r="B869" s="16"/>
+      <c r="A869" s="17"/>
+      <c r="B869" s="18"/>
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
       <c r="E869" s="2"/>
@@ -25104,8 +25141,8 @@
       <c r="Y869" s="2"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="15"/>
-      <c r="B870" s="16"/>
+      <c r="A870" s="17"/>
+      <c r="B870" s="18"/>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
       <c r="E870" s="2"/>
@@ -25131,8 +25168,8 @@
       <c r="Y870" s="2"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="15"/>
-      <c r="B871" s="16"/>
+      <c r="A871" s="17"/>
+      <c r="B871" s="18"/>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
       <c r="E871" s="2"/>
@@ -25158,8 +25195,8 @@
       <c r="Y871" s="2"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="15"/>
-      <c r="B872" s="16"/>
+      <c r="A872" s="17"/>
+      <c r="B872" s="18"/>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
       <c r="E872" s="2"/>
@@ -25185,8 +25222,8 @@
       <c r="Y872" s="2"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="15"/>
-      <c r="B873" s="16"/>
+      <c r="A873" s="17"/>
+      <c r="B873" s="18"/>
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
       <c r="E873" s="2"/>
@@ -25212,8 +25249,8 @@
       <c r="Y873" s="2"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="15"/>
-      <c r="B874" s="16"/>
+      <c r="A874" s="17"/>
+      <c r="B874" s="18"/>
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
       <c r="E874" s="2"/>
@@ -25239,8 +25276,8 @@
       <c r="Y874" s="2"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="15"/>
-      <c r="B875" s="16"/>
+      <c r="A875" s="17"/>
+      <c r="B875" s="18"/>
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
       <c r="E875" s="2"/>
@@ -25266,8 +25303,8 @@
       <c r="Y875" s="2"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="15"/>
-      <c r="B876" s="16"/>
+      <c r="A876" s="17"/>
+      <c r="B876" s="18"/>
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
       <c r="E876" s="2"/>
@@ -25293,8 +25330,8 @@
       <c r="Y876" s="2"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="15"/>
-      <c r="B877" s="16"/>
+      <c r="A877" s="17"/>
+      <c r="B877" s="18"/>
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
       <c r="E877" s="2"/>
@@ -25320,8 +25357,8 @@
       <c r="Y877" s="2"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="15"/>
-      <c r="B878" s="16"/>
+      <c r="A878" s="17"/>
+      <c r="B878" s="18"/>
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
       <c r="E878" s="2"/>
@@ -25347,8 +25384,8 @@
       <c r="Y878" s="2"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="15"/>
-      <c r="B879" s="16"/>
+      <c r="A879" s="17"/>
+      <c r="B879" s="18"/>
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
       <c r="E879" s="2"/>
@@ -25374,8 +25411,8 @@
       <c r="Y879" s="2"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="15"/>
-      <c r="B880" s="16"/>
+      <c r="A880" s="17"/>
+      <c r="B880" s="18"/>
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
       <c r="E880" s="2"/>
@@ -25401,8 +25438,8 @@
       <c r="Y880" s="2"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="15"/>
-      <c r="B881" s="16"/>
+      <c r="A881" s="17"/>
+      <c r="B881" s="18"/>
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
       <c r="E881" s="2"/>
@@ -25428,8 +25465,8 @@
       <c r="Y881" s="2"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="15"/>
-      <c r="B882" s="16"/>
+      <c r="A882" s="17"/>
+      <c r="B882" s="18"/>
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
       <c r="E882" s="2"/>
@@ -25455,8 +25492,8 @@
       <c r="Y882" s="2"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="15"/>
-      <c r="B883" s="16"/>
+      <c r="A883" s="17"/>
+      <c r="B883" s="18"/>
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
       <c r="E883" s="2"/>
@@ -25482,8 +25519,8 @@
       <c r="Y883" s="2"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="15"/>
-      <c r="B884" s="16"/>
+      <c r="A884" s="17"/>
+      <c r="B884" s="18"/>
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
       <c r="E884" s="2"/>
@@ -25509,8 +25546,8 @@
       <c r="Y884" s="2"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="15"/>
-      <c r="B885" s="16"/>
+      <c r="A885" s="17"/>
+      <c r="B885" s="18"/>
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
       <c r="E885" s="2"/>
@@ -25536,8 +25573,8 @@
       <c r="Y885" s="2"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="15"/>
-      <c r="B886" s="16"/>
+      <c r="A886" s="17"/>
+      <c r="B886" s="18"/>
       <c r="C886" s="2"/>
       <c r="D886" s="2"/>
       <c r="E886" s="2"/>
@@ -25563,8 +25600,8 @@
       <c r="Y886" s="2"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="15"/>
-      <c r="B887" s="16"/>
+      <c r="A887" s="17"/>
+      <c r="B887" s="18"/>
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
       <c r="E887" s="2"/>
@@ -25590,8 +25627,8 @@
       <c r="Y887" s="2"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="15"/>
-      <c r="B888" s="16"/>
+      <c r="A888" s="17"/>
+      <c r="B888" s="18"/>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
       <c r="E888" s="2"/>
@@ -25617,8 +25654,8 @@
       <c r="Y888" s="2"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="15"/>
-      <c r="B889" s="16"/>
+      <c r="A889" s="17"/>
+      <c r="B889" s="18"/>
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
       <c r="E889" s="2"/>
@@ -25644,8 +25681,8 @@
       <c r="Y889" s="2"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="15"/>
-      <c r="B890" s="16"/>
+      <c r="A890" s="17"/>
+      <c r="B890" s="18"/>
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
       <c r="E890" s="2"/>
@@ -25671,8 +25708,8 @@
       <c r="Y890" s="2"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="15"/>
-      <c r="B891" s="16"/>
+      <c r="A891" s="17"/>
+      <c r="B891" s="18"/>
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
       <c r="E891" s="2"/>
@@ -25698,8 +25735,8 @@
       <c r="Y891" s="2"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="15"/>
-      <c r="B892" s="16"/>
+      <c r="A892" s="17"/>
+      <c r="B892" s="18"/>
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
       <c r="E892" s="2"/>
@@ -25725,8 +25762,8 @@
       <c r="Y892" s="2"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="15"/>
-      <c r="B893" s="16"/>
+      <c r="A893" s="17"/>
+      <c r="B893" s="18"/>
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
       <c r="E893" s="2"/>
@@ -25752,8 +25789,8 @@
       <c r="Y893" s="2"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="15"/>
-      <c r="B894" s="16"/>
+      <c r="A894" s="17"/>
+      <c r="B894" s="18"/>
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
       <c r="E894" s="2"/>
@@ -25779,8 +25816,8 @@
       <c r="Y894" s="2"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="15"/>
-      <c r="B895" s="16"/>
+      <c r="A895" s="17"/>
+      <c r="B895" s="18"/>
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
       <c r="E895" s="2"/>
@@ -25806,8 +25843,8 @@
       <c r="Y895" s="2"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="15"/>
-      <c r="B896" s="16"/>
+      <c r="A896" s="17"/>
+      <c r="B896" s="18"/>
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
       <c r="E896" s="2"/>
@@ -25833,8 +25870,8 @@
       <c r="Y896" s="2"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="15"/>
-      <c r="B897" s="16"/>
+      <c r="A897" s="17"/>
+      <c r="B897" s="18"/>
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
       <c r="E897" s="2"/>
@@ -25860,8 +25897,8 @@
       <c r="Y897" s="2"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="15"/>
-      <c r="B898" s="16"/>
+      <c r="A898" s="17"/>
+      <c r="B898" s="18"/>
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
       <c r="E898" s="2"/>
@@ -25887,8 +25924,8 @@
       <c r="Y898" s="2"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="15"/>
-      <c r="B899" s="16"/>
+      <c r="A899" s="17"/>
+      <c r="B899" s="18"/>
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
       <c r="E899" s="2"/>
@@ -25914,8 +25951,8 @@
       <c r="Y899" s="2"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="15"/>
-      <c r="B900" s="16"/>
+      <c r="A900" s="17"/>
+      <c r="B900" s="18"/>
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
       <c r="E900" s="2"/>
@@ -25941,8 +25978,8 @@
       <c r="Y900" s="2"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="15"/>
-      <c r="B901" s="16"/>
+      <c r="A901" s="17"/>
+      <c r="B901" s="18"/>
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
       <c r="E901" s="2"/>
@@ -25968,8 +26005,8 @@
       <c r="Y901" s="2"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="15"/>
-      <c r="B902" s="16"/>
+      <c r="A902" s="17"/>
+      <c r="B902" s="18"/>
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
       <c r="E902" s="2"/>
@@ -25995,8 +26032,8 @@
       <c r="Y902" s="2"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="15"/>
-      <c r="B903" s="16"/>
+      <c r="A903" s="17"/>
+      <c r="B903" s="18"/>
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
       <c r="E903" s="2"/>
@@ -26022,8 +26059,8 @@
       <c r="Y903" s="2"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="15"/>
-      <c r="B904" s="16"/>
+      <c r="A904" s="17"/>
+      <c r="B904" s="18"/>
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
       <c r="E904" s="2"/>
@@ -26049,8 +26086,8 @@
       <c r="Y904" s="2"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="15"/>
-      <c r="B905" s="16"/>
+      <c r="A905" s="17"/>
+      <c r="B905" s="18"/>
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
       <c r="E905" s="2"/>
@@ -26076,8 +26113,8 @@
       <c r="Y905" s="2"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="15"/>
-      <c r="B906" s="16"/>
+      <c r="A906" s="17"/>
+      <c r="B906" s="18"/>
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
       <c r="E906" s="2"/>
@@ -26103,8 +26140,8 @@
       <c r="Y906" s="2"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="15"/>
-      <c r="B907" s="16"/>
+      <c r="A907" s="17"/>
+      <c r="B907" s="18"/>
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
       <c r="E907" s="2"/>
@@ -26130,8 +26167,8 @@
       <c r="Y907" s="2"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="15"/>
-      <c r="B908" s="16"/>
+      <c r="A908" s="17"/>
+      <c r="B908" s="18"/>
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
       <c r="E908" s="2"/>
@@ -26157,8 +26194,8 @@
       <c r="Y908" s="2"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="15"/>
-      <c r="B909" s="16"/>
+      <c r="A909" s="17"/>
+      <c r="B909" s="18"/>
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
       <c r="E909" s="2"/>
@@ -26184,8 +26221,8 @@
       <c r="Y909" s="2"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="15"/>
-      <c r="B910" s="16"/>
+      <c r="A910" s="17"/>
+      <c r="B910" s="18"/>
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
       <c r="E910" s="2"/>
@@ -26211,8 +26248,8 @@
       <c r="Y910" s="2"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="15"/>
-      <c r="B911" s="16"/>
+      <c r="A911" s="17"/>
+      <c r="B911" s="18"/>
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
       <c r="E911" s="2"/>
@@ -26238,8 +26275,8 @@
       <c r="Y911" s="2"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="15"/>
-      <c r="B912" s="16"/>
+      <c r="A912" s="17"/>
+      <c r="B912" s="18"/>
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
       <c r="E912" s="2"/>
@@ -26265,8 +26302,8 @@
       <c r="Y912" s="2"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="15"/>
-      <c r="B913" s="16"/>
+      <c r="A913" s="17"/>
+      <c r="B913" s="18"/>
       <c r="C913" s="2"/>
       <c r="D913" s="2"/>
       <c r="E913" s="2"/>
@@ -26292,8 +26329,8 @@
       <c r="Y913" s="2"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="15"/>
-      <c r="B914" s="16"/>
+      <c r="A914" s="17"/>
+      <c r="B914" s="18"/>
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
       <c r="E914" s="2"/>
@@ -26319,8 +26356,8 @@
       <c r="Y914" s="2"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="15"/>
-      <c r="B915" s="16"/>
+      <c r="A915" s="17"/>
+      <c r="B915" s="18"/>
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
       <c r="E915" s="2"/>
@@ -26346,8 +26383,8 @@
       <c r="Y915" s="2"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="15"/>
-      <c r="B916" s="16"/>
+      <c r="A916" s="17"/>
+      <c r="B916" s="18"/>
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
       <c r="E916" s="2"/>
@@ -26373,8 +26410,8 @@
       <c r="Y916" s="2"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="15"/>
-      <c r="B917" s="16"/>
+      <c r="A917" s="17"/>
+      <c r="B917" s="18"/>
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
       <c r="E917" s="2"/>
@@ -26400,8 +26437,8 @@
       <c r="Y917" s="2"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="15"/>
-      <c r="B918" s="16"/>
+      <c r="A918" s="17"/>
+      <c r="B918" s="18"/>
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
       <c r="E918" s="2"/>
@@ -26427,8 +26464,8 @@
       <c r="Y918" s="2"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="15"/>
-      <c r="B919" s="16"/>
+      <c r="A919" s="17"/>
+      <c r="B919" s="18"/>
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
       <c r="E919" s="2"/>
@@ -26454,8 +26491,8 @@
       <c r="Y919" s="2"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="15"/>
-      <c r="B920" s="16"/>
+      <c r="A920" s="17"/>
+      <c r="B920" s="18"/>
       <c r="C920" s="2"/>
       <c r="D920" s="2"/>
       <c r="E920" s="2"/>
@@ -26481,8 +26518,8 @@
       <c r="Y920" s="2"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="15"/>
-      <c r="B921" s="16"/>
+      <c r="A921" s="17"/>
+      <c r="B921" s="18"/>
       <c r="C921" s="2"/>
       <c r="D921" s="2"/>
       <c r="E921" s="2"/>
@@ -26508,8 +26545,8 @@
       <c r="Y921" s="2"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="15"/>
-      <c r="B922" s="16"/>
+      <c r="A922" s="17"/>
+      <c r="B922" s="18"/>
       <c r="C922" s="2"/>
       <c r="D922" s="2"/>
       <c r="E922" s="2"/>
@@ -26535,8 +26572,8 @@
       <c r="Y922" s="2"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="15"/>
-      <c r="B923" s="16"/>
+      <c r="A923" s="17"/>
+      <c r="B923" s="18"/>
       <c r="C923" s="2"/>
       <c r="D923" s="2"/>
       <c r="E923" s="2"/>
@@ -26562,8 +26599,8 @@
       <c r="Y923" s="2"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="15"/>
-      <c r="B924" s="16"/>
+      <c r="A924" s="17"/>
+      <c r="B924" s="18"/>
       <c r="C924" s="2"/>
       <c r="D924" s="2"/>
       <c r="E924" s="2"/>
@@ -26589,8 +26626,8 @@
       <c r="Y924" s="2"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="15"/>
-      <c r="B925" s="16"/>
+      <c r="A925" s="17"/>
+      <c r="B925" s="18"/>
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
       <c r="E925" s="2"/>
@@ -26616,8 +26653,8 @@
       <c r="Y925" s="2"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="15"/>
-      <c r="B926" s="16"/>
+      <c r="A926" s="17"/>
+      <c r="B926" s="18"/>
       <c r="C926" s="2"/>
       <c r="D926" s="2"/>
       <c r="E926" s="2"/>
@@ -26643,8 +26680,8 @@
       <c r="Y926" s="2"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="15"/>
-      <c r="B927" s="16"/>
+      <c r="A927" s="17"/>
+      <c r="B927" s="18"/>
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
       <c r="E927" s="2"/>
@@ -26670,8 +26707,8 @@
       <c r="Y927" s="2"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="15"/>
-      <c r="B928" s="16"/>
+      <c r="A928" s="17"/>
+      <c r="B928" s="18"/>
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
       <c r="E928" s="2"/>
@@ -26697,8 +26734,8 @@
       <c r="Y928" s="2"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="15"/>
-      <c r="B929" s="16"/>
+      <c r="A929" s="17"/>
+      <c r="B929" s="18"/>
       <c r="C929" s="2"/>
       <c r="D929" s="2"/>
       <c r="E929" s="2"/>
@@ -26724,8 +26761,8 @@
       <c r="Y929" s="2"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="15"/>
-      <c r="B930" s="16"/>
+      <c r="A930" s="17"/>
+      <c r="B930" s="18"/>
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
       <c r="E930" s="2"/>
@@ -26751,8 +26788,8 @@
       <c r="Y930" s="2"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="15"/>
-      <c r="B931" s="16"/>
+      <c r="A931" s="17"/>
+      <c r="B931" s="18"/>
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
       <c r="E931" s="2"/>
@@ -26778,8 +26815,8 @@
       <c r="Y931" s="2"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="15"/>
-      <c r="B932" s="16"/>
+      <c r="A932" s="17"/>
+      <c r="B932" s="18"/>
       <c r="C932" s="2"/>
       <c r="D932" s="2"/>
       <c r="E932" s="2"/>
@@ -26805,8 +26842,8 @@
       <c r="Y932" s="2"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="15"/>
-      <c r="B933" s="16"/>
+      <c r="A933" s="17"/>
+      <c r="B933" s="18"/>
       <c r="C933" s="2"/>
       <c r="D933" s="2"/>
       <c r="E933" s="2"/>
@@ -26832,8 +26869,8 @@
       <c r="Y933" s="2"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="15"/>
-      <c r="B934" s="16"/>
+      <c r="A934" s="17"/>
+      <c r="B934" s="18"/>
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
       <c r="E934" s="2"/>
@@ -26859,8 +26896,8 @@
       <c r="Y934" s="2"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="15"/>
-      <c r="B935" s="16"/>
+      <c r="A935" s="17"/>
+      <c r="B935" s="18"/>
       <c r="C935" s="2"/>
       <c r="D935" s="2"/>
       <c r="E935" s="2"/>
@@ -26886,8 +26923,8 @@
       <c r="Y935" s="2"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="15"/>
-      <c r="B936" s="16"/>
+      <c r="A936" s="17"/>
+      <c r="B936" s="18"/>
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
       <c r="E936" s="2"/>
@@ -26913,8 +26950,8 @@
       <c r="Y936" s="2"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="15"/>
-      <c r="B937" s="16"/>
+      <c r="A937" s="17"/>
+      <c r="B937" s="18"/>
       <c r="C937" s="2"/>
       <c r="D937" s="2"/>
       <c r="E937" s="2"/>
@@ -26940,8 +26977,8 @@
       <c r="Y937" s="2"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="15"/>
-      <c r="B938" s="16"/>
+      <c r="A938" s="17"/>
+      <c r="B938" s="18"/>
       <c r="C938" s="2"/>
       <c r="D938" s="2"/>
       <c r="E938" s="2"/>
@@ -26967,8 +27004,8 @@
       <c r="Y938" s="2"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="15"/>
-      <c r="B939" s="16"/>
+      <c r="A939" s="17"/>
+      <c r="B939" s="18"/>
       <c r="C939" s="2"/>
       <c r="D939" s="2"/>
       <c r="E939" s="2"/>
@@ -26994,8 +27031,8 @@
       <c r="Y939" s="2"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="15"/>
-      <c r="B940" s="16"/>
+      <c r="A940" s="17"/>
+      <c r="B940" s="18"/>
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
       <c r="E940" s="2"/>
@@ -27021,8 +27058,8 @@
       <c r="Y940" s="2"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="15"/>
-      <c r="B941" s="16"/>
+      <c r="A941" s="17"/>
+      <c r="B941" s="18"/>
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
       <c r="E941" s="2"/>
@@ -27048,8 +27085,8 @@
       <c r="Y941" s="2"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="15"/>
-      <c r="B942" s="16"/>
+      <c r="A942" s="17"/>
+      <c r="B942" s="18"/>
       <c r="C942" s="2"/>
       <c r="D942" s="2"/>
       <c r="E942" s="2"/>
@@ -27075,8 +27112,8 @@
       <c r="Y942" s="2"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="15"/>
-      <c r="B943" s="16"/>
+      <c r="A943" s="17"/>
+      <c r="B943" s="18"/>
       <c r="C943" s="2"/>
       <c r="D943" s="2"/>
       <c r="E943" s="2"/>
@@ -27102,8 +27139,8 @@
       <c r="Y943" s="2"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="15"/>
-      <c r="B944" s="16"/>
+      <c r="A944" s="17"/>
+      <c r="B944" s="18"/>
       <c r="C944" s="2"/>
       <c r="D944" s="2"/>
       <c r="E944" s="2"/>
@@ -27129,8 +27166,8 @@
       <c r="Y944" s="2"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="15"/>
-      <c r="B945" s="16"/>
+      <c r="A945" s="17"/>
+      <c r="B945" s="18"/>
       <c r="C945" s="2"/>
       <c r="D945" s="2"/>
       <c r="E945" s="2"/>
@@ -27156,8 +27193,8 @@
       <c r="Y945" s="2"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="15"/>
-      <c r="B946" s="16"/>
+      <c r="A946" s="17"/>
+      <c r="B946" s="18"/>
       <c r="C946" s="2"/>
       <c r="D946" s="2"/>
       <c r="E946" s="2"/>
@@ -27183,8 +27220,8 @@
       <c r="Y946" s="2"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="15"/>
-      <c r="B947" s="16"/>
+      <c r="A947" s="17"/>
+      <c r="B947" s="18"/>
       <c r="C947" s="2"/>
       <c r="D947" s="2"/>
       <c r="E947" s="2"/>
@@ -27210,8 +27247,8 @@
       <c r="Y947" s="2"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="15"/>
-      <c r="B948" s="16"/>
+      <c r="A948" s="17"/>
+      <c r="B948" s="18"/>
       <c r="C948" s="2"/>
       <c r="D948" s="2"/>
       <c r="E948" s="2"/>
@@ -27237,8 +27274,8 @@
       <c r="Y948" s="2"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="15"/>
-      <c r="B949" s="16"/>
+      <c r="A949" s="17"/>
+      <c r="B949" s="18"/>
       <c r="C949" s="2"/>
       <c r="D949" s="2"/>
       <c r="E949" s="2"/>
@@ -27264,8 +27301,8 @@
       <c r="Y949" s="2"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="15"/>
-      <c r="B950" s="16"/>
+      <c r="A950" s="17"/>
+      <c r="B950" s="18"/>
       <c r="C950" s="2"/>
       <c r="D950" s="2"/>
       <c r="E950" s="2"/>
@@ -27291,8 +27328,8 @@
       <c r="Y950" s="2"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="15"/>
-      <c r="B951" s="16"/>
+      <c r="A951" s="17"/>
+      <c r="B951" s="18"/>
       <c r="C951" s="2"/>
       <c r="D951" s="2"/>
       <c r="E951" s="2"/>
@@ -27318,8 +27355,8 @@
       <c r="Y951" s="2"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="15"/>
-      <c r="B952" s="16"/>
+      <c r="A952" s="17"/>
+      <c r="B952" s="18"/>
       <c r="C952" s="2"/>
       <c r="D952" s="2"/>
       <c r="E952" s="2"/>
@@ -27345,8 +27382,8 @@
       <c r="Y952" s="2"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="15"/>
-      <c r="B953" s="16"/>
+      <c r="A953" s="17"/>
+      <c r="B953" s="18"/>
       <c r="C953" s="2"/>
       <c r="D953" s="2"/>
       <c r="E953" s="2"/>
@@ -27372,8 +27409,8 @@
       <c r="Y953" s="2"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="15"/>
-      <c r="B954" s="16"/>
+      <c r="A954" s="17"/>
+      <c r="B954" s="18"/>
       <c r="C954" s="2"/>
       <c r="D954" s="2"/>
       <c r="E954" s="2"/>
@@ -27399,8 +27436,8 @@
       <c r="Y954" s="2"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="15"/>
-      <c r="B955" s="16"/>
+      <c r="A955" s="17"/>
+      <c r="B955" s="18"/>
       <c r="C955" s="2"/>
       <c r="D955" s="2"/>
       <c r="E955" s="2"/>
@@ -27426,8 +27463,8 @@
       <c r="Y955" s="2"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="15"/>
-      <c r="B956" s="16"/>
+      <c r="A956" s="17"/>
+      <c r="B956" s="18"/>
       <c r="C956" s="2"/>
       <c r="D956" s="2"/>
       <c r="E956" s="2"/>
@@ -27453,8 +27490,8 @@
       <c r="Y956" s="2"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="15"/>
-      <c r="B957" s="16"/>
+      <c r="A957" s="17"/>
+      <c r="B957" s="18"/>
       <c r="C957" s="2"/>
       <c r="D957" s="2"/>
       <c r="E957" s="2"/>
@@ -27480,8 +27517,8 @@
       <c r="Y957" s="2"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="15"/>
-      <c r="B958" s="16"/>
+      <c r="A958" s="17"/>
+      <c r="B958" s="18"/>
       <c r="C958" s="2"/>
       <c r="D958" s="2"/>
       <c r="E958" s="2"/>
@@ -27507,8 +27544,8 @@
       <c r="Y958" s="2"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="15"/>
-      <c r="B959" s="16"/>
+      <c r="A959" s="17"/>
+      <c r="B959" s="18"/>
       <c r="C959" s="2"/>
       <c r="D959" s="2"/>
       <c r="E959" s="2"/>
@@ -27534,8 +27571,8 @@
       <c r="Y959" s="2"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="15"/>
-      <c r="B960" s="16"/>
+      <c r="A960" s="17"/>
+      <c r="B960" s="18"/>
       <c r="C960" s="2"/>
       <c r="D960" s="2"/>
       <c r="E960" s="2"/>
@@ -27561,8 +27598,8 @@
       <c r="Y960" s="2"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="15"/>
-      <c r="B961" s="16"/>
+      <c r="A961" s="17"/>
+      <c r="B961" s="18"/>
       <c r="C961" s="2"/>
       <c r="D961" s="2"/>
       <c r="E961" s="2"/>
@@ -27588,8 +27625,8 @@
       <c r="Y961" s="2"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="15"/>
-      <c r="B962" s="16"/>
+      <c r="A962" s="17"/>
+      <c r="B962" s="18"/>
       <c r="C962" s="2"/>
       <c r="D962" s="2"/>
       <c r="E962" s="2"/>
@@ -27615,8 +27652,8 @@
       <c r="Y962" s="2"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="15"/>
-      <c r="B963" s="16"/>
+      <c r="A963" s="17"/>
+      <c r="B963" s="18"/>
       <c r="C963" s="2"/>
       <c r="D963" s="2"/>
       <c r="E963" s="2"/>
@@ -27642,8 +27679,8 @@
       <c r="Y963" s="2"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="15"/>
-      <c r="B964" s="16"/>
+      <c r="A964" s="17"/>
+      <c r="B964" s="18"/>
       <c r="C964" s="2"/>
       <c r="D964" s="2"/>
       <c r="E964" s="2"/>
@@ -27669,8 +27706,8 @@
       <c r="Y964" s="2"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="15"/>
-      <c r="B965" s="16"/>
+      <c r="A965" s="17"/>
+      <c r="B965" s="18"/>
       <c r="C965" s="2"/>
       <c r="D965" s="2"/>
       <c r="E965" s="2"/>
@@ -27696,8 +27733,8 @@
       <c r="Y965" s="2"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="15"/>
-      <c r="B966" s="16"/>
+      <c r="A966" s="17"/>
+      <c r="B966" s="18"/>
       <c r="C966" s="2"/>
       <c r="D966" s="2"/>
       <c r="E966" s="2"/>
@@ -27723,8 +27760,8 @@
       <c r="Y966" s="2"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="15"/>
-      <c r="B967" s="16"/>
+      <c r="A967" s="17"/>
+      <c r="B967" s="18"/>
       <c r="C967" s="2"/>
       <c r="D967" s="2"/>
       <c r="E967" s="2"/>
@@ -27750,8 +27787,8 @@
       <c r="Y967" s="2"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="15"/>
-      <c r="B968" s="16"/>
+      <c r="A968" s="17"/>
+      <c r="B968" s="18"/>
       <c r="C968" s="2"/>
       <c r="D968" s="2"/>
       <c r="E968" s="2"/>
@@ -27777,8 +27814,8 @@
       <c r="Y968" s="2"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="15"/>
-      <c r="B969" s="16"/>
+      <c r="A969" s="17"/>
+      <c r="B969" s="18"/>
       <c r="C969" s="2"/>
       <c r="D969" s="2"/>
       <c r="E969" s="2"/>
@@ -27804,8 +27841,8 @@
       <c r="Y969" s="2"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="15"/>
-      <c r="B970" s="16"/>
+      <c r="A970" s="17"/>
+      <c r="B970" s="18"/>
       <c r="C970" s="2"/>
       <c r="D970" s="2"/>
       <c r="E970" s="2"/>
@@ -27831,8 +27868,8 @@
       <c r="Y970" s="2"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="15"/>
-      <c r="B971" s="16"/>
+      <c r="A971" s="17"/>
+      <c r="B971" s="18"/>
       <c r="C971" s="2"/>
       <c r="D971" s="2"/>
       <c r="E971" s="2"/>
@@ -27858,8 +27895,8 @@
       <c r="Y971" s="2"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="15"/>
-      <c r="B972" s="16"/>
+      <c r="A972" s="17"/>
+      <c r="B972" s="18"/>
       <c r="C972" s="2"/>
       <c r="D972" s="2"/>
       <c r="E972" s="2"/>
@@ -27885,8 +27922,8 @@
       <c r="Y972" s="2"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="15"/>
-      <c r="B973" s="16"/>
+      <c r="A973" s="17"/>
+      <c r="B973" s="18"/>
       <c r="C973" s="2"/>
       <c r="D973" s="2"/>
       <c r="E973" s="2"/>
@@ -27912,8 +27949,8 @@
       <c r="Y973" s="2"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="15"/>
-      <c r="B974" s="16"/>
+      <c r="A974" s="17"/>
+      <c r="B974" s="18"/>
       <c r="C974" s="2"/>
       <c r="D974" s="2"/>
       <c r="E974" s="2"/>
@@ -27939,8 +27976,8 @@
       <c r="Y974" s="2"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="15"/>
-      <c r="B975" s="16"/>
+      <c r="A975" s="17"/>
+      <c r="B975" s="18"/>
       <c r="C975" s="2"/>
       <c r="D975" s="2"/>
       <c r="E975" s="2"/>
@@ -27966,8 +28003,8 @@
       <c r="Y975" s="2"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="15"/>
-      <c r="B976" s="16"/>
+      <c r="A976" s="17"/>
+      <c r="B976" s="18"/>
       <c r="C976" s="2"/>
       <c r="D976" s="2"/>
       <c r="E976" s="2"/>
@@ -27993,8 +28030,8 @@
       <c r="Y976" s="2"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="15"/>
-      <c r="B977" s="16"/>
+      <c r="A977" s="17"/>
+      <c r="B977" s="18"/>
       <c r="C977" s="2"/>
       <c r="D977" s="2"/>
       <c r="E977" s="2"/>
@@ -28020,8 +28057,8 @@
       <c r="Y977" s="2"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="15"/>
-      <c r="B978" s="16"/>
+      <c r="A978" s="17"/>
+      <c r="B978" s="18"/>
       <c r="C978" s="2"/>
       <c r="D978" s="2"/>
       <c r="E978" s="2"/>
@@ -28047,8 +28084,8 @@
       <c r="Y978" s="2"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="15"/>
-      <c r="B979" s="16"/>
+      <c r="A979" s="17"/>
+      <c r="B979" s="18"/>
       <c r="C979" s="2"/>
       <c r="D979" s="2"/>
       <c r="E979" s="2"/>
@@ -28074,8 +28111,8 @@
       <c r="Y979" s="2"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="15"/>
-      <c r="B980" s="16"/>
+      <c r="A980" s="17"/>
+      <c r="B980" s="18"/>
       <c r="C980" s="2"/>
       <c r="D980" s="2"/>
       <c r="E980" s="2"/>
@@ -28101,8 +28138,8 @@
       <c r="Y980" s="2"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="15"/>
-      <c r="B981" s="16"/>
+      <c r="A981" s="17"/>
+      <c r="B981" s="18"/>
       <c r="C981" s="2"/>
       <c r="D981" s="2"/>
       <c r="E981" s="2"/>
@@ -28128,8 +28165,8 @@
       <c r="Y981" s="2"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="15"/>
-      <c r="B982" s="16"/>
+      <c r="A982" s="17"/>
+      <c r="B982" s="18"/>
       <c r="C982" s="2"/>
       <c r="D982" s="2"/>
       <c r="E982" s="2"/>
@@ -28155,8 +28192,8 @@
       <c r="Y982" s="2"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="15"/>
-      <c r="B983" s="16"/>
+      <c r="A983" s="17"/>
+      <c r="B983" s="18"/>
       <c r="C983" s="2"/>
       <c r="D983" s="2"/>
       <c r="E983" s="2"/>
@@ -28182,8 +28219,8 @@
       <c r="Y983" s="2"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="15"/>
-      <c r="B984" s="16"/>
+      <c r="A984" s="17"/>
+      <c r="B984" s="18"/>
       <c r="C984" s="2"/>
       <c r="D984" s="2"/>
       <c r="E984" s="2"/>
@@ -28209,8 +28246,8 @@
       <c r="Y984" s="2"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="15"/>
-      <c r="B985" s="16"/>
+      <c r="A985" s="17"/>
+      <c r="B985" s="18"/>
       <c r="C985" s="2"/>
       <c r="D985" s="2"/>
       <c r="E985" s="2"/>
@@ -28236,8 +28273,8 @@
       <c r="Y985" s="2"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="15"/>
-      <c r="B986" s="16"/>
+      <c r="A986" s="17"/>
+      <c r="B986" s="18"/>
       <c r="C986" s="2"/>
       <c r="D986" s="2"/>
       <c r="E986" s="2"/>
@@ -28263,8 +28300,8 @@
       <c r="Y986" s="2"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="15"/>
-      <c r="B987" s="16"/>
+      <c r="A987" s="17"/>
+      <c r="B987" s="18"/>
       <c r="C987" s="2"/>
       <c r="D987" s="2"/>
       <c r="E987" s="2"/>
@@ -28290,8 +28327,8 @@
       <c r="Y987" s="2"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="15"/>
-      <c r="B988" s="16"/>
+      <c r="A988" s="17"/>
+      <c r="B988" s="18"/>
       <c r="C988" s="2"/>
       <c r="D988" s="2"/>
       <c r="E988" s="2"/>
@@ -28317,8 +28354,8 @@
       <c r="Y988" s="2"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="A989" s="15"/>
-      <c r="B989" s="16"/>
+      <c r="A989" s="17"/>
+      <c r="B989" s="18"/>
       <c r="C989" s="2"/>
       <c r="D989" s="2"/>
       <c r="E989" s="2"/>
@@ -28344,8 +28381,8 @@
       <c r="Y989" s="2"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="A990" s="15"/>
-      <c r="B990" s="16"/>
+      <c r="A990" s="17"/>
+      <c r="B990" s="18"/>
       <c r="C990" s="2"/>
       <c r="D990" s="2"/>
       <c r="E990" s="2"/>
@@ -28371,8 +28408,8 @@
       <c r="Y990" s="2"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="A991" s="15"/>
-      <c r="B991" s="16"/>
+      <c r="A991" s="17"/>
+      <c r="B991" s="18"/>
       <c r="C991" s="2"/>
       <c r="D991" s="2"/>
       <c r="E991" s="2"/>

--- a/server/pattern/Pattern.xlsx
+++ b/server/pattern/Pattern.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="284">
   <si>
     <t>Name</t>
   </si>
@@ -300,7 +300,7 @@
     <t>Gravel1</t>
   </si>
   <si>
-    <t>Gravel orconglomerate 1</t>
+    <t>Gravel or conglomerate 1</t>
   </si>
   <si>
     <t>Greywacke</t>
@@ -860,6 +860,12 @@
   <si>
     <t>Natron</t>
   </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>Carnallite</t>
+  </si>
 </sst>
 </file>
 
@@ -962,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1012,6 +1018,12 @@
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2599,7 +2611,7 @@
       <c r="A51" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C51" s="2"/>
@@ -5944,8 +5956,12 @@
       <c r="Y158" s="2"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="17"/>
-      <c r="B159" s="18"/>
+      <c r="A159" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>283</v>
+      </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -5971,8 +5987,8 @@
       <c r="Y159" s="2"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="17"/>
-      <c r="B160" s="18"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -5998,8 +6014,8 @@
       <c r="Y160" s="2"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="17"/>
-      <c r="B161" s="18"/>
+      <c r="A161" s="19"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -6025,8 +6041,8 @@
       <c r="Y161" s="2"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="17"/>
-      <c r="B162" s="18"/>
+      <c r="A162" s="19"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -6052,8 +6068,8 @@
       <c r="Y162" s="2"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="17"/>
-      <c r="B163" s="18"/>
+      <c r="A163" s="19"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -6079,8 +6095,8 @@
       <c r="Y163" s="2"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="17"/>
-      <c r="B164" s="18"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -6106,8 +6122,8 @@
       <c r="Y164" s="2"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="17"/>
-      <c r="B165" s="18"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -6133,8 +6149,8 @@
       <c r="Y165" s="2"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="17"/>
-      <c r="B166" s="18"/>
+      <c r="A166" s="19"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -6160,8 +6176,8 @@
       <c r="Y166" s="2"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="17"/>
-      <c r="B167" s="18"/>
+      <c r="A167" s="19"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -6187,8 +6203,8 @@
       <c r="Y167" s="2"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="17"/>
-      <c r="B168" s="18"/>
+      <c r="A168" s="19"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -6214,8 +6230,8 @@
       <c r="Y168" s="2"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="17"/>
-      <c r="B169" s="18"/>
+      <c r="A169" s="19"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -6241,8 +6257,8 @@
       <c r="Y169" s="2"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="17"/>
-      <c r="B170" s="18"/>
+      <c r="A170" s="19"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -6268,8 +6284,8 @@
       <c r="Y170" s="2"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="17"/>
-      <c r="B171" s="18"/>
+      <c r="A171" s="19"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6295,8 +6311,8 @@
       <c r="Y171" s="2"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="17"/>
-      <c r="B172" s="18"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="20"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6322,8 +6338,8 @@
       <c r="Y172" s="2"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="17"/>
-      <c r="B173" s="18"/>
+      <c r="A173" s="19"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -6349,8 +6365,8 @@
       <c r="Y173" s="2"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="17"/>
-      <c r="B174" s="18"/>
+      <c r="A174" s="19"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -6376,8 +6392,8 @@
       <c r="Y174" s="2"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="17"/>
-      <c r="B175" s="18"/>
+      <c r="A175" s="19"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -6403,8 +6419,8 @@
       <c r="Y175" s="2"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="17"/>
-      <c r="B176" s="18"/>
+      <c r="A176" s="19"/>
+      <c r="B176" s="20"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -6430,8 +6446,8 @@
       <c r="Y176" s="2"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="17"/>
-      <c r="B177" s="18"/>
+      <c r="A177" s="19"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -6457,8 +6473,8 @@
       <c r="Y177" s="2"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="17"/>
-      <c r="B178" s="18"/>
+      <c r="A178" s="19"/>
+      <c r="B178" s="20"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -6484,8 +6500,8 @@
       <c r="Y178" s="2"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="17"/>
-      <c r="B179" s="18"/>
+      <c r="A179" s="19"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -6511,8 +6527,8 @@
       <c r="Y179" s="2"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="17"/>
-      <c r="B180" s="18"/>
+      <c r="A180" s="19"/>
+      <c r="B180" s="20"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -6538,8 +6554,8 @@
       <c r="Y180" s="2"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="17"/>
-      <c r="B181" s="18"/>
+      <c r="A181" s="19"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -6565,8 +6581,8 @@
       <c r="Y181" s="2"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="17"/>
-      <c r="B182" s="18"/>
+      <c r="A182" s="19"/>
+      <c r="B182" s="20"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -6592,8 +6608,8 @@
       <c r="Y182" s="2"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="17"/>
-      <c r="B183" s="18"/>
+      <c r="A183" s="19"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -6619,8 +6635,8 @@
       <c r="Y183" s="2"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="17"/>
-      <c r="B184" s="18"/>
+      <c r="A184" s="19"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -6646,8 +6662,8 @@
       <c r="Y184" s="2"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="17"/>
-      <c r="B185" s="18"/>
+      <c r="A185" s="19"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -6673,8 +6689,8 @@
       <c r="Y185" s="2"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="17"/>
-      <c r="B186" s="18"/>
+      <c r="A186" s="19"/>
+      <c r="B186" s="20"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -6700,8 +6716,8 @@
       <c r="Y186" s="2"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="17"/>
-      <c r="B187" s="18"/>
+      <c r="A187" s="19"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -6727,8 +6743,8 @@
       <c r="Y187" s="2"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="17"/>
-      <c r="B188" s="18"/>
+      <c r="A188" s="19"/>
+      <c r="B188" s="20"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -6754,8 +6770,8 @@
       <c r="Y188" s="2"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="17"/>
-      <c r="B189" s="18"/>
+      <c r="A189" s="19"/>
+      <c r="B189" s="20"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -6781,8 +6797,8 @@
       <c r="Y189" s="2"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="17"/>
-      <c r="B190" s="18"/>
+      <c r="A190" s="19"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -6808,8 +6824,8 @@
       <c r="Y190" s="2"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="17"/>
-      <c r="B191" s="18"/>
+      <c r="A191" s="19"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -6835,8 +6851,8 @@
       <c r="Y191" s="2"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="17"/>
-      <c r="B192" s="18"/>
+      <c r="A192" s="19"/>
+      <c r="B192" s="20"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -6862,8 +6878,8 @@
       <c r="Y192" s="2"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="17"/>
-      <c r="B193" s="18"/>
+      <c r="A193" s="19"/>
+      <c r="B193" s="20"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -6889,8 +6905,8 @@
       <c r="Y193" s="2"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="17"/>
-      <c r="B194" s="18"/>
+      <c r="A194" s="19"/>
+      <c r="B194" s="20"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -6916,8 +6932,8 @@
       <c r="Y194" s="2"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="17"/>
-      <c r="B195" s="18"/>
+      <c r="A195" s="19"/>
+      <c r="B195" s="20"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -6943,8 +6959,8 @@
       <c r="Y195" s="2"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="17"/>
-      <c r="B196" s="18"/>
+      <c r="A196" s="19"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -6970,8 +6986,8 @@
       <c r="Y196" s="2"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="17"/>
-      <c r="B197" s="18"/>
+      <c r="A197" s="19"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -6997,8 +7013,8 @@
       <c r="Y197" s="2"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="17"/>
-      <c r="B198" s="18"/>
+      <c r="A198" s="19"/>
+      <c r="B198" s="20"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -7024,8 +7040,8 @@
       <c r="Y198" s="2"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="17"/>
-      <c r="B199" s="18"/>
+      <c r="A199" s="19"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -7051,8 +7067,8 @@
       <c r="Y199" s="2"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="17"/>
-      <c r="B200" s="18"/>
+      <c r="A200" s="19"/>
+      <c r="B200" s="20"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -7078,8 +7094,8 @@
       <c r="Y200" s="2"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="17"/>
-      <c r="B201" s="18"/>
+      <c r="A201" s="19"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -7105,8 +7121,8 @@
       <c r="Y201" s="2"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="17"/>
-      <c r="B202" s="18"/>
+      <c r="A202" s="19"/>
+      <c r="B202" s="20"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -7132,8 +7148,8 @@
       <c r="Y202" s="2"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="17"/>
-      <c r="B203" s="18"/>
+      <c r="A203" s="19"/>
+      <c r="B203" s="20"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -7159,8 +7175,8 @@
       <c r="Y203" s="2"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="17"/>
-      <c r="B204" s="18"/>
+      <c r="A204" s="19"/>
+      <c r="B204" s="20"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -7186,8 +7202,8 @@
       <c r="Y204" s="2"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="17"/>
-      <c r="B205" s="18"/>
+      <c r="A205" s="19"/>
+      <c r="B205" s="20"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -7213,8 +7229,8 @@
       <c r="Y205" s="2"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="17"/>
-      <c r="B206" s="18"/>
+      <c r="A206" s="19"/>
+      <c r="B206" s="20"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -7240,8 +7256,8 @@
       <c r="Y206" s="2"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="17"/>
-      <c r="B207" s="18"/>
+      <c r="A207" s="19"/>
+      <c r="B207" s="20"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -7267,8 +7283,8 @@
       <c r="Y207" s="2"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="17"/>
-      <c r="B208" s="18"/>
+      <c r="A208" s="19"/>
+      <c r="B208" s="20"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -7294,8 +7310,8 @@
       <c r="Y208" s="2"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="17"/>
-      <c r="B209" s="18"/>
+      <c r="A209" s="19"/>
+      <c r="B209" s="20"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -7321,8 +7337,8 @@
       <c r="Y209" s="2"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="17"/>
-      <c r="B210" s="18"/>
+      <c r="A210" s="19"/>
+      <c r="B210" s="20"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -7348,8 +7364,8 @@
       <c r="Y210" s="2"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="17"/>
-      <c r="B211" s="18"/>
+      <c r="A211" s="19"/>
+      <c r="B211" s="20"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -7375,8 +7391,8 @@
       <c r="Y211" s="2"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="17"/>
-      <c r="B212" s="18"/>
+      <c r="A212" s="19"/>
+      <c r="B212" s="20"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -7402,8 +7418,8 @@
       <c r="Y212" s="2"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="17"/>
-      <c r="B213" s="18"/>
+      <c r="A213" s="19"/>
+      <c r="B213" s="20"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -7429,8 +7445,8 @@
       <c r="Y213" s="2"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="17"/>
-      <c r="B214" s="18"/>
+      <c r="A214" s="19"/>
+      <c r="B214" s="20"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -7456,8 +7472,8 @@
       <c r="Y214" s="2"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="17"/>
-      <c r="B215" s="18"/>
+      <c r="A215" s="19"/>
+      <c r="B215" s="20"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -7483,8 +7499,8 @@
       <c r="Y215" s="2"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="17"/>
-      <c r="B216" s="18"/>
+      <c r="A216" s="19"/>
+      <c r="B216" s="20"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -7510,8 +7526,8 @@
       <c r="Y216" s="2"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="17"/>
-      <c r="B217" s="18"/>
+      <c r="A217" s="19"/>
+      <c r="B217" s="20"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -7537,8 +7553,8 @@
       <c r="Y217" s="2"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="17"/>
-      <c r="B218" s="18"/>
+      <c r="A218" s="19"/>
+      <c r="B218" s="20"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -7564,8 +7580,8 @@
       <c r="Y218" s="2"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="17"/>
-      <c r="B219" s="18"/>
+      <c r="A219" s="19"/>
+      <c r="B219" s="20"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -7591,8 +7607,8 @@
       <c r="Y219" s="2"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="17"/>
-      <c r="B220" s="18"/>
+      <c r="A220" s="19"/>
+      <c r="B220" s="20"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -7618,8 +7634,8 @@
       <c r="Y220" s="2"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="17"/>
-      <c r="B221" s="18"/>
+      <c r="A221" s="19"/>
+      <c r="B221" s="20"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -7645,8 +7661,8 @@
       <c r="Y221" s="2"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="17"/>
-      <c r="B222" s="18"/>
+      <c r="A222" s="19"/>
+      <c r="B222" s="20"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -7672,8 +7688,8 @@
       <c r="Y222" s="2"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="17"/>
-      <c r="B223" s="18"/>
+      <c r="A223" s="19"/>
+      <c r="B223" s="20"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -7699,8 +7715,8 @@
       <c r="Y223" s="2"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="17"/>
-      <c r="B224" s="18"/>
+      <c r="A224" s="19"/>
+      <c r="B224" s="20"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -7726,8 +7742,8 @@
       <c r="Y224" s="2"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="17"/>
-      <c r="B225" s="18"/>
+      <c r="A225" s="19"/>
+      <c r="B225" s="20"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -7753,8 +7769,8 @@
       <c r="Y225" s="2"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="17"/>
-      <c r="B226" s="18"/>
+      <c r="A226" s="19"/>
+      <c r="B226" s="20"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -7780,8 +7796,8 @@
       <c r="Y226" s="2"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="17"/>
-      <c r="B227" s="18"/>
+      <c r="A227" s="19"/>
+      <c r="B227" s="20"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -7807,8 +7823,8 @@
       <c r="Y227" s="2"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="17"/>
-      <c r="B228" s="18"/>
+      <c r="A228" s="19"/>
+      <c r="B228" s="20"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -7834,8 +7850,8 @@
       <c r="Y228" s="2"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="17"/>
-      <c r="B229" s="18"/>
+      <c r="A229" s="19"/>
+      <c r="B229" s="20"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -7861,8 +7877,8 @@
       <c r="Y229" s="2"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="17"/>
-      <c r="B230" s="18"/>
+      <c r="A230" s="19"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -7888,8 +7904,8 @@
       <c r="Y230" s="2"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="17"/>
-      <c r="B231" s="18"/>
+      <c r="A231" s="19"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -7915,8 +7931,8 @@
       <c r="Y231" s="2"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="17"/>
-      <c r="B232" s="18"/>
+      <c r="A232" s="19"/>
+      <c r="B232" s="20"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -7942,8 +7958,8 @@
       <c r="Y232" s="2"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="17"/>
-      <c r="B233" s="18"/>
+      <c r="A233" s="19"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -7969,8 +7985,8 @@
       <c r="Y233" s="2"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="17"/>
-      <c r="B234" s="18"/>
+      <c r="A234" s="19"/>
+      <c r="B234" s="20"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -7996,8 +8012,8 @@
       <c r="Y234" s="2"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="17"/>
-      <c r="B235" s="18"/>
+      <c r="A235" s="19"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -8023,8 +8039,8 @@
       <c r="Y235" s="2"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="17"/>
-      <c r="B236" s="18"/>
+      <c r="A236" s="19"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -8050,8 +8066,8 @@
       <c r="Y236" s="2"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="17"/>
-      <c r="B237" s="18"/>
+      <c r="A237" s="19"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -8077,8 +8093,8 @@
       <c r="Y237" s="2"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="17"/>
-      <c r="B238" s="18"/>
+      <c r="A238" s="19"/>
+      <c r="B238" s="20"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -8104,8 +8120,8 @@
       <c r="Y238" s="2"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="17"/>
-      <c r="B239" s="18"/>
+      <c r="A239" s="19"/>
+      <c r="B239" s="20"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -8131,8 +8147,8 @@
       <c r="Y239" s="2"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="17"/>
-      <c r="B240" s="18"/>
+      <c r="A240" s="19"/>
+      <c r="B240" s="20"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -8158,8 +8174,8 @@
       <c r="Y240" s="2"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="17"/>
-      <c r="B241" s="18"/>
+      <c r="A241" s="19"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -8185,8 +8201,8 @@
       <c r="Y241" s="2"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="17"/>
-      <c r="B242" s="18"/>
+      <c r="A242" s="19"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -8212,8 +8228,8 @@
       <c r="Y242" s="2"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="17"/>
-      <c r="B243" s="18"/>
+      <c r="A243" s="19"/>
+      <c r="B243" s="20"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -8239,8 +8255,8 @@
       <c r="Y243" s="2"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="17"/>
-      <c r="B244" s="18"/>
+      <c r="A244" s="19"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -8266,8 +8282,8 @@
       <c r="Y244" s="2"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="17"/>
-      <c r="B245" s="18"/>
+      <c r="A245" s="19"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -8293,8 +8309,8 @@
       <c r="Y245" s="2"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="17"/>
-      <c r="B246" s="18"/>
+      <c r="A246" s="19"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -8320,8 +8336,8 @@
       <c r="Y246" s="2"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="17"/>
-      <c r="B247" s="18"/>
+      <c r="A247" s="19"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -8347,8 +8363,8 @@
       <c r="Y247" s="2"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="17"/>
-      <c r="B248" s="18"/>
+      <c r="A248" s="19"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -8374,8 +8390,8 @@
       <c r="Y248" s="2"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="17"/>
-      <c r="B249" s="18"/>
+      <c r="A249" s="19"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -8401,8 +8417,8 @@
       <c r="Y249" s="2"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="17"/>
-      <c r="B250" s="18"/>
+      <c r="A250" s="19"/>
+      <c r="B250" s="20"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -8428,8 +8444,8 @@
       <c r="Y250" s="2"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="17"/>
-      <c r="B251" s="18"/>
+      <c r="A251" s="19"/>
+      <c r="B251" s="20"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -8455,8 +8471,8 @@
       <c r="Y251" s="2"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="17"/>
-      <c r="B252" s="18"/>
+      <c r="A252" s="19"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -8482,8 +8498,8 @@
       <c r="Y252" s="2"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="17"/>
-      <c r="B253" s="18"/>
+      <c r="A253" s="19"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -8509,8 +8525,8 @@
       <c r="Y253" s="2"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="17"/>
-      <c r="B254" s="18"/>
+      <c r="A254" s="19"/>
+      <c r="B254" s="20"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -8536,8 +8552,8 @@
       <c r="Y254" s="2"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="17"/>
-      <c r="B255" s="18"/>
+      <c r="A255" s="19"/>
+      <c r="B255" s="20"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -8563,8 +8579,8 @@
       <c r="Y255" s="2"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="17"/>
-      <c r="B256" s="18"/>
+      <c r="A256" s="19"/>
+      <c r="B256" s="20"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -8590,8 +8606,8 @@
       <c r="Y256" s="2"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="17"/>
-      <c r="B257" s="18"/>
+      <c r="A257" s="19"/>
+      <c r="B257" s="20"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -8617,8 +8633,8 @@
       <c r="Y257" s="2"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="17"/>
-      <c r="B258" s="18"/>
+      <c r="A258" s="19"/>
+      <c r="B258" s="20"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -8644,8 +8660,8 @@
       <c r="Y258" s="2"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="17"/>
-      <c r="B259" s="18"/>
+      <c r="A259" s="19"/>
+      <c r="B259" s="20"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -8671,8 +8687,8 @@
       <c r="Y259" s="2"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="17"/>
-      <c r="B260" s="18"/>
+      <c r="A260" s="19"/>
+      <c r="B260" s="20"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -8698,8 +8714,8 @@
       <c r="Y260" s="2"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="17"/>
-      <c r="B261" s="18"/>
+      <c r="A261" s="19"/>
+      <c r="B261" s="20"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -8725,8 +8741,8 @@
       <c r="Y261" s="2"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="17"/>
-      <c r="B262" s="18"/>
+      <c r="A262" s="19"/>
+      <c r="B262" s="20"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -8752,8 +8768,8 @@
       <c r="Y262" s="2"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="17"/>
-      <c r="B263" s="18"/>
+      <c r="A263" s="19"/>
+      <c r="B263" s="20"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -8779,8 +8795,8 @@
       <c r="Y263" s="2"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="17"/>
-      <c r="B264" s="18"/>
+      <c r="A264" s="19"/>
+      <c r="B264" s="20"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -8806,8 +8822,8 @@
       <c r="Y264" s="2"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="17"/>
-      <c r="B265" s="18"/>
+      <c r="A265" s="19"/>
+      <c r="B265" s="20"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -8833,8 +8849,8 @@
       <c r="Y265" s="2"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="17"/>
-      <c r="B266" s="18"/>
+      <c r="A266" s="19"/>
+      <c r="B266" s="20"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -8860,8 +8876,8 @@
       <c r="Y266" s="2"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="17"/>
-      <c r="B267" s="18"/>
+      <c r="A267" s="19"/>
+      <c r="B267" s="20"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -8887,8 +8903,8 @@
       <c r="Y267" s="2"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="17"/>
-      <c r="B268" s="18"/>
+      <c r="A268" s="19"/>
+      <c r="B268" s="20"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -8914,8 +8930,8 @@
       <c r="Y268" s="2"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="17"/>
-      <c r="B269" s="18"/>
+      <c r="A269" s="19"/>
+      <c r="B269" s="20"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -8941,8 +8957,8 @@
       <c r="Y269" s="2"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="17"/>
-      <c r="B270" s="18"/>
+      <c r="A270" s="19"/>
+      <c r="B270" s="20"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -8968,8 +8984,8 @@
       <c r="Y270" s="2"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="17"/>
-      <c r="B271" s="18"/>
+      <c r="A271" s="19"/>
+      <c r="B271" s="20"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -8995,8 +9011,8 @@
       <c r="Y271" s="2"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="17"/>
-      <c r="B272" s="18"/>
+      <c r="A272" s="19"/>
+      <c r="B272" s="20"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -9022,8 +9038,8 @@
       <c r="Y272" s="2"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="17"/>
-      <c r="B273" s="18"/>
+      <c r="A273" s="19"/>
+      <c r="B273" s="20"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -9049,8 +9065,8 @@
       <c r="Y273" s="2"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="17"/>
-      <c r="B274" s="18"/>
+      <c r="A274" s="19"/>
+      <c r="B274" s="20"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -9076,8 +9092,8 @@
       <c r="Y274" s="2"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="17"/>
-      <c r="B275" s="18"/>
+      <c r="A275" s="19"/>
+      <c r="B275" s="20"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -9103,8 +9119,8 @@
       <c r="Y275" s="2"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="17"/>
-      <c r="B276" s="18"/>
+      <c r="A276" s="19"/>
+      <c r="B276" s="20"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -9130,8 +9146,8 @@
       <c r="Y276" s="2"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="17"/>
-      <c r="B277" s="18"/>
+      <c r="A277" s="19"/>
+      <c r="B277" s="20"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -9157,8 +9173,8 @@
       <c r="Y277" s="2"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="17"/>
-      <c r="B278" s="18"/>
+      <c r="A278" s="19"/>
+      <c r="B278" s="20"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -9184,8 +9200,8 @@
       <c r="Y278" s="2"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="17"/>
-      <c r="B279" s="18"/>
+      <c r="A279" s="19"/>
+      <c r="B279" s="20"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -9211,8 +9227,8 @@
       <c r="Y279" s="2"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="17"/>
-      <c r="B280" s="18"/>
+      <c r="A280" s="19"/>
+      <c r="B280" s="20"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -9238,8 +9254,8 @@
       <c r="Y280" s="2"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="17"/>
-      <c r="B281" s="18"/>
+      <c r="A281" s="19"/>
+      <c r="B281" s="20"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -9265,8 +9281,8 @@
       <c r="Y281" s="2"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="17"/>
-      <c r="B282" s="18"/>
+      <c r="A282" s="19"/>
+      <c r="B282" s="20"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -9292,8 +9308,8 @@
       <c r="Y282" s="2"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="17"/>
-      <c r="B283" s="18"/>
+      <c r="A283" s="19"/>
+      <c r="B283" s="20"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -9319,8 +9335,8 @@
       <c r="Y283" s="2"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="17"/>
-      <c r="B284" s="18"/>
+      <c r="A284" s="19"/>
+      <c r="B284" s="20"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -9346,8 +9362,8 @@
       <c r="Y284" s="2"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="17"/>
-      <c r="B285" s="18"/>
+      <c r="A285" s="19"/>
+      <c r="B285" s="20"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -9373,8 +9389,8 @@
       <c r="Y285" s="2"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="17"/>
-      <c r="B286" s="18"/>
+      <c r="A286" s="19"/>
+      <c r="B286" s="20"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -9400,8 +9416,8 @@
       <c r="Y286" s="2"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="17"/>
-      <c r="B287" s="18"/>
+      <c r="A287" s="19"/>
+      <c r="B287" s="20"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -9427,8 +9443,8 @@
       <c r="Y287" s="2"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="17"/>
-      <c r="B288" s="18"/>
+      <c r="A288" s="19"/>
+      <c r="B288" s="20"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -9454,8 +9470,8 @@
       <c r="Y288" s="2"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="17"/>
-      <c r="B289" s="18"/>
+      <c r="A289" s="19"/>
+      <c r="B289" s="20"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -9481,8 +9497,8 @@
       <c r="Y289" s="2"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="17"/>
-      <c r="B290" s="18"/>
+      <c r="A290" s="19"/>
+      <c r="B290" s="20"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -9508,8 +9524,8 @@
       <c r="Y290" s="2"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="17"/>
-      <c r="B291" s="18"/>
+      <c r="A291" s="19"/>
+      <c r="B291" s="20"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -9535,8 +9551,8 @@
       <c r="Y291" s="2"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="17"/>
-      <c r="B292" s="18"/>
+      <c r="A292" s="19"/>
+      <c r="B292" s="20"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -9562,8 +9578,8 @@
       <c r="Y292" s="2"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="17"/>
-      <c r="B293" s="18"/>
+      <c r="A293" s="19"/>
+      <c r="B293" s="20"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -9589,8 +9605,8 @@
       <c r="Y293" s="2"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="17"/>
-      <c r="B294" s="18"/>
+      <c r="A294" s="19"/>
+      <c r="B294" s="20"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -9616,8 +9632,8 @@
       <c r="Y294" s="2"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="17"/>
-      <c r="B295" s="18"/>
+      <c r="A295" s="19"/>
+      <c r="B295" s="20"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -9643,8 +9659,8 @@
       <c r="Y295" s="2"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="17"/>
-      <c r="B296" s="18"/>
+      <c r="A296" s="19"/>
+      <c r="B296" s="20"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -9670,8 +9686,8 @@
       <c r="Y296" s="2"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="17"/>
-      <c r="B297" s="18"/>
+      <c r="A297" s="19"/>
+      <c r="B297" s="20"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -9697,8 +9713,8 @@
       <c r="Y297" s="2"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="17"/>
-      <c r="B298" s="18"/>
+      <c r="A298" s="19"/>
+      <c r="B298" s="20"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -9724,8 +9740,8 @@
       <c r="Y298" s="2"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="17"/>
-      <c r="B299" s="18"/>
+      <c r="A299" s="19"/>
+      <c r="B299" s="20"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -9751,8 +9767,8 @@
       <c r="Y299" s="2"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="17"/>
-      <c r="B300" s="18"/>
+      <c r="A300" s="19"/>
+      <c r="B300" s="20"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -9778,8 +9794,8 @@
       <c r="Y300" s="2"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="17"/>
-      <c r="B301" s="18"/>
+      <c r="A301" s="19"/>
+      <c r="B301" s="20"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -9805,8 +9821,8 @@
       <c r="Y301" s="2"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="17"/>
-      <c r="B302" s="18"/>
+      <c r="A302" s="19"/>
+      <c r="B302" s="20"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -9832,8 +9848,8 @@
       <c r="Y302" s="2"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="17"/>
-      <c r="B303" s="18"/>
+      <c r="A303" s="19"/>
+      <c r="B303" s="20"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -9859,8 +9875,8 @@
       <c r="Y303" s="2"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="17"/>
-      <c r="B304" s="18"/>
+      <c r="A304" s="19"/>
+      <c r="B304" s="20"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -9886,8 +9902,8 @@
       <c r="Y304" s="2"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="17"/>
-      <c r="B305" s="18"/>
+      <c r="A305" s="19"/>
+      <c r="B305" s="20"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -9913,8 +9929,8 @@
       <c r="Y305" s="2"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="17"/>
-      <c r="B306" s="18"/>
+      <c r="A306" s="19"/>
+      <c r="B306" s="20"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -9940,8 +9956,8 @@
       <c r="Y306" s="2"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="17"/>
-      <c r="B307" s="18"/>
+      <c r="A307" s="19"/>
+      <c r="B307" s="20"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -9967,8 +9983,8 @@
       <c r="Y307" s="2"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="17"/>
-      <c r="B308" s="18"/>
+      <c r="A308" s="19"/>
+      <c r="B308" s="20"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -9994,8 +10010,8 @@
       <c r="Y308" s="2"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="17"/>
-      <c r="B309" s="18"/>
+      <c r="A309" s="19"/>
+      <c r="B309" s="20"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -10021,8 +10037,8 @@
       <c r="Y309" s="2"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="17"/>
-      <c r="B310" s="18"/>
+      <c r="A310" s="19"/>
+      <c r="B310" s="20"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -10048,8 +10064,8 @@
       <c r="Y310" s="2"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="17"/>
-      <c r="B311" s="18"/>
+      <c r="A311" s="19"/>
+      <c r="B311" s="20"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -10075,8 +10091,8 @@
       <c r="Y311" s="2"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="17"/>
-      <c r="B312" s="18"/>
+      <c r="A312" s="19"/>
+      <c r="B312" s="20"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -10102,8 +10118,8 @@
       <c r="Y312" s="2"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="17"/>
-      <c r="B313" s="18"/>
+      <c r="A313" s="19"/>
+      <c r="B313" s="20"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -10129,8 +10145,8 @@
       <c r="Y313" s="2"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="17"/>
-      <c r="B314" s="18"/>
+      <c r="A314" s="19"/>
+      <c r="B314" s="20"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -10156,8 +10172,8 @@
       <c r="Y314" s="2"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="17"/>
-      <c r="B315" s="18"/>
+      <c r="A315" s="19"/>
+      <c r="B315" s="20"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -10183,8 +10199,8 @@
       <c r="Y315" s="2"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="17"/>
-      <c r="B316" s="18"/>
+      <c r="A316" s="19"/>
+      <c r="B316" s="20"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -10210,8 +10226,8 @@
       <c r="Y316" s="2"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="17"/>
-      <c r="B317" s="18"/>
+      <c r="A317" s="19"/>
+      <c r="B317" s="20"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -10237,8 +10253,8 @@
       <c r="Y317" s="2"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="17"/>
-      <c r="B318" s="18"/>
+      <c r="A318" s="19"/>
+      <c r="B318" s="20"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -10264,8 +10280,8 @@
       <c r="Y318" s="2"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="17"/>
-      <c r="B319" s="18"/>
+      <c r="A319" s="19"/>
+      <c r="B319" s="20"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -10291,8 +10307,8 @@
       <c r="Y319" s="2"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="17"/>
-      <c r="B320" s="18"/>
+      <c r="A320" s="19"/>
+      <c r="B320" s="20"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -10318,8 +10334,8 @@
       <c r="Y320" s="2"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="17"/>
-      <c r="B321" s="18"/>
+      <c r="A321" s="19"/>
+      <c r="B321" s="20"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -10345,8 +10361,8 @@
       <c r="Y321" s="2"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="17"/>
-      <c r="B322" s="18"/>
+      <c r="A322" s="19"/>
+      <c r="B322" s="20"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -10372,8 +10388,8 @@
       <c r="Y322" s="2"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="17"/>
-      <c r="B323" s="18"/>
+      <c r="A323" s="19"/>
+      <c r="B323" s="20"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -10399,8 +10415,8 @@
       <c r="Y323" s="2"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="17"/>
-      <c r="B324" s="18"/>
+      <c r="A324" s="19"/>
+      <c r="B324" s="20"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -10426,8 +10442,8 @@
       <c r="Y324" s="2"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="17"/>
-      <c r="B325" s="18"/>
+      <c r="A325" s="19"/>
+      <c r="B325" s="20"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -10453,8 +10469,8 @@
       <c r="Y325" s="2"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="17"/>
-      <c r="B326" s="18"/>
+      <c r="A326" s="19"/>
+      <c r="B326" s="20"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -10480,8 +10496,8 @@
       <c r="Y326" s="2"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="17"/>
-      <c r="B327" s="18"/>
+      <c r="A327" s="19"/>
+      <c r="B327" s="20"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -10507,8 +10523,8 @@
       <c r="Y327" s="2"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="17"/>
-      <c r="B328" s="18"/>
+      <c r="A328" s="19"/>
+      <c r="B328" s="20"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -10534,8 +10550,8 @@
       <c r="Y328" s="2"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="17"/>
-      <c r="B329" s="18"/>
+      <c r="A329" s="19"/>
+      <c r="B329" s="20"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -10561,8 +10577,8 @@
       <c r="Y329" s="2"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="17"/>
-      <c r="B330" s="18"/>
+      <c r="A330" s="19"/>
+      <c r="B330" s="20"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -10588,8 +10604,8 @@
       <c r="Y330" s="2"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="17"/>
-      <c r="B331" s="18"/>
+      <c r="A331" s="19"/>
+      <c r="B331" s="20"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -10615,8 +10631,8 @@
       <c r="Y331" s="2"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="17"/>
-      <c r="B332" s="18"/>
+      <c r="A332" s="19"/>
+      <c r="B332" s="20"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -10642,8 +10658,8 @@
       <c r="Y332" s="2"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="17"/>
-      <c r="B333" s="18"/>
+      <c r="A333" s="19"/>
+      <c r="B333" s="20"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -10669,8 +10685,8 @@
       <c r="Y333" s="2"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="17"/>
-      <c r="B334" s="18"/>
+      <c r="A334" s="19"/>
+      <c r="B334" s="20"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -10696,8 +10712,8 @@
       <c r="Y334" s="2"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="17"/>
-      <c r="B335" s="18"/>
+      <c r="A335" s="19"/>
+      <c r="B335" s="20"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -10723,8 +10739,8 @@
       <c r="Y335" s="2"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="17"/>
-      <c r="B336" s="18"/>
+      <c r="A336" s="19"/>
+      <c r="B336" s="20"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -10750,8 +10766,8 @@
       <c r="Y336" s="2"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="17"/>
-      <c r="B337" s="18"/>
+      <c r="A337" s="19"/>
+      <c r="B337" s="20"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -10777,8 +10793,8 @@
       <c r="Y337" s="2"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="17"/>
-      <c r="B338" s="18"/>
+      <c r="A338" s="19"/>
+      <c r="B338" s="20"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -10804,8 +10820,8 @@
       <c r="Y338" s="2"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="17"/>
-      <c r="B339" s="18"/>
+      <c r="A339" s="19"/>
+      <c r="B339" s="20"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -10831,8 +10847,8 @@
       <c r="Y339" s="2"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="17"/>
-      <c r="B340" s="18"/>
+      <c r="A340" s="19"/>
+      <c r="B340" s="20"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -10858,8 +10874,8 @@
       <c r="Y340" s="2"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="17"/>
-      <c r="B341" s="18"/>
+      <c r="A341" s="19"/>
+      <c r="B341" s="20"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -10885,8 +10901,8 @@
       <c r="Y341" s="2"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="17"/>
-      <c r="B342" s="18"/>
+      <c r="A342" s="19"/>
+      <c r="B342" s="20"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -10912,8 +10928,8 @@
       <c r="Y342" s="2"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="17"/>
-      <c r="B343" s="18"/>
+      <c r="A343" s="19"/>
+      <c r="B343" s="20"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -10939,8 +10955,8 @@
       <c r="Y343" s="2"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="17"/>
-      <c r="B344" s="18"/>
+      <c r="A344" s="19"/>
+      <c r="B344" s="20"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -10966,8 +10982,8 @@
       <c r="Y344" s="2"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="17"/>
-      <c r="B345" s="18"/>
+      <c r="A345" s="19"/>
+      <c r="B345" s="20"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -10993,8 +11009,8 @@
       <c r="Y345" s="2"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="17"/>
-      <c r="B346" s="18"/>
+      <c r="A346" s="19"/>
+      <c r="B346" s="20"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -11020,8 +11036,8 @@
       <c r="Y346" s="2"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="17"/>
-      <c r="B347" s="18"/>
+      <c r="A347" s="19"/>
+      <c r="B347" s="20"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -11047,8 +11063,8 @@
       <c r="Y347" s="2"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="17"/>
-      <c r="B348" s="18"/>
+      <c r="A348" s="19"/>
+      <c r="B348" s="20"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -11074,8 +11090,8 @@
       <c r="Y348" s="2"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="17"/>
-      <c r="B349" s="18"/>
+      <c r="A349" s="19"/>
+      <c r="B349" s="20"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -11101,8 +11117,8 @@
       <c r="Y349" s="2"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="17"/>
-      <c r="B350" s="18"/>
+      <c r="A350" s="19"/>
+      <c r="B350" s="20"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -11128,8 +11144,8 @@
       <c r="Y350" s="2"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="17"/>
-      <c r="B351" s="18"/>
+      <c r="A351" s="19"/>
+      <c r="B351" s="20"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -11155,8 +11171,8 @@
       <c r="Y351" s="2"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="17"/>
-      <c r="B352" s="18"/>
+      <c r="A352" s="19"/>
+      <c r="B352" s="20"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -11182,8 +11198,8 @@
       <c r="Y352" s="2"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="17"/>
-      <c r="B353" s="18"/>
+      <c r="A353" s="19"/>
+      <c r="B353" s="20"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -11209,8 +11225,8 @@
       <c r="Y353" s="2"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="17"/>
-      <c r="B354" s="18"/>
+      <c r="A354" s="19"/>
+      <c r="B354" s="20"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -11236,8 +11252,8 @@
       <c r="Y354" s="2"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="17"/>
-      <c r="B355" s="18"/>
+      <c r="A355" s="19"/>
+      <c r="B355" s="20"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -11263,8 +11279,8 @@
       <c r="Y355" s="2"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="17"/>
-      <c r="B356" s="18"/>
+      <c r="A356" s="19"/>
+      <c r="B356" s="20"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -11290,8 +11306,8 @@
       <c r="Y356" s="2"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="17"/>
-      <c r="B357" s="18"/>
+      <c r="A357" s="19"/>
+      <c r="B357" s="20"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -11317,8 +11333,8 @@
       <c r="Y357" s="2"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="17"/>
-      <c r="B358" s="18"/>
+      <c r="A358" s="19"/>
+      <c r="B358" s="20"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -11344,8 +11360,8 @@
       <c r="Y358" s="2"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="17"/>
-      <c r="B359" s="18"/>
+      <c r="A359" s="19"/>
+      <c r="B359" s="20"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -11371,8 +11387,8 @@
       <c r="Y359" s="2"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="17"/>
-      <c r="B360" s="18"/>
+      <c r="A360" s="19"/>
+      <c r="B360" s="20"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -11398,8 +11414,8 @@
       <c r="Y360" s="2"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="17"/>
-      <c r="B361" s="18"/>
+      <c r="A361" s="19"/>
+      <c r="B361" s="20"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -11425,8 +11441,8 @@
       <c r="Y361" s="2"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="17"/>
-      <c r="B362" s="18"/>
+      <c r="A362" s="19"/>
+      <c r="B362" s="20"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -11452,8 +11468,8 @@
       <c r="Y362" s="2"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="17"/>
-      <c r="B363" s="18"/>
+      <c r="A363" s="19"/>
+      <c r="B363" s="20"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -11479,8 +11495,8 @@
       <c r="Y363" s="2"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="17"/>
-      <c r="B364" s="18"/>
+      <c r="A364" s="19"/>
+      <c r="B364" s="20"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -11506,8 +11522,8 @@
       <c r="Y364" s="2"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="17"/>
-      <c r="B365" s="18"/>
+      <c r="A365" s="19"/>
+      <c r="B365" s="20"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -11533,8 +11549,8 @@
       <c r="Y365" s="2"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="17"/>
-      <c r="B366" s="18"/>
+      <c r="A366" s="19"/>
+      <c r="B366" s="20"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -11560,8 +11576,8 @@
       <c r="Y366" s="2"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="17"/>
-      <c r="B367" s="18"/>
+      <c r="A367" s="19"/>
+      <c r="B367" s="20"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -11587,8 +11603,8 @@
       <c r="Y367" s="2"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="17"/>
-      <c r="B368" s="18"/>
+      <c r="A368" s="19"/>
+      <c r="B368" s="20"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -11614,8 +11630,8 @@
       <c r="Y368" s="2"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="17"/>
-      <c r="B369" s="18"/>
+      <c r="A369" s="19"/>
+      <c r="B369" s="20"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -11641,8 +11657,8 @@
       <c r="Y369" s="2"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="17"/>
-      <c r="B370" s="18"/>
+      <c r="A370" s="19"/>
+      <c r="B370" s="20"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -11668,8 +11684,8 @@
       <c r="Y370" s="2"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="17"/>
-      <c r="B371" s="18"/>
+      <c r="A371" s="19"/>
+      <c r="B371" s="20"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -11695,8 +11711,8 @@
       <c r="Y371" s="2"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="17"/>
-      <c r="B372" s="18"/>
+      <c r="A372" s="19"/>
+      <c r="B372" s="20"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -11722,8 +11738,8 @@
       <c r="Y372" s="2"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="17"/>
-      <c r="B373" s="18"/>
+      <c r="A373" s="19"/>
+      <c r="B373" s="20"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -11749,8 +11765,8 @@
       <c r="Y373" s="2"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="17"/>
-      <c r="B374" s="18"/>
+      <c r="A374" s="19"/>
+      <c r="B374" s="20"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
@@ -11776,8 +11792,8 @@
       <c r="Y374" s="2"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="17"/>
-      <c r="B375" s="18"/>
+      <c r="A375" s="19"/>
+      <c r="B375" s="20"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
@@ -11803,8 +11819,8 @@
       <c r="Y375" s="2"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="17"/>
-      <c r="B376" s="18"/>
+      <c r="A376" s="19"/>
+      <c r="B376" s="20"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -11830,8 +11846,8 @@
       <c r="Y376" s="2"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="17"/>
-      <c r="B377" s="18"/>
+      <c r="A377" s="19"/>
+      <c r="B377" s="20"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -11857,8 +11873,8 @@
       <c r="Y377" s="2"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="17"/>
-      <c r="B378" s="18"/>
+      <c r="A378" s="19"/>
+      <c r="B378" s="20"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -11884,8 +11900,8 @@
       <c r="Y378" s="2"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="17"/>
-      <c r="B379" s="18"/>
+      <c r="A379" s="19"/>
+      <c r="B379" s="20"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -11911,8 +11927,8 @@
       <c r="Y379" s="2"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="17"/>
-      <c r="B380" s="18"/>
+      <c r="A380" s="19"/>
+      <c r="B380" s="20"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -11938,8 +11954,8 @@
       <c r="Y380" s="2"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="17"/>
-      <c r="B381" s="18"/>
+      <c r="A381" s="19"/>
+      <c r="B381" s="20"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -11965,8 +11981,8 @@
       <c r="Y381" s="2"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="17"/>
-      <c r="B382" s="18"/>
+      <c r="A382" s="19"/>
+      <c r="B382" s="20"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -11992,8 +12008,8 @@
       <c r="Y382" s="2"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="17"/>
-      <c r="B383" s="18"/>
+      <c r="A383" s="19"/>
+      <c r="B383" s="20"/>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -12019,8 +12035,8 @@
       <c r="Y383" s="2"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="17"/>
-      <c r="B384" s="18"/>
+      <c r="A384" s="19"/>
+      <c r="B384" s="20"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -12046,8 +12062,8 @@
       <c r="Y384" s="2"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="17"/>
-      <c r="B385" s="18"/>
+      <c r="A385" s="19"/>
+      <c r="B385" s="20"/>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -12073,8 +12089,8 @@
       <c r="Y385" s="2"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="17"/>
-      <c r="B386" s="18"/>
+      <c r="A386" s="19"/>
+      <c r="B386" s="20"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -12100,8 +12116,8 @@
       <c r="Y386" s="2"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="17"/>
-      <c r="B387" s="18"/>
+      <c r="A387" s="19"/>
+      <c r="B387" s="20"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -12127,8 +12143,8 @@
       <c r="Y387" s="2"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="17"/>
-      <c r="B388" s="18"/>
+      <c r="A388" s="19"/>
+      <c r="B388" s="20"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -12154,8 +12170,8 @@
       <c r="Y388" s="2"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="17"/>
-      <c r="B389" s="18"/>
+      <c r="A389" s="19"/>
+      <c r="B389" s="20"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -12181,8 +12197,8 @@
       <c r="Y389" s="2"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="17"/>
-      <c r="B390" s="18"/>
+      <c r="A390" s="19"/>
+      <c r="B390" s="20"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -12208,8 +12224,8 @@
       <c r="Y390" s="2"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="17"/>
-      <c r="B391" s="18"/>
+      <c r="A391" s="19"/>
+      <c r="B391" s="20"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -12235,8 +12251,8 @@
       <c r="Y391" s="2"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="17"/>
-      <c r="B392" s="18"/>
+      <c r="A392" s="19"/>
+      <c r="B392" s="20"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -12262,8 +12278,8 @@
       <c r="Y392" s="2"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="17"/>
-      <c r="B393" s="18"/>
+      <c r="A393" s="19"/>
+      <c r="B393" s="20"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -12289,8 +12305,8 @@
       <c r="Y393" s="2"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="17"/>
-      <c r="B394" s="18"/>
+      <c r="A394" s="19"/>
+      <c r="B394" s="20"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -12316,8 +12332,8 @@
       <c r="Y394" s="2"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="17"/>
-      <c r="B395" s="18"/>
+      <c r="A395" s="19"/>
+      <c r="B395" s="20"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -12343,8 +12359,8 @@
       <c r="Y395" s="2"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="17"/>
-      <c r="B396" s="18"/>
+      <c r="A396" s="19"/>
+      <c r="B396" s="20"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -12370,8 +12386,8 @@
       <c r="Y396" s="2"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="17"/>
-      <c r="B397" s="18"/>
+      <c r="A397" s="19"/>
+      <c r="B397" s="20"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -12397,8 +12413,8 @@
       <c r="Y397" s="2"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="17"/>
-      <c r="B398" s="18"/>
+      <c r="A398" s="19"/>
+      <c r="B398" s="20"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -12424,8 +12440,8 @@
       <c r="Y398" s="2"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="17"/>
-      <c r="B399" s="18"/>
+      <c r="A399" s="19"/>
+      <c r="B399" s="20"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -12451,8 +12467,8 @@
       <c r="Y399" s="2"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="17"/>
-      <c r="B400" s="18"/>
+      <c r="A400" s="19"/>
+      <c r="B400" s="20"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -12478,8 +12494,8 @@
       <c r="Y400" s="2"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="17"/>
-      <c r="B401" s="18"/>
+      <c r="A401" s="19"/>
+      <c r="B401" s="20"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -12505,8 +12521,8 @@
       <c r="Y401" s="2"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="17"/>
-      <c r="B402" s="18"/>
+      <c r="A402" s="19"/>
+      <c r="B402" s="20"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -12532,8 +12548,8 @@
       <c r="Y402" s="2"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="17"/>
-      <c r="B403" s="18"/>
+      <c r="A403" s="19"/>
+      <c r="B403" s="20"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -12559,8 +12575,8 @@
       <c r="Y403" s="2"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="17"/>
-      <c r="B404" s="18"/>
+      <c r="A404" s="19"/>
+      <c r="B404" s="20"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
@@ -12586,8 +12602,8 @@
       <c r="Y404" s="2"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="17"/>
-      <c r="B405" s="18"/>
+      <c r="A405" s="19"/>
+      <c r="B405" s="20"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -12613,8 +12629,8 @@
       <c r="Y405" s="2"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="17"/>
-      <c r="B406" s="18"/>
+      <c r="A406" s="19"/>
+      <c r="B406" s="20"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -12640,8 +12656,8 @@
       <c r="Y406" s="2"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="17"/>
-      <c r="B407" s="18"/>
+      <c r="A407" s="19"/>
+      <c r="B407" s="20"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -12667,8 +12683,8 @@
       <c r="Y407" s="2"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="17"/>
-      <c r="B408" s="18"/>
+      <c r="A408" s="19"/>
+      <c r="B408" s="20"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
@@ -12694,8 +12710,8 @@
       <c r="Y408" s="2"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="17"/>
-      <c r="B409" s="18"/>
+      <c r="A409" s="19"/>
+      <c r="B409" s="20"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
@@ -12721,8 +12737,8 @@
       <c r="Y409" s="2"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="17"/>
-      <c r="B410" s="18"/>
+      <c r="A410" s="19"/>
+      <c r="B410" s="20"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -12748,8 +12764,8 @@
       <c r="Y410" s="2"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="17"/>
-      <c r="B411" s="18"/>
+      <c r="A411" s="19"/>
+      <c r="B411" s="20"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
@@ -12775,8 +12791,8 @@
       <c r="Y411" s="2"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="17"/>
-      <c r="B412" s="18"/>
+      <c r="A412" s="19"/>
+      <c r="B412" s="20"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -12802,8 +12818,8 @@
       <c r="Y412" s="2"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="17"/>
-      <c r="B413" s="18"/>
+      <c r="A413" s="19"/>
+      <c r="B413" s="20"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
@@ -12829,8 +12845,8 @@
       <c r="Y413" s="2"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="17"/>
-      <c r="B414" s="18"/>
+      <c r="A414" s="19"/>
+      <c r="B414" s="20"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -12856,8 +12872,8 @@
       <c r="Y414" s="2"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="17"/>
-      <c r="B415" s="18"/>
+      <c r="A415" s="19"/>
+      <c r="B415" s="20"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -12883,8 +12899,8 @@
       <c r="Y415" s="2"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="17"/>
-      <c r="B416" s="18"/>
+      <c r="A416" s="19"/>
+      <c r="B416" s="20"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -12910,8 +12926,8 @@
       <c r="Y416" s="2"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="17"/>
-      <c r="B417" s="18"/>
+      <c r="A417" s="19"/>
+      <c r="B417" s="20"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -12937,8 +12953,8 @@
       <c r="Y417" s="2"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="17"/>
-      <c r="B418" s="18"/>
+      <c r="A418" s="19"/>
+      <c r="B418" s="20"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -12964,8 +12980,8 @@
       <c r="Y418" s="2"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="17"/>
-      <c r="B419" s="18"/>
+      <c r="A419" s="19"/>
+      <c r="B419" s="20"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -12991,8 +13007,8 @@
       <c r="Y419" s="2"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="17"/>
-      <c r="B420" s="18"/>
+      <c r="A420" s="19"/>
+      <c r="B420" s="20"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -13018,8 +13034,8 @@
       <c r="Y420" s="2"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="17"/>
-      <c r="B421" s="18"/>
+      <c r="A421" s="19"/>
+      <c r="B421" s="20"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
@@ -13045,8 +13061,8 @@
       <c r="Y421" s="2"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="17"/>
-      <c r="B422" s="18"/>
+      <c r="A422" s="19"/>
+      <c r="B422" s="20"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -13072,8 +13088,8 @@
       <c r="Y422" s="2"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="17"/>
-      <c r="B423" s="18"/>
+      <c r="A423" s="19"/>
+      <c r="B423" s="20"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -13099,8 +13115,8 @@
       <c r="Y423" s="2"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="17"/>
-      <c r="B424" s="18"/>
+      <c r="A424" s="19"/>
+      <c r="B424" s="20"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -13126,8 +13142,8 @@
       <c r="Y424" s="2"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="17"/>
-      <c r="B425" s="18"/>
+      <c r="A425" s="19"/>
+      <c r="B425" s="20"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -13153,8 +13169,8 @@
       <c r="Y425" s="2"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="17"/>
-      <c r="B426" s="18"/>
+      <c r="A426" s="19"/>
+      <c r="B426" s="20"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -13180,8 +13196,8 @@
       <c r="Y426" s="2"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="17"/>
-      <c r="B427" s="18"/>
+      <c r="A427" s="19"/>
+      <c r="B427" s="20"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -13207,8 +13223,8 @@
       <c r="Y427" s="2"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="17"/>
-      <c r="B428" s="18"/>
+      <c r="A428" s="19"/>
+      <c r="B428" s="20"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -13234,8 +13250,8 @@
       <c r="Y428" s="2"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="17"/>
-      <c r="B429" s="18"/>
+      <c r="A429" s="19"/>
+      <c r="B429" s="20"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -13261,8 +13277,8 @@
       <c r="Y429" s="2"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="17"/>
-      <c r="B430" s="18"/>
+      <c r="A430" s="19"/>
+      <c r="B430" s="20"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -13288,8 +13304,8 @@
       <c r="Y430" s="2"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="17"/>
-      <c r="B431" s="18"/>
+      <c r="A431" s="19"/>
+      <c r="B431" s="20"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -13315,8 +13331,8 @@
       <c r="Y431" s="2"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="17"/>
-      <c r="B432" s="18"/>
+      <c r="A432" s="19"/>
+      <c r="B432" s="20"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -13342,8 +13358,8 @@
       <c r="Y432" s="2"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="17"/>
-      <c r="B433" s="18"/>
+      <c r="A433" s="19"/>
+      <c r="B433" s="20"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -13369,8 +13385,8 @@
       <c r="Y433" s="2"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="17"/>
-      <c r="B434" s="18"/>
+      <c r="A434" s="19"/>
+      <c r="B434" s="20"/>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -13396,8 +13412,8 @@
       <c r="Y434" s="2"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="17"/>
-      <c r="B435" s="18"/>
+      <c r="A435" s="19"/>
+      <c r="B435" s="20"/>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -13423,8 +13439,8 @@
       <c r="Y435" s="2"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="17"/>
-      <c r="B436" s="18"/>
+      <c r="A436" s="19"/>
+      <c r="B436" s="20"/>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -13450,8 +13466,8 @@
       <c r="Y436" s="2"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="17"/>
-      <c r="B437" s="18"/>
+      <c r="A437" s="19"/>
+      <c r="B437" s="20"/>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -13477,8 +13493,8 @@
       <c r="Y437" s="2"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="17"/>
-      <c r="B438" s="18"/>
+      <c r="A438" s="19"/>
+      <c r="B438" s="20"/>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -13504,8 +13520,8 @@
       <c r="Y438" s="2"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="17"/>
-      <c r="B439" s="18"/>
+      <c r="A439" s="19"/>
+      <c r="B439" s="20"/>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -13531,8 +13547,8 @@
       <c r="Y439" s="2"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="17"/>
-      <c r="B440" s="18"/>
+      <c r="A440" s="19"/>
+      <c r="B440" s="20"/>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -13558,8 +13574,8 @@
       <c r="Y440" s="2"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="17"/>
-      <c r="B441" s="18"/>
+      <c r="A441" s="19"/>
+      <c r="B441" s="20"/>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -13585,8 +13601,8 @@
       <c r="Y441" s="2"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="17"/>
-      <c r="B442" s="18"/>
+      <c r="A442" s="19"/>
+      <c r="B442" s="20"/>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -13612,8 +13628,8 @@
       <c r="Y442" s="2"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="17"/>
-      <c r="B443" s="18"/>
+      <c r="A443" s="19"/>
+      <c r="B443" s="20"/>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -13639,8 +13655,8 @@
       <c r="Y443" s="2"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="17"/>
-      <c r="B444" s="18"/>
+      <c r="A444" s="19"/>
+      <c r="B444" s="20"/>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -13666,8 +13682,8 @@
       <c r="Y444" s="2"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="17"/>
-      <c r="B445" s="18"/>
+      <c r="A445" s="19"/>
+      <c r="B445" s="20"/>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -13693,8 +13709,8 @@
       <c r="Y445" s="2"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="17"/>
-      <c r="B446" s="18"/>
+      <c r="A446" s="19"/>
+      <c r="B446" s="20"/>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -13720,8 +13736,8 @@
       <c r="Y446" s="2"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="17"/>
-      <c r="B447" s="18"/>
+      <c r="A447" s="19"/>
+      <c r="B447" s="20"/>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -13747,8 +13763,8 @@
       <c r="Y447" s="2"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="17"/>
-      <c r="B448" s="18"/>
+      <c r="A448" s="19"/>
+      <c r="B448" s="20"/>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -13774,8 +13790,8 @@
       <c r="Y448" s="2"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="17"/>
-      <c r="B449" s="18"/>
+      <c r="A449" s="19"/>
+      <c r="B449" s="20"/>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
@@ -13801,8 +13817,8 @@
       <c r="Y449" s="2"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="17"/>
-      <c r="B450" s="18"/>
+      <c r="A450" s="19"/>
+      <c r="B450" s="20"/>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -13828,8 +13844,8 @@
       <c r="Y450" s="2"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="17"/>
-      <c r="B451" s="18"/>
+      <c r="A451" s="19"/>
+      <c r="B451" s="20"/>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
@@ -13855,8 +13871,8 @@
       <c r="Y451" s="2"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="17"/>
-      <c r="B452" s="18"/>
+      <c r="A452" s="19"/>
+      <c r="B452" s="20"/>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -13882,8 +13898,8 @@
       <c r="Y452" s="2"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="17"/>
-      <c r="B453" s="18"/>
+      <c r="A453" s="19"/>
+      <c r="B453" s="20"/>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -13909,8 +13925,8 @@
       <c r="Y453" s="2"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="17"/>
-      <c r="B454" s="18"/>
+      <c r="A454" s="19"/>
+      <c r="B454" s="20"/>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -13936,8 +13952,8 @@
       <c r="Y454" s="2"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="17"/>
-      <c r="B455" s="18"/>
+      <c r="A455" s="19"/>
+      <c r="B455" s="20"/>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
@@ -13963,8 +13979,8 @@
       <c r="Y455" s="2"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="17"/>
-      <c r="B456" s="18"/>
+      <c r="A456" s="19"/>
+      <c r="B456" s="20"/>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -13990,8 +14006,8 @@
       <c r="Y456" s="2"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="17"/>
-      <c r="B457" s="18"/>
+      <c r="A457" s="19"/>
+      <c r="B457" s="20"/>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -14017,8 +14033,8 @@
       <c r="Y457" s="2"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="17"/>
-      <c r="B458" s="18"/>
+      <c r="A458" s="19"/>
+      <c r="B458" s="20"/>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
@@ -14044,8 +14060,8 @@
       <c r="Y458" s="2"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="17"/>
-      <c r="B459" s="18"/>
+      <c r="A459" s="19"/>
+      <c r="B459" s="20"/>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
@@ -14071,8 +14087,8 @@
       <c r="Y459" s="2"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="17"/>
-      <c r="B460" s="18"/>
+      <c r="A460" s="19"/>
+      <c r="B460" s="20"/>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
@@ -14098,8 +14114,8 @@
       <c r="Y460" s="2"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="17"/>
-      <c r="B461" s="18"/>
+      <c r="A461" s="19"/>
+      <c r="B461" s="20"/>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -14125,8 +14141,8 @@
       <c r="Y461" s="2"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="17"/>
-      <c r="B462" s="18"/>
+      <c r="A462" s="19"/>
+      <c r="B462" s="20"/>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -14152,8 +14168,8 @@
       <c r="Y462" s="2"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="17"/>
-      <c r="B463" s="18"/>
+      <c r="A463" s="19"/>
+      <c r="B463" s="20"/>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -14179,8 +14195,8 @@
       <c r="Y463" s="2"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="17"/>
-      <c r="B464" s="18"/>
+      <c r="A464" s="19"/>
+      <c r="B464" s="20"/>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
@@ -14206,8 +14222,8 @@
       <c r="Y464" s="2"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="17"/>
-      <c r="B465" s="18"/>
+      <c r="A465" s="19"/>
+      <c r="B465" s="20"/>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -14233,8 +14249,8 @@
       <c r="Y465" s="2"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="17"/>
-      <c r="B466" s="18"/>
+      <c r="A466" s="19"/>
+      <c r="B466" s="20"/>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -14260,8 +14276,8 @@
       <c r="Y466" s="2"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="17"/>
-      <c r="B467" s="18"/>
+      <c r="A467" s="19"/>
+      <c r="B467" s="20"/>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -14287,8 +14303,8 @@
       <c r="Y467" s="2"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="17"/>
-      <c r="B468" s="18"/>
+      <c r="A468" s="19"/>
+      <c r="B468" s="20"/>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -14314,8 +14330,8 @@
       <c r="Y468" s="2"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="17"/>
-      <c r="B469" s="18"/>
+      <c r="A469" s="19"/>
+      <c r="B469" s="20"/>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -14341,8 +14357,8 @@
       <c r="Y469" s="2"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="17"/>
-      <c r="B470" s="18"/>
+      <c r="A470" s="19"/>
+      <c r="B470" s="20"/>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -14368,8 +14384,8 @@
       <c r="Y470" s="2"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="17"/>
-      <c r="B471" s="18"/>
+      <c r="A471" s="19"/>
+      <c r="B471" s="20"/>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
@@ -14395,8 +14411,8 @@
       <c r="Y471" s="2"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="17"/>
-      <c r="B472" s="18"/>
+      <c r="A472" s="19"/>
+      <c r="B472" s="20"/>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
@@ -14422,8 +14438,8 @@
       <c r="Y472" s="2"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="17"/>
-      <c r="B473" s="18"/>
+      <c r="A473" s="19"/>
+      <c r="B473" s="20"/>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -14449,8 +14465,8 @@
       <c r="Y473" s="2"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="17"/>
-      <c r="B474" s="18"/>
+      <c r="A474" s="19"/>
+      <c r="B474" s="20"/>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
@@ -14476,8 +14492,8 @@
       <c r="Y474" s="2"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="17"/>
-      <c r="B475" s="18"/>
+      <c r="A475" s="19"/>
+      <c r="B475" s="20"/>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
@@ -14503,8 +14519,8 @@
       <c r="Y475" s="2"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="17"/>
-      <c r="B476" s="18"/>
+      <c r="A476" s="19"/>
+      <c r="B476" s="20"/>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
@@ -14530,8 +14546,8 @@
       <c r="Y476" s="2"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="17"/>
-      <c r="B477" s="18"/>
+      <c r="A477" s="19"/>
+      <c r="B477" s="20"/>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
@@ -14557,8 +14573,8 @@
       <c r="Y477" s="2"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="17"/>
-      <c r="B478" s="18"/>
+      <c r="A478" s="19"/>
+      <c r="B478" s="20"/>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
@@ -14584,8 +14600,8 @@
       <c r="Y478" s="2"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="17"/>
-      <c r="B479" s="18"/>
+      <c r="A479" s="19"/>
+      <c r="B479" s="20"/>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
@@ -14611,8 +14627,8 @@
       <c r="Y479" s="2"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="17"/>
-      <c r="B480" s="18"/>
+      <c r="A480" s="19"/>
+      <c r="B480" s="20"/>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
@@ -14638,8 +14654,8 @@
       <c r="Y480" s="2"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="17"/>
-      <c r="B481" s="18"/>
+      <c r="A481" s="19"/>
+      <c r="B481" s="20"/>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
@@ -14665,8 +14681,8 @@
       <c r="Y481" s="2"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="17"/>
-      <c r="B482" s="18"/>
+      <c r="A482" s="19"/>
+      <c r="B482" s="20"/>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
@@ -14692,8 +14708,8 @@
       <c r="Y482" s="2"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="17"/>
-      <c r="B483" s="18"/>
+      <c r="A483" s="19"/>
+      <c r="B483" s="20"/>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
@@ -14719,8 +14735,8 @@
       <c r="Y483" s="2"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="17"/>
-      <c r="B484" s="18"/>
+      <c r="A484" s="19"/>
+      <c r="B484" s="20"/>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
@@ -14746,8 +14762,8 @@
       <c r="Y484" s="2"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="17"/>
-      <c r="B485" s="18"/>
+      <c r="A485" s="19"/>
+      <c r="B485" s="20"/>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
@@ -14773,8 +14789,8 @@
       <c r="Y485" s="2"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="17"/>
-      <c r="B486" s="18"/>
+      <c r="A486" s="19"/>
+      <c r="B486" s="20"/>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
@@ -14800,8 +14816,8 @@
       <c r="Y486" s="2"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="17"/>
-      <c r="B487" s="18"/>
+      <c r="A487" s="19"/>
+      <c r="B487" s="20"/>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
@@ -14827,8 +14843,8 @@
       <c r="Y487" s="2"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="17"/>
-      <c r="B488" s="18"/>
+      <c r="A488" s="19"/>
+      <c r="B488" s="20"/>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
@@ -14854,8 +14870,8 @@
       <c r="Y488" s="2"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="17"/>
-      <c r="B489" s="18"/>
+      <c r="A489" s="19"/>
+      <c r="B489" s="20"/>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
@@ -14881,8 +14897,8 @@
       <c r="Y489" s="2"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="17"/>
-      <c r="B490" s="18"/>
+      <c r="A490" s="19"/>
+      <c r="B490" s="20"/>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
@@ -14908,8 +14924,8 @@
       <c r="Y490" s="2"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="17"/>
-      <c r="B491" s="18"/>
+      <c r="A491" s="19"/>
+      <c r="B491" s="20"/>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
@@ -14935,8 +14951,8 @@
       <c r="Y491" s="2"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="17"/>
-      <c r="B492" s="18"/>
+      <c r="A492" s="19"/>
+      <c r="B492" s="20"/>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
@@ -14962,8 +14978,8 @@
       <c r="Y492" s="2"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="17"/>
-      <c r="B493" s="18"/>
+      <c r="A493" s="19"/>
+      <c r="B493" s="20"/>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
@@ -14989,8 +15005,8 @@
       <c r="Y493" s="2"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="17"/>
-      <c r="B494" s="18"/>
+      <c r="A494" s="19"/>
+      <c r="B494" s="20"/>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
@@ -15016,8 +15032,8 @@
       <c r="Y494" s="2"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="17"/>
-      <c r="B495" s="18"/>
+      <c r="A495" s="19"/>
+      <c r="B495" s="20"/>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
@@ -15043,8 +15059,8 @@
       <c r="Y495" s="2"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="17"/>
-      <c r="B496" s="18"/>
+      <c r="A496" s="19"/>
+      <c r="B496" s="20"/>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
@@ -15070,8 +15086,8 @@
       <c r="Y496" s="2"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="17"/>
-      <c r="B497" s="18"/>
+      <c r="A497" s="19"/>
+      <c r="B497" s="20"/>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
@@ -15097,8 +15113,8 @@
       <c r="Y497" s="2"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="17"/>
-      <c r="B498" s="18"/>
+      <c r="A498" s="19"/>
+      <c r="B498" s="20"/>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
@@ -15124,8 +15140,8 @@
       <c r="Y498" s="2"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="17"/>
-      <c r="B499" s="18"/>
+      <c r="A499" s="19"/>
+      <c r="B499" s="20"/>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
@@ -15151,8 +15167,8 @@
       <c r="Y499" s="2"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="17"/>
-      <c r="B500" s="18"/>
+      <c r="A500" s="19"/>
+      <c r="B500" s="20"/>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
@@ -15178,8 +15194,8 @@
       <c r="Y500" s="2"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="17"/>
-      <c r="B501" s="18"/>
+      <c r="A501" s="19"/>
+      <c r="B501" s="20"/>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
       <c r="E501" s="2"/>
@@ -15205,8 +15221,8 @@
       <c r="Y501" s="2"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="17"/>
-      <c r="B502" s="18"/>
+      <c r="A502" s="19"/>
+      <c r="B502" s="20"/>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
@@ -15232,8 +15248,8 @@
       <c r="Y502" s="2"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="17"/>
-      <c r="B503" s="18"/>
+      <c r="A503" s="19"/>
+      <c r="B503" s="20"/>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
       <c r="E503" s="2"/>
@@ -15259,8 +15275,8 @@
       <c r="Y503" s="2"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="17"/>
-      <c r="B504" s="18"/>
+      <c r="A504" s="19"/>
+      <c r="B504" s="20"/>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
@@ -15286,8 +15302,8 @@
       <c r="Y504" s="2"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="17"/>
-      <c r="B505" s="18"/>
+      <c r="A505" s="19"/>
+      <c r="B505" s="20"/>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
@@ -15313,8 +15329,8 @@
       <c r="Y505" s="2"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="17"/>
-      <c r="B506" s="18"/>
+      <c r="A506" s="19"/>
+      <c r="B506" s="20"/>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
       <c r="E506" s="2"/>
@@ -15340,8 +15356,8 @@
       <c r="Y506" s="2"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="17"/>
-      <c r="B507" s="18"/>
+      <c r="A507" s="19"/>
+      <c r="B507" s="20"/>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
       <c r="E507" s="2"/>
@@ -15367,8 +15383,8 @@
       <c r="Y507" s="2"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="17"/>
-      <c r="B508" s="18"/>
+      <c r="A508" s="19"/>
+      <c r="B508" s="20"/>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
@@ -15394,8 +15410,8 @@
       <c r="Y508" s="2"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="17"/>
-      <c r="B509" s="18"/>
+      <c r="A509" s="19"/>
+      <c r="B509" s="20"/>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
       <c r="E509" s="2"/>
@@ -15421,8 +15437,8 @@
       <c r="Y509" s="2"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="17"/>
-      <c r="B510" s="18"/>
+      <c r="A510" s="19"/>
+      <c r="B510" s="20"/>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
       <c r="E510" s="2"/>
@@ -15448,8 +15464,8 @@
       <c r="Y510" s="2"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="17"/>
-      <c r="B511" s="18"/>
+      <c r="A511" s="19"/>
+      <c r="B511" s="20"/>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
       <c r="E511" s="2"/>
@@ -15475,8 +15491,8 @@
       <c r="Y511" s="2"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="17"/>
-      <c r="B512" s="18"/>
+      <c r="A512" s="19"/>
+      <c r="B512" s="20"/>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
       <c r="E512" s="2"/>
@@ -15502,8 +15518,8 @@
       <c r="Y512" s="2"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="17"/>
-      <c r="B513" s="18"/>
+      <c r="A513" s="19"/>
+      <c r="B513" s="20"/>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
       <c r="E513" s="2"/>
@@ -15529,8 +15545,8 @@
       <c r="Y513" s="2"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="17"/>
-      <c r="B514" s="18"/>
+      <c r="A514" s="19"/>
+      <c r="B514" s="20"/>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
       <c r="E514" s="2"/>
@@ -15556,8 +15572,8 @@
       <c r="Y514" s="2"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="17"/>
-      <c r="B515" s="18"/>
+      <c r="A515" s="19"/>
+      <c r="B515" s="20"/>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
       <c r="E515" s="2"/>
@@ -15583,8 +15599,8 @@
       <c r="Y515" s="2"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="17"/>
-      <c r="B516" s="18"/>
+      <c r="A516" s="19"/>
+      <c r="B516" s="20"/>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
       <c r="E516" s="2"/>
@@ -15610,8 +15626,8 @@
       <c r="Y516" s="2"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="17"/>
-      <c r="B517" s="18"/>
+      <c r="A517" s="19"/>
+      <c r="B517" s="20"/>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
       <c r="E517" s="2"/>
@@ -15637,8 +15653,8 @@
       <c r="Y517" s="2"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="17"/>
-      <c r="B518" s="18"/>
+      <c r="A518" s="19"/>
+      <c r="B518" s="20"/>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
       <c r="E518" s="2"/>
@@ -15664,8 +15680,8 @@
       <c r="Y518" s="2"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="17"/>
-      <c r="B519" s="18"/>
+      <c r="A519" s="19"/>
+      <c r="B519" s="20"/>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
       <c r="E519" s="2"/>
@@ -15691,8 +15707,8 @@
       <c r="Y519" s="2"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="17"/>
-      <c r="B520" s="18"/>
+      <c r="A520" s="19"/>
+      <c r="B520" s="20"/>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
       <c r="E520" s="2"/>
@@ -15718,8 +15734,8 @@
       <c r="Y520" s="2"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="17"/>
-      <c r="B521" s="18"/>
+      <c r="A521" s="19"/>
+      <c r="B521" s="20"/>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
       <c r="E521" s="2"/>
@@ -15745,8 +15761,8 @@
       <c r="Y521" s="2"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="17"/>
-      <c r="B522" s="18"/>
+      <c r="A522" s="19"/>
+      <c r="B522" s="20"/>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
       <c r="E522" s="2"/>
@@ -15772,8 +15788,8 @@
       <c r="Y522" s="2"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="17"/>
-      <c r="B523" s="18"/>
+      <c r="A523" s="19"/>
+      <c r="B523" s="20"/>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
       <c r="E523" s="2"/>
@@ -15799,8 +15815,8 @@
       <c r="Y523" s="2"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="17"/>
-      <c r="B524" s="18"/>
+      <c r="A524" s="19"/>
+      <c r="B524" s="20"/>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
       <c r="E524" s="2"/>
@@ -15826,8 +15842,8 @@
       <c r="Y524" s="2"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="17"/>
-      <c r="B525" s="18"/>
+      <c r="A525" s="19"/>
+      <c r="B525" s="20"/>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
       <c r="E525" s="2"/>
@@ -15853,8 +15869,8 @@
       <c r="Y525" s="2"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="17"/>
-      <c r="B526" s="18"/>
+      <c r="A526" s="19"/>
+      <c r="B526" s="20"/>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
       <c r="E526" s="2"/>
@@ -15880,8 +15896,8 @@
       <c r="Y526" s="2"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="17"/>
-      <c r="B527" s="18"/>
+      <c r="A527" s="19"/>
+      <c r="B527" s="20"/>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
       <c r="E527" s="2"/>
@@ -15907,8 +15923,8 @@
       <c r="Y527" s="2"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="17"/>
-      <c r="B528" s="18"/>
+      <c r="A528" s="19"/>
+      <c r="B528" s="20"/>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
       <c r="E528" s="2"/>
@@ -15934,8 +15950,8 @@
       <c r="Y528" s="2"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="17"/>
-      <c r="B529" s="18"/>
+      <c r="A529" s="19"/>
+      <c r="B529" s="20"/>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
       <c r="E529" s="2"/>
@@ -15961,8 +15977,8 @@
       <c r="Y529" s="2"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="17"/>
-      <c r="B530" s="18"/>
+      <c r="A530" s="19"/>
+      <c r="B530" s="20"/>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
       <c r="E530" s="2"/>
@@ -15988,8 +16004,8 @@
       <c r="Y530" s="2"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="17"/>
-      <c r="B531" s="18"/>
+      <c r="A531" s="19"/>
+      <c r="B531" s="20"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
       <c r="E531" s="2"/>
@@ -16015,8 +16031,8 @@
       <c r="Y531" s="2"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="17"/>
-      <c r="B532" s="18"/>
+      <c r="A532" s="19"/>
+      <c r="B532" s="20"/>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
       <c r="E532" s="2"/>
@@ -16042,8 +16058,8 @@
       <c r="Y532" s="2"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="17"/>
-      <c r="B533" s="18"/>
+      <c r="A533" s="19"/>
+      <c r="B533" s="20"/>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
       <c r="E533" s="2"/>
@@ -16069,8 +16085,8 @@
       <c r="Y533" s="2"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="17"/>
-      <c r="B534" s="18"/>
+      <c r="A534" s="19"/>
+      <c r="B534" s="20"/>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
       <c r="E534" s="2"/>
@@ -16096,8 +16112,8 @@
       <c r="Y534" s="2"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="17"/>
-      <c r="B535" s="18"/>
+      <c r="A535" s="19"/>
+      <c r="B535" s="20"/>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
       <c r="E535" s="2"/>
@@ -16123,8 +16139,8 @@
       <c r="Y535" s="2"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="17"/>
-      <c r="B536" s="18"/>
+      <c r="A536" s="19"/>
+      <c r="B536" s="20"/>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
       <c r="E536" s="2"/>
@@ -16150,8 +16166,8 @@
       <c r="Y536" s="2"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="17"/>
-      <c r="B537" s="18"/>
+      <c r="A537" s="19"/>
+      <c r="B537" s="20"/>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
       <c r="E537" s="2"/>
@@ -16177,8 +16193,8 @@
       <c r="Y537" s="2"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="17"/>
-      <c r="B538" s="18"/>
+      <c r="A538" s="19"/>
+      <c r="B538" s="20"/>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
       <c r="E538" s="2"/>
@@ -16204,8 +16220,8 @@
       <c r="Y538" s="2"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="17"/>
-      <c r="B539" s="18"/>
+      <c r="A539" s="19"/>
+      <c r="B539" s="20"/>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
       <c r="E539" s="2"/>
@@ -16231,8 +16247,8 @@
       <c r="Y539" s="2"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="17"/>
-      <c r="B540" s="18"/>
+      <c r="A540" s="19"/>
+      <c r="B540" s="20"/>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
       <c r="E540" s="2"/>
@@ -16258,8 +16274,8 @@
       <c r="Y540" s="2"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="17"/>
-      <c r="B541" s="18"/>
+      <c r="A541" s="19"/>
+      <c r="B541" s="20"/>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
       <c r="E541" s="2"/>
@@ -16285,8 +16301,8 @@
       <c r="Y541" s="2"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="17"/>
-      <c r="B542" s="18"/>
+      <c r="A542" s="19"/>
+      <c r="B542" s="20"/>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
       <c r="E542" s="2"/>
@@ -16312,8 +16328,8 @@
       <c r="Y542" s="2"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="17"/>
-      <c r="B543" s="18"/>
+      <c r="A543" s="19"/>
+      <c r="B543" s="20"/>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
       <c r="E543" s="2"/>
@@ -16339,8 +16355,8 @@
       <c r="Y543" s="2"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="17"/>
-      <c r="B544" s="18"/>
+      <c r="A544" s="19"/>
+      <c r="B544" s="20"/>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
       <c r="E544" s="2"/>
@@ -16366,8 +16382,8 @@
       <c r="Y544" s="2"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="17"/>
-      <c r="B545" s="18"/>
+      <c r="A545" s="19"/>
+      <c r="B545" s="20"/>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
       <c r="E545" s="2"/>
@@ -16393,8 +16409,8 @@
       <c r="Y545" s="2"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="17"/>
-      <c r="B546" s="18"/>
+      <c r="A546" s="19"/>
+      <c r="B546" s="20"/>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
       <c r="E546" s="2"/>
@@ -16420,8 +16436,8 @@
       <c r="Y546" s="2"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="17"/>
-      <c r="B547" s="18"/>
+      <c r="A547" s="19"/>
+      <c r="B547" s="20"/>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
       <c r="E547" s="2"/>
@@ -16447,8 +16463,8 @@
       <c r="Y547" s="2"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="17"/>
-      <c r="B548" s="18"/>
+      <c r="A548" s="19"/>
+      <c r="B548" s="20"/>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
       <c r="E548" s="2"/>
@@ -16474,8 +16490,8 @@
       <c r="Y548" s="2"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="17"/>
-      <c r="B549" s="18"/>
+      <c r="A549" s="19"/>
+      <c r="B549" s="20"/>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
       <c r="E549" s="2"/>
@@ -16501,8 +16517,8 @@
       <c r="Y549" s="2"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="17"/>
-      <c r="B550" s="18"/>
+      <c r="A550" s="19"/>
+      <c r="B550" s="20"/>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
       <c r="E550" s="2"/>
@@ -16528,8 +16544,8 @@
       <c r="Y550" s="2"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="17"/>
-      <c r="B551" s="18"/>
+      <c r="A551" s="19"/>
+      <c r="B551" s="20"/>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
       <c r="E551" s="2"/>
@@ -16555,8 +16571,8 @@
       <c r="Y551" s="2"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="17"/>
-      <c r="B552" s="18"/>
+      <c r="A552" s="19"/>
+      <c r="B552" s="20"/>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
       <c r="E552" s="2"/>
@@ -16582,8 +16598,8 @@
       <c r="Y552" s="2"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="17"/>
-      <c r="B553" s="18"/>
+      <c r="A553" s="19"/>
+      <c r="B553" s="20"/>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
       <c r="E553" s="2"/>
@@ -16609,8 +16625,8 @@
       <c r="Y553" s="2"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="17"/>
-      <c r="B554" s="18"/>
+      <c r="A554" s="19"/>
+      <c r="B554" s="20"/>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
       <c r="E554" s="2"/>
@@ -16636,8 +16652,8 @@
       <c r="Y554" s="2"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="17"/>
-      <c r="B555" s="18"/>
+      <c r="A555" s="19"/>
+      <c r="B555" s="20"/>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
       <c r="E555" s="2"/>
@@ -16663,8 +16679,8 @@
       <c r="Y555" s="2"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="17"/>
-      <c r="B556" s="18"/>
+      <c r="A556" s="19"/>
+      <c r="B556" s="20"/>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
       <c r="E556" s="2"/>
@@ -16690,8 +16706,8 @@
       <c r="Y556" s="2"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="17"/>
-      <c r="B557" s="18"/>
+      <c r="A557" s="19"/>
+      <c r="B557" s="20"/>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
       <c r="E557" s="2"/>
@@ -16717,8 +16733,8 @@
       <c r="Y557" s="2"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="17"/>
-      <c r="B558" s="18"/>
+      <c r="A558" s="19"/>
+      <c r="B558" s="20"/>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
       <c r="E558" s="2"/>
@@ -16744,8 +16760,8 @@
       <c r="Y558" s="2"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="17"/>
-      <c r="B559" s="18"/>
+      <c r="A559" s="19"/>
+      <c r="B559" s="20"/>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
       <c r="E559" s="2"/>
@@ -16771,8 +16787,8 @@
       <c r="Y559" s="2"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="17"/>
-      <c r="B560" s="18"/>
+      <c r="A560" s="19"/>
+      <c r="B560" s="20"/>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
       <c r="E560" s="2"/>
@@ -16798,8 +16814,8 @@
       <c r="Y560" s="2"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="17"/>
-      <c r="B561" s="18"/>
+      <c r="A561" s="19"/>
+      <c r="B561" s="20"/>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
       <c r="E561" s="2"/>
@@ -16825,8 +16841,8 @@
       <c r="Y561" s="2"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="17"/>
-      <c r="B562" s="18"/>
+      <c r="A562" s="19"/>
+      <c r="B562" s="20"/>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
       <c r="E562" s="2"/>
@@ -16852,8 +16868,8 @@
       <c r="Y562" s="2"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="17"/>
-      <c r="B563" s="18"/>
+      <c r="A563" s="19"/>
+      <c r="B563" s="20"/>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
       <c r="E563" s="2"/>
@@ -16879,8 +16895,8 @@
       <c r="Y563" s="2"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="17"/>
-      <c r="B564" s="18"/>
+      <c r="A564" s="19"/>
+      <c r="B564" s="20"/>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
       <c r="E564" s="2"/>
@@ -16906,8 +16922,8 @@
       <c r="Y564" s="2"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="17"/>
-      <c r="B565" s="18"/>
+      <c r="A565" s="19"/>
+      <c r="B565" s="20"/>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
       <c r="E565" s="2"/>
@@ -16933,8 +16949,8 @@
       <c r="Y565" s="2"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="17"/>
-      <c r="B566" s="18"/>
+      <c r="A566" s="19"/>
+      <c r="B566" s="20"/>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
       <c r="E566" s="2"/>
@@ -16960,8 +16976,8 @@
       <c r="Y566" s="2"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="17"/>
-      <c r="B567" s="18"/>
+      <c r="A567" s="19"/>
+      <c r="B567" s="20"/>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
       <c r="E567" s="2"/>
@@ -16987,8 +17003,8 @@
       <c r="Y567" s="2"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="17"/>
-      <c r="B568" s="18"/>
+      <c r="A568" s="19"/>
+      <c r="B568" s="20"/>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
       <c r="E568" s="2"/>
@@ -17014,8 +17030,8 @@
       <c r="Y568" s="2"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="17"/>
-      <c r="B569" s="18"/>
+      <c r="A569" s="19"/>
+      <c r="B569" s="20"/>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
       <c r="E569" s="2"/>
@@ -17041,8 +17057,8 @@
       <c r="Y569" s="2"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="17"/>
-      <c r="B570" s="18"/>
+      <c r="A570" s="19"/>
+      <c r="B570" s="20"/>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
       <c r="E570" s="2"/>
@@ -17068,8 +17084,8 @@
       <c r="Y570" s="2"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="17"/>
-      <c r="B571" s="18"/>
+      <c r="A571" s="19"/>
+      <c r="B571" s="20"/>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
       <c r="E571" s="2"/>
@@ -17095,8 +17111,8 @@
       <c r="Y571" s="2"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="17"/>
-      <c r="B572" s="18"/>
+      <c r="A572" s="19"/>
+      <c r="B572" s="20"/>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
       <c r="E572" s="2"/>
@@ -17122,8 +17138,8 @@
       <c r="Y572" s="2"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="17"/>
-      <c r="B573" s="18"/>
+      <c r="A573" s="19"/>
+      <c r="B573" s="20"/>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
       <c r="E573" s="2"/>
@@ -17149,8 +17165,8 @@
       <c r="Y573" s="2"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="17"/>
-      <c r="B574" s="18"/>
+      <c r="A574" s="19"/>
+      <c r="B574" s="20"/>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
       <c r="E574" s="2"/>
@@ -17176,8 +17192,8 @@
       <c r="Y574" s="2"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="17"/>
-      <c r="B575" s="18"/>
+      <c r="A575" s="19"/>
+      <c r="B575" s="20"/>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
       <c r="E575" s="2"/>
@@ -17203,8 +17219,8 @@
       <c r="Y575" s="2"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="17"/>
-      <c r="B576" s="18"/>
+      <c r="A576" s="19"/>
+      <c r="B576" s="20"/>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
       <c r="E576" s="2"/>
@@ -17230,8 +17246,8 @@
       <c r="Y576" s="2"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="17"/>
-      <c r="B577" s="18"/>
+      <c r="A577" s="19"/>
+      <c r="B577" s="20"/>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
       <c r="E577" s="2"/>
@@ -17257,8 +17273,8 @@
       <c r="Y577" s="2"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="17"/>
-      <c r="B578" s="18"/>
+      <c r="A578" s="19"/>
+      <c r="B578" s="20"/>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
       <c r="E578" s="2"/>
@@ -17284,8 +17300,8 @@
       <c r="Y578" s="2"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="17"/>
-      <c r="B579" s="18"/>
+      <c r="A579" s="19"/>
+      <c r="B579" s="20"/>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
       <c r="E579" s="2"/>
@@ -17311,8 +17327,8 @@
       <c r="Y579" s="2"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="17"/>
-      <c r="B580" s="18"/>
+      <c r="A580" s="19"/>
+      <c r="B580" s="20"/>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
       <c r="E580" s="2"/>
@@ -17338,8 +17354,8 @@
       <c r="Y580" s="2"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="17"/>
-      <c r="B581" s="18"/>
+      <c r="A581" s="19"/>
+      <c r="B581" s="20"/>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
       <c r="E581" s="2"/>
@@ -17365,8 +17381,8 @@
       <c r="Y581" s="2"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="17"/>
-      <c r="B582" s="18"/>
+      <c r="A582" s="19"/>
+      <c r="B582" s="20"/>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
       <c r="E582" s="2"/>
@@ -17392,8 +17408,8 @@
       <c r="Y582" s="2"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="17"/>
-      <c r="B583" s="18"/>
+      <c r="A583" s="19"/>
+      <c r="B583" s="20"/>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
       <c r="E583" s="2"/>
@@ -17419,8 +17435,8 @@
       <c r="Y583" s="2"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="17"/>
-      <c r="B584" s="18"/>
+      <c r="A584" s="19"/>
+      <c r="B584" s="20"/>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
       <c r="E584" s="2"/>
@@ -17446,8 +17462,8 @@
       <c r="Y584" s="2"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="17"/>
-      <c r="B585" s="18"/>
+      <c r="A585" s="19"/>
+      <c r="B585" s="20"/>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
       <c r="E585" s="2"/>
@@ -17473,8 +17489,8 @@
       <c r="Y585" s="2"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="17"/>
-      <c r="B586" s="18"/>
+      <c r="A586" s="19"/>
+      <c r="B586" s="20"/>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
       <c r="E586" s="2"/>
@@ -17500,8 +17516,8 @@
       <c r="Y586" s="2"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="17"/>
-      <c r="B587" s="18"/>
+      <c r="A587" s="19"/>
+      <c r="B587" s="20"/>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
       <c r="E587" s="2"/>
@@ -17527,8 +17543,8 @@
       <c r="Y587" s="2"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="17"/>
-      <c r="B588" s="18"/>
+      <c r="A588" s="19"/>
+      <c r="B588" s="20"/>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
       <c r="E588" s="2"/>
@@ -17554,8 +17570,8 @@
       <c r="Y588" s="2"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="17"/>
-      <c r="B589" s="18"/>
+      <c r="A589" s="19"/>
+      <c r="B589" s="20"/>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
       <c r="E589" s="2"/>
@@ -17581,8 +17597,8 @@
       <c r="Y589" s="2"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="17"/>
-      <c r="B590" s="18"/>
+      <c r="A590" s="19"/>
+      <c r="B590" s="20"/>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
       <c r="E590" s="2"/>
@@ -17608,8 +17624,8 @@
       <c r="Y590" s="2"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="17"/>
-      <c r="B591" s="18"/>
+      <c r="A591" s="19"/>
+      <c r="B591" s="20"/>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
       <c r="E591" s="2"/>
@@ -17635,8 +17651,8 @@
       <c r="Y591" s="2"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="17"/>
-      <c r="B592" s="18"/>
+      <c r="A592" s="19"/>
+      <c r="B592" s="20"/>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
       <c r="E592" s="2"/>
@@ -17662,8 +17678,8 @@
       <c r="Y592" s="2"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="17"/>
-      <c r="B593" s="18"/>
+      <c r="A593" s="19"/>
+      <c r="B593" s="20"/>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
       <c r="E593" s="2"/>
@@ -17689,8 +17705,8 @@
       <c r="Y593" s="2"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="17"/>
-      <c r="B594" s="18"/>
+      <c r="A594" s="19"/>
+      <c r="B594" s="20"/>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
       <c r="E594" s="2"/>
@@ -17716,8 +17732,8 @@
       <c r="Y594" s="2"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="17"/>
-      <c r="B595" s="18"/>
+      <c r="A595" s="19"/>
+      <c r="B595" s="20"/>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
       <c r="E595" s="2"/>
@@ -17743,8 +17759,8 @@
       <c r="Y595" s="2"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="17"/>
-      <c r="B596" s="18"/>
+      <c r="A596" s="19"/>
+      <c r="B596" s="20"/>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
       <c r="E596" s="2"/>
@@ -17770,8 +17786,8 @@
       <c r="Y596" s="2"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="17"/>
-      <c r="B597" s="18"/>
+      <c r="A597" s="19"/>
+      <c r="B597" s="20"/>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
       <c r="E597" s="2"/>
@@ -17797,8 +17813,8 @@
       <c r="Y597" s="2"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="17"/>
-      <c r="B598" s="18"/>
+      <c r="A598" s="19"/>
+      <c r="B598" s="20"/>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
       <c r="E598" s="2"/>
@@ -17824,8 +17840,8 @@
       <c r="Y598" s="2"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="17"/>
-      <c r="B599" s="18"/>
+      <c r="A599" s="19"/>
+      <c r="B599" s="20"/>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
       <c r="E599" s="2"/>
@@ -17851,8 +17867,8 @@
       <c r="Y599" s="2"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="17"/>
-      <c r="B600" s="18"/>
+      <c r="A600" s="19"/>
+      <c r="B600" s="20"/>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
       <c r="E600" s="2"/>
@@ -17878,8 +17894,8 @@
       <c r="Y600" s="2"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="17"/>
-      <c r="B601" s="18"/>
+      <c r="A601" s="19"/>
+      <c r="B601" s="20"/>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
       <c r="E601" s="2"/>
@@ -17905,8 +17921,8 @@
       <c r="Y601" s="2"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="17"/>
-      <c r="B602" s="18"/>
+      <c r="A602" s="19"/>
+      <c r="B602" s="20"/>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
       <c r="E602" s="2"/>
@@ -17932,8 +17948,8 @@
       <c r="Y602" s="2"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="17"/>
-      <c r="B603" s="18"/>
+      <c r="A603" s="19"/>
+      <c r="B603" s="20"/>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
       <c r="E603" s="2"/>
@@ -17959,8 +17975,8 @@
       <c r="Y603" s="2"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="17"/>
-      <c r="B604" s="18"/>
+      <c r="A604" s="19"/>
+      <c r="B604" s="20"/>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
       <c r="E604" s="2"/>
@@ -17986,8 +18002,8 @@
       <c r="Y604" s="2"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="17"/>
-      <c r="B605" s="18"/>
+      <c r="A605" s="19"/>
+      <c r="B605" s="20"/>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
       <c r="E605" s="2"/>
@@ -18013,8 +18029,8 @@
       <c r="Y605" s="2"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="17"/>
-      <c r="B606" s="18"/>
+      <c r="A606" s="19"/>
+      <c r="B606" s="20"/>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
       <c r="E606" s="2"/>
@@ -18040,8 +18056,8 @@
       <c r="Y606" s="2"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="17"/>
-      <c r="B607" s="18"/>
+      <c r="A607" s="19"/>
+      <c r="B607" s="20"/>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
       <c r="E607" s="2"/>
@@ -18067,8 +18083,8 @@
       <c r="Y607" s="2"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="17"/>
-      <c r="B608" s="18"/>
+      <c r="A608" s="19"/>
+      <c r="B608" s="20"/>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
       <c r="E608" s="2"/>
@@ -18094,8 +18110,8 @@
       <c r="Y608" s="2"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="17"/>
-      <c r="B609" s="18"/>
+      <c r="A609" s="19"/>
+      <c r="B609" s="20"/>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
       <c r="E609" s="2"/>
@@ -18121,8 +18137,8 @@
       <c r="Y609" s="2"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="17"/>
-      <c r="B610" s="18"/>
+      <c r="A610" s="19"/>
+      <c r="B610" s="20"/>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
       <c r="E610" s="2"/>
@@ -18148,8 +18164,8 @@
       <c r="Y610" s="2"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="17"/>
-      <c r="B611" s="18"/>
+      <c r="A611" s="19"/>
+      <c r="B611" s="20"/>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
       <c r="E611" s="2"/>
@@ -18175,8 +18191,8 @@
       <c r="Y611" s="2"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="17"/>
-      <c r="B612" s="18"/>
+      <c r="A612" s="19"/>
+      <c r="B612" s="20"/>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
       <c r="E612" s="2"/>
@@ -18202,8 +18218,8 @@
       <c r="Y612" s="2"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="17"/>
-      <c r="B613" s="18"/>
+      <c r="A613" s="19"/>
+      <c r="B613" s="20"/>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
       <c r="E613" s="2"/>
@@ -18229,8 +18245,8 @@
       <c r="Y613" s="2"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="17"/>
-      <c r="B614" s="18"/>
+      <c r="A614" s="19"/>
+      <c r="B614" s="20"/>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
       <c r="E614" s="2"/>
@@ -18256,8 +18272,8 @@
       <c r="Y614" s="2"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="17"/>
-      <c r="B615" s="18"/>
+      <c r="A615" s="19"/>
+      <c r="B615" s="20"/>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
       <c r="E615" s="2"/>
@@ -18283,8 +18299,8 @@
       <c r="Y615" s="2"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="17"/>
-      <c r="B616" s="18"/>
+      <c r="A616" s="19"/>
+      <c r="B616" s="20"/>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
       <c r="E616" s="2"/>
@@ -18310,8 +18326,8 @@
       <c r="Y616" s="2"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="17"/>
-      <c r="B617" s="18"/>
+      <c r="A617" s="19"/>
+      <c r="B617" s="20"/>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
       <c r="E617" s="2"/>
@@ -18337,8 +18353,8 @@
       <c r="Y617" s="2"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="17"/>
-      <c r="B618" s="18"/>
+      <c r="A618" s="19"/>
+      <c r="B618" s="20"/>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
       <c r="E618" s="2"/>
@@ -18364,8 +18380,8 @@
       <c r="Y618" s="2"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="17"/>
-      <c r="B619" s="18"/>
+      <c r="A619" s="19"/>
+      <c r="B619" s="20"/>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
       <c r="E619" s="2"/>
@@ -18391,8 +18407,8 @@
       <c r="Y619" s="2"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="17"/>
-      <c r="B620" s="18"/>
+      <c r="A620" s="19"/>
+      <c r="B620" s="20"/>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
       <c r="E620" s="2"/>
@@ -18418,8 +18434,8 @@
       <c r="Y620" s="2"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="17"/>
-      <c r="B621" s="18"/>
+      <c r="A621" s="19"/>
+      <c r="B621" s="20"/>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
       <c r="E621" s="2"/>
@@ -18445,8 +18461,8 @@
       <c r="Y621" s="2"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="17"/>
-      <c r="B622" s="18"/>
+      <c r="A622" s="19"/>
+      <c r="B622" s="20"/>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
       <c r="E622" s="2"/>
@@ -18472,8 +18488,8 @@
       <c r="Y622" s="2"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="17"/>
-      <c r="B623" s="18"/>
+      <c r="A623" s="19"/>
+      <c r="B623" s="20"/>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
       <c r="E623" s="2"/>
@@ -18499,8 +18515,8 @@
       <c r="Y623" s="2"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="17"/>
-      <c r="B624" s="18"/>
+      <c r="A624" s="19"/>
+      <c r="B624" s="20"/>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
       <c r="E624" s="2"/>
@@ -18526,8 +18542,8 @@
       <c r="Y624" s="2"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="17"/>
-      <c r="B625" s="18"/>
+      <c r="A625" s="19"/>
+      <c r="B625" s="20"/>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
       <c r="E625" s="2"/>
@@ -18553,8 +18569,8 @@
       <c r="Y625" s="2"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="17"/>
-      <c r="B626" s="18"/>
+      <c r="A626" s="19"/>
+      <c r="B626" s="20"/>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
       <c r="E626" s="2"/>
@@ -18580,8 +18596,8 @@
       <c r="Y626" s="2"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="17"/>
-      <c r="B627" s="18"/>
+      <c r="A627" s="19"/>
+      <c r="B627" s="20"/>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
       <c r="E627" s="2"/>
@@ -18607,8 +18623,8 @@
       <c r="Y627" s="2"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="17"/>
-      <c r="B628" s="18"/>
+      <c r="A628" s="19"/>
+      <c r="B628" s="20"/>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
       <c r="E628" s="2"/>
@@ -18634,8 +18650,8 @@
       <c r="Y628" s="2"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="17"/>
-      <c r="B629" s="18"/>
+      <c r="A629" s="19"/>
+      <c r="B629" s="20"/>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
       <c r="E629" s="2"/>
@@ -18661,8 +18677,8 @@
       <c r="Y629" s="2"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="17"/>
-      <c r="B630" s="18"/>
+      <c r="A630" s="19"/>
+      <c r="B630" s="20"/>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
       <c r="E630" s="2"/>
@@ -18688,8 +18704,8 @@
       <c r="Y630" s="2"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="17"/>
-      <c r="B631" s="18"/>
+      <c r="A631" s="19"/>
+      <c r="B631" s="20"/>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
       <c r="E631" s="2"/>
@@ -18715,8 +18731,8 @@
       <c r="Y631" s="2"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="17"/>
-      <c r="B632" s="18"/>
+      <c r="A632" s="19"/>
+      <c r="B632" s="20"/>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
       <c r="E632" s="2"/>
@@ -18742,8 +18758,8 @@
       <c r="Y632" s="2"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="17"/>
-      <c r="B633" s="18"/>
+      <c r="A633" s="19"/>
+      <c r="B633" s="20"/>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
       <c r="E633" s="2"/>
@@ -18769,8 +18785,8 @@
       <c r="Y633" s="2"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="17"/>
-      <c r="B634" s="18"/>
+      <c r="A634" s="19"/>
+      <c r="B634" s="20"/>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
       <c r="E634" s="2"/>
@@ -18796,8 +18812,8 @@
       <c r="Y634" s="2"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="17"/>
-      <c r="B635" s="18"/>
+      <c r="A635" s="19"/>
+      <c r="B635" s="20"/>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
       <c r="E635" s="2"/>
@@ -18823,8 +18839,8 @@
       <c r="Y635" s="2"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="17"/>
-      <c r="B636" s="18"/>
+      <c r="A636" s="19"/>
+      <c r="B636" s="20"/>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
       <c r="E636" s="2"/>
@@ -18850,8 +18866,8 @@
       <c r="Y636" s="2"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="17"/>
-      <c r="B637" s="18"/>
+      <c r="A637" s="19"/>
+      <c r="B637" s="20"/>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
       <c r="E637" s="2"/>
@@ -18877,8 +18893,8 @@
       <c r="Y637" s="2"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="17"/>
-      <c r="B638" s="18"/>
+      <c r="A638" s="19"/>
+      <c r="B638" s="20"/>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
       <c r="E638" s="2"/>
@@ -18904,8 +18920,8 @@
       <c r="Y638" s="2"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="17"/>
-      <c r="B639" s="18"/>
+      <c r="A639" s="19"/>
+      <c r="B639" s="20"/>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
       <c r="E639" s="2"/>
@@ -18931,8 +18947,8 @@
       <c r="Y639" s="2"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="17"/>
-      <c r="B640" s="18"/>
+      <c r="A640" s="19"/>
+      <c r="B640" s="20"/>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
       <c r="E640" s="2"/>
@@ -18958,8 +18974,8 @@
       <c r="Y640" s="2"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="17"/>
-      <c r="B641" s="18"/>
+      <c r="A641" s="19"/>
+      <c r="B641" s="20"/>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
       <c r="E641" s="2"/>
@@ -18985,8 +19001,8 @@
       <c r="Y641" s="2"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="17"/>
-      <c r="B642" s="18"/>
+      <c r="A642" s="19"/>
+      <c r="B642" s="20"/>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
       <c r="E642" s="2"/>
@@ -19012,8 +19028,8 @@
       <c r="Y642" s="2"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="17"/>
-      <c r="B643" s="18"/>
+      <c r="A643" s="19"/>
+      <c r="B643" s="20"/>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
       <c r="E643" s="2"/>
@@ -19039,8 +19055,8 @@
       <c r="Y643" s="2"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="17"/>
-      <c r="B644" s="18"/>
+      <c r="A644" s="19"/>
+      <c r="B644" s="20"/>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
       <c r="E644" s="2"/>
@@ -19066,8 +19082,8 @@
       <c r="Y644" s="2"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="17"/>
-      <c r="B645" s="18"/>
+      <c r="A645" s="19"/>
+      <c r="B645" s="20"/>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
       <c r="E645" s="2"/>
@@ -19093,8 +19109,8 @@
       <c r="Y645" s="2"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="17"/>
-      <c r="B646" s="18"/>
+      <c r="A646" s="19"/>
+      <c r="B646" s="20"/>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
       <c r="E646" s="2"/>
@@ -19120,8 +19136,8 @@
       <c r="Y646" s="2"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="17"/>
-      <c r="B647" s="18"/>
+      <c r="A647" s="19"/>
+      <c r="B647" s="20"/>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
       <c r="E647" s="2"/>
@@ -19147,8 +19163,8 @@
       <c r="Y647" s="2"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="17"/>
-      <c r="B648" s="18"/>
+      <c r="A648" s="19"/>
+      <c r="B648" s="20"/>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
       <c r="E648" s="2"/>
@@ -19174,8 +19190,8 @@
       <c r="Y648" s="2"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="17"/>
-      <c r="B649" s="18"/>
+      <c r="A649" s="19"/>
+      <c r="B649" s="20"/>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
       <c r="E649" s="2"/>
@@ -19201,8 +19217,8 @@
       <c r="Y649" s="2"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="17"/>
-      <c r="B650" s="18"/>
+      <c r="A650" s="19"/>
+      <c r="B650" s="20"/>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
       <c r="E650" s="2"/>
@@ -19228,8 +19244,8 @@
       <c r="Y650" s="2"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="17"/>
-      <c r="B651" s="18"/>
+      <c r="A651" s="19"/>
+      <c r="B651" s="20"/>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
       <c r="E651" s="2"/>
@@ -19255,8 +19271,8 @@
       <c r="Y651" s="2"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="17"/>
-      <c r="B652" s="18"/>
+      <c r="A652" s="19"/>
+      <c r="B652" s="20"/>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
       <c r="E652" s="2"/>
@@ -19282,8 +19298,8 @@
       <c r="Y652" s="2"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="17"/>
-      <c r="B653" s="18"/>
+      <c r="A653" s="19"/>
+      <c r="B653" s="20"/>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
       <c r="E653" s="2"/>
@@ -19309,8 +19325,8 @@
       <c r="Y653" s="2"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="17"/>
-      <c r="B654" s="18"/>
+      <c r="A654" s="19"/>
+      <c r="B654" s="20"/>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
       <c r="E654" s="2"/>
@@ -19336,8 +19352,8 @@
       <c r="Y654" s="2"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="17"/>
-      <c r="B655" s="18"/>
+      <c r="A655" s="19"/>
+      <c r="B655" s="20"/>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
       <c r="E655" s="2"/>
@@ -19363,8 +19379,8 @@
       <c r="Y655" s="2"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="17"/>
-      <c r="B656" s="18"/>
+      <c r="A656" s="19"/>
+      <c r="B656" s="20"/>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
       <c r="E656" s="2"/>
@@ -19390,8 +19406,8 @@
       <c r="Y656" s="2"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="17"/>
-      <c r="B657" s="18"/>
+      <c r="A657" s="19"/>
+      <c r="B657" s="20"/>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
       <c r="E657" s="2"/>
@@ -19417,8 +19433,8 @@
       <c r="Y657" s="2"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="17"/>
-      <c r="B658" s="18"/>
+      <c r="A658" s="19"/>
+      <c r="B658" s="20"/>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
       <c r="E658" s="2"/>
@@ -19444,8 +19460,8 @@
       <c r="Y658" s="2"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="17"/>
-      <c r="B659" s="18"/>
+      <c r="A659" s="19"/>
+      <c r="B659" s="20"/>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
       <c r="E659" s="2"/>
@@ -19471,8 +19487,8 @@
       <c r="Y659" s="2"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="17"/>
-      <c r="B660" s="18"/>
+      <c r="A660" s="19"/>
+      <c r="B660" s="20"/>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
       <c r="E660" s="2"/>
@@ -19498,8 +19514,8 @@
       <c r="Y660" s="2"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="17"/>
-      <c r="B661" s="18"/>
+      <c r="A661" s="19"/>
+      <c r="B661" s="20"/>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
       <c r="E661" s="2"/>
@@ -19525,8 +19541,8 @@
       <c r="Y661" s="2"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="17"/>
-      <c r="B662" s="18"/>
+      <c r="A662" s="19"/>
+      <c r="B662" s="20"/>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
       <c r="E662" s="2"/>
@@ -19552,8 +19568,8 @@
       <c r="Y662" s="2"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="17"/>
-      <c r="B663" s="18"/>
+      <c r="A663" s="19"/>
+      <c r="B663" s="20"/>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
       <c r="E663" s="2"/>
@@ -19579,8 +19595,8 @@
       <c r="Y663" s="2"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="17"/>
-      <c r="B664" s="18"/>
+      <c r="A664" s="19"/>
+      <c r="B664" s="20"/>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
       <c r="E664" s="2"/>
@@ -19606,8 +19622,8 @@
       <c r="Y664" s="2"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="17"/>
-      <c r="B665" s="18"/>
+      <c r="A665" s="19"/>
+      <c r="B665" s="20"/>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
       <c r="E665" s="2"/>
@@ -19633,8 +19649,8 @@
       <c r="Y665" s="2"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="17"/>
-      <c r="B666" s="18"/>
+      <c r="A666" s="19"/>
+      <c r="B666" s="20"/>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
       <c r="E666" s="2"/>
@@ -19660,8 +19676,8 @@
       <c r="Y666" s="2"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="17"/>
-      <c r="B667" s="18"/>
+      <c r="A667" s="19"/>
+      <c r="B667" s="20"/>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
       <c r="E667" s="2"/>
@@ -19687,8 +19703,8 @@
       <c r="Y667" s="2"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="17"/>
-      <c r="B668" s="18"/>
+      <c r="A668" s="19"/>
+      <c r="B668" s="20"/>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
       <c r="E668" s="2"/>
@@ -19714,8 +19730,8 @@
       <c r="Y668" s="2"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="17"/>
-      <c r="B669" s="18"/>
+      <c r="A669" s="19"/>
+      <c r="B669" s="20"/>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
       <c r="E669" s="2"/>
@@ -19741,8 +19757,8 @@
       <c r="Y669" s="2"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="17"/>
-      <c r="B670" s="18"/>
+      <c r="A670" s="19"/>
+      <c r="B670" s="20"/>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
       <c r="E670" s="2"/>
@@ -19768,8 +19784,8 @@
       <c r="Y670" s="2"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="17"/>
-      <c r="B671" s="18"/>
+      <c r="A671" s="19"/>
+      <c r="B671" s="20"/>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
       <c r="E671" s="2"/>
@@ -19795,8 +19811,8 @@
       <c r="Y671" s="2"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="17"/>
-      <c r="B672" s="18"/>
+      <c r="A672" s="19"/>
+      <c r="B672" s="20"/>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
       <c r="E672" s="2"/>
@@ -19822,8 +19838,8 @@
       <c r="Y672" s="2"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="17"/>
-      <c r="B673" s="18"/>
+      <c r="A673" s="19"/>
+      <c r="B673" s="20"/>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
       <c r="E673" s="2"/>
@@ -19849,8 +19865,8 @@
       <c r="Y673" s="2"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="17"/>
-      <c r="B674" s="18"/>
+      <c r="A674" s="19"/>
+      <c r="B674" s="20"/>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
       <c r="E674" s="2"/>
@@ -19876,8 +19892,8 @@
       <c r="Y674" s="2"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="17"/>
-      <c r="B675" s="18"/>
+      <c r="A675" s="19"/>
+      <c r="B675" s="20"/>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
       <c r="E675" s="2"/>
@@ -19903,8 +19919,8 @@
       <c r="Y675" s="2"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="17"/>
-      <c r="B676" s="18"/>
+      <c r="A676" s="19"/>
+      <c r="B676" s="20"/>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
       <c r="E676" s="2"/>
@@ -19930,8 +19946,8 @@
       <c r="Y676" s="2"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="17"/>
-      <c r="B677" s="18"/>
+      <c r="A677" s="19"/>
+      <c r="B677" s="20"/>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
       <c r="E677" s="2"/>
@@ -19957,8 +19973,8 @@
       <c r="Y677" s="2"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="17"/>
-      <c r="B678" s="18"/>
+      <c r="A678" s="19"/>
+      <c r="B678" s="20"/>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
       <c r="E678" s="2"/>
@@ -19984,8 +20000,8 @@
       <c r="Y678" s="2"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="17"/>
-      <c r="B679" s="18"/>
+      <c r="A679" s="19"/>
+      <c r="B679" s="20"/>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
       <c r="E679" s="2"/>
@@ -20011,8 +20027,8 @@
       <c r="Y679" s="2"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="17"/>
-      <c r="B680" s="18"/>
+      <c r="A680" s="19"/>
+      <c r="B680" s="20"/>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
       <c r="E680" s="2"/>
@@ -20038,8 +20054,8 @@
       <c r="Y680" s="2"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="17"/>
-      <c r="B681" s="18"/>
+      <c r="A681" s="19"/>
+      <c r="B681" s="20"/>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
       <c r="E681" s="2"/>
@@ -20065,8 +20081,8 @@
       <c r="Y681" s="2"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="17"/>
-      <c r="B682" s="18"/>
+      <c r="A682" s="19"/>
+      <c r="B682" s="20"/>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
       <c r="E682" s="2"/>
@@ -20092,8 +20108,8 @@
       <c r="Y682" s="2"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="17"/>
-      <c r="B683" s="18"/>
+      <c r="A683" s="19"/>
+      <c r="B683" s="20"/>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
       <c r="E683" s="2"/>
@@ -20119,8 +20135,8 @@
       <c r="Y683" s="2"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="17"/>
-      <c r="B684" s="18"/>
+      <c r="A684" s="19"/>
+      <c r="B684" s="20"/>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
       <c r="E684" s="2"/>
@@ -20146,8 +20162,8 @@
       <c r="Y684" s="2"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="17"/>
-      <c r="B685" s="18"/>
+      <c r="A685" s="19"/>
+      <c r="B685" s="20"/>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
       <c r="E685" s="2"/>
@@ -20173,8 +20189,8 @@
       <c r="Y685" s="2"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="17"/>
-      <c r="B686" s="18"/>
+      <c r="A686" s="19"/>
+      <c r="B686" s="20"/>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
       <c r="E686" s="2"/>
@@ -20200,8 +20216,8 @@
       <c r="Y686" s="2"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="17"/>
-      <c r="B687" s="18"/>
+      <c r="A687" s="19"/>
+      <c r="B687" s="20"/>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
       <c r="E687" s="2"/>
@@ -20227,8 +20243,8 @@
       <c r="Y687" s="2"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="17"/>
-      <c r="B688" s="18"/>
+      <c r="A688" s="19"/>
+      <c r="B688" s="20"/>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
       <c r="E688" s="2"/>
@@ -20254,8 +20270,8 @@
       <c r="Y688" s="2"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="17"/>
-      <c r="B689" s="18"/>
+      <c r="A689" s="19"/>
+      <c r="B689" s="20"/>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
       <c r="E689" s="2"/>
@@ -20281,8 +20297,8 @@
       <c r="Y689" s="2"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="17"/>
-      <c r="B690" s="18"/>
+      <c r="A690" s="19"/>
+      <c r="B690" s="20"/>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
       <c r="E690" s="2"/>
@@ -20308,8 +20324,8 @@
       <c r="Y690" s="2"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="17"/>
-      <c r="B691" s="18"/>
+      <c r="A691" s="19"/>
+      <c r="B691" s="20"/>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
       <c r="E691" s="2"/>
@@ -20335,8 +20351,8 @@
       <c r="Y691" s="2"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="17"/>
-      <c r="B692" s="18"/>
+      <c r="A692" s="19"/>
+      <c r="B692" s="20"/>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
       <c r="E692" s="2"/>
@@ -20362,8 +20378,8 @@
       <c r="Y692" s="2"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="17"/>
-      <c r="B693" s="18"/>
+      <c r="A693" s="19"/>
+      <c r="B693" s="20"/>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
       <c r="E693" s="2"/>
@@ -20389,8 +20405,8 @@
       <c r="Y693" s="2"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="17"/>
-      <c r="B694" s="18"/>
+      <c r="A694" s="19"/>
+      <c r="B694" s="20"/>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
       <c r="E694" s="2"/>
@@ -20416,8 +20432,8 @@
       <c r="Y694" s="2"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="17"/>
-      <c r="B695" s="18"/>
+      <c r="A695" s="19"/>
+      <c r="B695" s="20"/>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
       <c r="E695" s="2"/>
@@ -20443,8 +20459,8 @@
       <c r="Y695" s="2"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="17"/>
-      <c r="B696" s="18"/>
+      <c r="A696" s="19"/>
+      <c r="B696" s="20"/>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
       <c r="E696" s="2"/>
@@ -20470,8 +20486,8 @@
       <c r="Y696" s="2"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="17"/>
-      <c r="B697" s="18"/>
+      <c r="A697" s="19"/>
+      <c r="B697" s="20"/>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
       <c r="E697" s="2"/>
@@ -20497,8 +20513,8 @@
       <c r="Y697" s="2"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="17"/>
-      <c r="B698" s="18"/>
+      <c r="A698" s="19"/>
+      <c r="B698" s="20"/>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
       <c r="E698" s="2"/>
@@ -20524,8 +20540,8 @@
       <c r="Y698" s="2"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="17"/>
-      <c r="B699" s="18"/>
+      <c r="A699" s="19"/>
+      <c r="B699" s="20"/>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
       <c r="E699" s="2"/>
@@ -20551,8 +20567,8 @@
       <c r="Y699" s="2"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="17"/>
-      <c r="B700" s="18"/>
+      <c r="A700" s="19"/>
+      <c r="B700" s="20"/>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
       <c r="E700" s="2"/>
@@ -20578,8 +20594,8 @@
       <c r="Y700" s="2"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="17"/>
-      <c r="B701" s="18"/>
+      <c r="A701" s="19"/>
+      <c r="B701" s="20"/>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
       <c r="E701" s="2"/>
@@ -20605,8 +20621,8 @@
       <c r="Y701" s="2"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="17"/>
-      <c r="B702" s="18"/>
+      <c r="A702" s="19"/>
+      <c r="B702" s="20"/>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
       <c r="E702" s="2"/>
@@ -20632,8 +20648,8 @@
       <c r="Y702" s="2"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="17"/>
-      <c r="B703" s="18"/>
+      <c r="A703" s="19"/>
+      <c r="B703" s="20"/>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
       <c r="E703" s="2"/>
@@ -20659,8 +20675,8 @@
       <c r="Y703" s="2"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="17"/>
-      <c r="B704" s="18"/>
+      <c r="A704" s="19"/>
+      <c r="B704" s="20"/>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
       <c r="E704" s="2"/>
@@ -20686,8 +20702,8 @@
       <c r="Y704" s="2"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="17"/>
-      <c r="B705" s="18"/>
+      <c r="A705" s="19"/>
+      <c r="B705" s="20"/>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
       <c r="E705" s="2"/>
@@ -20713,8 +20729,8 @@
       <c r="Y705" s="2"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="17"/>
-      <c r="B706" s="18"/>
+      <c r="A706" s="19"/>
+      <c r="B706" s="20"/>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
       <c r="E706" s="2"/>
@@ -20740,8 +20756,8 @@
       <c r="Y706" s="2"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="17"/>
-      <c r="B707" s="18"/>
+      <c r="A707" s="19"/>
+      <c r="B707" s="20"/>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
       <c r="E707" s="2"/>
@@ -20767,8 +20783,8 @@
       <c r="Y707" s="2"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="17"/>
-      <c r="B708" s="18"/>
+      <c r="A708" s="19"/>
+      <c r="B708" s="20"/>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
       <c r="E708" s="2"/>
@@ -20794,8 +20810,8 @@
       <c r="Y708" s="2"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="17"/>
-      <c r="B709" s="18"/>
+      <c r="A709" s="19"/>
+      <c r="B709" s="20"/>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
       <c r="E709" s="2"/>
@@ -20821,8 +20837,8 @@
       <c r="Y709" s="2"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="17"/>
-      <c r="B710" s="18"/>
+      <c r="A710" s="19"/>
+      <c r="B710" s="20"/>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
       <c r="E710" s="2"/>
@@ -20848,8 +20864,8 @@
       <c r="Y710" s="2"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="17"/>
-      <c r="B711" s="18"/>
+      <c r="A711" s="19"/>
+      <c r="B711" s="20"/>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
       <c r="E711" s="2"/>
@@ -20875,8 +20891,8 @@
       <c r="Y711" s="2"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="17"/>
-      <c r="B712" s="18"/>
+      <c r="A712" s="19"/>
+      <c r="B712" s="20"/>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
       <c r="E712" s="2"/>
@@ -20902,8 +20918,8 @@
       <c r="Y712" s="2"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="17"/>
-      <c r="B713" s="18"/>
+      <c r="A713" s="19"/>
+      <c r="B713" s="20"/>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
       <c r="E713" s="2"/>
@@ -20929,8 +20945,8 @@
       <c r="Y713" s="2"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="17"/>
-      <c r="B714" s="18"/>
+      <c r="A714" s="19"/>
+      <c r="B714" s="20"/>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
       <c r="E714" s="2"/>
@@ -20956,8 +20972,8 @@
       <c r="Y714" s="2"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="17"/>
-      <c r="B715" s="18"/>
+      <c r="A715" s="19"/>
+      <c r="B715" s="20"/>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
       <c r="E715" s="2"/>
@@ -20983,8 +20999,8 @@
       <c r="Y715" s="2"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="17"/>
-      <c r="B716" s="18"/>
+      <c r="A716" s="19"/>
+      <c r="B716" s="20"/>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
       <c r="E716" s="2"/>
@@ -21010,8 +21026,8 @@
       <c r="Y716" s="2"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="17"/>
-      <c r="B717" s="18"/>
+      <c r="A717" s="19"/>
+      <c r="B717" s="20"/>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
       <c r="E717" s="2"/>
@@ -21037,8 +21053,8 @@
       <c r="Y717" s="2"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="17"/>
-      <c r="B718" s="18"/>
+      <c r="A718" s="19"/>
+      <c r="B718" s="20"/>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
       <c r="E718" s="2"/>
@@ -21064,8 +21080,8 @@
       <c r="Y718" s="2"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="17"/>
-      <c r="B719" s="18"/>
+      <c r="A719" s="19"/>
+      <c r="B719" s="20"/>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
       <c r="E719" s="2"/>
@@ -21091,8 +21107,8 @@
       <c r="Y719" s="2"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="17"/>
-      <c r="B720" s="18"/>
+      <c r="A720" s="19"/>
+      <c r="B720" s="20"/>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
       <c r="E720" s="2"/>
@@ -21118,8 +21134,8 @@
       <c r="Y720" s="2"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="17"/>
-      <c r="B721" s="18"/>
+      <c r="A721" s="19"/>
+      <c r="B721" s="20"/>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
       <c r="E721" s="2"/>
@@ -21145,8 +21161,8 @@
       <c r="Y721" s="2"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="17"/>
-      <c r="B722" s="18"/>
+      <c r="A722" s="19"/>
+      <c r="B722" s="20"/>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
       <c r="E722" s="2"/>
@@ -21172,8 +21188,8 @@
       <c r="Y722" s="2"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="17"/>
-      <c r="B723" s="18"/>
+      <c r="A723" s="19"/>
+      <c r="B723" s="20"/>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
       <c r="E723" s="2"/>
@@ -21199,8 +21215,8 @@
       <c r="Y723" s="2"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="17"/>
-      <c r="B724" s="18"/>
+      <c r="A724" s="19"/>
+      <c r="B724" s="20"/>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
       <c r="E724" s="2"/>
@@ -21226,8 +21242,8 @@
       <c r="Y724" s="2"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="17"/>
-      <c r="B725" s="18"/>
+      <c r="A725" s="19"/>
+      <c r="B725" s="20"/>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
       <c r="E725" s="2"/>
@@ -21253,8 +21269,8 @@
       <c r="Y725" s="2"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="17"/>
-      <c r="B726" s="18"/>
+      <c r="A726" s="19"/>
+      <c r="B726" s="20"/>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
       <c r="E726" s="2"/>
@@ -21280,8 +21296,8 @@
       <c r="Y726" s="2"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="17"/>
-      <c r="B727" s="18"/>
+      <c r="A727" s="19"/>
+      <c r="B727" s="20"/>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
       <c r="E727" s="2"/>
@@ -21307,8 +21323,8 @@
       <c r="Y727" s="2"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="17"/>
-      <c r="B728" s="18"/>
+      <c r="A728" s="19"/>
+      <c r="B728" s="20"/>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
       <c r="E728" s="2"/>
@@ -21334,8 +21350,8 @@
       <c r="Y728" s="2"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="17"/>
-      <c r="B729" s="18"/>
+      <c r="A729" s="19"/>
+      <c r="B729" s="20"/>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
       <c r="E729" s="2"/>
@@ -21361,8 +21377,8 @@
       <c r="Y729" s="2"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="17"/>
-      <c r="B730" s="18"/>
+      <c r="A730" s="19"/>
+      <c r="B730" s="20"/>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
       <c r="E730" s="2"/>
@@ -21388,8 +21404,8 @@
       <c r="Y730" s="2"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="17"/>
-      <c r="B731" s="18"/>
+      <c r="A731" s="19"/>
+      <c r="B731" s="20"/>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
       <c r="E731" s="2"/>
@@ -21415,8 +21431,8 @@
       <c r="Y731" s="2"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="17"/>
-      <c r="B732" s="18"/>
+      <c r="A732" s="19"/>
+      <c r="B732" s="20"/>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
       <c r="E732" s="2"/>
@@ -21442,8 +21458,8 @@
       <c r="Y732" s="2"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="17"/>
-      <c r="B733" s="18"/>
+      <c r="A733" s="19"/>
+      <c r="B733" s="20"/>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
       <c r="E733" s="2"/>
@@ -21469,8 +21485,8 @@
       <c r="Y733" s="2"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="17"/>
-      <c r="B734" s="18"/>
+      <c r="A734" s="19"/>
+      <c r="B734" s="20"/>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
       <c r="E734" s="2"/>
@@ -21496,8 +21512,8 @@
       <c r="Y734" s="2"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="17"/>
-      <c r="B735" s="18"/>
+      <c r="A735" s="19"/>
+      <c r="B735" s="20"/>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
       <c r="E735" s="2"/>
@@ -21523,8 +21539,8 @@
       <c r="Y735" s="2"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="17"/>
-      <c r="B736" s="18"/>
+      <c r="A736" s="19"/>
+      <c r="B736" s="20"/>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
       <c r="E736" s="2"/>
@@ -21550,8 +21566,8 @@
       <c r="Y736" s="2"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="17"/>
-      <c r="B737" s="18"/>
+      <c r="A737" s="19"/>
+      <c r="B737" s="20"/>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
       <c r="E737" s="2"/>
@@ -21577,8 +21593,8 @@
       <c r="Y737" s="2"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="17"/>
-      <c r="B738" s="18"/>
+      <c r="A738" s="19"/>
+      <c r="B738" s="20"/>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
       <c r="E738" s="2"/>
@@ -21604,8 +21620,8 @@
       <c r="Y738" s="2"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="17"/>
-      <c r="B739" s="18"/>
+      <c r="A739" s="19"/>
+      <c r="B739" s="20"/>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
       <c r="E739" s="2"/>
@@ -21631,8 +21647,8 @@
       <c r="Y739" s="2"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="17"/>
-      <c r="B740" s="18"/>
+      <c r="A740" s="19"/>
+      <c r="B740" s="20"/>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
       <c r="E740" s="2"/>
@@ -21658,8 +21674,8 @@
       <c r="Y740" s="2"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="17"/>
-      <c r="B741" s="18"/>
+      <c r="A741" s="19"/>
+      <c r="B741" s="20"/>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
       <c r="E741" s="2"/>
@@ -21685,8 +21701,8 @@
       <c r="Y741" s="2"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="17"/>
-      <c r="B742" s="18"/>
+      <c r="A742" s="19"/>
+      <c r="B742" s="20"/>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
       <c r="E742" s="2"/>
@@ -21712,8 +21728,8 @@
       <c r="Y742" s="2"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="17"/>
-      <c r="B743" s="18"/>
+      <c r="A743" s="19"/>
+      <c r="B743" s="20"/>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
       <c r="E743" s="2"/>
@@ -21739,8 +21755,8 @@
       <c r="Y743" s="2"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="17"/>
-      <c r="B744" s="18"/>
+      <c r="A744" s="19"/>
+      <c r="B744" s="20"/>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
       <c r="E744" s="2"/>
@@ -21766,8 +21782,8 @@
       <c r="Y744" s="2"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="17"/>
-      <c r="B745" s="18"/>
+      <c r="A745" s="19"/>
+      <c r="B745" s="20"/>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
       <c r="E745" s="2"/>
@@ -21793,8 +21809,8 @@
       <c r="Y745" s="2"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="17"/>
-      <c r="B746" s="18"/>
+      <c r="A746" s="19"/>
+      <c r="B746" s="20"/>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
       <c r="E746" s="2"/>
@@ -21820,8 +21836,8 @@
       <c r="Y746" s="2"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="17"/>
-      <c r="B747" s="18"/>
+      <c r="A747" s="19"/>
+      <c r="B747" s="20"/>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
       <c r="E747" s="2"/>
@@ -21847,8 +21863,8 @@
       <c r="Y747" s="2"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="17"/>
-      <c r="B748" s="18"/>
+      <c r="A748" s="19"/>
+      <c r="B748" s="20"/>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
       <c r="E748" s="2"/>
@@ -21874,8 +21890,8 @@
       <c r="Y748" s="2"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="17"/>
-      <c r="B749" s="18"/>
+      <c r="A749" s="19"/>
+      <c r="B749" s="20"/>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
       <c r="E749" s="2"/>
@@ -21901,8 +21917,8 @@
       <c r="Y749" s="2"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="17"/>
-      <c r="B750" s="18"/>
+      <c r="A750" s="19"/>
+      <c r="B750" s="20"/>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
       <c r="E750" s="2"/>
@@ -21928,8 +21944,8 @@
       <c r="Y750" s="2"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="17"/>
-      <c r="B751" s="18"/>
+      <c r="A751" s="19"/>
+      <c r="B751" s="20"/>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
       <c r="E751" s="2"/>
@@ -21955,8 +21971,8 @@
       <c r="Y751" s="2"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="17"/>
-      <c r="B752" s="18"/>
+      <c r="A752" s="19"/>
+      <c r="B752" s="20"/>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
       <c r="E752" s="2"/>
@@ -21982,8 +21998,8 @@
       <c r="Y752" s="2"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="17"/>
-      <c r="B753" s="18"/>
+      <c r="A753" s="19"/>
+      <c r="B753" s="20"/>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
       <c r="E753" s="2"/>
@@ -22009,8 +22025,8 @@
       <c r="Y753" s="2"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="17"/>
-      <c r="B754" s="18"/>
+      <c r="A754" s="19"/>
+      <c r="B754" s="20"/>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
       <c r="E754" s="2"/>
@@ -22036,8 +22052,8 @@
       <c r="Y754" s="2"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="17"/>
-      <c r="B755" s="18"/>
+      <c r="A755" s="19"/>
+      <c r="B755" s="20"/>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
       <c r="E755" s="2"/>
@@ -22063,8 +22079,8 @@
       <c r="Y755" s="2"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="17"/>
-      <c r="B756" s="18"/>
+      <c r="A756" s="19"/>
+      <c r="B756" s="20"/>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
       <c r="E756" s="2"/>
@@ -22090,8 +22106,8 @@
       <c r="Y756" s="2"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="17"/>
-      <c r="B757" s="18"/>
+      <c r="A757" s="19"/>
+      <c r="B757" s="20"/>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
       <c r="E757" s="2"/>
@@ -22117,8 +22133,8 @@
       <c r="Y757" s="2"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="17"/>
-      <c r="B758" s="18"/>
+      <c r="A758" s="19"/>
+      <c r="B758" s="20"/>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
       <c r="E758" s="2"/>
@@ -22144,8 +22160,8 @@
       <c r="Y758" s="2"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="17"/>
-      <c r="B759" s="18"/>
+      <c r="A759" s="19"/>
+      <c r="B759" s="20"/>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
       <c r="E759" s="2"/>
@@ -22171,8 +22187,8 @@
       <c r="Y759" s="2"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="17"/>
-      <c r="B760" s="18"/>
+      <c r="A760" s="19"/>
+      <c r="B760" s="20"/>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
       <c r="E760" s="2"/>
@@ -22198,8 +22214,8 @@
       <c r="Y760" s="2"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="17"/>
-      <c r="B761" s="18"/>
+      <c r="A761" s="19"/>
+      <c r="B761" s="20"/>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
       <c r="E761" s="2"/>
@@ -22225,8 +22241,8 @@
       <c r="Y761" s="2"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="17"/>
-      <c r="B762" s="18"/>
+      <c r="A762" s="19"/>
+      <c r="B762" s="20"/>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
       <c r="E762" s="2"/>
@@ -22252,8 +22268,8 @@
       <c r="Y762" s="2"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="17"/>
-      <c r="B763" s="18"/>
+      <c r="A763" s="19"/>
+      <c r="B763" s="20"/>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
       <c r="E763" s="2"/>
@@ -22279,8 +22295,8 @@
       <c r="Y763" s="2"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="17"/>
-      <c r="B764" s="18"/>
+      <c r="A764" s="19"/>
+      <c r="B764" s="20"/>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
       <c r="E764" s="2"/>
@@ -22306,8 +22322,8 @@
       <c r="Y764" s="2"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="17"/>
-      <c r="B765" s="18"/>
+      <c r="A765" s="19"/>
+      <c r="B765" s="20"/>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
       <c r="E765" s="2"/>
@@ -22333,8 +22349,8 @@
       <c r="Y765" s="2"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="17"/>
-      <c r="B766" s="18"/>
+      <c r="A766" s="19"/>
+      <c r="B766" s="20"/>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
       <c r="E766" s="2"/>
@@ -22360,8 +22376,8 @@
       <c r="Y766" s="2"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="17"/>
-      <c r="B767" s="18"/>
+      <c r="A767" s="19"/>
+      <c r="B767" s="20"/>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
       <c r="E767" s="2"/>
@@ -22387,8 +22403,8 @@
       <c r="Y767" s="2"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="17"/>
-      <c r="B768" s="18"/>
+      <c r="A768" s="19"/>
+      <c r="B768" s="20"/>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
       <c r="E768" s="2"/>
@@ -22414,8 +22430,8 @@
       <c r="Y768" s="2"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="17"/>
-      <c r="B769" s="18"/>
+      <c r="A769" s="19"/>
+      <c r="B769" s="20"/>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
       <c r="E769" s="2"/>
@@ -22441,8 +22457,8 @@
       <c r="Y769" s="2"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="17"/>
-      <c r="B770" s="18"/>
+      <c r="A770" s="19"/>
+      <c r="B770" s="20"/>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
       <c r="E770" s="2"/>
@@ -22468,8 +22484,8 @@
       <c r="Y770" s="2"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="17"/>
-      <c r="B771" s="18"/>
+      <c r="A771" s="19"/>
+      <c r="B771" s="20"/>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
       <c r="E771" s="2"/>
@@ -22495,8 +22511,8 @@
       <c r="Y771" s="2"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="17"/>
-      <c r="B772" s="18"/>
+      <c r="A772" s="19"/>
+      <c r="B772" s="20"/>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
       <c r="E772" s="2"/>
@@ -22522,8 +22538,8 @@
       <c r="Y772" s="2"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="17"/>
-      <c r="B773" s="18"/>
+      <c r="A773" s="19"/>
+      <c r="B773" s="20"/>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
       <c r="E773" s="2"/>
@@ -22549,8 +22565,8 @@
       <c r="Y773" s="2"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="17"/>
-      <c r="B774" s="18"/>
+      <c r="A774" s="19"/>
+      <c r="B774" s="20"/>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
       <c r="E774" s="2"/>
@@ -22576,8 +22592,8 @@
       <c r="Y774" s="2"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="17"/>
-      <c r="B775" s="18"/>
+      <c r="A775" s="19"/>
+      <c r="B775" s="20"/>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
       <c r="E775" s="2"/>
@@ -22603,8 +22619,8 @@
       <c r="Y775" s="2"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="17"/>
-      <c r="B776" s="18"/>
+      <c r="A776" s="19"/>
+      <c r="B776" s="20"/>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
       <c r="E776" s="2"/>
@@ -22630,8 +22646,8 @@
       <c r="Y776" s="2"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="17"/>
-      <c r="B777" s="18"/>
+      <c r="A777" s="19"/>
+      <c r="B777" s="20"/>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
       <c r="E777" s="2"/>
@@ -22657,8 +22673,8 @@
       <c r="Y777" s="2"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="17"/>
-      <c r="B778" s="18"/>
+      <c r="A778" s="19"/>
+      <c r="B778" s="20"/>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
       <c r="E778" s="2"/>
@@ -22684,8 +22700,8 @@
       <c r="Y778" s="2"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="17"/>
-      <c r="B779" s="18"/>
+      <c r="A779" s="19"/>
+      <c r="B779" s="20"/>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
       <c r="E779" s="2"/>
@@ -22711,8 +22727,8 @@
       <c r="Y779" s="2"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="17"/>
-      <c r="B780" s="18"/>
+      <c r="A780" s="19"/>
+      <c r="B780" s="20"/>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
       <c r="E780" s="2"/>
@@ -22738,8 +22754,8 @@
       <c r="Y780" s="2"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="17"/>
-      <c r="B781" s="18"/>
+      <c r="A781" s="19"/>
+      <c r="B781" s="20"/>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
       <c r="E781" s="2"/>
@@ -22765,8 +22781,8 @@
       <c r="Y781" s="2"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="17"/>
-      <c r="B782" s="18"/>
+      <c r="A782" s="19"/>
+      <c r="B782" s="20"/>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
       <c r="E782" s="2"/>
@@ -22792,8 +22808,8 @@
       <c r="Y782" s="2"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="17"/>
-      <c r="B783" s="18"/>
+      <c r="A783" s="19"/>
+      <c r="B783" s="20"/>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
       <c r="E783" s="2"/>
@@ -22819,8 +22835,8 @@
       <c r="Y783" s="2"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="17"/>
-      <c r="B784" s="18"/>
+      <c r="A784" s="19"/>
+      <c r="B784" s="20"/>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
       <c r="E784" s="2"/>
@@ -22846,8 +22862,8 @@
       <c r="Y784" s="2"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="17"/>
-      <c r="B785" s="18"/>
+      <c r="A785" s="19"/>
+      <c r="B785" s="20"/>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
       <c r="E785" s="2"/>
@@ -22873,8 +22889,8 @@
       <c r="Y785" s="2"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="17"/>
-      <c r="B786" s="18"/>
+      <c r="A786" s="19"/>
+      <c r="B786" s="20"/>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
       <c r="E786" s="2"/>
@@ -22900,8 +22916,8 @@
       <c r="Y786" s="2"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="17"/>
-      <c r="B787" s="18"/>
+      <c r="A787" s="19"/>
+      <c r="B787" s="20"/>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
       <c r="E787" s="2"/>
@@ -22927,8 +22943,8 @@
       <c r="Y787" s="2"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="17"/>
-      <c r="B788" s="18"/>
+      <c r="A788" s="19"/>
+      <c r="B788" s="20"/>
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
       <c r="E788" s="2"/>
@@ -22954,8 +22970,8 @@
       <c r="Y788" s="2"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="17"/>
-      <c r="B789" s="18"/>
+      <c r="A789" s="19"/>
+      <c r="B789" s="20"/>
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
       <c r="E789" s="2"/>
@@ -22981,8 +22997,8 @@
       <c r="Y789" s="2"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="17"/>
-      <c r="B790" s="18"/>
+      <c r="A790" s="19"/>
+      <c r="B790" s="20"/>
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
       <c r="E790" s="2"/>
@@ -23008,8 +23024,8 @@
       <c r="Y790" s="2"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="17"/>
-      <c r="B791" s="18"/>
+      <c r="A791" s="19"/>
+      <c r="B791" s="20"/>
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
       <c r="E791" s="2"/>
@@ -23035,8 +23051,8 @@
       <c r="Y791" s="2"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="17"/>
-      <c r="B792" s="18"/>
+      <c r="A792" s="19"/>
+      <c r="B792" s="20"/>
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
       <c r="E792" s="2"/>
@@ -23062,8 +23078,8 @@
       <c r="Y792" s="2"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="17"/>
-      <c r="B793" s="18"/>
+      <c r="A793" s="19"/>
+      <c r="B793" s="20"/>
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
       <c r="E793" s="2"/>
@@ -23089,8 +23105,8 @@
       <c r="Y793" s="2"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="17"/>
-      <c r="B794" s="18"/>
+      <c r="A794" s="19"/>
+      <c r="B794" s="20"/>
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
       <c r="E794" s="2"/>
@@ -23116,8 +23132,8 @@
       <c r="Y794" s="2"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="17"/>
-      <c r="B795" s="18"/>
+      <c r="A795" s="19"/>
+      <c r="B795" s="20"/>
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
       <c r="E795" s="2"/>
@@ -23143,8 +23159,8 @@
       <c r="Y795" s="2"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="17"/>
-      <c r="B796" s="18"/>
+      <c r="A796" s="19"/>
+      <c r="B796" s="20"/>
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
       <c r="E796" s="2"/>
@@ -23170,8 +23186,8 @@
       <c r="Y796" s="2"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="17"/>
-      <c r="B797" s="18"/>
+      <c r="A797" s="19"/>
+      <c r="B797" s="20"/>
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
       <c r="E797" s="2"/>
@@ -23197,8 +23213,8 @@
       <c r="Y797" s="2"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="17"/>
-      <c r="B798" s="18"/>
+      <c r="A798" s="19"/>
+      <c r="B798" s="20"/>
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
       <c r="E798" s="2"/>
@@ -23224,8 +23240,8 @@
       <c r="Y798" s="2"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="17"/>
-      <c r="B799" s="18"/>
+      <c r="A799" s="19"/>
+      <c r="B799" s="20"/>
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
       <c r="E799" s="2"/>
@@ -23251,8 +23267,8 @@
       <c r="Y799" s="2"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="17"/>
-      <c r="B800" s="18"/>
+      <c r="A800" s="19"/>
+      <c r="B800" s="20"/>
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
       <c r="E800" s="2"/>
@@ -23278,8 +23294,8 @@
       <c r="Y800" s="2"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="17"/>
-      <c r="B801" s="18"/>
+      <c r="A801" s="19"/>
+      <c r="B801" s="20"/>
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
       <c r="E801" s="2"/>
@@ -23305,8 +23321,8 @@
       <c r="Y801" s="2"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="17"/>
-      <c r="B802" s="18"/>
+      <c r="A802" s="19"/>
+      <c r="B802" s="20"/>
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
       <c r="E802" s="2"/>
@@ -23332,8 +23348,8 @@
       <c r="Y802" s="2"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="17"/>
-      <c r="B803" s="18"/>
+      <c r="A803" s="19"/>
+      <c r="B803" s="20"/>
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
       <c r="E803" s="2"/>
@@ -23359,8 +23375,8 @@
       <c r="Y803" s="2"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="17"/>
-      <c r="B804" s="18"/>
+      <c r="A804" s="19"/>
+      <c r="B804" s="20"/>
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
       <c r="E804" s="2"/>
@@ -23386,8 +23402,8 @@
       <c r="Y804" s="2"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="17"/>
-      <c r="B805" s="18"/>
+      <c r="A805" s="19"/>
+      <c r="B805" s="20"/>
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
       <c r="E805" s="2"/>
@@ -23413,8 +23429,8 @@
       <c r="Y805" s="2"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="17"/>
-      <c r="B806" s="18"/>
+      <c r="A806" s="19"/>
+      <c r="B806" s="20"/>
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
       <c r="E806" s="2"/>
@@ -23440,8 +23456,8 @@
       <c r="Y806" s="2"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="17"/>
-      <c r="B807" s="18"/>
+      <c r="A807" s="19"/>
+      <c r="B807" s="20"/>
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
       <c r="E807" s="2"/>
@@ -23467,8 +23483,8 @@
       <c r="Y807" s="2"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="17"/>
-      <c r="B808" s="18"/>
+      <c r="A808" s="19"/>
+      <c r="B808" s="20"/>
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
       <c r="E808" s="2"/>
@@ -23494,8 +23510,8 @@
       <c r="Y808" s="2"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="17"/>
-      <c r="B809" s="18"/>
+      <c r="A809" s="19"/>
+      <c r="B809" s="20"/>
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
       <c r="E809" s="2"/>
@@ -23521,8 +23537,8 @@
       <c r="Y809" s="2"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="17"/>
-      <c r="B810" s="18"/>
+      <c r="A810" s="19"/>
+      <c r="B810" s="20"/>
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
       <c r="E810" s="2"/>
@@ -23548,8 +23564,8 @@
       <c r="Y810" s="2"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="17"/>
-      <c r="B811" s="18"/>
+      <c r="A811" s="19"/>
+      <c r="B811" s="20"/>
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
       <c r="E811" s="2"/>
@@ -23575,8 +23591,8 @@
       <c r="Y811" s="2"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="17"/>
-      <c r="B812" s="18"/>
+      <c r="A812" s="19"/>
+      <c r="B812" s="20"/>
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
       <c r="E812" s="2"/>
@@ -23602,8 +23618,8 @@
       <c r="Y812" s="2"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="17"/>
-      <c r="B813" s="18"/>
+      <c r="A813" s="19"/>
+      <c r="B813" s="20"/>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
       <c r="E813" s="2"/>
@@ -23629,8 +23645,8 @@
       <c r="Y813" s="2"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="17"/>
-      <c r="B814" s="18"/>
+      <c r="A814" s="19"/>
+      <c r="B814" s="20"/>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
       <c r="E814" s="2"/>
@@ -23656,8 +23672,8 @@
       <c r="Y814" s="2"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="17"/>
-      <c r="B815" s="18"/>
+      <c r="A815" s="19"/>
+      <c r="B815" s="20"/>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
       <c r="E815" s="2"/>
@@ -23683,8 +23699,8 @@
       <c r="Y815" s="2"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="17"/>
-      <c r="B816" s="18"/>
+      <c r="A816" s="19"/>
+      <c r="B816" s="20"/>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
       <c r="E816" s="2"/>
@@ -23710,8 +23726,8 @@
       <c r="Y816" s="2"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="17"/>
-      <c r="B817" s="18"/>
+      <c r="A817" s="19"/>
+      <c r="B817" s="20"/>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
       <c r="E817" s="2"/>
@@ -23737,8 +23753,8 @@
       <c r="Y817" s="2"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="17"/>
-      <c r="B818" s="18"/>
+      <c r="A818" s="19"/>
+      <c r="B818" s="20"/>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
       <c r="E818" s="2"/>
@@ -23764,8 +23780,8 @@
       <c r="Y818" s="2"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="17"/>
-      <c r="B819" s="18"/>
+      <c r="A819" s="19"/>
+      <c r="B819" s="20"/>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
       <c r="E819" s="2"/>
@@ -23791,8 +23807,8 @@
       <c r="Y819" s="2"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="17"/>
-      <c r="B820" s="18"/>
+      <c r="A820" s="19"/>
+      <c r="B820" s="20"/>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
       <c r="E820" s="2"/>
@@ -23818,8 +23834,8 @@
       <c r="Y820" s="2"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="17"/>
-      <c r="B821" s="18"/>
+      <c r="A821" s="19"/>
+      <c r="B821" s="20"/>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
       <c r="E821" s="2"/>
@@ -23845,8 +23861,8 @@
       <c r="Y821" s="2"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="17"/>
-      <c r="B822" s="18"/>
+      <c r="A822" s="19"/>
+      <c r="B822" s="20"/>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
       <c r="E822" s="2"/>
@@ -23872,8 +23888,8 @@
       <c r="Y822" s="2"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="17"/>
-      <c r="B823" s="18"/>
+      <c r="A823" s="19"/>
+      <c r="B823" s="20"/>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
       <c r="E823" s="2"/>
@@ -23899,8 +23915,8 @@
       <c r="Y823" s="2"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="17"/>
-      <c r="B824" s="18"/>
+      <c r="A824" s="19"/>
+      <c r="B824" s="20"/>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
       <c r="E824" s="2"/>
@@ -23926,8 +23942,8 @@
       <c r="Y824" s="2"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="17"/>
-      <c r="B825" s="18"/>
+      <c r="A825" s="19"/>
+      <c r="B825" s="20"/>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
       <c r="E825" s="2"/>
@@ -23953,8 +23969,8 @@
       <c r="Y825" s="2"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="17"/>
-      <c r="B826" s="18"/>
+      <c r="A826" s="19"/>
+      <c r="B826" s="20"/>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
       <c r="E826" s="2"/>
@@ -23980,8 +23996,8 @@
       <c r="Y826" s="2"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="17"/>
-      <c r="B827" s="18"/>
+      <c r="A827" s="19"/>
+      <c r="B827" s="20"/>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
       <c r="E827" s="2"/>
@@ -24007,8 +24023,8 @@
       <c r="Y827" s="2"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="17"/>
-      <c r="B828" s="18"/>
+      <c r="A828" s="19"/>
+      <c r="B828" s="20"/>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
       <c r="E828" s="2"/>
@@ -24034,8 +24050,8 @@
       <c r="Y828" s="2"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="17"/>
-      <c r="B829" s="18"/>
+      <c r="A829" s="19"/>
+      <c r="B829" s="20"/>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
       <c r="E829" s="2"/>
@@ -24061,8 +24077,8 @@
       <c r="Y829" s="2"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="17"/>
-      <c r="B830" s="18"/>
+      <c r="A830" s="19"/>
+      <c r="B830" s="20"/>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
       <c r="E830" s="2"/>
@@ -24088,8 +24104,8 @@
       <c r="Y830" s="2"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="17"/>
-      <c r="B831" s="18"/>
+      <c r="A831" s="19"/>
+      <c r="B831" s="20"/>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
       <c r="E831" s="2"/>
@@ -24115,8 +24131,8 @@
       <c r="Y831" s="2"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="17"/>
-      <c r="B832" s="18"/>
+      <c r="A832" s="19"/>
+      <c r="B832" s="20"/>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
       <c r="E832" s="2"/>
@@ -24142,8 +24158,8 @@
       <c r="Y832" s="2"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="17"/>
-      <c r="B833" s="18"/>
+      <c r="A833" s="19"/>
+      <c r="B833" s="20"/>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
       <c r="E833" s="2"/>
@@ -24169,8 +24185,8 @@
       <c r="Y833" s="2"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="17"/>
-      <c r="B834" s="18"/>
+      <c r="A834" s="19"/>
+      <c r="B834" s="20"/>
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
       <c r="E834" s="2"/>
@@ -24196,8 +24212,8 @@
       <c r="Y834" s="2"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="17"/>
-      <c r="B835" s="18"/>
+      <c r="A835" s="19"/>
+      <c r="B835" s="20"/>
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
       <c r="E835" s="2"/>
@@ -24223,8 +24239,8 @@
       <c r="Y835" s="2"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="17"/>
-      <c r="B836" s="18"/>
+      <c r="A836" s="19"/>
+      <c r="B836" s="20"/>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
       <c r="E836" s="2"/>
@@ -24250,8 +24266,8 @@
       <c r="Y836" s="2"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="17"/>
-      <c r="B837" s="18"/>
+      <c r="A837" s="19"/>
+      <c r="B837" s="20"/>
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
       <c r="E837" s="2"/>
@@ -24277,8 +24293,8 @@
       <c r="Y837" s="2"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="17"/>
-      <c r="B838" s="18"/>
+      <c r="A838" s="19"/>
+      <c r="B838" s="20"/>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
       <c r="E838" s="2"/>
@@ -24304,8 +24320,8 @@
       <c r="Y838" s="2"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="17"/>
-      <c r="B839" s="18"/>
+      <c r="A839" s="19"/>
+      <c r="B839" s="20"/>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
       <c r="E839" s="2"/>
@@ -24331,8 +24347,8 @@
       <c r="Y839" s="2"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="17"/>
-      <c r="B840" s="18"/>
+      <c r="A840" s="19"/>
+      <c r="B840" s="20"/>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
       <c r="E840" s="2"/>
@@ -24358,8 +24374,8 @@
       <c r="Y840" s="2"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="17"/>
-      <c r="B841" s="18"/>
+      <c r="A841" s="19"/>
+      <c r="B841" s="20"/>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
       <c r="E841" s="2"/>
@@ -24385,8 +24401,8 @@
       <c r="Y841" s="2"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="17"/>
-      <c r="B842" s="18"/>
+      <c r="A842" s="19"/>
+      <c r="B842" s="20"/>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
       <c r="E842" s="2"/>
@@ -24412,8 +24428,8 @@
       <c r="Y842" s="2"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="17"/>
-      <c r="B843" s="18"/>
+      <c r="A843" s="19"/>
+      <c r="B843" s="20"/>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
       <c r="E843" s="2"/>
@@ -24439,8 +24455,8 @@
       <c r="Y843" s="2"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="17"/>
-      <c r="B844" s="18"/>
+      <c r="A844" s="19"/>
+      <c r="B844" s="20"/>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
       <c r="E844" s="2"/>
@@ -24466,8 +24482,8 @@
       <c r="Y844" s="2"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="17"/>
-      <c r="B845" s="18"/>
+      <c r="A845" s="19"/>
+      <c r="B845" s="20"/>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
       <c r="E845" s="2"/>
@@ -24493,8 +24509,8 @@
       <c r="Y845" s="2"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="17"/>
-      <c r="B846" s="18"/>
+      <c r="A846" s="19"/>
+      <c r="B846" s="20"/>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
       <c r="E846" s="2"/>
@@ -24520,8 +24536,8 @@
       <c r="Y846" s="2"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="17"/>
-      <c r="B847" s="18"/>
+      <c r="A847" s="19"/>
+      <c r="B847" s="20"/>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
       <c r="E847" s="2"/>
@@ -24547,8 +24563,8 @@
       <c r="Y847" s="2"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="17"/>
-      <c r="B848" s="18"/>
+      <c r="A848" s="19"/>
+      <c r="B848" s="20"/>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
       <c r="E848" s="2"/>
@@ -24574,8 +24590,8 @@
       <c r="Y848" s="2"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="17"/>
-      <c r="B849" s="18"/>
+      <c r="A849" s="19"/>
+      <c r="B849" s="20"/>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
       <c r="E849" s="2"/>
@@ -24601,8 +24617,8 @@
       <c r="Y849" s="2"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="17"/>
-      <c r="B850" s="18"/>
+      <c r="A850" s="19"/>
+      <c r="B850" s="20"/>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
       <c r="E850" s="2"/>
@@ -24628,8 +24644,8 @@
       <c r="Y850" s="2"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="17"/>
-      <c r="B851" s="18"/>
+      <c r="A851" s="19"/>
+      <c r="B851" s="20"/>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
       <c r="E851" s="2"/>
@@ -24655,8 +24671,8 @@
       <c r="Y851" s="2"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="17"/>
-      <c r="B852" s="18"/>
+      <c r="A852" s="19"/>
+      <c r="B852" s="20"/>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
       <c r="E852" s="2"/>
@@ -24682,8 +24698,8 @@
       <c r="Y852" s="2"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="17"/>
-      <c r="B853" s="18"/>
+      <c r="A853" s="19"/>
+      <c r="B853" s="20"/>
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
       <c r="E853" s="2"/>
@@ -24709,8 +24725,8 @@
       <c r="Y853" s="2"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="17"/>
-      <c r="B854" s="18"/>
+      <c r="A854" s="19"/>
+      <c r="B854" s="20"/>
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
       <c r="E854" s="2"/>
@@ -24736,8 +24752,8 @@
       <c r="Y854" s="2"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="17"/>
-      <c r="B855" s="18"/>
+      <c r="A855" s="19"/>
+      <c r="B855" s="20"/>
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
       <c r="E855" s="2"/>
@@ -24763,8 +24779,8 @@
       <c r="Y855" s="2"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="17"/>
-      <c r="B856" s="18"/>
+      <c r="A856" s="19"/>
+      <c r="B856" s="20"/>
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
       <c r="E856" s="2"/>
@@ -24790,8 +24806,8 @@
       <c r="Y856" s="2"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="17"/>
-      <c r="B857" s="18"/>
+      <c r="A857" s="19"/>
+      <c r="B857" s="20"/>
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
       <c r="E857" s="2"/>
@@ -24817,8 +24833,8 @@
       <c r="Y857" s="2"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="17"/>
-      <c r="B858" s="18"/>
+      <c r="A858" s="19"/>
+      <c r="B858" s="20"/>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
       <c r="E858" s="2"/>
@@ -24844,8 +24860,8 @@
       <c r="Y858" s="2"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="17"/>
-      <c r="B859" s="18"/>
+      <c r="A859" s="19"/>
+      <c r="B859" s="20"/>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
       <c r="E859" s="2"/>
@@ -24871,8 +24887,8 @@
       <c r="Y859" s="2"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="17"/>
-      <c r="B860" s="18"/>
+      <c r="A860" s="19"/>
+      <c r="B860" s="20"/>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
       <c r="E860" s="2"/>
@@ -24898,8 +24914,8 @@
       <c r="Y860" s="2"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="17"/>
-      <c r="B861" s="18"/>
+      <c r="A861" s="19"/>
+      <c r="B861" s="20"/>
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
       <c r="E861" s="2"/>
@@ -24925,8 +24941,8 @@
       <c r="Y861" s="2"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="17"/>
-      <c r="B862" s="18"/>
+      <c r="A862" s="19"/>
+      <c r="B862" s="20"/>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
       <c r="E862" s="2"/>
@@ -24952,8 +24968,8 @@
       <c r="Y862" s="2"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="17"/>
-      <c r="B863" s="18"/>
+      <c r="A863" s="19"/>
+      <c r="B863" s="20"/>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
       <c r="E863" s="2"/>
@@ -24979,8 +24995,8 @@
       <c r="Y863" s="2"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="17"/>
-      <c r="B864" s="18"/>
+      <c r="A864" s="19"/>
+      <c r="B864" s="20"/>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
       <c r="E864" s="2"/>
@@ -25006,8 +25022,8 @@
       <c r="Y864" s="2"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="17"/>
-      <c r="B865" s="18"/>
+      <c r="A865" s="19"/>
+      <c r="B865" s="20"/>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
       <c r="E865" s="2"/>
@@ -25033,8 +25049,8 @@
       <c r="Y865" s="2"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="17"/>
-      <c r="B866" s="18"/>
+      <c r="A866" s="19"/>
+      <c r="B866" s="20"/>
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
       <c r="E866" s="2"/>
@@ -25060,8 +25076,8 @@
       <c r="Y866" s="2"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="17"/>
-      <c r="B867" s="18"/>
+      <c r="A867" s="19"/>
+      <c r="B867" s="20"/>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
       <c r="E867" s="2"/>
@@ -25087,8 +25103,8 @@
       <c r="Y867" s="2"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="17"/>
-      <c r="B868" s="18"/>
+      <c r="A868" s="19"/>
+      <c r="B868" s="20"/>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
       <c r="E868" s="2"/>
@@ -25114,8 +25130,8 @@
       <c r="Y868" s="2"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="17"/>
-      <c r="B869" s="18"/>
+      <c r="A869" s="19"/>
+      <c r="B869" s="20"/>
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
       <c r="E869" s="2"/>
@@ -25141,8 +25157,8 @@
       <c r="Y869" s="2"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="17"/>
-      <c r="B870" s="18"/>
+      <c r="A870" s="19"/>
+      <c r="B870" s="20"/>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
       <c r="E870" s="2"/>
@@ -25168,8 +25184,8 @@
       <c r="Y870" s="2"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="17"/>
-      <c r="B871" s="18"/>
+      <c r="A871" s="19"/>
+      <c r="B871" s="20"/>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
       <c r="E871" s="2"/>
@@ -25195,8 +25211,8 @@
       <c r="Y871" s="2"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="17"/>
-      <c r="B872" s="18"/>
+      <c r="A872" s="19"/>
+      <c r="B872" s="20"/>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
       <c r="E872" s="2"/>
@@ -25222,8 +25238,8 @@
       <c r="Y872" s="2"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="17"/>
-      <c r="B873" s="18"/>
+      <c r="A873" s="19"/>
+      <c r="B873" s="20"/>
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
       <c r="E873" s="2"/>
@@ -25249,8 +25265,8 @@
       <c r="Y873" s="2"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="17"/>
-      <c r="B874" s="18"/>
+      <c r="A874" s="19"/>
+      <c r="B874" s="20"/>
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
       <c r="E874" s="2"/>
@@ -25276,8 +25292,8 @@
       <c r="Y874" s="2"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="17"/>
-      <c r="B875" s="18"/>
+      <c r="A875" s="19"/>
+      <c r="B875" s="20"/>
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
       <c r="E875" s="2"/>
@@ -25303,8 +25319,8 @@
       <c r="Y875" s="2"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="17"/>
-      <c r="B876" s="18"/>
+      <c r="A876" s="19"/>
+      <c r="B876" s="20"/>
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
       <c r="E876" s="2"/>
@@ -25330,8 +25346,8 @@
       <c r="Y876" s="2"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="17"/>
-      <c r="B877" s="18"/>
+      <c r="A877" s="19"/>
+      <c r="B877" s="20"/>
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
       <c r="E877" s="2"/>
@@ -25357,8 +25373,8 @@
       <c r="Y877" s="2"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="17"/>
-      <c r="B878" s="18"/>
+      <c r="A878" s="19"/>
+      <c r="B878" s="20"/>
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
       <c r="E878" s="2"/>
@@ -25384,8 +25400,8 @@
       <c r="Y878" s="2"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="17"/>
-      <c r="B879" s="18"/>
+      <c r="A879" s="19"/>
+      <c r="B879" s="20"/>
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
       <c r="E879" s="2"/>
@@ -25411,8 +25427,8 @@
       <c r="Y879" s="2"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="17"/>
-      <c r="B880" s="18"/>
+      <c r="A880" s="19"/>
+      <c r="B880" s="20"/>
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
       <c r="E880" s="2"/>
@@ -25438,8 +25454,8 @@
       <c r="Y880" s="2"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="17"/>
-      <c r="B881" s="18"/>
+      <c r="A881" s="19"/>
+      <c r="B881" s="20"/>
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
       <c r="E881" s="2"/>
@@ -25465,8 +25481,8 @@
       <c r="Y881" s="2"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="17"/>
-      <c r="B882" s="18"/>
+      <c r="A882" s="19"/>
+      <c r="B882" s="20"/>
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
       <c r="E882" s="2"/>
@@ -25492,8 +25508,8 @@
       <c r="Y882" s="2"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="17"/>
-      <c r="B883" s="18"/>
+      <c r="A883" s="19"/>
+      <c r="B883" s="20"/>
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
       <c r="E883" s="2"/>
@@ -25519,8 +25535,8 @@
       <c r="Y883" s="2"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="17"/>
-      <c r="B884" s="18"/>
+      <c r="A884" s="19"/>
+      <c r="B884" s="20"/>
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
       <c r="E884" s="2"/>
@@ -25546,8 +25562,8 @@
       <c r="Y884" s="2"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="17"/>
-      <c r="B885" s="18"/>
+      <c r="A885" s="19"/>
+      <c r="B885" s="20"/>
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
       <c r="E885" s="2"/>
@@ -25573,8 +25589,8 @@
       <c r="Y885" s="2"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="17"/>
-      <c r="B886" s="18"/>
+      <c r="A886" s="19"/>
+      <c r="B886" s="20"/>
       <c r="C886" s="2"/>
       <c r="D886" s="2"/>
       <c r="E886" s="2"/>
@@ -25600,8 +25616,8 @@
       <c r="Y886" s="2"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="17"/>
-      <c r="B887" s="18"/>
+      <c r="A887" s="19"/>
+      <c r="B887" s="20"/>
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
       <c r="E887" s="2"/>
@@ -25627,8 +25643,8 @@
       <c r="Y887" s="2"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="17"/>
-      <c r="B888" s="18"/>
+      <c r="A888" s="19"/>
+      <c r="B888" s="20"/>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
       <c r="E888" s="2"/>
@@ -25654,8 +25670,8 @@
       <c r="Y888" s="2"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="17"/>
-      <c r="B889" s="18"/>
+      <c r="A889" s="19"/>
+      <c r="B889" s="20"/>
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
       <c r="E889" s="2"/>
@@ -25681,8 +25697,8 @@
       <c r="Y889" s="2"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="17"/>
-      <c r="B890" s="18"/>
+      <c r="A890" s="19"/>
+      <c r="B890" s="20"/>
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
       <c r="E890" s="2"/>
@@ -25708,8 +25724,8 @@
       <c r="Y890" s="2"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="17"/>
-      <c r="B891" s="18"/>
+      <c r="A891" s="19"/>
+      <c r="B891" s="20"/>
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
       <c r="E891" s="2"/>
@@ -25735,8 +25751,8 @@
       <c r="Y891" s="2"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="17"/>
-      <c r="B892" s="18"/>
+      <c r="A892" s="19"/>
+      <c r="B892" s="20"/>
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
       <c r="E892" s="2"/>
@@ -25762,8 +25778,8 @@
       <c r="Y892" s="2"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="17"/>
-      <c r="B893" s="18"/>
+      <c r="A893" s="19"/>
+      <c r="B893" s="20"/>
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
       <c r="E893" s="2"/>
@@ -25789,8 +25805,8 @@
       <c r="Y893" s="2"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="17"/>
-      <c r="B894" s="18"/>
+      <c r="A894" s="19"/>
+      <c r="B894" s="20"/>
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
       <c r="E894" s="2"/>
@@ -25816,8 +25832,8 @@
       <c r="Y894" s="2"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="17"/>
-      <c r="B895" s="18"/>
+      <c r="A895" s="19"/>
+      <c r="B895" s="20"/>
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
       <c r="E895" s="2"/>
@@ -25843,8 +25859,8 @@
       <c r="Y895" s="2"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="17"/>
-      <c r="B896" s="18"/>
+      <c r="A896" s="19"/>
+      <c r="B896" s="20"/>
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
       <c r="E896" s="2"/>
@@ -25870,8 +25886,8 @@
       <c r="Y896" s="2"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="17"/>
-      <c r="B897" s="18"/>
+      <c r="A897" s="19"/>
+      <c r="B897" s="20"/>
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
       <c r="E897" s="2"/>
@@ -25897,8 +25913,8 @@
       <c r="Y897" s="2"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="17"/>
-      <c r="B898" s="18"/>
+      <c r="A898" s="19"/>
+      <c r="B898" s="20"/>
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
       <c r="E898" s="2"/>
@@ -25924,8 +25940,8 @@
       <c r="Y898" s="2"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="17"/>
-      <c r="B899" s="18"/>
+      <c r="A899" s="19"/>
+      <c r="B899" s="20"/>
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
       <c r="E899" s="2"/>
@@ -25951,8 +25967,8 @@
       <c r="Y899" s="2"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="17"/>
-      <c r="B900" s="18"/>
+      <c r="A900" s="19"/>
+      <c r="B900" s="20"/>
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
       <c r="E900" s="2"/>
@@ -25978,8 +25994,8 @@
       <c r="Y900" s="2"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="17"/>
-      <c r="B901" s="18"/>
+      <c r="A901" s="19"/>
+      <c r="B901" s="20"/>
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
       <c r="E901" s="2"/>
@@ -26005,8 +26021,8 @@
       <c r="Y901" s="2"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="17"/>
-      <c r="B902" s="18"/>
+      <c r="A902" s="19"/>
+      <c r="B902" s="20"/>
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
       <c r="E902" s="2"/>
@@ -26032,8 +26048,8 @@
       <c r="Y902" s="2"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="17"/>
-      <c r="B903" s="18"/>
+      <c r="A903" s="19"/>
+      <c r="B903" s="20"/>
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
       <c r="E903" s="2"/>
@@ -26059,8 +26075,8 @@
       <c r="Y903" s="2"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="17"/>
-      <c r="B904" s="18"/>
+      <c r="A904" s="19"/>
+      <c r="B904" s="20"/>
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
       <c r="E904" s="2"/>
@@ -26086,8 +26102,8 @@
       <c r="Y904" s="2"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="17"/>
-      <c r="B905" s="18"/>
+      <c r="A905" s="19"/>
+      <c r="B905" s="20"/>
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
       <c r="E905" s="2"/>
@@ -26113,8 +26129,8 @@
       <c r="Y905" s="2"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="17"/>
-      <c r="B906" s="18"/>
+      <c r="A906" s="19"/>
+      <c r="B906" s="20"/>
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
       <c r="E906" s="2"/>
@@ -26140,8 +26156,8 @@
       <c r="Y906" s="2"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="17"/>
-      <c r="B907" s="18"/>
+      <c r="A907" s="19"/>
+      <c r="B907" s="20"/>
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
       <c r="E907" s="2"/>
@@ -26167,8 +26183,8 @@
       <c r="Y907" s="2"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="17"/>
-      <c r="B908" s="18"/>
+      <c r="A908" s="19"/>
+      <c r="B908" s="20"/>
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
       <c r="E908" s="2"/>
@@ -26194,8 +26210,8 @@
       <c r="Y908" s="2"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="17"/>
-      <c r="B909" s="18"/>
+      <c r="A909" s="19"/>
+      <c r="B909" s="20"/>
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
       <c r="E909" s="2"/>
@@ -26221,8 +26237,8 @@
       <c r="Y909" s="2"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="17"/>
-      <c r="B910" s="18"/>
+      <c r="A910" s="19"/>
+      <c r="B910" s="20"/>
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
       <c r="E910" s="2"/>
@@ -26248,8 +26264,8 @@
       <c r="Y910" s="2"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="17"/>
-      <c r="B911" s="18"/>
+      <c r="A911" s="19"/>
+      <c r="B911" s="20"/>
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
       <c r="E911" s="2"/>
@@ -26275,8 +26291,8 @@
       <c r="Y911" s="2"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="17"/>
-      <c r="B912" s="18"/>
+      <c r="A912" s="19"/>
+      <c r="B912" s="20"/>
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
       <c r="E912" s="2"/>
@@ -26302,8 +26318,8 @@
       <c r="Y912" s="2"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="17"/>
-      <c r="B913" s="18"/>
+      <c r="A913" s="19"/>
+      <c r="B913" s="20"/>
       <c r="C913" s="2"/>
       <c r="D913" s="2"/>
       <c r="E913" s="2"/>
@@ -26329,8 +26345,8 @@
       <c r="Y913" s="2"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="17"/>
-      <c r="B914" s="18"/>
+      <c r="A914" s="19"/>
+      <c r="B914" s="20"/>
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
       <c r="E914" s="2"/>
@@ -26356,8 +26372,8 @@
       <c r="Y914" s="2"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="17"/>
-      <c r="B915" s="18"/>
+      <c r="A915" s="19"/>
+      <c r="B915" s="20"/>
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
       <c r="E915" s="2"/>
@@ -26383,8 +26399,8 @@
       <c r="Y915" s="2"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="17"/>
-      <c r="B916" s="18"/>
+      <c r="A916" s="19"/>
+      <c r="B916" s="20"/>
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
       <c r="E916" s="2"/>
@@ -26410,8 +26426,8 @@
       <c r="Y916" s="2"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="17"/>
-      <c r="B917" s="18"/>
+      <c r="A917" s="19"/>
+      <c r="B917" s="20"/>
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
       <c r="E917" s="2"/>
@@ -26437,8 +26453,8 @@
       <c r="Y917" s="2"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="17"/>
-      <c r="B918" s="18"/>
+      <c r="A918" s="19"/>
+      <c r="B918" s="20"/>
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
       <c r="E918" s="2"/>
@@ -26464,8 +26480,8 @@
       <c r="Y918" s="2"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="17"/>
-      <c r="B919" s="18"/>
+      <c r="A919" s="19"/>
+      <c r="B919" s="20"/>
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
       <c r="E919" s="2"/>
@@ -26491,8 +26507,8 @@
       <c r="Y919" s="2"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="17"/>
-      <c r="B920" s="18"/>
+      <c r="A920" s="19"/>
+      <c r="B920" s="20"/>
       <c r="C920" s="2"/>
       <c r="D920" s="2"/>
       <c r="E920" s="2"/>
@@ -26518,8 +26534,8 @@
       <c r="Y920" s="2"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="17"/>
-      <c r="B921" s="18"/>
+      <c r="A921" s="19"/>
+      <c r="B921" s="20"/>
       <c r="C921" s="2"/>
       <c r="D921" s="2"/>
       <c r="E921" s="2"/>
@@ -26545,8 +26561,8 @@
       <c r="Y921" s="2"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="17"/>
-      <c r="B922" s="18"/>
+      <c r="A922" s="19"/>
+      <c r="B922" s="20"/>
       <c r="C922" s="2"/>
       <c r="D922" s="2"/>
       <c r="E922" s="2"/>
@@ -26572,8 +26588,8 @@
       <c r="Y922" s="2"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="17"/>
-      <c r="B923" s="18"/>
+      <c r="A923" s="19"/>
+      <c r="B923" s="20"/>
       <c r="C923" s="2"/>
       <c r="D923" s="2"/>
       <c r="E923" s="2"/>
@@ -26599,8 +26615,8 @@
       <c r="Y923" s="2"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="17"/>
-      <c r="B924" s="18"/>
+      <c r="A924" s="19"/>
+      <c r="B924" s="20"/>
       <c r="C924" s="2"/>
       <c r="D924" s="2"/>
       <c r="E924" s="2"/>
@@ -26626,8 +26642,8 @@
       <c r="Y924" s="2"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="17"/>
-      <c r="B925" s="18"/>
+      <c r="A925" s="19"/>
+      <c r="B925" s="20"/>
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
       <c r="E925" s="2"/>
@@ -26653,8 +26669,8 @@
       <c r="Y925" s="2"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="17"/>
-      <c r="B926" s="18"/>
+      <c r="A926" s="19"/>
+      <c r="B926" s="20"/>
       <c r="C926" s="2"/>
       <c r="D926" s="2"/>
       <c r="E926" s="2"/>
@@ -26680,8 +26696,8 @@
       <c r="Y926" s="2"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="17"/>
-      <c r="B927" s="18"/>
+      <c r="A927" s="19"/>
+      <c r="B927" s="20"/>
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
       <c r="E927" s="2"/>
@@ -26707,8 +26723,8 @@
       <c r="Y927" s="2"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="17"/>
-      <c r="B928" s="18"/>
+      <c r="A928" s="19"/>
+      <c r="B928" s="20"/>
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
       <c r="E928" s="2"/>
@@ -26734,8 +26750,8 @@
       <c r="Y928" s="2"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="17"/>
-      <c r="B929" s="18"/>
+      <c r="A929" s="19"/>
+      <c r="B929" s="20"/>
       <c r="C929" s="2"/>
       <c r="D929" s="2"/>
       <c r="E929" s="2"/>
@@ -26761,8 +26777,8 @@
       <c r="Y929" s="2"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="17"/>
-      <c r="B930" s="18"/>
+      <c r="A930" s="19"/>
+      <c r="B930" s="20"/>
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
       <c r="E930" s="2"/>
@@ -26788,8 +26804,8 @@
       <c r="Y930" s="2"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="17"/>
-      <c r="B931" s="18"/>
+      <c r="A931" s="19"/>
+      <c r="B931" s="20"/>
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
       <c r="E931" s="2"/>
@@ -26815,8 +26831,8 @@
       <c r="Y931" s="2"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="17"/>
-      <c r="B932" s="18"/>
+      <c r="A932" s="19"/>
+      <c r="B932" s="20"/>
       <c r="C932" s="2"/>
       <c r="D932" s="2"/>
       <c r="E932" s="2"/>
@@ -26842,8 +26858,8 @@
       <c r="Y932" s="2"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="17"/>
-      <c r="B933" s="18"/>
+      <c r="A933" s="19"/>
+      <c r="B933" s="20"/>
       <c r="C933" s="2"/>
       <c r="D933" s="2"/>
       <c r="E933" s="2"/>
@@ -26869,8 +26885,8 @@
       <c r="Y933" s="2"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="17"/>
-      <c r="B934" s="18"/>
+      <c r="A934" s="19"/>
+      <c r="B934" s="20"/>
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
       <c r="E934" s="2"/>
@@ -26896,8 +26912,8 @@
       <c r="Y934" s="2"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="17"/>
-      <c r="B935" s="18"/>
+      <c r="A935" s="19"/>
+      <c r="B935" s="20"/>
       <c r="C935" s="2"/>
       <c r="D935" s="2"/>
       <c r="E935" s="2"/>
@@ -26923,8 +26939,8 @@
       <c r="Y935" s="2"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="17"/>
-      <c r="B936" s="18"/>
+      <c r="A936" s="19"/>
+      <c r="B936" s="20"/>
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
       <c r="E936" s="2"/>
@@ -26950,8 +26966,8 @@
       <c r="Y936" s="2"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="17"/>
-      <c r="B937" s="18"/>
+      <c r="A937" s="19"/>
+      <c r="B937" s="20"/>
       <c r="C937" s="2"/>
       <c r="D937" s="2"/>
       <c r="E937" s="2"/>
@@ -26977,8 +26993,8 @@
       <c r="Y937" s="2"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="17"/>
-      <c r="B938" s="18"/>
+      <c r="A938" s="19"/>
+      <c r="B938" s="20"/>
       <c r="C938" s="2"/>
       <c r="D938" s="2"/>
       <c r="E938" s="2"/>
@@ -27004,8 +27020,8 @@
       <c r="Y938" s="2"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="17"/>
-      <c r="B939" s="18"/>
+      <c r="A939" s="19"/>
+      <c r="B939" s="20"/>
       <c r="C939" s="2"/>
       <c r="D939" s="2"/>
       <c r="E939" s="2"/>
@@ -27031,8 +27047,8 @@
       <c r="Y939" s="2"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="17"/>
-      <c r="B940" s="18"/>
+      <c r="A940" s="19"/>
+      <c r="B940" s="20"/>
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
       <c r="E940" s="2"/>
@@ -27058,8 +27074,8 @@
       <c r="Y940" s="2"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="17"/>
-      <c r="B941" s="18"/>
+      <c r="A941" s="19"/>
+      <c r="B941" s="20"/>
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
       <c r="E941" s="2"/>
@@ -27085,8 +27101,8 @@
       <c r="Y941" s="2"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="17"/>
-      <c r="B942" s="18"/>
+      <c r="A942" s="19"/>
+      <c r="B942" s="20"/>
       <c r="C942" s="2"/>
       <c r="D942" s="2"/>
       <c r="E942" s="2"/>
@@ -27112,8 +27128,8 @@
       <c r="Y942" s="2"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="17"/>
-      <c r="B943" s="18"/>
+      <c r="A943" s="19"/>
+      <c r="B943" s="20"/>
       <c r="C943" s="2"/>
       <c r="D943" s="2"/>
       <c r="E943" s="2"/>
@@ -27139,8 +27155,8 @@
       <c r="Y943" s="2"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="17"/>
-      <c r="B944" s="18"/>
+      <c r="A944" s="19"/>
+      <c r="B944" s="20"/>
       <c r="C944" s="2"/>
       <c r="D944" s="2"/>
       <c r="E944" s="2"/>
@@ -27166,8 +27182,8 @@
       <c r="Y944" s="2"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="17"/>
-      <c r="B945" s="18"/>
+      <c r="A945" s="19"/>
+      <c r="B945" s="20"/>
       <c r="C945" s="2"/>
       <c r="D945" s="2"/>
       <c r="E945" s="2"/>
@@ -27193,8 +27209,8 @@
       <c r="Y945" s="2"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="17"/>
-      <c r="B946" s="18"/>
+      <c r="A946" s="19"/>
+      <c r="B946" s="20"/>
       <c r="C946" s="2"/>
       <c r="D946" s="2"/>
       <c r="E946" s="2"/>
@@ -27220,8 +27236,8 @@
       <c r="Y946" s="2"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="17"/>
-      <c r="B947" s="18"/>
+      <c r="A947" s="19"/>
+      <c r="B947" s="20"/>
       <c r="C947" s="2"/>
       <c r="D947" s="2"/>
       <c r="E947" s="2"/>
@@ -27247,8 +27263,8 @@
       <c r="Y947" s="2"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="17"/>
-      <c r="B948" s="18"/>
+      <c r="A948" s="19"/>
+      <c r="B948" s="20"/>
       <c r="C948" s="2"/>
       <c r="D948" s="2"/>
       <c r="E948" s="2"/>
@@ -27274,8 +27290,8 @@
       <c r="Y948" s="2"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="17"/>
-      <c r="B949" s="18"/>
+      <c r="A949" s="19"/>
+      <c r="B949" s="20"/>
       <c r="C949" s="2"/>
       <c r="D949" s="2"/>
       <c r="E949" s="2"/>
@@ -27301,8 +27317,8 @@
       <c r="Y949" s="2"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="17"/>
-      <c r="B950" s="18"/>
+      <c r="A950" s="19"/>
+      <c r="B950" s="20"/>
       <c r="C950" s="2"/>
       <c r="D950" s="2"/>
       <c r="E950" s="2"/>
@@ -27328,8 +27344,8 @@
       <c r="Y950" s="2"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="17"/>
-      <c r="B951" s="18"/>
+      <c r="A951" s="19"/>
+      <c r="B951" s="20"/>
       <c r="C951" s="2"/>
       <c r="D951" s="2"/>
       <c r="E951" s="2"/>
@@ -27355,8 +27371,8 @@
       <c r="Y951" s="2"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="17"/>
-      <c r="B952" s="18"/>
+      <c r="A952" s="19"/>
+      <c r="B952" s="20"/>
       <c r="C952" s="2"/>
       <c r="D952" s="2"/>
       <c r="E952" s="2"/>
@@ -27382,8 +27398,8 @@
       <c r="Y952" s="2"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="17"/>
-      <c r="B953" s="18"/>
+      <c r="A953" s="19"/>
+      <c r="B953" s="20"/>
       <c r="C953" s="2"/>
       <c r="D953" s="2"/>
       <c r="E953" s="2"/>
@@ -27409,8 +27425,8 @@
       <c r="Y953" s="2"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="17"/>
-      <c r="B954" s="18"/>
+      <c r="A954" s="19"/>
+      <c r="B954" s="20"/>
       <c r="C954" s="2"/>
       <c r="D954" s="2"/>
       <c r="E954" s="2"/>
@@ -27436,8 +27452,8 @@
       <c r="Y954" s="2"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="17"/>
-      <c r="B955" s="18"/>
+      <c r="A955" s="19"/>
+      <c r="B955" s="20"/>
       <c r="C955" s="2"/>
       <c r="D955" s="2"/>
       <c r="E955" s="2"/>
@@ -27463,8 +27479,8 @@
       <c r="Y955" s="2"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="17"/>
-      <c r="B956" s="18"/>
+      <c r="A956" s="19"/>
+      <c r="B956" s="20"/>
       <c r="C956" s="2"/>
       <c r="D956" s="2"/>
       <c r="E956" s="2"/>
@@ -27490,8 +27506,8 @@
       <c r="Y956" s="2"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="17"/>
-      <c r="B957" s="18"/>
+      <c r="A957" s="19"/>
+      <c r="B957" s="20"/>
       <c r="C957" s="2"/>
       <c r="D957" s="2"/>
       <c r="E957" s="2"/>
@@ -27517,8 +27533,8 @@
       <c r="Y957" s="2"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="17"/>
-      <c r="B958" s="18"/>
+      <c r="A958" s="19"/>
+      <c r="B958" s="20"/>
       <c r="C958" s="2"/>
       <c r="D958" s="2"/>
       <c r="E958" s="2"/>
@@ -27544,8 +27560,8 @@
       <c r="Y958" s="2"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="17"/>
-      <c r="B959" s="18"/>
+      <c r="A959" s="19"/>
+      <c r="B959" s="20"/>
       <c r="C959" s="2"/>
       <c r="D959" s="2"/>
       <c r="E959" s="2"/>
@@ -27571,8 +27587,8 @@
       <c r="Y959" s="2"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="17"/>
-      <c r="B960" s="18"/>
+      <c r="A960" s="19"/>
+      <c r="B960" s="20"/>
       <c r="C960" s="2"/>
       <c r="D960" s="2"/>
       <c r="E960" s="2"/>
@@ -27598,8 +27614,8 @@
       <c r="Y960" s="2"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="17"/>
-      <c r="B961" s="18"/>
+      <c r="A961" s="19"/>
+      <c r="B961" s="20"/>
       <c r="C961" s="2"/>
       <c r="D961" s="2"/>
       <c r="E961" s="2"/>
@@ -27625,8 +27641,8 @@
       <c r="Y961" s="2"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="17"/>
-      <c r="B962" s="18"/>
+      <c r="A962" s="19"/>
+      <c r="B962" s="20"/>
       <c r="C962" s="2"/>
       <c r="D962" s="2"/>
       <c r="E962" s="2"/>
@@ -27652,8 +27668,8 @@
       <c r="Y962" s="2"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="17"/>
-      <c r="B963" s="18"/>
+      <c r="A963" s="19"/>
+      <c r="B963" s="20"/>
       <c r="C963" s="2"/>
       <c r="D963" s="2"/>
       <c r="E963" s="2"/>
@@ -27679,8 +27695,8 @@
       <c r="Y963" s="2"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="17"/>
-      <c r="B964" s="18"/>
+      <c r="A964" s="19"/>
+      <c r="B964" s="20"/>
       <c r="C964" s="2"/>
       <c r="D964" s="2"/>
       <c r="E964" s="2"/>
@@ -27706,8 +27722,8 @@
       <c r="Y964" s="2"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="17"/>
-      <c r="B965" s="18"/>
+      <c r="A965" s="19"/>
+      <c r="B965" s="20"/>
       <c r="C965" s="2"/>
       <c r="D965" s="2"/>
       <c r="E965" s="2"/>
@@ -27733,8 +27749,8 @@
       <c r="Y965" s="2"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="17"/>
-      <c r="B966" s="18"/>
+      <c r="A966" s="19"/>
+      <c r="B966" s="20"/>
       <c r="C966" s="2"/>
       <c r="D966" s="2"/>
       <c r="E966" s="2"/>
@@ -27760,8 +27776,8 @@
       <c r="Y966" s="2"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="17"/>
-      <c r="B967" s="18"/>
+      <c r="A967" s="19"/>
+      <c r="B967" s="20"/>
       <c r="C967" s="2"/>
       <c r="D967" s="2"/>
       <c r="E967" s="2"/>
@@ -27787,8 +27803,8 @@
       <c r="Y967" s="2"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="17"/>
-      <c r="B968" s="18"/>
+      <c r="A968" s="19"/>
+      <c r="B968" s="20"/>
       <c r="C968" s="2"/>
       <c r="D968" s="2"/>
       <c r="E968" s="2"/>
@@ -27814,8 +27830,8 @@
       <c r="Y968" s="2"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="17"/>
-      <c r="B969" s="18"/>
+      <c r="A969" s="19"/>
+      <c r="B969" s="20"/>
       <c r="C969" s="2"/>
       <c r="D969" s="2"/>
       <c r="E969" s="2"/>
@@ -27841,8 +27857,8 @@
       <c r="Y969" s="2"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="17"/>
-      <c r="B970" s="18"/>
+      <c r="A970" s="19"/>
+      <c r="B970" s="20"/>
       <c r="C970" s="2"/>
       <c r="D970" s="2"/>
       <c r="E970" s="2"/>
@@ -27868,8 +27884,8 @@
       <c r="Y970" s="2"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="17"/>
-      <c r="B971" s="18"/>
+      <c r="A971" s="19"/>
+      <c r="B971" s="20"/>
       <c r="C971" s="2"/>
       <c r="D971" s="2"/>
       <c r="E971" s="2"/>
@@ -27895,8 +27911,8 @@
       <c r="Y971" s="2"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="17"/>
-      <c r="B972" s="18"/>
+      <c r="A972" s="19"/>
+      <c r="B972" s="20"/>
       <c r="C972" s="2"/>
       <c r="D972" s="2"/>
       <c r="E972" s="2"/>
@@ -27922,8 +27938,8 @@
       <c r="Y972" s="2"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="17"/>
-      <c r="B973" s="18"/>
+      <c r="A973" s="19"/>
+      <c r="B973" s="20"/>
       <c r="C973" s="2"/>
       <c r="D973" s="2"/>
       <c r="E973" s="2"/>
@@ -27949,8 +27965,8 @@
       <c r="Y973" s="2"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="17"/>
-      <c r="B974" s="18"/>
+      <c r="A974" s="19"/>
+      <c r="B974" s="20"/>
       <c r="C974" s="2"/>
       <c r="D974" s="2"/>
       <c r="E974" s="2"/>
@@ -27976,8 +27992,8 @@
       <c r="Y974" s="2"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="17"/>
-      <c r="B975" s="18"/>
+      <c r="A975" s="19"/>
+      <c r="B975" s="20"/>
       <c r="C975" s="2"/>
       <c r="D975" s="2"/>
       <c r="E975" s="2"/>
@@ -28003,8 +28019,8 @@
       <c r="Y975" s="2"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="17"/>
-      <c r="B976" s="18"/>
+      <c r="A976" s="19"/>
+      <c r="B976" s="20"/>
       <c r="C976" s="2"/>
       <c r="D976" s="2"/>
       <c r="E976" s="2"/>
@@ -28030,8 +28046,8 @@
       <c r="Y976" s="2"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="17"/>
-      <c r="B977" s="18"/>
+      <c r="A977" s="19"/>
+      <c r="B977" s="20"/>
       <c r="C977" s="2"/>
       <c r="D977" s="2"/>
       <c r="E977" s="2"/>
@@ -28057,8 +28073,8 @@
       <c r="Y977" s="2"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="17"/>
-      <c r="B978" s="18"/>
+      <c r="A978" s="19"/>
+      <c r="B978" s="20"/>
       <c r="C978" s="2"/>
       <c r="D978" s="2"/>
       <c r="E978" s="2"/>
@@ -28084,8 +28100,8 @@
       <c r="Y978" s="2"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="17"/>
-      <c r="B979" s="18"/>
+      <c r="A979" s="19"/>
+      <c r="B979" s="20"/>
       <c r="C979" s="2"/>
       <c r="D979" s="2"/>
       <c r="E979" s="2"/>
@@ -28111,8 +28127,8 @@
       <c r="Y979" s="2"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="17"/>
-      <c r="B980" s="18"/>
+      <c r="A980" s="19"/>
+      <c r="B980" s="20"/>
       <c r="C980" s="2"/>
       <c r="D980" s="2"/>
       <c r="E980" s="2"/>
@@ -28138,8 +28154,8 @@
       <c r="Y980" s="2"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="17"/>
-      <c r="B981" s="18"/>
+      <c r="A981" s="19"/>
+      <c r="B981" s="20"/>
       <c r="C981" s="2"/>
       <c r="D981" s="2"/>
       <c r="E981" s="2"/>
@@ -28165,8 +28181,8 @@
       <c r="Y981" s="2"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="17"/>
-      <c r="B982" s="18"/>
+      <c r="A982" s="19"/>
+      <c r="B982" s="20"/>
       <c r="C982" s="2"/>
       <c r="D982" s="2"/>
       <c r="E982" s="2"/>
@@ -28192,8 +28208,8 @@
       <c r="Y982" s="2"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="17"/>
-      <c r="B983" s="18"/>
+      <c r="A983" s="19"/>
+      <c r="B983" s="20"/>
       <c r="C983" s="2"/>
       <c r="D983" s="2"/>
       <c r="E983" s="2"/>
@@ -28219,8 +28235,8 @@
       <c r="Y983" s="2"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="17"/>
-      <c r="B984" s="18"/>
+      <c r="A984" s="19"/>
+      <c r="B984" s="20"/>
       <c r="C984" s="2"/>
       <c r="D984" s="2"/>
       <c r="E984" s="2"/>
@@ -28246,8 +28262,8 @@
       <c r="Y984" s="2"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="17"/>
-      <c r="B985" s="18"/>
+      <c r="A985" s="19"/>
+      <c r="B985" s="20"/>
       <c r="C985" s="2"/>
       <c r="D985" s="2"/>
       <c r="E985" s="2"/>
@@ -28273,8 +28289,8 @@
       <c r="Y985" s="2"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="17"/>
-      <c r="B986" s="18"/>
+      <c r="A986" s="19"/>
+      <c r="B986" s="20"/>
       <c r="C986" s="2"/>
       <c r="D986" s="2"/>
       <c r="E986" s="2"/>
@@ -28300,8 +28316,8 @@
       <c r="Y986" s="2"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="17"/>
-      <c r="B987" s="18"/>
+      <c r="A987" s="19"/>
+      <c r="B987" s="20"/>
       <c r="C987" s="2"/>
       <c r="D987" s="2"/>
       <c r="E987" s="2"/>
@@ -28327,8 +28343,8 @@
       <c r="Y987" s="2"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="17"/>
-      <c r="B988" s="18"/>
+      <c r="A988" s="19"/>
+      <c r="B988" s="20"/>
       <c r="C988" s="2"/>
       <c r="D988" s="2"/>
       <c r="E988" s="2"/>
@@ -28354,8 +28370,8 @@
       <c r="Y988" s="2"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="A989" s="17"/>
-      <c r="B989" s="18"/>
+      <c r="A989" s="19"/>
+      <c r="B989" s="20"/>
       <c r="C989" s="2"/>
       <c r="D989" s="2"/>
       <c r="E989" s="2"/>
@@ -28381,8 +28397,8 @@
       <c r="Y989" s="2"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="A990" s="17"/>
-      <c r="B990" s="18"/>
+      <c r="A990" s="19"/>
+      <c r="B990" s="20"/>
       <c r="C990" s="2"/>
       <c r="D990" s="2"/>
       <c r="E990" s="2"/>
@@ -28408,8 +28424,8 @@
       <c r="Y990" s="2"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="A991" s="17"/>
-      <c r="B991" s="18"/>
+      <c r="A991" s="19"/>
+      <c r="B991" s="20"/>
       <c r="C991" s="2"/>
       <c r="D991" s="2"/>
       <c r="E991" s="2"/>

--- a/server/pattern/Pattern.xlsx
+++ b/server/pattern/Pattern.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wi-backend\server\pattern\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\wi-backend\server\pattern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A67C033-48B3-44F2-8D60-72CD86C3EEA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974E7AA9-A8B8-44B2-8180-EDE461A05DC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -880,9 +880,6 @@
     <t>Typical</t>
   </si>
   <si>
-    <t>Uniform_grain size</t>
-  </si>
-  <si>
     <t>Coarsening_upward</t>
   </si>
   <si>
@@ -896,6 +893,9 @@
   </si>
   <si>
     <t>Uniform grain size</t>
+  </si>
+  <si>
+    <t>Uniform_grain_size</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1299,7 @@
   <dimension ref="A1:Y993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2070,10 +2070,10 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C24" s="9">
         <v>23</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C25" s="9">
         <v>24</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C26" s="9">
         <v>25</v>

--- a/server/pattern/Pattern.xlsx
+++ b/server/pattern/Pattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\wi-backend\server\pattern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974E7AA9-A8B8-44B2-8180-EDE461A05DC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F257307-94FB-4CFC-B4BF-32B0F087B5AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="pattern" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc493231929" localSheetId="0">pattern!$B$30</definedName>
+    <definedName name="_Toc493231929" localSheetId="0">pattern!$B$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="292">
   <si>
     <t>Name</t>
   </si>
@@ -897,6 +897,9 @@
   <si>
     <t>Uniform_grain_size</t>
   </si>
+  <si>
+    <t>Serration</t>
+  </si>
 </sst>
 </file>
 
@@ -1296,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y993"/>
+  <dimension ref="A1:Y994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2167,15 +2170,15 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>2</v>
+        <v>291</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>3</v>
+        <v>291</v>
       </c>
       <c r="C27" s="9">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2202,10 +2205,10 @@
     </row>
     <row r="28" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" s="9">
         <v>0</v>
@@ -2235,10 +2238,10 @@
     </row>
     <row r="29" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" s="9">
         <v>0</v>
@@ -2268,10 +2271,10 @@
     </row>
     <row r="30" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="9">
         <v>0</v>
@@ -2301,10 +2304,10 @@
     </row>
     <row r="31" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" s="9">
         <v>0</v>
@@ -2334,10 +2337,10 @@
     </row>
     <row r="32" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C32" s="9">
         <v>0</v>
@@ -2367,10 +2370,10 @@
     </row>
     <row r="33" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C33" s="9">
         <v>0</v>
@@ -2400,10 +2403,10 @@
     </row>
     <row r="34" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C34" s="9">
         <v>0</v>
@@ -2433,10 +2436,10 @@
     </row>
     <row r="35" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C35" s="9">
         <v>0</v>
@@ -2466,10 +2469,10 @@
     </row>
     <row r="36" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C36" s="9">
         <v>0</v>
@@ -2499,10 +2502,10 @@
     </row>
     <row r="37" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C37" s="9">
         <v>0</v>
@@ -2532,10 +2535,10 @@
     </row>
     <row r="38" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C38" s="9">
         <v>0</v>
@@ -2565,10 +2568,10 @@
     </row>
     <row r="39" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C39" s="9">
         <v>0</v>
@@ -2598,10 +2601,10 @@
     </row>
     <row r="40" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="9">
         <v>0</v>
@@ -2631,10 +2634,10 @@
     </row>
     <row r="41" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C41" s="9">
         <v>0</v>
@@ -2664,10 +2667,10 @@
     </row>
     <row r="42" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C42" s="9">
         <v>0</v>
@@ -2697,10 +2700,10 @@
     </row>
     <row r="43" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C43" s="9">
         <v>0</v>
@@ -2730,10 +2733,10 @@
     </row>
     <row r="44" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44" s="9">
         <v>0</v>
@@ -2763,10 +2766,10 @@
     </row>
     <row r="45" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" s="9">
         <v>0</v>
@@ -2796,10 +2799,10 @@
     </row>
     <row r="46" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" s="9">
         <v>0</v>
@@ -2829,10 +2832,10 @@
     </row>
     <row r="47" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" s="9">
         <v>0</v>
@@ -2862,10 +2865,10 @@
     </row>
     <row r="48" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C48" s="9">
         <v>0</v>
@@ -2895,10 +2898,10 @@
     </row>
     <row r="49" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="9">
         <v>0</v>
@@ -2928,10 +2931,10 @@
     </row>
     <row r="50" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="9">
         <v>0</v>
@@ -2961,10 +2964,10 @@
     </row>
     <row r="51" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="9">
         <v>0</v>
@@ -2994,10 +2997,10 @@
     </row>
     <row r="52" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="9">
         <v>0</v>
@@ -3027,10 +3030,10 @@
     </row>
     <row r="53" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="9">
         <v>0</v>
@@ -3060,10 +3063,10 @@
     </row>
     <row r="54" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="9">
         <v>0</v>
@@ -3093,10 +3096,10 @@
     </row>
     <row r="55" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="9">
         <v>0</v>
@@ -3126,10 +3129,10 @@
     </row>
     <row r="56" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C56" s="9">
         <v>0</v>
@@ -3159,10 +3162,10 @@
     </row>
     <row r="57" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="9">
         <v>0</v>
@@ -3192,10 +3195,10 @@
     </row>
     <row r="58" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="9">
         <v>0</v>
@@ -3225,10 +3228,10 @@
     </row>
     <row r="59" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="9">
         <v>0</v>
@@ -3258,10 +3261,10 @@
     </row>
     <row r="60" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="9">
         <v>0</v>
@@ -3291,10 +3294,10 @@
     </row>
     <row r="61" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="9">
         <v>0</v>
@@ -3324,10 +3327,10 @@
     </row>
     <row r="62" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="9">
         <v>0</v>
@@ -3357,10 +3360,10 @@
     </row>
     <row r="63" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="9">
         <v>0</v>
@@ -3390,10 +3393,10 @@
     </row>
     <row r="64" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="9">
         <v>0</v>
@@ -3423,10 +3426,10 @@
     </row>
     <row r="65" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="9">
         <v>0</v>
@@ -3456,10 +3459,10 @@
     </row>
     <row r="66" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" s="9">
         <v>0</v>
@@ -3489,10 +3492,10 @@
     </row>
     <row r="67" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67" s="9">
         <v>0</v>
@@ -3522,10 +3525,10 @@
     </row>
     <row r="68" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C68" s="9">
         <v>0</v>
@@ -3555,10 +3558,10 @@
     </row>
     <row r="69" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C69" s="9">
         <v>0</v>
@@ -3588,10 +3591,10 @@
     </row>
     <row r="70" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C70" s="9">
         <v>0</v>
@@ -3621,10 +3624,10 @@
     </row>
     <row r="71" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71" s="9">
         <v>0</v>
@@ -3654,10 +3657,10 @@
     </row>
     <row r="72" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C72" s="9">
         <v>0</v>
@@ -3687,10 +3690,10 @@
     </row>
     <row r="73" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C73" s="9">
         <v>0</v>
@@ -3720,10 +3723,10 @@
     </row>
     <row r="74" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C74" s="9">
         <v>0</v>
@@ -3753,10 +3756,10 @@
     </row>
     <row r="75" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C75" s="9">
         <v>0</v>
@@ -3786,10 +3789,10 @@
     </row>
     <row r="76" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C76" s="9">
         <v>0</v>
@@ -3819,10 +3822,10 @@
     </row>
     <row r="77" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C77" s="9">
         <v>0</v>
@@ -3852,10 +3855,10 @@
     </row>
     <row r="78" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C78" s="9">
         <v>0</v>
@@ -3885,10 +3888,10 @@
     </row>
     <row r="79" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C79" s="9">
         <v>0</v>
@@ -3918,10 +3921,10 @@
     </row>
     <row r="80" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C80" s="9">
         <v>0</v>
@@ -3951,10 +3954,10 @@
     </row>
     <row r="81" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C81" s="9">
         <v>0</v>
@@ -3984,10 +3987,10 @@
     </row>
     <row r="82" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C82" s="9">
         <v>0</v>
@@ -4017,10 +4020,10 @@
     </row>
     <row r="83" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C83" s="9">
         <v>0</v>
@@ -4050,10 +4053,10 @@
     </row>
     <row r="84" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C84" s="9">
         <v>0</v>
@@ -4083,10 +4086,10 @@
     </row>
     <row r="85" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C85" s="9">
         <v>0</v>
@@ -4116,10 +4119,10 @@
     </row>
     <row r="86" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C86" s="9">
         <v>0</v>
@@ -4149,10 +4152,10 @@
     </row>
     <row r="87" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C87" s="9">
         <v>0</v>
@@ -4182,10 +4185,10 @@
     </row>
     <row r="88" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C88" s="9">
         <v>0</v>
@@ -4215,10 +4218,10 @@
     </row>
     <row r="89" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C89" s="9">
         <v>0</v>
@@ -4248,10 +4251,10 @@
     </row>
     <row r="90" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C90" s="9">
         <v>0</v>
@@ -4281,10 +4284,10 @@
     </row>
     <row r="91" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C91" s="9">
         <v>0</v>
@@ -4314,10 +4317,10 @@
     </row>
     <row r="92" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C92" s="9">
         <v>0</v>
@@ -4347,10 +4350,10 @@
     </row>
     <row r="93" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C93" s="9">
         <v>0</v>
@@ -4380,10 +4383,10 @@
     </row>
     <row r="94" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C94" s="9">
         <v>0</v>
@@ -4413,10 +4416,10 @@
     </row>
     <row r="95" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C95" s="9">
         <v>0</v>
@@ -4446,10 +4449,10 @@
     </row>
     <row r="96" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C96" s="9">
         <v>0</v>
@@ -4479,10 +4482,10 @@
     </row>
     <row r="97" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C97" s="9">
         <v>0</v>
@@ -4512,10 +4515,10 @@
     </row>
     <row r="98" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C98" s="9">
         <v>0</v>
@@ -4545,10 +4548,10 @@
     </row>
     <row r="99" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C99" s="9">
         <v>0</v>
@@ -4578,10 +4581,10 @@
     </row>
     <row r="100" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C100" s="9">
         <v>0</v>
@@ -4611,10 +4614,10 @@
     </row>
     <row r="101" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C101" s="9">
         <v>0</v>
@@ -4644,10 +4647,10 @@
     </row>
     <row r="102" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C102" s="9">
         <v>0</v>
@@ -4677,10 +4680,10 @@
     </row>
     <row r="103" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C103" s="9">
         <v>0</v>
@@ -4713,7 +4716,7 @@
         <v>160</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C104" s="9">
         <v>0</v>
@@ -4743,10 +4746,10 @@
     </row>
     <row r="105" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C105" s="9">
         <v>0</v>
@@ -4776,10 +4779,10 @@
     </row>
     <row r="106" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C106" s="9">
         <v>0</v>
@@ -4809,10 +4812,10 @@
     </row>
     <row r="107" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C107" s="9">
         <v>0</v>
@@ -4842,10 +4845,10 @@
     </row>
     <row r="108" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C108" s="9">
         <v>0</v>
@@ -4875,10 +4878,10 @@
     </row>
     <row r="109" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C109" s="9">
         <v>0</v>
@@ -4908,10 +4911,10 @@
     </row>
     <row r="110" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C110" s="9">
         <v>0</v>
@@ -4941,10 +4944,10 @@
     </row>
     <row r="111" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C111" s="9">
         <v>0</v>
@@ -4974,10 +4977,10 @@
     </row>
     <row r="112" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="C112" s="9">
         <v>0</v>
@@ -5007,10 +5010,10 @@
     </row>
     <row r="113" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="C113" s="9">
         <v>0</v>
@@ -5040,10 +5043,10 @@
     </row>
     <row r="114" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C114" s="9">
         <v>0</v>
@@ -5073,10 +5076,10 @@
     </row>
     <row r="115" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C115" s="9">
         <v>0</v>
@@ -5106,10 +5109,10 @@
     </row>
     <row r="116" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C116" s="9">
         <v>0</v>
@@ -5139,10 +5142,10 @@
     </row>
     <row r="117" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C117" s="9">
         <v>0</v>
@@ -5172,10 +5175,10 @@
     </row>
     <row r="118" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C118" s="9">
         <v>0</v>
@@ -5205,10 +5208,10 @@
     </row>
     <row r="119" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C119" s="9">
         <v>0</v>
@@ -5238,10 +5241,10 @@
     </row>
     <row r="120" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C120" s="9">
         <v>0</v>
@@ -5271,10 +5274,10 @@
     </row>
     <row r="121" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C121" s="9">
         <v>0</v>
@@ -5304,10 +5307,10 @@
     </row>
     <row r="122" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C122" s="9">
         <v>0</v>
@@ -5337,10 +5340,10 @@
     </row>
     <row r="123" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C123" s="9">
         <v>0</v>
@@ -5370,10 +5373,10 @@
     </row>
     <row r="124" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C124" s="9">
         <v>0</v>
@@ -5403,10 +5406,10 @@
     </row>
     <row r="125" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C125" s="9">
         <v>0</v>
@@ -5436,10 +5439,10 @@
     </row>
     <row r="126" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C126" s="9">
         <v>0</v>
@@ -5469,10 +5472,10 @@
     </row>
     <row r="127" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C127" s="9">
         <v>0</v>
@@ -5502,10 +5505,10 @@
     </row>
     <row r="128" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C128" s="9">
         <v>0</v>
@@ -5535,10 +5538,10 @@
     </row>
     <row r="129" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C129" s="9">
         <v>0</v>
@@ -5568,10 +5571,10 @@
     </row>
     <row r="130" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C130" s="9">
         <v>0</v>
@@ -5601,10 +5604,10 @@
     </row>
     <row r="131" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C131" s="9">
         <v>0</v>
@@ -5633,11 +5636,11 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>210</v>
+      <c r="A132" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="C132" s="9">
         <v>0</v>
@@ -5666,11 +5669,11 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>213</v>
+      <c r="A133" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="C133" s="9">
         <v>0</v>
@@ -5700,10 +5703,10 @@
     </row>
     <row r="134" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="C134" s="9">
         <v>0</v>
@@ -5733,10 +5736,10 @@
     </row>
     <row r="135" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="C135" s="9">
         <v>0</v>
@@ -5766,10 +5769,10 @@
     </row>
     <row r="136" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C136" s="9">
         <v>0</v>
@@ -5799,10 +5802,10 @@
     </row>
     <row r="137" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C137" s="9">
         <v>0</v>
@@ -5832,10 +5835,10 @@
     </row>
     <row r="138" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C138" s="9">
         <v>0</v>
@@ -5865,10 +5868,10 @@
     </row>
     <row r="139" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C139" s="9">
         <v>0</v>
@@ -5898,10 +5901,10 @@
     </row>
     <row r="140" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C140" s="9">
         <v>0</v>
@@ -5930,11 +5933,11 @@
       <c r="Y140" s="1"/>
     </row>
     <row r="141" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>242</v>
+      <c r="A141" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="C141" s="9">
         <v>0</v>
@@ -5963,11 +5966,11 @@
       <c r="Y141" s="1"/>
     </row>
     <row r="142" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>244</v>
+      <c r="A142" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="C142" s="9">
         <v>0</v>
@@ -5997,10 +6000,10 @@
     </row>
     <row r="143" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C143" s="9">
         <v>0</v>
@@ -6030,10 +6033,10 @@
     </row>
     <row r="144" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C144" s="9">
         <v>0</v>
@@ -6063,10 +6066,10 @@
     </row>
     <row r="145" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C145" s="9">
         <v>0</v>
@@ -6096,10 +6099,10 @@
     </row>
     <row r="146" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="C146" s="9">
         <v>0</v>
@@ -6129,10 +6132,10 @@
     </row>
     <row r="147" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C147" s="9">
         <v>0</v>
@@ -6162,10 +6165,10 @@
     </row>
     <row r="148" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C148" s="9">
         <v>0</v>
@@ -6195,10 +6198,10 @@
     </row>
     <row r="149" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>92</v>
+        <v>257</v>
       </c>
       <c r="C149" s="9">
         <v>0</v>
@@ -6228,10 +6231,10 @@
     </row>
     <row r="150" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>260</v>
+        <v>92</v>
       </c>
       <c r="C150" s="9">
         <v>0</v>
@@ -6261,10 +6264,10 @@
     </row>
     <row r="151" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C151" s="9">
         <v>0</v>
@@ -6294,10 +6297,10 @@
     </row>
     <row r="152" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="C152" s="9">
         <v>0</v>
@@ -6327,10 +6330,10 @@
     </row>
     <row r="153" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="C153" s="9">
         <v>0</v>
@@ -6360,10 +6363,10 @@
     </row>
     <row r="154" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C154" s="9">
         <v>0</v>
@@ -6393,10 +6396,10 @@
     </row>
     <row r="155" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="C155" s="9">
         <v>0</v>
@@ -6426,10 +6429,10 @@
     </row>
     <row r="156" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="C156" s="9">
         <v>0</v>
@@ -6459,10 +6462,10 @@
     </row>
     <row r="157" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="C157" s="9">
         <v>0</v>
@@ -6492,10 +6495,10 @@
     </row>
     <row r="158" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C158" s="9">
         <v>0</v>
@@ -6525,10 +6528,10 @@
     </row>
     <row r="159" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C159" s="9">
         <v>0</v>
@@ -6558,10 +6561,10 @@
     </row>
     <row r="160" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C160" s="9">
         <v>0</v>
@@ -6590,11 +6593,11 @@
       <c r="Y160" s="1"/>
     </row>
     <row r="161" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="B161" s="13" t="s">
-        <v>281</v>
+      <c r="A161" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="C161" s="9">
         <v>0</v>
@@ -6623,11 +6626,11 @@
       <c r="Y161" s="1"/>
     </row>
     <row r="162" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>283</v>
+      <c r="A162" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>281</v>
       </c>
       <c r="C162" s="9">
         <v>0</v>
@@ -6655,10 +6658,16 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="1"/>
+    <row r="163" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C163" s="9">
+        <v>0</v>
+      </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -29092,9 +29101,36 @@
       <c r="X993" s="1"/>
       <c r="Y993" s="1"/>
     </row>
+    <row r="994" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A994" s="2"/>
+      <c r="B994" s="3"/>
+      <c r="C994" s="1"/>
+      <c r="D994" s="1"/>
+      <c r="E994" s="1"/>
+      <c r="F994" s="1"/>
+      <c r="G994" s="1"/>
+      <c r="H994" s="1"/>
+      <c r="I994" s="1"/>
+      <c r="J994" s="1"/>
+      <c r="K994" s="1"/>
+      <c r="L994" s="1"/>
+      <c r="M994" s="1"/>
+      <c r="N994" s="1"/>
+      <c r="O994" s="1"/>
+      <c r="P994" s="1"/>
+      <c r="Q994" s="1"/>
+      <c r="R994" s="1"/>
+      <c r="S994" s="1"/>
+      <c r="T994" s="1"/>
+      <c r="U994" s="1"/>
+      <c r="V994" s="1"/>
+      <c r="W994" s="1"/>
+      <c r="X994" s="1"/>
+      <c r="Y994" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C993">
-    <sortCondition ref="C27:C993"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C994">
+    <sortCondition ref="C28:C994"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/server/pattern/Pattern.xlsx
+++ b/server/pattern/Pattern.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\wi-backend\server\pattern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F257307-94FB-4CFC-B4BF-32B0F087B5AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A329C7-911D-472D-BB9B-CC0BC0BA93BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6990" yWindow="2130" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pattern" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc493231929" localSheetId="0">pattern!$B$31</definedName>
+    <definedName name="_Toc493231929" localSheetId="0">pattern!$B$32</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -1299,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y994"/>
+  <dimension ref="A1:Y995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2203,15 +2203,15 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>3</v>
+    <row r="28" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>1111</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1111</v>
       </c>
       <c r="C28" s="9">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2238,10 +2238,10 @@
     </row>
     <row r="29" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="9">
         <v>0</v>
@@ -2271,10 +2271,10 @@
     </row>
     <row r="30" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" s="9">
         <v>0</v>
@@ -2304,10 +2304,10 @@
     </row>
     <row r="31" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C31" s="9">
         <v>0</v>
@@ -2337,10 +2337,10 @@
     </row>
     <row r="32" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32" s="9">
         <v>0</v>
@@ -2370,10 +2370,10 @@
     </row>
     <row r="33" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C33" s="9">
         <v>0</v>
@@ -2403,10 +2403,10 @@
     </row>
     <row r="34" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C34" s="9">
         <v>0</v>
@@ -2436,10 +2436,10 @@
     </row>
     <row r="35" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="9">
         <v>0</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="36" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C36" s="9">
         <v>0</v>
@@ -2502,10 +2502,10 @@
     </row>
     <row r="37" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C37" s="9">
         <v>0</v>
@@ -2535,10 +2535,10 @@
     </row>
     <row r="38" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38" s="9">
         <v>0</v>
@@ -2568,10 +2568,10 @@
     </row>
     <row r="39" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C39" s="9">
         <v>0</v>
@@ -2601,10 +2601,10 @@
     </row>
     <row r="40" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C40" s="9">
         <v>0</v>
@@ -2634,10 +2634,10 @@
     </row>
     <row r="41" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="9">
         <v>0</v>
@@ -2667,10 +2667,10 @@
     </row>
     <row r="42" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42" s="9">
         <v>0</v>
@@ -2700,10 +2700,10 @@
     </row>
     <row r="43" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C43" s="9">
         <v>0</v>
@@ -2733,10 +2733,10 @@
     </row>
     <row r="44" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C44" s="9">
         <v>0</v>
@@ -2766,10 +2766,10 @@
     </row>
     <row r="45" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C45" s="9">
         <v>0</v>
@@ -2799,10 +2799,10 @@
     </row>
     <row r="46" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C46" s="9">
         <v>0</v>
@@ -2832,10 +2832,10 @@
     </row>
     <row r="47" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" s="9">
         <v>0</v>
@@ -2865,10 +2865,10 @@
     </row>
     <row r="48" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48" s="9">
         <v>0</v>
@@ -2898,10 +2898,10 @@
     </row>
     <row r="49" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C49" s="9">
         <v>0</v>
@@ -2931,10 +2931,10 @@
     </row>
     <row r="50" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="9">
         <v>0</v>
@@ -2964,10 +2964,10 @@
     </row>
     <row r="51" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="9">
         <v>0</v>
@@ -2997,10 +2997,10 @@
     </row>
     <row r="52" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="9">
         <v>0</v>
@@ -3030,10 +3030,10 @@
     </row>
     <row r="53" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="9">
         <v>0</v>
@@ -3063,10 +3063,10 @@
     </row>
     <row r="54" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="9">
         <v>0</v>
@@ -3096,10 +3096,10 @@
     </row>
     <row r="55" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="9">
         <v>0</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="56" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="9">
         <v>0</v>
@@ -3162,10 +3162,10 @@
     </row>
     <row r="57" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C57" s="9">
         <v>0</v>
@@ -3195,10 +3195,10 @@
     </row>
     <row r="58" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="9">
         <v>0</v>
@@ -3228,10 +3228,10 @@
     </row>
     <row r="59" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="9">
         <v>0</v>
@@ -3261,10 +3261,10 @@
     </row>
     <row r="60" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="9">
         <v>0</v>
@@ -3294,10 +3294,10 @@
     </row>
     <row r="61" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="9">
         <v>0</v>
@@ -3327,10 +3327,10 @@
     </row>
     <row r="62" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="9">
         <v>0</v>
@@ -3360,10 +3360,10 @@
     </row>
     <row r="63" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="9">
         <v>0</v>
@@ -3393,10 +3393,10 @@
     </row>
     <row r="64" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="9">
         <v>0</v>
@@ -3426,10 +3426,10 @@
     </row>
     <row r="65" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="9">
         <v>0</v>
@@ -3459,10 +3459,10 @@
     </row>
     <row r="66" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="9">
         <v>0</v>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="67" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="9">
         <v>0</v>
@@ -3525,10 +3525,10 @@
     </row>
     <row r="68" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" s="9">
         <v>0</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="69" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C69" s="9">
         <v>0</v>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="70" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C70" s="9">
         <v>0</v>
@@ -3624,10 +3624,10 @@
     </row>
     <row r="71" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C71" s="9">
         <v>0</v>
@@ -3657,10 +3657,10 @@
     </row>
     <row r="72" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="9">
         <v>0</v>
@@ -3690,10 +3690,10 @@
     </row>
     <row r="73" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C73" s="9">
         <v>0</v>
@@ -3723,10 +3723,10 @@
     </row>
     <row r="74" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C74" s="9">
         <v>0</v>
@@ -3756,10 +3756,10 @@
     </row>
     <row r="75" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C75" s="9">
         <v>0</v>
@@ -3789,10 +3789,10 @@
     </row>
     <row r="76" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C76" s="9">
         <v>0</v>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="77" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C77" s="9">
         <v>0</v>
@@ -3855,10 +3855,10 @@
     </row>
     <row r="78" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C78" s="9">
         <v>0</v>
@@ -3888,10 +3888,10 @@
     </row>
     <row r="79" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C79" s="9">
         <v>0</v>
@@ -3921,10 +3921,10 @@
     </row>
     <row r="80" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C80" s="9">
         <v>0</v>
@@ -3954,10 +3954,10 @@
     </row>
     <row r="81" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C81" s="9">
         <v>0</v>
@@ -3987,10 +3987,10 @@
     </row>
     <row r="82" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C82" s="9">
         <v>0</v>
@@ -4020,10 +4020,10 @@
     </row>
     <row r="83" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C83" s="9">
         <v>0</v>
@@ -4053,10 +4053,10 @@
     </row>
     <row r="84" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C84" s="9">
         <v>0</v>
@@ -4086,10 +4086,10 @@
     </row>
     <row r="85" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C85" s="9">
         <v>0</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="86" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C86" s="9">
         <v>0</v>
@@ -4152,10 +4152,10 @@
     </row>
     <row r="87" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C87" s="9">
         <v>0</v>
@@ -4185,10 +4185,10 @@
     </row>
     <row r="88" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C88" s="9">
         <v>0</v>
@@ -4218,10 +4218,10 @@
     </row>
     <row r="89" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C89" s="9">
         <v>0</v>
@@ -4251,10 +4251,10 @@
     </row>
     <row r="90" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C90" s="9">
         <v>0</v>
@@ -4284,10 +4284,10 @@
     </row>
     <row r="91" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C91" s="9">
         <v>0</v>
@@ -4317,10 +4317,10 @@
     </row>
     <row r="92" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C92" s="9">
         <v>0</v>
@@ -4350,10 +4350,10 @@
     </row>
     <row r="93" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C93" s="9">
         <v>0</v>
@@ -4383,10 +4383,10 @@
     </row>
     <row r="94" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C94" s="9">
         <v>0</v>
@@ -4416,10 +4416,10 @@
     </row>
     <row r="95" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C95" s="9">
         <v>0</v>
@@ -4449,10 +4449,10 @@
     </row>
     <row r="96" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C96" s="9">
         <v>0</v>
@@ -4482,10 +4482,10 @@
     </row>
     <row r="97" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C97" s="9">
         <v>0</v>
@@ -4515,10 +4515,10 @@
     </row>
     <row r="98" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C98" s="9">
         <v>0</v>
@@ -4548,10 +4548,10 @@
     </row>
     <row r="99" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C99" s="9">
         <v>0</v>
@@ -4581,10 +4581,10 @@
     </row>
     <row r="100" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C100" s="9">
         <v>0</v>
@@ -4614,10 +4614,10 @@
     </row>
     <row r="101" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C101" s="9">
         <v>0</v>
@@ -4647,10 +4647,10 @@
     </row>
     <row r="102" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C102" s="9">
         <v>0</v>
@@ -4680,10 +4680,10 @@
     </row>
     <row r="103" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C103" s="9">
         <v>0</v>
@@ -4713,10 +4713,10 @@
     </row>
     <row r="104" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C104" s="9">
         <v>0</v>
@@ -4749,7 +4749,7 @@
         <v>160</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C105" s="9">
         <v>0</v>
@@ -4779,10 +4779,10 @@
     </row>
     <row r="106" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C106" s="9">
         <v>0</v>
@@ -4812,10 +4812,10 @@
     </row>
     <row r="107" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C107" s="9">
         <v>0</v>
@@ -4845,10 +4845,10 @@
     </row>
     <row r="108" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C108" s="9">
         <v>0</v>
@@ -4878,10 +4878,10 @@
     </row>
     <row r="109" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C109" s="9">
         <v>0</v>
@@ -4911,10 +4911,10 @@
     </row>
     <row r="110" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C110" s="9">
         <v>0</v>
@@ -4944,10 +4944,10 @@
     </row>
     <row r="111" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C111" s="9">
         <v>0</v>
@@ -4977,10 +4977,10 @@
     </row>
     <row r="112" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C112" s="9">
         <v>0</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="113" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="C113" s="9">
         <v>0</v>
@@ -5043,10 +5043,10 @@
     </row>
     <row r="114" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="C114" s="9">
         <v>0</v>
@@ -5076,10 +5076,10 @@
     </row>
     <row r="115" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C115" s="9">
         <v>0</v>
@@ -5109,10 +5109,10 @@
     </row>
     <row r="116" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C116" s="9">
         <v>0</v>
@@ -5142,10 +5142,10 @@
     </row>
     <row r="117" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C117" s="9">
         <v>0</v>
@@ -5175,10 +5175,10 @@
     </row>
     <row r="118" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C118" s="9">
         <v>0</v>
@@ -5208,10 +5208,10 @@
     </row>
     <row r="119" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C119" s="9">
         <v>0</v>
@@ -5241,10 +5241,10 @@
     </row>
     <row r="120" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C120" s="9">
         <v>0</v>
@@ -5274,10 +5274,10 @@
     </row>
     <row r="121" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C121" s="9">
         <v>0</v>
@@ -5307,10 +5307,10 @@
     </row>
     <row r="122" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C122" s="9">
         <v>0</v>
@@ -5340,10 +5340,10 @@
     </row>
     <row r="123" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C123" s="9">
         <v>0</v>
@@ -5373,10 +5373,10 @@
     </row>
     <row r="124" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C124" s="9">
         <v>0</v>
@@ -5406,10 +5406,10 @@
     </row>
     <row r="125" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C125" s="9">
         <v>0</v>
@@ -5439,10 +5439,10 @@
     </row>
     <row r="126" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C126" s="9">
         <v>0</v>
@@ -5472,10 +5472,10 @@
     </row>
     <row r="127" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C127" s="9">
         <v>0</v>
@@ -5505,10 +5505,10 @@
     </row>
     <row r="128" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C128" s="9">
         <v>0</v>
@@ -5538,10 +5538,10 @@
     </row>
     <row r="129" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C129" s="9">
         <v>0</v>
@@ -5571,10 +5571,10 @@
     </row>
     <row r="130" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C130" s="9">
         <v>0</v>
@@ -5604,10 +5604,10 @@
     </row>
     <row r="131" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C131" s="9">
         <v>0</v>
@@ -5637,10 +5637,10 @@
     </row>
     <row r="132" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C132" s="9">
         <v>0</v>
@@ -5669,11 +5669,11 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>210</v>
+      <c r="A133" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="C133" s="9">
         <v>0</v>
@@ -5702,11 +5702,11 @@
       <c r="Y133" s="1"/>
     </row>
     <row r="134" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>213</v>
+      <c r="A134" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="C134" s="9">
         <v>0</v>
@@ -5736,10 +5736,10 @@
     </row>
     <row r="135" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="C135" s="9">
         <v>0</v>
@@ -5769,10 +5769,10 @@
     </row>
     <row r="136" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="C136" s="9">
         <v>0</v>
@@ -5802,10 +5802,10 @@
     </row>
     <row r="137" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C137" s="9">
         <v>0</v>
@@ -5835,10 +5835,10 @@
     </row>
     <row r="138" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C138" s="9">
         <v>0</v>
@@ -5868,10 +5868,10 @@
     </row>
     <row r="139" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C139" s="9">
         <v>0</v>
@@ -5901,10 +5901,10 @@
     </row>
     <row r="140" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C140" s="9">
         <v>0</v>
@@ -5934,10 +5934,10 @@
     </row>
     <row r="141" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C141" s="9">
         <v>0</v>
@@ -5966,11 +5966,11 @@
       <c r="Y141" s="1"/>
     </row>
     <row r="142" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>242</v>
+      <c r="A142" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="C142" s="9">
         <v>0</v>
@@ -5999,11 +5999,11 @@
       <c r="Y142" s="1"/>
     </row>
     <row r="143" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>244</v>
+      <c r="A143" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="C143" s="9">
         <v>0</v>
@@ -6033,10 +6033,10 @@
     </row>
     <row r="144" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C144" s="9">
         <v>0</v>
@@ -6066,10 +6066,10 @@
     </row>
     <row r="145" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C145" s="9">
         <v>0</v>
@@ -6099,10 +6099,10 @@
     </row>
     <row r="146" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C146" s="9">
         <v>0</v>
@@ -6132,10 +6132,10 @@
     </row>
     <row r="147" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="C147" s="9">
         <v>0</v>
@@ -6165,10 +6165,10 @@
     </row>
     <row r="148" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C148" s="9">
         <v>0</v>
@@ -6198,10 +6198,10 @@
     </row>
     <row r="149" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C149" s="9">
         <v>0</v>
@@ -6231,10 +6231,10 @@
     </row>
     <row r="150" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>92</v>
+        <v>257</v>
       </c>
       <c r="C150" s="9">
         <v>0</v>
@@ -6264,10 +6264,10 @@
     </row>
     <row r="151" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>260</v>
+        <v>92</v>
       </c>
       <c r="C151" s="9">
         <v>0</v>
@@ -6297,10 +6297,10 @@
     </row>
     <row r="152" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C152" s="9">
         <v>0</v>
@@ -6330,10 +6330,10 @@
     </row>
     <row r="153" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="C153" s="9">
         <v>0</v>
@@ -6363,10 +6363,10 @@
     </row>
     <row r="154" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="C154" s="9">
         <v>0</v>
@@ -6396,10 +6396,10 @@
     </row>
     <row r="155" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C155" s="9">
         <v>0</v>
@@ -6429,10 +6429,10 @@
     </row>
     <row r="156" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="C156" s="9">
         <v>0</v>
@@ -6462,10 +6462,10 @@
     </row>
     <row r="157" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="C157" s="9">
         <v>0</v>
@@ -6495,10 +6495,10 @@
     </row>
     <row r="158" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="C158" s="9">
         <v>0</v>
@@ -6528,10 +6528,10 @@
     </row>
     <row r="159" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C159" s="9">
         <v>0</v>
@@ -6561,10 +6561,10 @@
     </row>
     <row r="160" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C160" s="9">
         <v>0</v>
@@ -6594,10 +6594,10 @@
     </row>
     <row r="161" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C161" s="9">
         <v>0</v>
@@ -6626,11 +6626,11 @@
       <c r="Y161" s="1"/>
     </row>
     <row r="162" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="B162" s="13" t="s">
-        <v>281</v>
+      <c r="A162" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="C162" s="9">
         <v>0</v>
@@ -6659,11 +6659,11 @@
       <c r="Y162" s="1"/>
     </row>
     <row r="163" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>283</v>
+      <c r="A163" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>281</v>
       </c>
       <c r="C163" s="9">
         <v>0</v>
@@ -6691,10 +6691,16 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="1"/>
+    <row r="164" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C164" s="9">
+        <v>0</v>
+      </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -29128,9 +29134,36 @@
       <c r="X994" s="1"/>
       <c r="Y994" s="1"/>
     </row>
+    <row r="995" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A995" s="2"/>
+      <c r="B995" s="3"/>
+      <c r="C995" s="1"/>
+      <c r="D995" s="1"/>
+      <c r="E995" s="1"/>
+      <c r="F995" s="1"/>
+      <c r="G995" s="1"/>
+      <c r="H995" s="1"/>
+      <c r="I995" s="1"/>
+      <c r="J995" s="1"/>
+      <c r="K995" s="1"/>
+      <c r="L995" s="1"/>
+      <c r="M995" s="1"/>
+      <c r="N995" s="1"/>
+      <c r="O995" s="1"/>
+      <c r="P995" s="1"/>
+      <c r="Q995" s="1"/>
+      <c r="R995" s="1"/>
+      <c r="S995" s="1"/>
+      <c r="T995" s="1"/>
+      <c r="U995" s="1"/>
+      <c r="V995" s="1"/>
+      <c r="W995" s="1"/>
+      <c r="X995" s="1"/>
+      <c r="Y995" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C994">
-    <sortCondition ref="C28:C994"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C995">
+    <sortCondition ref="C29:C995"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/server/pattern/Pattern.xlsx
+++ b/server/pattern/Pattern.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\wi-backend\server\pattern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A329C7-911D-472D-BB9B-CC0BC0BA93BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFB141C-69BD-4B6F-8650-BE5D68E37719}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="2130" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pattern" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc493231929" localSheetId="0">pattern!$B$32</definedName>
+    <definedName name="_Toc493231929" localSheetId="0">pattern!$B$33</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -1299,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y995"/>
+  <dimension ref="A1:Y996"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2236,15 +2236,15 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>3</v>
+    <row r="29" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>2222</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2222</v>
       </c>
       <c r="C29" s="9">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2271,10 +2271,10 @@
     </row>
     <row r="30" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" s="9">
         <v>0</v>
@@ -2304,10 +2304,10 @@
     </row>
     <row r="31" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" s="9">
         <v>0</v>
@@ -2337,10 +2337,10 @@
     </row>
     <row r="32" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32" s="9">
         <v>0</v>
@@ -2370,10 +2370,10 @@
     </row>
     <row r="33" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33" s="9">
         <v>0</v>
@@ -2403,10 +2403,10 @@
     </row>
     <row r="34" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C34" s="9">
         <v>0</v>
@@ -2436,10 +2436,10 @@
     </row>
     <row r="35" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C35" s="9">
         <v>0</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="36" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C36" s="9">
         <v>0</v>
@@ -2502,10 +2502,10 @@
     </row>
     <row r="37" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C37" s="9">
         <v>0</v>
@@ -2535,10 +2535,10 @@
     </row>
     <row r="38" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C38" s="9">
         <v>0</v>
@@ -2568,10 +2568,10 @@
     </row>
     <row r="39" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" s="9">
         <v>0</v>
@@ -2601,10 +2601,10 @@
     </row>
     <row r="40" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C40" s="9">
         <v>0</v>
@@ -2634,10 +2634,10 @@
     </row>
     <row r="41" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C41" s="9">
         <v>0</v>
@@ -2667,10 +2667,10 @@
     </row>
     <row r="42" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" s="9">
         <v>0</v>
@@ -2700,10 +2700,10 @@
     </row>
     <row r="43" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C43" s="9">
         <v>0</v>
@@ -2733,10 +2733,10 @@
     </row>
     <row r="44" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C44" s="9">
         <v>0</v>
@@ -2766,10 +2766,10 @@
     </row>
     <row r="45" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C45" s="9">
         <v>0</v>
@@ -2799,10 +2799,10 @@
     </row>
     <row r="46" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C46" s="9">
         <v>0</v>
@@ -2832,10 +2832,10 @@
     </row>
     <row r="47" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C47" s="9">
         <v>0</v>
@@ -2865,10 +2865,10 @@
     </row>
     <row r="48" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C48" s="9">
         <v>0</v>
@@ -2898,10 +2898,10 @@
     </row>
     <row r="49" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C49" s="9">
         <v>0</v>
@@ -2931,10 +2931,10 @@
     </row>
     <row r="50" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C50" s="9">
         <v>0</v>
@@ -2964,10 +2964,10 @@
     </row>
     <row r="51" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="9">
         <v>0</v>
@@ -2997,10 +2997,10 @@
     </row>
     <row r="52" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="9">
         <v>0</v>
@@ -3030,10 +3030,10 @@
     </row>
     <row r="53" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" s="9">
         <v>0</v>
@@ -3063,10 +3063,10 @@
     </row>
     <row r="54" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="9">
         <v>0</v>
@@ -3096,10 +3096,10 @@
     </row>
     <row r="55" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="9">
         <v>0</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="56" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="9">
         <v>0</v>
@@ -3162,10 +3162,10 @@
     </row>
     <row r="57" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="9">
         <v>0</v>
@@ -3195,10 +3195,10 @@
     </row>
     <row r="58" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C58" s="9">
         <v>0</v>
@@ -3228,10 +3228,10 @@
     </row>
     <row r="59" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="9">
         <v>0</v>
@@ -3261,10 +3261,10 @@
     </row>
     <row r="60" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="9">
         <v>0</v>
@@ -3294,10 +3294,10 @@
     </row>
     <row r="61" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="9">
         <v>0</v>
@@ -3327,10 +3327,10 @@
     </row>
     <row r="62" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="9">
         <v>0</v>
@@ -3360,10 +3360,10 @@
     </row>
     <row r="63" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="9">
         <v>0</v>
@@ -3393,10 +3393,10 @@
     </row>
     <row r="64" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="9">
         <v>0</v>
@@ -3426,10 +3426,10 @@
     </row>
     <row r="65" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="9">
         <v>0</v>
@@ -3459,10 +3459,10 @@
     </row>
     <row r="66" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="9">
         <v>0</v>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="67" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="9">
         <v>0</v>
@@ -3525,10 +3525,10 @@
     </row>
     <row r="68" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="9">
         <v>0</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="69" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C69" s="9">
         <v>0</v>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="70" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C70" s="9">
         <v>0</v>
@@ -3624,10 +3624,10 @@
     </row>
     <row r="71" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C71" s="9">
         <v>0</v>
@@ -3657,10 +3657,10 @@
     </row>
     <row r="72" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="9">
         <v>0</v>
@@ -3690,10 +3690,10 @@
     </row>
     <row r="73" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C73" s="9">
         <v>0</v>
@@ -3723,10 +3723,10 @@
     </row>
     <row r="74" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C74" s="9">
         <v>0</v>
@@ -3756,10 +3756,10 @@
     </row>
     <row r="75" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C75" s="9">
         <v>0</v>
@@ -3789,10 +3789,10 @@
     </row>
     <row r="76" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C76" s="9">
         <v>0</v>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="77" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C77" s="9">
         <v>0</v>
@@ -3855,10 +3855,10 @@
     </row>
     <row r="78" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C78" s="9">
         <v>0</v>
@@ -3888,10 +3888,10 @@
     </row>
     <row r="79" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C79" s="9">
         <v>0</v>
@@ -3921,10 +3921,10 @@
     </row>
     <row r="80" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C80" s="9">
         <v>0</v>
@@ -3954,10 +3954,10 @@
     </row>
     <row r="81" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C81" s="9">
         <v>0</v>
@@ -3987,10 +3987,10 @@
     </row>
     <row r="82" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C82" s="9">
         <v>0</v>
@@ -4020,10 +4020,10 @@
     </row>
     <row r="83" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C83" s="9">
         <v>0</v>
@@ -4053,10 +4053,10 @@
     </row>
     <row r="84" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C84" s="9">
         <v>0</v>
@@ -4086,10 +4086,10 @@
     </row>
     <row r="85" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C85" s="9">
         <v>0</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="86" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C86" s="9">
         <v>0</v>
@@ -4152,10 +4152,10 @@
     </row>
     <row r="87" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C87" s="9">
         <v>0</v>
@@ -4185,10 +4185,10 @@
     </row>
     <row r="88" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C88" s="9">
         <v>0</v>
@@ -4218,10 +4218,10 @@
     </row>
     <row r="89" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C89" s="9">
         <v>0</v>
@@ -4251,10 +4251,10 @@
     </row>
     <row r="90" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C90" s="9">
         <v>0</v>
@@ -4284,10 +4284,10 @@
     </row>
     <row r="91" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C91" s="9">
         <v>0</v>
@@ -4317,10 +4317,10 @@
     </row>
     <row r="92" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C92" s="9">
         <v>0</v>
@@ -4350,10 +4350,10 @@
     </row>
     <row r="93" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C93" s="9">
         <v>0</v>
@@ -4383,10 +4383,10 @@
     </row>
     <row r="94" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C94" s="9">
         <v>0</v>
@@ -4416,10 +4416,10 @@
     </row>
     <row r="95" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C95" s="9">
         <v>0</v>
@@ -4449,10 +4449,10 @@
     </row>
     <row r="96" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C96" s="9">
         <v>0</v>
@@ -4482,10 +4482,10 @@
     </row>
     <row r="97" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C97" s="9">
         <v>0</v>
@@ -4515,10 +4515,10 @@
     </row>
     <row r="98" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C98" s="9">
         <v>0</v>
@@ -4548,10 +4548,10 @@
     </row>
     <row r="99" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C99" s="9">
         <v>0</v>
@@ -4581,10 +4581,10 @@
     </row>
     <row r="100" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C100" s="9">
         <v>0</v>
@@ -4614,10 +4614,10 @@
     </row>
     <row r="101" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C101" s="9">
         <v>0</v>
@@ -4647,10 +4647,10 @@
     </row>
     <row r="102" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C102" s="9">
         <v>0</v>
@@ -4680,10 +4680,10 @@
     </row>
     <row r="103" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C103" s="9">
         <v>0</v>
@@ -4713,10 +4713,10 @@
     </row>
     <row r="104" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C104" s="9">
         <v>0</v>
@@ -4746,10 +4746,10 @@
     </row>
     <row r="105" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C105" s="9">
         <v>0</v>
@@ -4782,7 +4782,7 @@
         <v>160</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C106" s="9">
         <v>0</v>
@@ -4812,10 +4812,10 @@
     </row>
     <row r="107" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C107" s="9">
         <v>0</v>
@@ -4845,10 +4845,10 @@
     </row>
     <row r="108" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C108" s="9">
         <v>0</v>
@@ -4878,10 +4878,10 @@
     </row>
     <row r="109" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C109" s="9">
         <v>0</v>
@@ -4911,10 +4911,10 @@
     </row>
     <row r="110" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C110" s="9">
         <v>0</v>
@@ -4944,10 +4944,10 @@
     </row>
     <row r="111" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C111" s="9">
         <v>0</v>
@@ -4977,10 +4977,10 @@
     </row>
     <row r="112" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C112" s="9">
         <v>0</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="113" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C113" s="9">
         <v>0</v>
@@ -5043,10 +5043,10 @@
     </row>
     <row r="114" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="C114" s="9">
         <v>0</v>
@@ -5076,10 +5076,10 @@
     </row>
     <row r="115" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="C115" s="9">
         <v>0</v>
@@ -5109,10 +5109,10 @@
     </row>
     <row r="116" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C116" s="9">
         <v>0</v>
@@ -5142,10 +5142,10 @@
     </row>
     <row r="117" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C117" s="9">
         <v>0</v>
@@ -5175,10 +5175,10 @@
     </row>
     <row r="118" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C118" s="9">
         <v>0</v>
@@ -5208,10 +5208,10 @@
     </row>
     <row r="119" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C119" s="9">
         <v>0</v>
@@ -5241,10 +5241,10 @@
     </row>
     <row r="120" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C120" s="9">
         <v>0</v>
@@ -5274,10 +5274,10 @@
     </row>
     <row r="121" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C121" s="9">
         <v>0</v>
@@ -5307,10 +5307,10 @@
     </row>
     <row r="122" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C122" s="9">
         <v>0</v>
@@ -5340,10 +5340,10 @@
     </row>
     <row r="123" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C123" s="9">
         <v>0</v>
@@ -5373,10 +5373,10 @@
     </row>
     <row r="124" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C124" s="9">
         <v>0</v>
@@ -5406,10 +5406,10 @@
     </row>
     <row r="125" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C125" s="9">
         <v>0</v>
@@ -5439,10 +5439,10 @@
     </row>
     <row r="126" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C126" s="9">
         <v>0</v>
@@ -5472,10 +5472,10 @@
     </row>
     <row r="127" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C127" s="9">
         <v>0</v>
@@ -5505,10 +5505,10 @@
     </row>
     <row r="128" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C128" s="9">
         <v>0</v>
@@ -5538,10 +5538,10 @@
     </row>
     <row r="129" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C129" s="9">
         <v>0</v>
@@ -5571,10 +5571,10 @@
     </row>
     <row r="130" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C130" s="9">
         <v>0</v>
@@ -5604,10 +5604,10 @@
     </row>
     <row r="131" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C131" s="9">
         <v>0</v>
@@ -5637,10 +5637,10 @@
     </row>
     <row r="132" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C132" s="9">
         <v>0</v>
@@ -5670,10 +5670,10 @@
     </row>
     <row r="133" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C133" s="9">
         <v>0</v>
@@ -5702,11 +5702,11 @@
       <c r="Y133" s="1"/>
     </row>
     <row r="134" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>210</v>
+      <c r="A134" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="C134" s="9">
         <v>0</v>
@@ -5735,11 +5735,11 @@
       <c r="Y134" s="1"/>
     </row>
     <row r="135" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>213</v>
+      <c r="A135" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="C135" s="9">
         <v>0</v>
@@ -5769,10 +5769,10 @@
     </row>
     <row r="136" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="C136" s="9">
         <v>0</v>
@@ -5802,10 +5802,10 @@
     </row>
     <row r="137" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="C137" s="9">
         <v>0</v>
@@ -5835,10 +5835,10 @@
     </row>
     <row r="138" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C138" s="9">
         <v>0</v>
@@ -5868,10 +5868,10 @@
     </row>
     <row r="139" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C139" s="9">
         <v>0</v>
@@ -5901,10 +5901,10 @@
     </row>
     <row r="140" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C140" s="9">
         <v>0</v>
@@ -5934,10 +5934,10 @@
     </row>
     <row r="141" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C141" s="9">
         <v>0</v>
@@ -5967,10 +5967,10 @@
     </row>
     <row r="142" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C142" s="9">
         <v>0</v>
@@ -5999,11 +5999,11 @@
       <c r="Y142" s="1"/>
     </row>
     <row r="143" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>242</v>
+      <c r="A143" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="C143" s="9">
         <v>0</v>
@@ -6032,11 +6032,11 @@
       <c r="Y143" s="1"/>
     </row>
     <row r="144" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>244</v>
+      <c r="A144" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="C144" s="9">
         <v>0</v>
@@ -6066,10 +6066,10 @@
     </row>
     <row r="145" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C145" s="9">
         <v>0</v>
@@ -6099,10 +6099,10 @@
     </row>
     <row r="146" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C146" s="9">
         <v>0</v>
@@ -6132,10 +6132,10 @@
     </row>
     <row r="147" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C147" s="9">
         <v>0</v>
@@ -6165,10 +6165,10 @@
     </row>
     <row r="148" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="C148" s="9">
         <v>0</v>
@@ -6198,10 +6198,10 @@
     </row>
     <row r="149" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C149" s="9">
         <v>0</v>
@@ -6231,10 +6231,10 @@
     </row>
     <row r="150" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C150" s="9">
         <v>0</v>
@@ -6264,10 +6264,10 @@
     </row>
     <row r="151" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>92</v>
+        <v>257</v>
       </c>
       <c r="C151" s="9">
         <v>0</v>
@@ -6297,10 +6297,10 @@
     </row>
     <row r="152" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>260</v>
+        <v>92</v>
       </c>
       <c r="C152" s="9">
         <v>0</v>
@@ -6330,10 +6330,10 @@
     </row>
     <row r="153" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C153" s="9">
         <v>0</v>
@@ -6363,10 +6363,10 @@
     </row>
     <row r="154" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="C154" s="9">
         <v>0</v>
@@ -6396,10 +6396,10 @@
     </row>
     <row r="155" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="C155" s="9">
         <v>0</v>
@@ -6429,10 +6429,10 @@
     </row>
     <row r="156" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C156" s="9">
         <v>0</v>
@@ -6462,10 +6462,10 @@
     </row>
     <row r="157" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="C157" s="9">
         <v>0</v>
@@ -6495,10 +6495,10 @@
     </row>
     <row r="158" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="C158" s="9">
         <v>0</v>
@@ -6528,10 +6528,10 @@
     </row>
     <row r="159" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="C159" s="9">
         <v>0</v>
@@ -6561,10 +6561,10 @@
     </row>
     <row r="160" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C160" s="9">
         <v>0</v>
@@ -6594,10 +6594,10 @@
     </row>
     <row r="161" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C161" s="9">
         <v>0</v>
@@ -6627,10 +6627,10 @@
     </row>
     <row r="162" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C162" s="9">
         <v>0</v>
@@ -6659,11 +6659,11 @@
       <c r="Y162" s="1"/>
     </row>
     <row r="163" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="B163" s="13" t="s">
-        <v>281</v>
+      <c r="A163" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="C163" s="9">
         <v>0</v>
@@ -6692,11 +6692,11 @@
       <c r="Y163" s="1"/>
     </row>
     <row r="164" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>283</v>
+      <c r="A164" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>281</v>
       </c>
       <c r="C164" s="9">
         <v>0</v>
@@ -6724,10 +6724,16 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="1"/>
+    <row r="165" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C165" s="9">
+        <v>0</v>
+      </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -29161,9 +29167,36 @@
       <c r="X995" s="1"/>
       <c r="Y995" s="1"/>
     </row>
+    <row r="996" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A996" s="2"/>
+      <c r="B996" s="3"/>
+      <c r="C996" s="1"/>
+      <c r="D996" s="1"/>
+      <c r="E996" s="1"/>
+      <c r="F996" s="1"/>
+      <c r="G996" s="1"/>
+      <c r="H996" s="1"/>
+      <c r="I996" s="1"/>
+      <c r="J996" s="1"/>
+      <c r="K996" s="1"/>
+      <c r="L996" s="1"/>
+      <c r="M996" s="1"/>
+      <c r="N996" s="1"/>
+      <c r="O996" s="1"/>
+      <c r="P996" s="1"/>
+      <c r="Q996" s="1"/>
+      <c r="R996" s="1"/>
+      <c r="S996" s="1"/>
+      <c r="T996" s="1"/>
+      <c r="U996" s="1"/>
+      <c r="V996" s="1"/>
+      <c r="W996" s="1"/>
+      <c r="X996" s="1"/>
+      <c r="Y996" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C995">
-    <sortCondition ref="C29:C995"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C996">
+    <sortCondition ref="C30:C996"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/server/pattern/Pattern.xlsx
+++ b/server/pattern/Pattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\wi-backend\server\pattern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFB141C-69BD-4B6F-8650-BE5D68E37719}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3172E8EF-2153-46F8-A353-06E8B2776499}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="pattern" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc493231929" localSheetId="0">pattern!$B$33</definedName>
+    <definedName name="_Toc493231929" localSheetId="0">pattern!$B$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="293">
   <si>
     <t>Name</t>
   </si>
@@ -900,6 +900,9 @@
   <si>
     <t>Serration</t>
   </si>
+  <si>
+    <t>a</t>
+  </si>
 </sst>
 </file>
 
@@ -1299,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y996"/>
+  <dimension ref="A1:Y997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2269,15 +2272,15 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>2</v>
+        <v>292</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="C30" s="9">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2304,10 +2307,10 @@
     </row>
     <row r="31" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="9">
         <v>0</v>
@@ -2337,10 +2340,10 @@
     </row>
     <row r="32" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" s="9">
         <v>0</v>
@@ -2370,10 +2373,10 @@
     </row>
     <row r="33" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" s="9">
         <v>0</v>
@@ -2403,10 +2406,10 @@
     </row>
     <row r="34" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34" s="9">
         <v>0</v>
@@ -2436,10 +2439,10 @@
     </row>
     <row r="35" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C35" s="9">
         <v>0</v>
@@ -2469,10 +2472,10 @@
     </row>
     <row r="36" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C36" s="9">
         <v>0</v>
@@ -2502,10 +2505,10 @@
     </row>
     <row r="37" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C37" s="9">
         <v>0</v>
@@ -2535,10 +2538,10 @@
     </row>
     <row r="38" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C38" s="9">
         <v>0</v>
@@ -2568,10 +2571,10 @@
     </row>
     <row r="39" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C39" s="9">
         <v>0</v>
@@ -2601,10 +2604,10 @@
     </row>
     <row r="40" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C40" s="9">
         <v>0</v>
@@ -2634,10 +2637,10 @@
     </row>
     <row r="41" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C41" s="9">
         <v>0</v>
@@ -2667,10 +2670,10 @@
     </row>
     <row r="42" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C42" s="9">
         <v>0</v>
@@ -2700,10 +2703,10 @@
     </row>
     <row r="43" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" s="9">
         <v>0</v>
@@ -2733,10 +2736,10 @@
     </row>
     <row r="44" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C44" s="9">
         <v>0</v>
@@ -2766,10 +2769,10 @@
     </row>
     <row r="45" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C45" s="9">
         <v>0</v>
@@ -2799,10 +2802,10 @@
     </row>
     <row r="46" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C46" s="9">
         <v>0</v>
@@ -2832,10 +2835,10 @@
     </row>
     <row r="47" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C47" s="9">
         <v>0</v>
@@ -2865,10 +2868,10 @@
     </row>
     <row r="48" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C48" s="9">
         <v>0</v>
@@ -2898,10 +2901,10 @@
     </row>
     <row r="49" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C49" s="9">
         <v>0</v>
@@ -2931,10 +2934,10 @@
     </row>
     <row r="50" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C50" s="9">
         <v>0</v>
@@ -2964,10 +2967,10 @@
     </row>
     <row r="51" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C51" s="9">
         <v>0</v>
@@ -2997,10 +3000,10 @@
     </row>
     <row r="52" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" s="9">
         <v>0</v>
@@ -3030,10 +3033,10 @@
     </row>
     <row r="53" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" s="9">
         <v>0</v>
@@ -3063,10 +3066,10 @@
     </row>
     <row r="54" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C54" s="9">
         <v>0</v>
@@ -3096,10 +3099,10 @@
     </row>
     <row r="55" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C55" s="9">
         <v>0</v>
@@ -3129,10 +3132,10 @@
     </row>
     <row r="56" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C56" s="9">
         <v>0</v>
@@ -3162,10 +3165,10 @@
     </row>
     <row r="57" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="9">
         <v>0</v>
@@ -3195,10 +3198,10 @@
     </row>
     <row r="58" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" s="9">
         <v>0</v>
@@ -3228,10 +3231,10 @@
     </row>
     <row r="59" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C59" s="9">
         <v>0</v>
@@ -3261,10 +3264,10 @@
     </row>
     <row r="60" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="9">
         <v>0</v>
@@ -3294,10 +3297,10 @@
     </row>
     <row r="61" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="9">
         <v>0</v>
@@ -3327,10 +3330,10 @@
     </row>
     <row r="62" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="9">
         <v>0</v>
@@ -3360,10 +3363,10 @@
     </row>
     <row r="63" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="9">
         <v>0</v>
@@ -3393,10 +3396,10 @@
     </row>
     <row r="64" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="9">
         <v>0</v>
@@ -3426,10 +3429,10 @@
     </row>
     <row r="65" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="9">
         <v>0</v>
@@ -3459,10 +3462,10 @@
     </row>
     <row r="66" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="9">
         <v>0</v>
@@ -3492,10 +3495,10 @@
     </row>
     <row r="67" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="9">
         <v>0</v>
@@ -3525,10 +3528,10 @@
     </row>
     <row r="68" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="9">
         <v>0</v>
@@ -3558,10 +3561,10 @@
     </row>
     <row r="69" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="9">
         <v>0</v>
@@ -3591,10 +3594,10 @@
     </row>
     <row r="70" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" s="9">
         <v>0</v>
@@ -3624,10 +3627,10 @@
     </row>
     <row r="71" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C71" s="9">
         <v>0</v>
@@ -3657,10 +3660,10 @@
     </row>
     <row r="72" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C72" s="9">
         <v>0</v>
@@ -3690,10 +3693,10 @@
     </row>
     <row r="73" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C73" s="9">
         <v>0</v>
@@ -3723,10 +3726,10 @@
     </row>
     <row r="74" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C74" s="9">
         <v>0</v>
@@ -3756,10 +3759,10 @@
     </row>
     <row r="75" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C75" s="9">
         <v>0</v>
@@ -3789,10 +3792,10 @@
     </row>
     <row r="76" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C76" s="9">
         <v>0</v>
@@ -3822,10 +3825,10 @@
     </row>
     <row r="77" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C77" s="9">
         <v>0</v>
@@ -3855,10 +3858,10 @@
     </row>
     <row r="78" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C78" s="9">
         <v>0</v>
@@ -3888,10 +3891,10 @@
     </row>
     <row r="79" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C79" s="9">
         <v>0</v>
@@ -3921,10 +3924,10 @@
     </row>
     <row r="80" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C80" s="9">
         <v>0</v>
@@ -3954,10 +3957,10 @@
     </row>
     <row r="81" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C81" s="9">
         <v>0</v>
@@ -3987,10 +3990,10 @@
     </row>
     <row r="82" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C82" s="9">
         <v>0</v>
@@ -4020,10 +4023,10 @@
     </row>
     <row r="83" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C83" s="9">
         <v>0</v>
@@ -4053,10 +4056,10 @@
     </row>
     <row r="84" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C84" s="9">
         <v>0</v>
@@ -4086,10 +4089,10 @@
     </row>
     <row r="85" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C85" s="9">
         <v>0</v>
@@ -4119,10 +4122,10 @@
     </row>
     <row r="86" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C86" s="9">
         <v>0</v>
@@ -4152,10 +4155,10 @@
     </row>
     <row r="87" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C87" s="9">
         <v>0</v>
@@ -4185,10 +4188,10 @@
     </row>
     <row r="88" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C88" s="9">
         <v>0</v>
@@ -4218,10 +4221,10 @@
     </row>
     <row r="89" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C89" s="9">
         <v>0</v>
@@ -4251,10 +4254,10 @@
     </row>
     <row r="90" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C90" s="9">
         <v>0</v>
@@ -4284,10 +4287,10 @@
     </row>
     <row r="91" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C91" s="9">
         <v>0</v>
@@ -4317,10 +4320,10 @@
     </row>
     <row r="92" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C92" s="9">
         <v>0</v>
@@ -4350,10 +4353,10 @@
     </row>
     <row r="93" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C93" s="9">
         <v>0</v>
@@ -4383,10 +4386,10 @@
     </row>
     <row r="94" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C94" s="9">
         <v>0</v>
@@ -4416,10 +4419,10 @@
     </row>
     <row r="95" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C95" s="9">
         <v>0</v>
@@ -4449,10 +4452,10 @@
     </row>
     <row r="96" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C96" s="9">
         <v>0</v>
@@ -4482,10 +4485,10 @@
     </row>
     <row r="97" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C97" s="9">
         <v>0</v>
@@ -4515,10 +4518,10 @@
     </row>
     <row r="98" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C98" s="9">
         <v>0</v>
@@ -4548,10 +4551,10 @@
     </row>
     <row r="99" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C99" s="9">
         <v>0</v>
@@ -4581,10 +4584,10 @@
     </row>
     <row r="100" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C100" s="9">
         <v>0</v>
@@ -4614,10 +4617,10 @@
     </row>
     <row r="101" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C101" s="9">
         <v>0</v>
@@ -4647,10 +4650,10 @@
     </row>
     <row r="102" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C102" s="9">
         <v>0</v>
@@ -4680,10 +4683,10 @@
     </row>
     <row r="103" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C103" s="9">
         <v>0</v>
@@ -4713,10 +4716,10 @@
     </row>
     <row r="104" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C104" s="9">
         <v>0</v>
@@ -4746,10 +4749,10 @@
     </row>
     <row r="105" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C105" s="9">
         <v>0</v>
@@ -4779,10 +4782,10 @@
     </row>
     <row r="106" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C106" s="9">
         <v>0</v>
@@ -4815,7 +4818,7 @@
         <v>160</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C107" s="9">
         <v>0</v>
@@ -4845,10 +4848,10 @@
     </row>
     <row r="108" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C108" s="9">
         <v>0</v>
@@ -4878,10 +4881,10 @@
     </row>
     <row r="109" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C109" s="9">
         <v>0</v>
@@ -4911,10 +4914,10 @@
     </row>
     <row r="110" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C110" s="9">
         <v>0</v>
@@ -4944,10 +4947,10 @@
     </row>
     <row r="111" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C111" s="9">
         <v>0</v>
@@ -4977,10 +4980,10 @@
     </row>
     <row r="112" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C112" s="9">
         <v>0</v>
@@ -5010,10 +5013,10 @@
     </row>
     <row r="113" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C113" s="9">
         <v>0</v>
@@ -5043,10 +5046,10 @@
     </row>
     <row r="114" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C114" s="9">
         <v>0</v>
@@ -5076,10 +5079,10 @@
     </row>
     <row r="115" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="C115" s="9">
         <v>0</v>
@@ -5109,10 +5112,10 @@
     </row>
     <row r="116" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="C116" s="9">
         <v>0</v>
@@ -5142,10 +5145,10 @@
     </row>
     <row r="117" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C117" s="9">
         <v>0</v>
@@ -5175,10 +5178,10 @@
     </row>
     <row r="118" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C118" s="9">
         <v>0</v>
@@ -5208,10 +5211,10 @@
     </row>
     <row r="119" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C119" s="9">
         <v>0</v>
@@ -5241,10 +5244,10 @@
     </row>
     <row r="120" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C120" s="9">
         <v>0</v>
@@ -5274,10 +5277,10 @@
     </row>
     <row r="121" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C121" s="9">
         <v>0</v>
@@ -5307,10 +5310,10 @@
     </row>
     <row r="122" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C122" s="9">
         <v>0</v>
@@ -5340,10 +5343,10 @@
     </row>
     <row r="123" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C123" s="9">
         <v>0</v>
@@ -5373,10 +5376,10 @@
     </row>
     <row r="124" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C124" s="9">
         <v>0</v>
@@ -5406,10 +5409,10 @@
     </row>
     <row r="125" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C125" s="9">
         <v>0</v>
@@ -5439,10 +5442,10 @@
     </row>
     <row r="126" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C126" s="9">
         <v>0</v>
@@ -5472,10 +5475,10 @@
     </row>
     <row r="127" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C127" s="9">
         <v>0</v>
@@ -5505,10 +5508,10 @@
     </row>
     <row r="128" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C128" s="9">
         <v>0</v>
@@ -5538,10 +5541,10 @@
     </row>
     <row r="129" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C129" s="9">
         <v>0</v>
@@ -5571,10 +5574,10 @@
     </row>
     <row r="130" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C130" s="9">
         <v>0</v>
@@ -5604,10 +5607,10 @@
     </row>
     <row r="131" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C131" s="9">
         <v>0</v>
@@ -5637,10 +5640,10 @@
     </row>
     <row r="132" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C132" s="9">
         <v>0</v>
@@ -5670,10 +5673,10 @@
     </row>
     <row r="133" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C133" s="9">
         <v>0</v>
@@ -5703,10 +5706,10 @@
     </row>
     <row r="134" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C134" s="9">
         <v>0</v>
@@ -5735,11 +5738,11 @@
       <c r="Y134" s="1"/>
     </row>
     <row r="135" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>210</v>
+      <c r="A135" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="C135" s="9">
         <v>0</v>
@@ -5768,11 +5771,11 @@
       <c r="Y135" s="1"/>
     </row>
     <row r="136" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>213</v>
+      <c r="A136" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="C136" s="9">
         <v>0</v>
@@ -5802,10 +5805,10 @@
     </row>
     <row r="137" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="C137" s="9">
         <v>0</v>
@@ -5835,10 +5838,10 @@
     </row>
     <row r="138" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="C138" s="9">
         <v>0</v>
@@ -5868,10 +5871,10 @@
     </row>
     <row r="139" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C139" s="9">
         <v>0</v>
@@ -5901,10 +5904,10 @@
     </row>
     <row r="140" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C140" s="9">
         <v>0</v>
@@ -5934,10 +5937,10 @@
     </row>
     <row r="141" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C141" s="9">
         <v>0</v>
@@ -5967,10 +5970,10 @@
     </row>
     <row r="142" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C142" s="9">
         <v>0</v>
@@ -6000,10 +6003,10 @@
     </row>
     <row r="143" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C143" s="9">
         <v>0</v>
@@ -6032,11 +6035,11 @@
       <c r="Y143" s="1"/>
     </row>
     <row r="144" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>242</v>
+      <c r="A144" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="C144" s="9">
         <v>0</v>
@@ -6065,11 +6068,11 @@
       <c r="Y144" s="1"/>
     </row>
     <row r="145" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>244</v>
+      <c r="A145" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="C145" s="9">
         <v>0</v>
@@ -6099,10 +6102,10 @@
     </row>
     <row r="146" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C146" s="9">
         <v>0</v>
@@ -6132,10 +6135,10 @@
     </row>
     <row r="147" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C147" s="9">
         <v>0</v>
@@ -6165,10 +6168,10 @@
     </row>
     <row r="148" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C148" s="9">
         <v>0</v>
@@ -6198,10 +6201,10 @@
     </row>
     <row r="149" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="C149" s="9">
         <v>0</v>
@@ -6231,10 +6234,10 @@
     </row>
     <row r="150" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C150" s="9">
         <v>0</v>
@@ -6264,10 +6267,10 @@
     </row>
     <row r="151" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C151" s="9">
         <v>0</v>
@@ -6297,10 +6300,10 @@
     </row>
     <row r="152" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>92</v>
+        <v>257</v>
       </c>
       <c r="C152" s="9">
         <v>0</v>
@@ -6330,10 +6333,10 @@
     </row>
     <row r="153" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>260</v>
+        <v>92</v>
       </c>
       <c r="C153" s="9">
         <v>0</v>
@@ -6363,10 +6366,10 @@
     </row>
     <row r="154" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C154" s="9">
         <v>0</v>
@@ -6396,10 +6399,10 @@
     </row>
     <row r="155" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="C155" s="9">
         <v>0</v>
@@ -6429,10 +6432,10 @@
     </row>
     <row r="156" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="C156" s="9">
         <v>0</v>
@@ -6462,10 +6465,10 @@
     </row>
     <row r="157" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C157" s="9">
         <v>0</v>
@@ -6495,10 +6498,10 @@
     </row>
     <row r="158" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="C158" s="9">
         <v>0</v>
@@ -6528,10 +6531,10 @@
     </row>
     <row r="159" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="C159" s="9">
         <v>0</v>
@@ -6561,10 +6564,10 @@
     </row>
     <row r="160" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="C160" s="9">
         <v>0</v>
@@ -6594,10 +6597,10 @@
     </row>
     <row r="161" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C161" s="9">
         <v>0</v>
@@ -6627,10 +6630,10 @@
     </row>
     <row r="162" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C162" s="9">
         <v>0</v>
@@ -6660,10 +6663,10 @@
     </row>
     <row r="163" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C163" s="9">
         <v>0</v>
@@ -6692,11 +6695,11 @@
       <c r="Y163" s="1"/>
     </row>
     <row r="164" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="B164" s="13" t="s">
-        <v>281</v>
+      <c r="A164" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="C164" s="9">
         <v>0</v>
@@ -6725,11 +6728,11 @@
       <c r="Y164" s="1"/>
     </row>
     <row r="165" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>283</v>
+      <c r="A165" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>281</v>
       </c>
       <c r="C165" s="9">
         <v>0</v>
@@ -6757,10 +6760,16 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="1"/>
+    <row r="166" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C166" s="9">
+        <v>0</v>
+      </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -29194,9 +29203,36 @@
       <c r="X996" s="1"/>
       <c r="Y996" s="1"/>
     </row>
+    <row r="997" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A997" s="2"/>
+      <c r="B997" s="3"/>
+      <c r="C997" s="1"/>
+      <c r="D997" s="1"/>
+      <c r="E997" s="1"/>
+      <c r="F997" s="1"/>
+      <c r="G997" s="1"/>
+      <c r="H997" s="1"/>
+      <c r="I997" s="1"/>
+      <c r="J997" s="1"/>
+      <c r="K997" s="1"/>
+      <c r="L997" s="1"/>
+      <c r="M997" s="1"/>
+      <c r="N997" s="1"/>
+      <c r="O997" s="1"/>
+      <c r="P997" s="1"/>
+      <c r="Q997" s="1"/>
+      <c r="R997" s="1"/>
+      <c r="S997" s="1"/>
+      <c r="T997" s="1"/>
+      <c r="U997" s="1"/>
+      <c r="V997" s="1"/>
+      <c r="W997" s="1"/>
+      <c r="X997" s="1"/>
+      <c r="Y997" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C996">
-    <sortCondition ref="C30:C996"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C997">
+    <sortCondition ref="C31:C997"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/server/pattern/Pattern.xlsx
+++ b/server/pattern/Pattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\wi-backend\server\pattern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3172E8EF-2153-46F8-A353-06E8B2776499}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AC0754-157F-4478-B9BE-72AF2D78D80E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="pattern" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc493231929" localSheetId="0">pattern!$B$34</definedName>
+    <definedName name="_Toc493231929" localSheetId="0">pattern!$B$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="292">
   <si>
     <t>Name</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>Clastic limestone</t>
-  </si>
-  <si>
-    <t>Clay_shale</t>
   </si>
   <si>
     <t>Clay or clay shale</t>
@@ -460,9 +457,6 @@
     <t>Loess</t>
   </si>
   <si>
-    <t>Sandstone9</t>
-  </si>
-  <si>
     <t>Massive sand or sandstone</t>
   </si>
   <si>
@@ -730,9 +724,6 @@
     <t>Fayalite</t>
   </si>
   <si>
-    <t>point</t>
-  </si>
-  <si>
     <t>Quartz</t>
   </si>
   <si>
@@ -901,7 +892,13 @@
     <t>Serration</t>
   </si>
   <si>
-    <t>a</t>
+    <t>Sandstone9_</t>
+  </si>
+  <si>
+    <t>point_</t>
+  </si>
+  <si>
+    <t>Clay_shale_</t>
   </si>
 </sst>
 </file>
@@ -1302,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y997"/>
+  <dimension ref="A1:Y994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1323,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1350,10 +1347,10 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>289</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -1383,10 +1380,10 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C3" s="9">
         <v>2</v>
@@ -1416,10 +1413,10 @@
     </row>
     <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="C4" s="9">
         <v>3</v>
@@ -1449,10 +1446,10 @@
     </row>
     <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C5" s="9">
         <v>4</v>
@@ -1482,10 +1479,10 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="9">
         <v>5</v>
@@ -1515,10 +1512,10 @@
     </row>
     <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
@@ -1548,10 +1545,10 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C8" s="9">
         <v>7</v>
@@ -1581,10 +1578,10 @@
     </row>
     <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C9" s="9">
         <v>8</v>
@@ -1614,10 +1611,10 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" s="9">
         <v>9</v>
@@ -1647,10 +1644,10 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C11" s="9">
         <v>10</v>
@@ -1713,10 +1710,10 @@
     </row>
     <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="9">
         <v>12</v>
@@ -1746,10 +1743,10 @@
     </row>
     <row r="14" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C14" s="9">
         <v>13</v>
@@ -1779,10 +1776,10 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C15" s="9">
         <v>14</v>
@@ -1812,10 +1809,10 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="9">
         <v>15</v>
@@ -1845,10 +1842,10 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="9">
         <v>16</v>
@@ -1878,10 +1875,10 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C18" s="9">
         <v>17</v>
@@ -1911,10 +1908,10 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C19" s="9">
         <v>18</v>
@@ -1944,10 +1941,10 @@
     </row>
     <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C20" s="9">
         <v>19</v>
@@ -2010,10 +2007,10 @@
     </row>
     <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C22" s="9">
         <v>21</v>
@@ -2043,10 +2040,10 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="C23" s="9">
         <v>22</v>
@@ -2076,10 +2073,10 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C24" s="9">
         <v>23</v>
@@ -2109,10 +2106,10 @@
     </row>
     <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C25" s="9">
         <v>24</v>
@@ -2142,10 +2139,10 @@
     </row>
     <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C26" s="9">
         <v>25</v>
@@ -2175,10 +2172,10 @@
     </row>
     <row r="27" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C27" s="9">
         <v>26</v>
@@ -2206,15 +2203,15 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>1111</v>
-      </c>
-      <c r="B28" s="5">
-        <v>1111</v>
+    <row r="28" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C28" s="9">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2239,15 +2236,15 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>2222</v>
-      </c>
-      <c r="B29" s="5">
-        <v>2222</v>
+    <row r="29" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C29" s="9">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2272,15 +2269,15 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>292</v>
+        <v>7</v>
       </c>
       <c r="C30" s="9">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2307,10 +2304,10 @@
     </row>
     <row r="31" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C31" s="9">
         <v>0</v>
@@ -2340,10 +2337,10 @@
     </row>
     <row r="32" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C32" s="9">
         <v>0</v>
@@ -2373,10 +2370,10 @@
     </row>
     <row r="33" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C33" s="9">
         <v>0</v>
@@ -2406,10 +2403,10 @@
     </row>
     <row r="34" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C34" s="9">
         <v>0</v>
@@ -2439,10 +2436,10 @@
     </row>
     <row r="35" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C35" s="9">
         <v>0</v>
@@ -2472,10 +2469,10 @@
     </row>
     <row r="36" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C36" s="9">
         <v>0</v>
@@ -2505,10 +2502,10 @@
     </row>
     <row r="37" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C37" s="9">
         <v>0</v>
@@ -2538,10 +2535,10 @@
     </row>
     <row r="38" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C38" s="9">
         <v>0</v>
@@ -2571,10 +2568,10 @@
     </row>
     <row r="39" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C39" s="9">
         <v>0</v>
@@ -2604,10 +2601,10 @@
     </row>
     <row r="40" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C40" s="9">
         <v>0</v>
@@ -2637,10 +2634,10 @@
     </row>
     <row r="41" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C41" s="9">
         <v>0</v>
@@ -2670,10 +2667,10 @@
     </row>
     <row r="42" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C42" s="9">
         <v>0</v>
@@ -2703,10 +2700,10 @@
     </row>
     <row r="43" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C43" s="9">
         <v>0</v>
@@ -2736,10 +2733,10 @@
     </row>
     <row r="44" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C44" s="9">
         <v>0</v>
@@ -2769,10 +2766,10 @@
     </row>
     <row r="45" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C45" s="9">
         <v>0</v>
@@ -2802,10 +2799,10 @@
     </row>
     <row r="46" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C46" s="9">
         <v>0</v>
@@ -2835,10 +2832,10 @@
     </row>
     <row r="47" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C47" s="9">
         <v>0</v>
@@ -2868,10 +2865,10 @@
     </row>
     <row r="48" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C48" s="9">
         <v>0</v>
@@ -2901,10 +2898,10 @@
     </row>
     <row r="49" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C49" s="9">
         <v>0</v>
@@ -2934,10 +2931,10 @@
     </row>
     <row r="50" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C50" s="9">
         <v>0</v>
@@ -2967,10 +2964,10 @@
     </row>
     <row r="51" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C51" s="9">
         <v>0</v>
@@ -3000,10 +2997,10 @@
     </row>
     <row r="52" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C52" s="9">
         <v>0</v>
@@ -3033,10 +3030,10 @@
     </row>
     <row r="53" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C53" s="9">
         <v>0</v>
@@ -3066,10 +3063,10 @@
     </row>
     <row r="54" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C54" s="9">
         <v>0</v>
@@ -3099,10 +3096,10 @@
     </row>
     <row r="55" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C55" s="9">
         <v>0</v>
@@ -3132,10 +3129,10 @@
     </row>
     <row r="56" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C56" s="9">
         <v>0</v>
@@ -3165,10 +3162,10 @@
     </row>
     <row r="57" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C57" s="9">
         <v>0</v>
@@ -3198,10 +3195,10 @@
     </row>
     <row r="58" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C58" s="9">
         <v>0</v>
@@ -3231,10 +3228,10 @@
     </row>
     <row r="59" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C59" s="9">
         <v>0</v>
@@ -3264,10 +3261,10 @@
     </row>
     <row r="60" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C60" s="9">
         <v>0</v>
@@ -3297,10 +3294,10 @@
     </row>
     <row r="61" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C61" s="9">
         <v>0</v>
@@ -3330,10 +3327,10 @@
     </row>
     <row r="62" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C62" s="9">
         <v>0</v>
@@ -3363,10 +3360,10 @@
     </row>
     <row r="63" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C63" s="9">
         <v>0</v>
@@ -3396,10 +3393,10 @@
     </row>
     <row r="64" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C64" s="9">
         <v>0</v>
@@ -3429,10 +3426,10 @@
     </row>
     <row r="65" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C65" s="9">
         <v>0</v>
@@ -3462,10 +3459,10 @@
     </row>
     <row r="66" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C66" s="9">
         <v>0</v>
@@ -3495,10 +3492,10 @@
     </row>
     <row r="67" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C67" s="9">
         <v>0</v>
@@ -3528,10 +3525,10 @@
     </row>
     <row r="68" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C68" s="9">
         <v>0</v>
@@ -3561,10 +3558,10 @@
     </row>
     <row r="69" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C69" s="9">
         <v>0</v>
@@ -3594,10 +3591,10 @@
     </row>
     <row r="70" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C70" s="9">
         <v>0</v>
@@ -3627,10 +3624,10 @@
     </row>
     <row r="71" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C71" s="9">
         <v>0</v>
@@ -3660,10 +3657,10 @@
     </row>
     <row r="72" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C72" s="9">
         <v>0</v>
@@ -3693,10 +3690,10 @@
     </row>
     <row r="73" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C73" s="9">
         <v>0</v>
@@ -3726,10 +3723,10 @@
     </row>
     <row r="74" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C74" s="9">
         <v>0</v>
@@ -3759,10 +3756,10 @@
     </row>
     <row r="75" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C75" s="9">
         <v>0</v>
@@ -3792,10 +3789,10 @@
     </row>
     <row r="76" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C76" s="9">
         <v>0</v>
@@ -3825,10 +3822,10 @@
     </row>
     <row r="77" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C77" s="9">
         <v>0</v>
@@ -3858,10 +3855,10 @@
     </row>
     <row r="78" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C78" s="9">
         <v>0</v>
@@ -3891,10 +3888,10 @@
     </row>
     <row r="79" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C79" s="9">
         <v>0</v>
@@ -3924,10 +3921,10 @@
     </row>
     <row r="80" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C80" s="9">
         <v>0</v>
@@ -3957,10 +3954,10 @@
     </row>
     <row r="81" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C81" s="9">
         <v>0</v>
@@ -3990,10 +3987,10 @@
     </row>
     <row r="82" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C82" s="9">
         <v>0</v>
@@ -4023,10 +4020,10 @@
     </row>
     <row r="83" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C83" s="9">
         <v>0</v>
@@ -4056,10 +4053,10 @@
     </row>
     <row r="84" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C84" s="9">
         <v>0</v>
@@ -4089,10 +4086,10 @@
     </row>
     <row r="85" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C85" s="9">
         <v>0</v>
@@ -4122,10 +4119,10 @@
     </row>
     <row r="86" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C86" s="9">
         <v>0</v>
@@ -4155,10 +4152,10 @@
     </row>
     <row r="87" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C87" s="9">
         <v>0</v>
@@ -4188,10 +4185,10 @@
     </row>
     <row r="88" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C88" s="9">
         <v>0</v>
@@ -4221,10 +4218,10 @@
     </row>
     <row r="89" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C89" s="9">
         <v>0</v>
@@ -4254,10 +4251,10 @@
     </row>
     <row r="90" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C90" s="9">
         <v>0</v>
@@ -4287,10 +4284,10 @@
     </row>
     <row r="91" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C91" s="9">
         <v>0</v>
@@ -4320,10 +4317,10 @@
     </row>
     <row r="92" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C92" s="9">
         <v>0</v>
@@ -4353,10 +4350,10 @@
     </row>
     <row r="93" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C93" s="9">
         <v>0</v>
@@ -4386,10 +4383,10 @@
     </row>
     <row r="94" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C94" s="9">
         <v>0</v>
@@ -4419,10 +4416,10 @@
     </row>
     <row r="95" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C95" s="9">
         <v>0</v>
@@ -4452,10 +4449,10 @@
     </row>
     <row r="96" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C96" s="9">
         <v>0</v>
@@ -4485,10 +4482,10 @@
     </row>
     <row r="97" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C97" s="9">
         <v>0</v>
@@ -4518,10 +4515,10 @@
     </row>
     <row r="98" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C98" s="9">
         <v>0</v>
@@ -4551,10 +4548,10 @@
     </row>
     <row r="99" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C99" s="9">
         <v>0</v>
@@ -4584,10 +4581,10 @@
     </row>
     <row r="100" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C100" s="9">
         <v>0</v>
@@ -4617,10 +4614,10 @@
     </row>
     <row r="101" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C101" s="9">
         <v>0</v>
@@ -4650,10 +4647,10 @@
     </row>
     <row r="102" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C102" s="9">
         <v>0</v>
@@ -4683,10 +4680,10 @@
     </row>
     <row r="103" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C103" s="9">
         <v>0</v>
@@ -4716,10 +4713,10 @@
     </row>
     <row r="104" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C104" s="9">
         <v>0</v>
@@ -4749,10 +4746,10 @@
     </row>
     <row r="105" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C105" s="9">
         <v>0</v>
@@ -4782,10 +4779,10 @@
     </row>
     <row r="106" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C106" s="9">
         <v>0</v>
@@ -4815,10 +4812,10 @@
     </row>
     <row r="107" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C107" s="9">
         <v>0</v>
@@ -4848,10 +4845,10 @@
     </row>
     <row r="108" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C108" s="9">
         <v>0</v>
@@ -4881,10 +4878,10 @@
     </row>
     <row r="109" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C109" s="9">
         <v>0</v>
@@ -4914,10 +4911,10 @@
     </row>
     <row r="110" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C110" s="9">
         <v>0</v>
@@ -4947,10 +4944,10 @@
     </row>
     <row r="111" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C111" s="9">
         <v>0</v>
@@ -4980,10 +4977,10 @@
     </row>
     <row r="112" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C112" s="9">
         <v>0</v>
@@ -5013,10 +5010,10 @@
     </row>
     <row r="113" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="C113" s="9">
         <v>0</v>
@@ -5046,10 +5043,10 @@
     </row>
     <row r="114" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C114" s="9">
         <v>0</v>
@@ -5079,10 +5076,10 @@
     </row>
     <row r="115" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C115" s="9">
         <v>0</v>
@@ -5112,10 +5109,10 @@
     </row>
     <row r="116" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="C116" s="9">
         <v>0</v>
@@ -5145,10 +5142,10 @@
     </row>
     <row r="117" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C117" s="9">
         <v>0</v>
@@ -5178,10 +5175,10 @@
     </row>
     <row r="118" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C118" s="9">
         <v>0</v>
@@ -5211,10 +5208,10 @@
     </row>
     <row r="119" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C119" s="9">
         <v>0</v>
@@ -5244,10 +5241,10 @@
     </row>
     <row r="120" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C120" s="9">
         <v>0</v>
@@ -5277,10 +5274,10 @@
     </row>
     <row r="121" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C121" s="9">
         <v>0</v>
@@ -5310,10 +5307,10 @@
     </row>
     <row r="122" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C122" s="9">
         <v>0</v>
@@ -5343,10 +5340,10 @@
     </row>
     <row r="123" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C123" s="9">
         <v>0</v>
@@ -5376,10 +5373,10 @@
     </row>
     <row r="124" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C124" s="9">
         <v>0</v>
@@ -5409,10 +5406,10 @@
     </row>
     <row r="125" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C125" s="9">
         <v>0</v>
@@ -5442,10 +5439,10 @@
     </row>
     <row r="126" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C126" s="9">
         <v>0</v>
@@ -5475,10 +5472,10 @@
     </row>
     <row r="127" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C127" s="9">
         <v>0</v>
@@ -5508,10 +5505,10 @@
     </row>
     <row r="128" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C128" s="9">
         <v>0</v>
@@ -5541,10 +5538,10 @@
     </row>
     <row r="129" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C129" s="9">
         <v>0</v>
@@ -5574,10 +5571,10 @@
     </row>
     <row r="130" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C130" s="9">
         <v>0</v>
@@ -5607,10 +5604,10 @@
     </row>
     <row r="131" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C131" s="9">
         <v>0</v>
@@ -5640,10 +5637,10 @@
     </row>
     <row r="132" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C132" s="9">
         <v>0</v>
@@ -5672,11 +5669,11 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>204</v>
+      <c r="A133" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="C133" s="9">
         <v>0</v>
@@ -5705,11 +5702,11 @@
       <c r="Y133" s="1"/>
     </row>
     <row r="134" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>206</v>
+      <c r="A134" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="C134" s="9">
         <v>0</v>
@@ -5738,11 +5735,11 @@
       <c r="Y134" s="1"/>
     </row>
     <row r="135" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>207</v>
+      <c r="A135" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C135" s="9">
         <v>0</v>
@@ -5771,11 +5768,11 @@
       <c r="Y135" s="1"/>
     </row>
     <row r="136" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>210</v>
+      <c r="A136" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="C136" s="9">
         <v>0</v>
@@ -5805,10 +5802,10 @@
     </row>
     <row r="137" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C137" s="9">
         <v>0</v>
@@ -5838,10 +5835,10 @@
     </row>
     <row r="138" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="C138" s="9">
         <v>0</v>
@@ -5871,10 +5868,10 @@
     </row>
     <row r="139" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C139" s="9">
         <v>0</v>
@@ -5904,10 +5901,10 @@
     </row>
     <row r="140" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C140" s="9">
         <v>0</v>
@@ -5937,10 +5934,10 @@
     </row>
     <row r="141" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C141" s="9">
         <v>0</v>
@@ -5969,11 +5966,11 @@
       <c r="Y141" s="1"/>
     </row>
     <row r="142" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>228</v>
+      <c r="A142" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="C142" s="9">
         <v>0</v>
@@ -6003,10 +6000,10 @@
     </row>
     <row r="143" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C143" s="9">
         <v>0</v>
@@ -6036,10 +6033,10 @@
     </row>
     <row r="144" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C144" s="9">
         <v>0</v>
@@ -6068,11 +6065,11 @@
       <c r="Y144" s="1"/>
     </row>
     <row r="145" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>242</v>
+      <c r="A145" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="C145" s="9">
         <v>0</v>
@@ -6102,10 +6099,10 @@
     </row>
     <row r="146" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>244</v>
+        <v>248</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="C146" s="9">
         <v>0</v>
@@ -6135,10 +6132,10 @@
     </row>
     <row r="147" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C147" s="9">
         <v>0</v>
@@ -6168,10 +6165,10 @@
     </row>
     <row r="148" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C148" s="9">
         <v>0</v>
@@ -6201,10 +6198,10 @@
     </row>
     <row r="149" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="C149" s="9">
         <v>0</v>
@@ -6234,10 +6231,10 @@
     </row>
     <row r="150" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>253</v>
+        <v>91</v>
       </c>
       <c r="C150" s="9">
         <v>0</v>
@@ -6267,10 +6264,10 @@
     </row>
     <row r="151" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C151" s="9">
         <v>0</v>
@@ -6300,10 +6297,10 @@
     </row>
     <row r="152" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C152" s="9">
         <v>0</v>
@@ -6333,10 +6330,10 @@
     </row>
     <row r="153" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="C153" s="9">
         <v>0</v>
@@ -6366,10 +6363,10 @@
     </row>
     <row r="154" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C154" s="9">
         <v>0</v>
@@ -6399,10 +6396,10 @@
     </row>
     <row r="155" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C155" s="9">
         <v>0</v>
@@ -6432,10 +6429,10 @@
     </row>
     <row r="156" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="C156" s="9">
         <v>0</v>
@@ -6465,10 +6462,10 @@
     </row>
     <row r="157" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="C157" s="9">
         <v>0</v>
@@ -6501,7 +6498,7 @@
         <v>268</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C158" s="9">
         <v>0</v>
@@ -6531,10 +6528,10 @@
     </row>
     <row r="159" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>83</v>
+        <v>271</v>
       </c>
       <c r="C159" s="9">
         <v>0</v>
@@ -6564,10 +6561,10 @@
     </row>
     <row r="160" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="C160" s="9">
         <v>0</v>
@@ -6597,10 +6594,10 @@
     </row>
     <row r="161" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C161" s="9">
         <v>0</v>
@@ -6629,11 +6626,11 @@
       <c r="Y161" s="1"/>
     </row>
     <row r="162" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>274</v>
+      <c r="A162" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>278</v>
       </c>
       <c r="C162" s="9">
         <v>0</v>
@@ -6662,11 +6659,11 @@
       <c r="Y162" s="1"/>
     </row>
     <row r="163" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>275</v>
+      <c r="A163" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="C163" s="9">
         <v>0</v>
@@ -6694,16 +6691,10 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C164" s="9">
-        <v>0</v>
-      </c>
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -6727,16 +6718,10 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="B165" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="C165" s="9">
-        <v>0</v>
-      </c>
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -6760,16 +6745,10 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C166" s="9">
-        <v>0</v>
-      </c>
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -29149,90 +29128,9 @@
       <c r="X994" s="1"/>
       <c r="Y994" s="1"/>
     </row>
-    <row r="995" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A995" s="2"/>
-      <c r="B995" s="3"/>
-      <c r="C995" s="1"/>
-      <c r="D995" s="1"/>
-      <c r="E995" s="1"/>
-      <c r="F995" s="1"/>
-      <c r="G995" s="1"/>
-      <c r="H995" s="1"/>
-      <c r="I995" s="1"/>
-      <c r="J995" s="1"/>
-      <c r="K995" s="1"/>
-      <c r="L995" s="1"/>
-      <c r="M995" s="1"/>
-      <c r="N995" s="1"/>
-      <c r="O995" s="1"/>
-      <c r="P995" s="1"/>
-      <c r="Q995" s="1"/>
-      <c r="R995" s="1"/>
-      <c r="S995" s="1"/>
-      <c r="T995" s="1"/>
-      <c r="U995" s="1"/>
-      <c r="V995" s="1"/>
-      <c r="W995" s="1"/>
-      <c r="X995" s="1"/>
-      <c r="Y995" s="1"/>
-    </row>
-    <row r="996" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A996" s="2"/>
-      <c r="B996" s="3"/>
-      <c r="C996" s="1"/>
-      <c r="D996" s="1"/>
-      <c r="E996" s="1"/>
-      <c r="F996" s="1"/>
-      <c r="G996" s="1"/>
-      <c r="H996" s="1"/>
-      <c r="I996" s="1"/>
-      <c r="J996" s="1"/>
-      <c r="K996" s="1"/>
-      <c r="L996" s="1"/>
-      <c r="M996" s="1"/>
-      <c r="N996" s="1"/>
-      <c r="O996" s="1"/>
-      <c r="P996" s="1"/>
-      <c r="Q996" s="1"/>
-      <c r="R996" s="1"/>
-      <c r="S996" s="1"/>
-      <c r="T996" s="1"/>
-      <c r="U996" s="1"/>
-      <c r="V996" s="1"/>
-      <c r="W996" s="1"/>
-      <c r="X996" s="1"/>
-      <c r="Y996" s="1"/>
-    </row>
-    <row r="997" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A997" s="2"/>
-      <c r="B997" s="3"/>
-      <c r="C997" s="1"/>
-      <c r="D997" s="1"/>
-      <c r="E997" s="1"/>
-      <c r="F997" s="1"/>
-      <c r="G997" s="1"/>
-      <c r="H997" s="1"/>
-      <c r="I997" s="1"/>
-      <c r="J997" s="1"/>
-      <c r="K997" s="1"/>
-      <c r="L997" s="1"/>
-      <c r="M997" s="1"/>
-      <c r="N997" s="1"/>
-      <c r="O997" s="1"/>
-      <c r="P997" s="1"/>
-      <c r="Q997" s="1"/>
-      <c r="R997" s="1"/>
-      <c r="S997" s="1"/>
-      <c r="T997" s="1"/>
-      <c r="U997" s="1"/>
-      <c r="V997" s="1"/>
-      <c r="W997" s="1"/>
-      <c r="X997" s="1"/>
-      <c r="Y997" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C997">
-    <sortCondition ref="C31:C997"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C994">
+    <sortCondition ref="C28:C994"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/server/pattern/Pattern.xlsx
+++ b/server/pattern/Pattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\wi-backend\server\pattern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AC0754-157F-4478-B9BE-72AF2D78D80E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7E621A-5B10-47BB-92F5-BDE97B0AEC7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Clastic limestone</t>
+  </si>
+  <si>
+    <t>Clay_shale</t>
   </si>
   <si>
     <t>Clay or clay shale</t>
@@ -457,6 +460,9 @@
     <t>Loess</t>
   </si>
   <si>
+    <t>Sandstone9</t>
+  </si>
+  <si>
     <t>Massive sand or sandstone</t>
   </si>
   <si>
@@ -724,6 +730,9 @@
     <t>Fayalite</t>
   </si>
   <si>
+    <t>point</t>
+  </si>
+  <si>
     <t>Quartz</t>
   </si>
   <si>
@@ -890,15 +899,6 @@
   </si>
   <si>
     <t>Serration</t>
-  </si>
-  <si>
-    <t>Sandstone9_</t>
-  </si>
-  <si>
-    <t>point_</t>
-  </si>
-  <si>
-    <t>Clay_shale_</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:Y994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1347,10 +1347,10 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>289</v>
+        <v>145</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -1380,10 +1380,10 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C3" s="9">
         <v>2</v>
@@ -1413,10 +1413,10 @@
     </row>
     <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>291</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="9">
         <v>3</v>
@@ -1446,10 +1446,10 @@
     </row>
     <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C5" s="9">
         <v>4</v>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C6" s="9">
         <v>5</v>
@@ -1512,10 +1512,10 @@
     </row>
     <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C8" s="9">
         <v>7</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C9" s="9">
         <v>8</v>
@@ -1611,10 +1611,10 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C10" s="9">
         <v>9</v>
@@ -1644,10 +1644,10 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C11" s="9">
         <v>10</v>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="9">
         <v>12</v>
@@ -1743,10 +1743,10 @@
     </row>
     <row r="14" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C14" s="9">
         <v>13</v>
@@ -1776,10 +1776,10 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C15" s="9">
         <v>14</v>
@@ -1809,10 +1809,10 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16" s="9">
         <v>15</v>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" s="9">
         <v>16</v>
@@ -1875,10 +1875,10 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C18" s="9">
         <v>17</v>
@@ -1908,10 +1908,10 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C19" s="9">
         <v>18</v>
@@ -1941,10 +1941,10 @@
     </row>
     <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C20" s="9">
         <v>19</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C22" s="9">
         <v>21</v>
@@ -2040,10 +2040,10 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="9">
         <v>22</v>
@@ -2073,10 +2073,10 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C24" s="9">
         <v>23</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C25" s="9">
         <v>24</v>
@@ -2139,10 +2139,10 @@
     </row>
     <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C26" s="9">
         <v>25</v>
@@ -2172,10 +2172,10 @@
     </row>
     <row r="27" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C27" s="9">
         <v>26</v>
@@ -2898,10 +2898,10 @@
     </row>
     <row r="49" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" s="9">
         <v>0</v>
@@ -2931,10 +2931,10 @@
     </row>
     <row r="50" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" s="9">
         <v>0</v>
@@ -2964,10 +2964,10 @@
     </row>
     <row r="51" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" s="9">
         <v>0</v>
@@ -2997,10 +2997,10 @@
     </row>
     <row r="52" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" s="9">
         <v>0</v>
@@ -3030,10 +3030,10 @@
     </row>
     <row r="53" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" s="9">
         <v>0</v>
@@ -3063,10 +3063,10 @@
     </row>
     <row r="54" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" s="9">
         <v>0</v>
@@ -3096,10 +3096,10 @@
     </row>
     <row r="55" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C55" s="9">
         <v>0</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="56" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C56" s="9">
         <v>0</v>
@@ -3162,10 +3162,10 @@
     </row>
     <row r="57" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C57" s="9">
         <v>0</v>
@@ -3195,10 +3195,10 @@
     </row>
     <row r="58" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C58" s="9">
         <v>0</v>
@@ -3228,10 +3228,10 @@
     </row>
     <row r="59" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59" s="9">
         <v>0</v>
@@ -3261,10 +3261,10 @@
     </row>
     <row r="60" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C60" s="9">
         <v>0</v>
@@ -3294,10 +3294,10 @@
     </row>
     <row r="61" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="9">
         <v>0</v>
@@ -3327,10 +3327,10 @@
     </row>
     <row r="62" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C62" s="9">
         <v>0</v>
@@ -3360,10 +3360,10 @@
     </row>
     <row r="63" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C63" s="9">
         <v>0</v>
@@ -3393,10 +3393,10 @@
     </row>
     <row r="64" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C64" s="9">
         <v>0</v>
@@ -3426,10 +3426,10 @@
     </row>
     <row r="65" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C65" s="9">
         <v>0</v>
@@ -3459,10 +3459,10 @@
     </row>
     <row r="66" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C66" s="9">
         <v>0</v>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="67" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C67" s="9">
         <v>0</v>
@@ -3525,10 +3525,10 @@
     </row>
     <row r="68" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C68" s="9">
         <v>0</v>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="69" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C69" s="9">
         <v>0</v>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="70" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C70" s="9">
         <v>0</v>
@@ -3624,10 +3624,10 @@
     </row>
     <row r="71" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C71" s="9">
         <v>0</v>
@@ -3657,10 +3657,10 @@
     </row>
     <row r="72" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C72" s="9">
         <v>0</v>
@@ -3690,10 +3690,10 @@
     </row>
     <row r="73" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C73" s="9">
         <v>0</v>
@@ -3723,10 +3723,10 @@
     </row>
     <row r="74" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C74" s="9">
         <v>0</v>
@@ -3756,10 +3756,10 @@
     </row>
     <row r="75" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C75" s="9">
         <v>0</v>
@@ -3789,10 +3789,10 @@
     </row>
     <row r="76" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C76" s="9">
         <v>0</v>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="77" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C77" s="9">
         <v>0</v>
@@ -3855,10 +3855,10 @@
     </row>
     <row r="78" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C78" s="9">
         <v>0</v>
@@ -3888,10 +3888,10 @@
     </row>
     <row r="79" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C79" s="9">
         <v>0</v>
@@ -3921,10 +3921,10 @@
     </row>
     <row r="80" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C80" s="9">
         <v>0</v>
@@ -3954,10 +3954,10 @@
     </row>
     <row r="81" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C81" s="9">
         <v>0</v>
@@ -3987,10 +3987,10 @@
     </row>
     <row r="82" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C82" s="9">
         <v>0</v>
@@ -4020,10 +4020,10 @@
     </row>
     <row r="83" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C83" s="9">
         <v>0</v>
@@ -4053,10 +4053,10 @@
     </row>
     <row r="84" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C84" s="9">
         <v>0</v>
@@ -4086,10 +4086,10 @@
     </row>
     <row r="85" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C85" s="9">
         <v>0</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="86" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C86" s="9">
         <v>0</v>
@@ -4152,10 +4152,10 @@
     </row>
     <row r="87" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C87" s="9">
         <v>0</v>
@@ -4185,10 +4185,10 @@
     </row>
     <row r="88" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C88" s="9">
         <v>0</v>
@@ -4218,10 +4218,10 @@
     </row>
     <row r="89" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C89" s="9">
         <v>0</v>
@@ -4251,10 +4251,10 @@
     </row>
     <row r="90" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C90" s="9">
         <v>0</v>
@@ -4284,10 +4284,10 @@
     </row>
     <row r="91" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C91" s="9">
         <v>0</v>
@@ -4317,10 +4317,10 @@
     </row>
     <row r="92" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C92" s="9">
         <v>0</v>
@@ -4350,10 +4350,10 @@
     </row>
     <row r="93" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C93" s="9">
         <v>0</v>
@@ -4383,10 +4383,10 @@
     </row>
     <row r="94" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C94" s="9">
         <v>0</v>
@@ -4416,10 +4416,10 @@
     </row>
     <row r="95" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C95" s="9">
         <v>0</v>
@@ -4449,10 +4449,10 @@
     </row>
     <row r="96" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C96" s="9">
         <v>0</v>
@@ -4482,10 +4482,10 @@
     </row>
     <row r="97" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C97" s="9">
         <v>0</v>
@@ -4515,10 +4515,10 @@
     </row>
     <row r="98" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C98" s="9">
         <v>0</v>
@@ -4548,10 +4548,10 @@
     </row>
     <row r="99" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C99" s="9">
         <v>0</v>
@@ -4581,10 +4581,10 @@
     </row>
     <row r="100" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C100" s="9">
         <v>0</v>
@@ -4614,10 +4614,10 @@
     </row>
     <row r="101" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C101" s="9">
         <v>0</v>
@@ -4647,10 +4647,10 @@
     </row>
     <row r="102" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C102" s="9">
         <v>0</v>
@@ -4680,10 +4680,10 @@
     </row>
     <row r="103" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C103" s="9">
         <v>0</v>
@@ -4713,10 +4713,10 @@
     </row>
     <row r="104" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C104" s="9">
         <v>0</v>
@@ -4746,10 +4746,10 @@
     </row>
     <row r="105" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C105" s="9">
         <v>0</v>
@@ -4779,10 +4779,10 @@
     </row>
     <row r="106" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C106" s="9">
         <v>0</v>
@@ -4812,10 +4812,10 @@
     </row>
     <row r="107" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C107" s="9">
         <v>0</v>
@@ -4845,10 +4845,10 @@
     </row>
     <row r="108" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C108" s="9">
         <v>0</v>
@@ -4878,10 +4878,10 @@
     </row>
     <row r="109" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C109" s="9">
         <v>0</v>
@@ -4911,10 +4911,10 @@
     </row>
     <row r="110" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C110" s="9">
         <v>0</v>
@@ -4944,10 +4944,10 @@
     </row>
     <row r="111" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C111" s="9">
         <v>0</v>
@@ -4977,10 +4977,10 @@
     </row>
     <row r="112" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C112" s="9">
         <v>0</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="113" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C113" s="9">
         <v>0</v>
@@ -5043,10 +5043,10 @@
     </row>
     <row r="114" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C114" s="9">
         <v>0</v>
@@ -5076,10 +5076,10 @@
     </row>
     <row r="115" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C115" s="9">
         <v>0</v>
@@ -5109,10 +5109,10 @@
     </row>
     <row r="116" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C116" s="9">
         <v>0</v>
@@ -5142,10 +5142,10 @@
     </row>
     <row r="117" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C117" s="9">
         <v>0</v>
@@ -5175,10 +5175,10 @@
     </row>
     <row r="118" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C118" s="9">
         <v>0</v>
@@ -5208,10 +5208,10 @@
     </row>
     <row r="119" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C119" s="9">
         <v>0</v>
@@ -5241,10 +5241,10 @@
     </row>
     <row r="120" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C120" s="9">
         <v>0</v>
@@ -5274,10 +5274,10 @@
     </row>
     <row r="121" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C121" s="9">
         <v>0</v>
@@ -5307,10 +5307,10 @@
     </row>
     <row r="122" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C122" s="9">
         <v>0</v>
@@ -5340,10 +5340,10 @@
     </row>
     <row r="123" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C123" s="9">
         <v>0</v>
@@ -5373,10 +5373,10 @@
     </row>
     <row r="124" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C124" s="9">
         <v>0</v>
@@ -5406,10 +5406,10 @@
     </row>
     <row r="125" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C125" s="9">
         <v>0</v>
@@ -5439,10 +5439,10 @@
     </row>
     <row r="126" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C126" s="9">
         <v>0</v>
@@ -5472,10 +5472,10 @@
     </row>
     <row r="127" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C127" s="9">
         <v>0</v>
@@ -5505,10 +5505,10 @@
     </row>
     <row r="128" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C128" s="9">
         <v>0</v>
@@ -5538,10 +5538,10 @@
     </row>
     <row r="129" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C129" s="9">
         <v>0</v>
@@ -5571,10 +5571,10 @@
     </row>
     <row r="130" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C130" s="9">
         <v>0</v>
@@ -5604,10 +5604,10 @@
     </row>
     <row r="131" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C131" s="9">
         <v>0</v>
@@ -5637,10 +5637,10 @@
     </row>
     <row r="132" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C132" s="9">
         <v>0</v>
@@ -5670,10 +5670,10 @@
     </row>
     <row r="133" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C133" s="9">
         <v>0</v>
@@ -5703,10 +5703,10 @@
     </row>
     <row r="134" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C134" s="9">
         <v>0</v>
@@ -5736,10 +5736,10 @@
     </row>
     <row r="135" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C135" s="9">
         <v>0</v>
@@ -5769,10 +5769,10 @@
     </row>
     <row r="136" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C136" s="9">
         <v>0</v>
@@ -5802,10 +5802,10 @@
     </row>
     <row r="137" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C137" s="9">
         <v>0</v>
@@ -5835,10 +5835,10 @@
     </row>
     <row r="138" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C138" s="9">
         <v>0</v>
@@ -5868,10 +5868,10 @@
     </row>
     <row r="139" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C139" s="9">
         <v>0</v>
@@ -5901,10 +5901,10 @@
     </row>
     <row r="140" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C140" s="9">
         <v>0</v>
@@ -5934,10 +5934,10 @@
     </row>
     <row r="141" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C141" s="9">
         <v>0</v>
@@ -5967,10 +5967,10 @@
     </row>
     <row r="142" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C142" s="9">
         <v>0</v>
@@ -6000,10 +6000,10 @@
     </row>
     <row r="143" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C143" s="9">
         <v>0</v>
@@ -6033,10 +6033,10 @@
     </row>
     <row r="144" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C144" s="9">
         <v>0</v>
@@ -6066,10 +6066,10 @@
     </row>
     <row r="145" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C145" s="9">
         <v>0</v>
@@ -6099,10 +6099,10 @@
     </row>
     <row r="146" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C146" s="9">
         <v>0</v>
@@ -6132,10 +6132,10 @@
     </row>
     <row r="147" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C147" s="9">
         <v>0</v>
@@ -6165,10 +6165,10 @@
     </row>
     <row r="148" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C148" s="9">
         <v>0</v>
@@ -6198,10 +6198,10 @@
     </row>
     <row r="149" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C149" s="9">
         <v>0</v>
@@ -6231,10 +6231,10 @@
     </row>
     <row r="150" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C150" s="9">
         <v>0</v>
@@ -6264,10 +6264,10 @@
     </row>
     <row r="151" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C151" s="9">
         <v>0</v>
@@ -6297,10 +6297,10 @@
     </row>
     <row r="152" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C152" s="9">
         <v>0</v>
@@ -6330,7 +6330,7 @@
     </row>
     <row r="153" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>25</v>
@@ -6363,10 +6363,10 @@
     </row>
     <row r="154" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C154" s="9">
         <v>0</v>
@@ -6396,10 +6396,10 @@
     </row>
     <row r="155" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C155" s="9">
         <v>0</v>
@@ -6429,10 +6429,10 @@
     </row>
     <row r="156" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C156" s="9">
         <v>0</v>
@@ -6462,10 +6462,10 @@
     </row>
     <row r="157" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C157" s="9">
         <v>0</v>
@@ -6495,10 +6495,10 @@
     </row>
     <row r="158" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C158" s="9">
         <v>0</v>
@@ -6528,10 +6528,10 @@
     </row>
     <row r="159" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C159" s="9">
         <v>0</v>
@@ -6561,10 +6561,10 @@
     </row>
     <row r="160" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C160" s="9">
         <v>0</v>
@@ -6594,10 +6594,10 @@
     </row>
     <row r="161" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C161" s="9">
         <v>0</v>
@@ -6627,10 +6627,10 @@
     </row>
     <row r="162" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C162" s="9">
         <v>0</v>
@@ -6660,10 +6660,10 @@
     </row>
     <row r="163" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C163" s="9">
         <v>0</v>
